--- a/CS generator.xlsx
+++ b/CS generator.xlsx
@@ -344,20 +344,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E164"/>
+  <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E95"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
-        <v>1.5671101449275353</v>
+        <v>1.8974450980392195</v>
       </c>
       <c r="B1" s="3">
-        <v>1.7416400966183574</v>
+        <v>0.65955882352941264</v>
       </c>
       <c r="C1" s="1">
         <f>ROUND(A1,0)</f>
@@ -365,39 +365,39 @@
       </c>
       <c r="D1" s="1">
         <f>ROUND(B1,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="2" t="str">
         <f>CONCATENATE(C1,"-",D1)</f>
-        <v>2-2</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1.0839652173913037</v>
+        <v>1.9668520408163233</v>
       </c>
       <c r="B2" s="3">
-        <v>2.0350724637681159</v>
+        <v>0.54450884353741469</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:C8" si="0">ROUND(A2,0)</f>
-        <v>1</v>
+        <f t="shared" ref="C2:C25" si="0">ROUND(A2,0)</f>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D8" si="1">ROUND(B2,0)</f>
-        <v>2</v>
+        <f t="shared" ref="D2:D25" si="1">ROUND(B2,0)</f>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="str">
         <f t="shared" ref="E2:E65" si="2">CONCATENATE(C2,"-",D2)</f>
-        <v>1-2</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1.221611594202898</v>
+        <v>1.355197860962565</v>
       </c>
       <c r="B3" s="3">
-        <v>0.97663526570048331</v>
+        <v>0.72374385026737742</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
@@ -414,50 +414,50 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>2.3025176470588282</v>
+        <v>0.32090625000000006</v>
       </c>
       <c r="B4" s="3">
-        <v>0.67214117647058924</v>
+        <v>0.15664687500000002</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>0-0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>1.4497333333333364</v>
+        <v>2.3337015624999999</v>
       </c>
       <c r="B5" s="3">
-        <v>0.95707058823529545</v>
+        <v>0.43893281250000005</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>1.8416235294117682</v>
+        <v>1.6228687500000001</v>
       </c>
       <c r="B6" s="3">
-        <v>1.3115411764705902</v>
+        <v>1.3688226562500001</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
@@ -474,30 +474,30 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>0.92081176470588399</v>
+        <v>1.6901062499999999</v>
       </c>
       <c r="B7" s="3">
-        <v>2.6179411764705915</v>
+        <v>1.1178890625000002</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-3</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>1.0875318918918897</v>
+        <v>1.4952577319587601</v>
       </c>
       <c r="B8" s="3">
-        <v>1.6189037837837887</v>
+        <v>0.80288659793814365</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -505,46 +505,46 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>1.8016151351351317</v>
+        <v>1.3313033472803331</v>
       </c>
       <c r="B9" s="3">
-        <v>2.3031827027027094</v>
+        <v>0.32311297071129697</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" ref="C9:C29" si="3">ROUND(A9,0)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" ref="D9:D29" si="4">ROUND(B9,0)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-2</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>1.0084486486486464</v>
+        <v>1.0874309623430949</v>
       </c>
       <c r="B10" s="3">
-        <v>0.88644000000000267</v>
+        <v>0.71084853556485339</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E10" s="2" t="str">
@@ -554,37 +554,37 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>0.30205405405405344</v>
+        <v>0.42074375000000003</v>
       </c>
       <c r="B11" s="3">
-        <v>2.4251254054054128</v>
+        <v>0.84410156250000001</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="E11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0-2</v>
+        <v>0-1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>1.6258418367346907</v>
+        <v>1.898782608695651</v>
       </c>
       <c r="B12" s="3">
-        <v>0.64830204081632603</v>
+        <v>1.0659903381642513</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E12" s="2" t="str">
@@ -594,37 +594,37 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>0.52571428571428469</v>
+        <v>2.0427654320987676</v>
       </c>
       <c r="B13" s="3">
-        <v>0.54734693877550988</v>
+        <v>1.317555555555558</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" ref="C13:C26" si="5">ROUND(A13,0)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:D26" si="6">ROUND(B13,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>0.78700037593985062</v>
+        <v>1.0252941176470607</v>
       </c>
       <c r="B14" s="3">
-        <v>1.2373308270676715</v>
+        <v>1.0350000000000013</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E14" s="2" t="str">
@@ -634,137 +634,137 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>0.9962030075187982</v>
+        <v>1.171764705882355</v>
       </c>
       <c r="B15" s="3">
-        <v>1.0687218045112803</v>
+        <v>1.5829411764705903</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E15" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>2.0509500000000025</v>
+        <v>1.1406122448979572</v>
       </c>
       <c r="B16" s="3">
-        <v>0.67910526315789621</v>
+        <v>1.1138510204081626</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E16" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>1.2182334586466179</v>
+        <v>1.5986903914590791</v>
       </c>
       <c r="B17" s="3">
-        <v>1.0458947368421072</v>
+        <v>0.73868327402135348</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E17" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>2.8219838345864696</v>
+        <v>2.0176000000000069</v>
       </c>
       <c r="B18" s="3">
-        <v>0.71593984962406154</v>
+        <v>0.83111111111111291</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E18" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>3-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>0.55541729323308342</v>
+        <v>2.0707957894736837</v>
       </c>
       <c r="B19" s="3">
-        <v>1.0985526315789498</v>
+        <v>1.242806315789472</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E19" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>1.3415988721804526</v>
+        <v>1.0318524064171106</v>
       </c>
       <c r="B20" s="3">
-        <v>2.0400394736842147</v>
+        <v>1.0304149732620289</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="E20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>1.867539473684213</v>
+        <v>1.5545340206185538</v>
       </c>
       <c r="B21" s="3">
-        <v>1.3552274436090253</v>
+        <v>1.0713092783505145</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E21" s="2" t="str">
@@ -774,17 +774,17 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>0.92796992481203122</v>
+        <v>1.1294661087866094</v>
       </c>
       <c r="B22" s="3">
-        <v>1.0522500000000021</v>
+        <v>0.79789121338912117</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E22" s="2" t="str">
@@ -794,17 +794,17 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>2.2486894736842133</v>
+        <v>1.7518458937198051</v>
       </c>
       <c r="B23" s="3">
-        <v>0.63915789473684348</v>
+        <v>0.83192463768116254</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E23" s="2" t="str">
@@ -814,57 +814,57 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>0.33638909774436132</v>
+        <v>1.3981062801932351</v>
       </c>
       <c r="B24" s="3">
-        <v>1.3618421052631606</v>
+        <v>1.0925275362318883</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E24" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>2.745098220640577</v>
+        <v>1.7405507246376803</v>
       </c>
       <c r="B25" s="3">
-        <v>0.93832740213523269</v>
+        <v>2.1932608695652176</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E25" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>3-1</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>2.2234846975089022</v>
+        <v>1.675721739130434</v>
       </c>
       <c r="B26" s="3">
-        <v>0.8300498220640582</v>
+        <v>0.84495410628019318</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C26:C89" si="3">ROUND(A26,0)</f>
         <v>2</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D26:D89" si="4">ROUND(B26,0)</f>
         <v>1</v>
       </c>
       <c r="E26" s="2" t="str">
@@ -874,17 +874,17 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>1.7944483985765172</v>
+        <v>2.0315130434782596</v>
       </c>
       <c r="B27" s="3">
-        <v>1.4477722419928849</v>
+        <v>1.4467826086956523</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" ref="C27:C90" si="7">ROUND(A27,0)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" ref="D27:D90" si="8">ROUND(B27,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E27" s="2" t="str">
@@ -894,137 +894,137 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>1.6386576512455557</v>
+        <v>1.9202898550724625</v>
       </c>
       <c r="B28" s="3">
-        <v>1.3925765124555183</v>
+        <v>2.1305555555555555</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E28" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>0.89722419928825858</v>
+        <v>4.4315555555555601</v>
       </c>
       <c r="B29" s="3">
-        <v>0.59893238434163787</v>
+        <v>1.2368888888888914</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E29" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>4-1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>1.2373537366548075</v>
+        <v>1.6524444444444464</v>
       </c>
       <c r="B30" s="3">
-        <v>0.87185765124555292</v>
+        <v>0.85207901234568062</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E30" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>1.3376797153024946</v>
+        <v>1.5744444444444465</v>
       </c>
       <c r="B31" s="3">
-        <v>1.6535231316726005</v>
+        <v>1.1293333333333355</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E31" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-2</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>0.86894804270462866</v>
+        <v>2.9235555555555588</v>
       </c>
       <c r="B32" s="3">
-        <v>0.97567259786477012</v>
+        <v>1.6169185185185215</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E32" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>3-2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>1.229604982206409</v>
+        <v>2.2488395061728417</v>
       </c>
       <c r="B33" s="3">
-        <v>0.44414946619217144</v>
+        <v>0.70209876543210004</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E33" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-0</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>1.2364021352313199</v>
+        <v>0.96296296296296402</v>
       </c>
       <c r="B34" s="3">
-        <v>1.0484839857651262</v>
+        <v>0.7461666666666682</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E34" s="2" t="str">
@@ -1034,37 +1034,37 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>1.1500695652173873</v>
+        <v>1.5586098039215717</v>
       </c>
       <c r="B35" s="3">
-        <v>2.0068315217391381</v>
+        <v>0.55064705882353027</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E35" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-2</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>2.1903173913043408</v>
+        <v>2.4060235294117693</v>
       </c>
       <c r="B36" s="3">
-        <v>0.77272391304348109</v>
+        <v>0.6659176470588245</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E36" s="2" t="str">
@@ -1074,137 +1074,137 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>1.1704608695652134</v>
+        <v>2.1404235294117688</v>
       </c>
       <c r="B37" s="3">
-        <v>0.54636521739130639</v>
+        <v>1.5537176470588256</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E37" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>1.0253913043478227</v>
+        <v>2.332406486486482</v>
       </c>
       <c r="B38" s="3">
-        <v>0.81101086956522039</v>
+        <v>0.86652000000000262</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E38" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>1.3064999999999956</v>
+        <v>1.5763102702702672</v>
       </c>
       <c r="B39" s="3">
-        <v>0.60327826086956748</v>
+        <v>1.2183502702702738</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E39" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>0.86517391304347557</v>
+        <v>2.8988951351351289</v>
       </c>
       <c r="B40" s="3">
-        <v>0.78591739130435068</v>
+        <v>0.22396540540540608</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="E40" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>3-0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>1.8457043478260808</v>
+        <v>0.59861621621621497</v>
       </c>
       <c r="B41" s="3">
-        <v>1.3014978260869616</v>
+        <v>1.9454302702702759</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E41" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>1.7010717391304293</v>
+        <v>1.039203243243241</v>
       </c>
       <c r="B42" s="3">
-        <v>1.6970434782608761</v>
+        <v>1.9314324324324381</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E42" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-2</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>0.84419999999999706</v>
+        <v>0.88433189189188977</v>
       </c>
       <c r="B43" s="3">
-        <v>0.58905000000000218</v>
+        <v>1.1254800000000034</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E43" s="2" t="str">
@@ -1214,17 +1214,17 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>0.93851650485436833</v>
+        <v>1.2764999999999977</v>
       </c>
       <c r="B44" s="3">
-        <v>1.2114873786407789</v>
+        <v>0.60593333333333288</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E44" s="2" t="str">
@@ -1234,17 +1234,17 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>1.1228903225806415</v>
+        <v>0.84208163265305958</v>
       </c>
       <c r="B45" s="3">
-        <v>1.492490322580649</v>
+        <v>1.1171959183673461</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E45" s="2" t="str">
@@ -1254,277 +1254,277 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>2.0452645161290248</v>
+        <v>1.4574489795918344</v>
       </c>
       <c r="B46" s="3">
-        <v>0.43607741935483985</v>
+        <v>0.4229775510204079</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E46" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-0</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>1.1861629629629611</v>
+        <v>2.5822193877550976</v>
       </c>
       <c r="B47" s="3">
-        <v>0.46386666666666798</v>
+        <v>0.56559183673469349</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E47" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-0</v>
+        <v>3-1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>1.3188259259259238</v>
+        <v>1.1588010204081611</v>
       </c>
       <c r="B48" s="3">
-        <v>4.760000000000014</v>
+        <v>1.0329653061224484</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E48" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-5</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>1.638777777777775</v>
+        <v>0.52172448979591735</v>
       </c>
       <c r="B49" s="3">
-        <v>0.49653333333333477</v>
+        <v>1.0630693877551014</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E49" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-0</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>1.6829750000000001</v>
+        <v>0.7685051020408149</v>
       </c>
       <c r="B50" s="3">
-        <v>0.28297500000000003</v>
+        <v>0.78402380952380901</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E50" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-0</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>0.37248046875000002</v>
+        <v>1.3494897959183649</v>
       </c>
       <c r="B51" s="3">
-        <v>3.2891250000000003</v>
+        <v>0.91325850340135994</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E51" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0-3</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>2.1905172413793146</v>
+        <v>0.77589795918367199</v>
       </c>
       <c r="B52" s="3">
-        <v>0.86580000000000212</v>
+        <v>1.3546836734693868</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E52" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>1.64886206896552</v>
+        <v>0.98383673469387589</v>
       </c>
       <c r="B53" s="3">
-        <v>0.87575172413793323</v>
+        <v>0.92319183673469329</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E53" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>0.8570372384937226</v>
+        <v>0.86669661654135444</v>
       </c>
       <c r="B54" s="3">
-        <v>0.2593146443514644</v>
+        <v>1.0132105263157916</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E54" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-0</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>1.4778550724637671</v>
+        <v>1.4618255639097764</v>
       </c>
       <c r="B55" s="3">
-        <v>0.94856038647343011</v>
+        <v>1.5338233082706798</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E55" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>2.0689971014492738</v>
+        <v>1.3349120300751898</v>
       </c>
       <c r="B56" s="3">
-        <v>1.426545893719807</v>
+        <v>2.1377030075188013</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E56" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>1.5042782608695644</v>
+        <v>0.92565000000000119</v>
       </c>
       <c r="B57" s="3">
-        <v>0.94970048309178756</v>
+        <v>2.2715526315789516</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E57" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>2.0769855072463757</v>
+        <v>1.3043436090225582</v>
       </c>
       <c r="B58" s="3">
-        <v>1.2429903381642513</v>
+        <v>0.97871052631579147</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E58" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>1.9298313725490235</v>
+        <v>2.2844436090225595</v>
       </c>
       <c r="B59" s="3">
-        <v>0.57067058823529493</v>
+        <v>0.71814473684210656</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E59" s="2" t="str">
@@ -1534,17 +1534,17 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>1.4484313725490223</v>
+        <v>1.2822360902255654</v>
       </c>
       <c r="B60" s="3">
-        <v>1.1263235294117662</v>
+        <v>1.4240977443609049</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E60" s="2" t="str">
@@ -1554,17 +1554,17 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>1.4484313725490223</v>
+        <v>0.84922894736842203</v>
       </c>
       <c r="B61" s="3">
-        <v>0.89862352941176593</v>
+        <v>1.130977443609025</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E61" s="2" t="str">
@@ -1574,17 +1574,17 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>0.54487058823529522</v>
+        <v>1.3571560150375954</v>
       </c>
       <c r="B62" s="3">
-        <v>1.3442823529411785</v>
+        <v>0.78896052631579106</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E62" s="2" t="str">
@@ -1594,1146 +1594,2523 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>0.35999351351351272</v>
+        <v>1.5883296992481222</v>
       </c>
       <c r="B63" s="3">
-        <v>1.1254800000000034</v>
+        <v>1.5326560150375967</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E63" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0-1</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>2.7275481081081021</v>
+        <v>0.89658270676691842</v>
       </c>
       <c r="B64" s="3">
-        <v>0.89411189189189455</v>
+        <v>0.96457330827067866</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" si="7"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E64" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>3-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>1.2121978378378355</v>
+        <v>2.710976512455523</v>
       </c>
       <c r="B65" s="3">
-        <v>1.2183502702702738</v>
+        <v>1.4571672597864791</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E65" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>3-1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>1.3731102702702676</v>
+        <v>1.0059786476868353</v>
       </c>
       <c r="B66" s="3">
-        <v>2.4202800000000075</v>
+        <v>1.2362669039145924</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E66" s="2" t="str">
-        <f t="shared" ref="E66:E95" si="9">CONCATENATE(C66,"-",D66)</f>
-        <v>1-2</v>
+        <f t="shared" ref="E66:E129" si="5">CONCATENATE(C66,"-",D66)</f>
+        <v>1-1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>1.8378616216216175</v>
+        <v>0.97457580071174643</v>
       </c>
       <c r="B67" s="3">
-        <v>0.46085189189189329</v>
+        <v>0.73868327402135348</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E67" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>2-0</v>
+        <f t="shared" si="5"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>0.98747448979591645</v>
+        <v>1.5269124555160185</v>
       </c>
       <c r="B68" s="3">
-        <v>0.92187414965986336</v>
+        <v>0.77790747330960974</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E68" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>1-1</v>
+        <f t="shared" si="5"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>1.6574081632653033</v>
+        <v>0.85616939501779588</v>
       </c>
       <c r="B69" s="3">
-        <v>0.30793333333333311</v>
+        <v>0.85001423487544614</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E69" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>2-0</v>
+        <f t="shared" si="5"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>0.96682142857142694</v>
+        <v>0.75937793594306235</v>
       </c>
       <c r="B70" s="3">
-        <v>0.57765374149659821</v>
+        <v>0.70650533807829297</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E70" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>1.5410347826087007</v>
+        <v>0.58931316725978811</v>
       </c>
       <c r="B71" s="3">
-        <v>1.3393961352657031</v>
+        <v>1.407843416370109</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E71" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>2-1</v>
+        <f t="shared" si="5"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>1.429056310679611</v>
+        <v>1.3855316725978684</v>
       </c>
       <c r="B72" s="3">
-        <v>1.166190291262138</v>
+        <v>0.86034875444839987</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E72" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>0.55643225806451413</v>
+        <v>0.89559288256228009</v>
       </c>
       <c r="B73" s="3">
-        <v>0.92820000000000247</v>
+        <v>1.2904056939501798</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E73" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>2.1121032258064445</v>
+        <v>1.4102733096085447</v>
       </c>
       <c r="B74" s="3">
-        <v>0.83837419354838927</v>
+        <v>0.26071174377224243</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="E74" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>2-1</v>
+        <f t="shared" si="5"/>
+        <v>1-0</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>0.43445161290322437</v>
+        <v>0.85916014234875682</v>
       </c>
       <c r="B75" s="3">
-        <v>1.5846193548387135</v>
+        <v>1.1278718861209982</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E75" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0-2</v>
+        <f t="shared" si="5"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>2.0579161290322512</v>
+        <v>0.42064347826086823</v>
       </c>
       <c r="B76" s="3">
-        <v>0.30709677419354919</v>
+        <v>2.7194086956521839</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="E76" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>2-0</v>
+        <f t="shared" si="5"/>
+        <v>0-3</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>1.1443893048128324</v>
+        <v>0.89721739130434508</v>
       </c>
       <c r="B77" s="3">
-        <v>0.95844224598930206</v>
+        <v>0.96234782608696001</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E77" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>2.1108222222222186</v>
+        <v>0.7707913043478235</v>
       </c>
       <c r="B78" s="3">
-        <v>0.78400000000000236</v>
+        <v>0.97605869565217751</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E78" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>2-1</v>
+        <f t="shared" si="5"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>0.85840740740740595</v>
+        <v>1.5165304347826039</v>
       </c>
       <c r="B79" s="3">
-        <v>3.3624888888888989</v>
+        <v>0.76535108695652454</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E79" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>1-3</v>
+        <f t="shared" si="5"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>1.1237333333333315</v>
+        <v>1.6502391304347774</v>
       </c>
       <c r="B80" s="3">
-        <v>1.3981333333333374</v>
+        <v>1.2390228260869613</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E80" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>1-1</v>
+        <f t="shared" si="5"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>0.83834074074073939</v>
+        <v>1.5608086956521685</v>
       </c>
       <c r="B81" s="3">
-        <v>1.8206222222222275</v>
+        <v>1.5754565217391363</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E81" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>1-2</v>
+        <f t="shared" si="5"/>
+        <v>2-2</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>0.89594999999999803</v>
+        <v>2.4236521739130357</v>
       </c>
       <c r="B82" s="3">
-        <v>0.60720000000000074</v>
+        <v>0.22622934782608781</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="E82" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>1-1</v>
+        <f t="shared" si="5"/>
+        <v>2-0</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>0.86879999999999813</v>
+        <v>0.67247608695651939</v>
       </c>
       <c r="B83" s="3">
-        <v>1.2102750000000013</v>
+        <v>1.2460076086956566</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E83" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>0.31855999999999929</v>
+        <v>1.00325217391304</v>
       </c>
       <c r="B84" s="3">
-        <v>0.70785000000000087</v>
+        <v>0.53976847826087171</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E84" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0-1</v>
+        <f t="shared" si="5"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>3.9794142857142769</v>
+        <v>2.4050086956521661</v>
       </c>
       <c r="B85" s="3">
-        <v>0.53460000000000063</v>
+        <v>0.44004130434782779</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="E85" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>4-1</v>
+        <f t="shared" si="5"/>
+        <v>2-0</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>0.4514657142857133</v>
+        <v>1.4852152173912996</v>
       </c>
       <c r="B86" s="3">
-        <v>2.1441750000000024</v>
+        <v>1.9522467391304419</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="D86" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E86" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0-2</v>
+        <f t="shared" si="5"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>1.2117949999999973</v>
+        <v>1.677256521739136</v>
       </c>
       <c r="B87" s="3">
-        <v>0.79294285714285795</v>
+        <v>2.0231763285024198</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E87" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>1-1</v>
+        <f t="shared" si="5"/>
+        <v>2-2</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>1.1589827586206918</v>
+        <v>0.96268985507246696</v>
       </c>
       <c r="B88" s="3">
-        <v>0.65856206896551883</v>
+        <v>1.3630434782608722</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E88" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>0.55857391304347792</v>
+        <v>0.72782912621359175</v>
       </c>
       <c r="B89" s="3">
-        <v>3.1922705314009665</v>
+        <v>0.88864077669903052</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E89" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>1-3</v>
+        <f t="shared" si="5"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>1.178289855072463</v>
+        <v>1.7876504854368922</v>
       </c>
       <c r="B90" s="3">
-        <v>1.128838164251208</v>
+        <v>0.6275533980582535</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" ref="C90:C153" si="6">ROUND(A90,0)</f>
+        <v>2</v>
       </c>
       <c r="D90" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D90:D153" si="7">ROUND(B90,0)</f>
         <v>1</v>
       </c>
       <c r="E90" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>1-1</v>
+        <f t="shared" si="5"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>1.148329411764708</v>
+        <v>0.67834951456310644</v>
       </c>
       <c r="B91" s="3">
-        <v>1.6056705882352964</v>
+        <v>0.43283883495145703</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" ref="C91:C95" si="10">ROUND(A91,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" ref="D91:D95" si="11">ROUND(B91,0)</f>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="E91" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>1-2</v>
+        <f t="shared" si="5"/>
+        <v>1-0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>1.6290324324324288</v>
+        <v>0.71825242718446558</v>
       </c>
       <c r="B92" s="3">
-        <v>1.2848400000000038</v>
+        <v>0.26674951456310725</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D92" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="E92" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>2-1</v>
+        <f t="shared" si="5"/>
+        <v>1-0</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>0.97751612903225471</v>
+        <v>0.88637669902912575</v>
       </c>
       <c r="B93" s="3">
-        <v>0.6957935483870985</v>
+        <v>1.0537864077669921</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D93" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E93" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>1.6521555555555527</v>
+        <v>1.2968446601941741</v>
       </c>
       <c r="B94" s="3">
-        <v>3.4766666666666763</v>
+        <v>0.52846601941747662</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D94" s="1">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E94" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>2-3</v>
+        <f t="shared" si="5"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>3.9129999999999936</v>
+        <v>1.5083300970873776</v>
       </c>
       <c r="B95" s="3">
-        <v>0.49653333333333477</v>
+        <v>2.1829631067961204</v>
       </c>
       <c r="C95" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E95" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>1.4194796116504844</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0.58194174757281647</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E96" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>0.40700970873786391</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0.80570097087378767</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E97" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>0-1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>1.4301203883495137</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0.50015533980582605</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E98" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>0.5253999999999982</v>
+      </c>
+      <c r="B99" s="3">
+        <v>1.4628774193548422</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E99" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>0.37095483870967616</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0.87215483870967969</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E100" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>0-1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>1.731599999999994</v>
+      </c>
+      <c r="B101" s="3">
+        <v>0.16188387096774234</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E101" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>0.90742736842105232</v>
+      </c>
+      <c r="B102" s="3">
+        <v>2.4725905263157859</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E102" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>1.3044268421052625</v>
+      </c>
+      <c r="B103" s="3">
+        <v>2.0317410526315762</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E103" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>3.0570736842105255</v>
+      </c>
+      <c r="B104" s="3">
+        <v>1.2022768421052612</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E104" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>3-1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>0.91957967914438354</v>
+      </c>
+      <c r="B105" s="3">
+        <v>1.0304149732620289</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E105" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>1.2466235294117627</v>
+      </c>
+      <c r="B106" s="3">
+        <v>0.5259545454545439</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E106" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>1.3092320855614952</v>
+      </c>
+      <c r="B107" s="3">
+        <v>1.3065818181818141</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E107" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>0.59227165775400981</v>
+      </c>
+      <c r="B108" s="3">
+        <v>1.3695443850267339</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E108" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>1.8861818181818153</v>
+      </c>
+      <c r="B109" s="3">
+        <v>0.56449197860962397</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E109" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>1.5295259259259233</v>
+      </c>
+      <c r="B110" s="3">
+        <v>1.0453333333333366</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D110" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E110" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>1.7814740740740709</v>
+      </c>
+      <c r="B111" s="3">
+        <v>1.0061333333333362</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D111" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E111" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>1.9665333333333299</v>
+      </c>
+      <c r="B112" s="3">
+        <v>2.6470888888888959</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D112" s="1">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E112" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>1.9977481481481452</v>
+      </c>
+      <c r="B113" s="3">
+        <v>0.13720000000000038</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D113" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E113" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>1.1318312500000001</v>
+      </c>
+      <c r="B114" s="3">
+        <v>1.08871875</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D114" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E114" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>1.3178804687500001</v>
+      </c>
+      <c r="B115" s="3">
+        <v>0.38966484375000005</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D115" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E115" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>1.0921000000000001</v>
+      </c>
+      <c r="B116" s="3">
+        <v>0.62658750000000007</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D116" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E116" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>1.6127099999999965</v>
+      </c>
+      <c r="B117" s="3">
+        <v>0.35640000000000044</v>
+      </c>
+      <c r="C117" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D117" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E117" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>0.60505714285714152</v>
+      </c>
+      <c r="B118" s="3">
+        <v>1.2577714285714299</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E118" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>1.9276499999999956</v>
+      </c>
+      <c r="B119" s="3">
+        <v>1.2056785714285729</v>
+      </c>
+      <c r="C119" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D119" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E119" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>0.90590499999999807</v>
+      </c>
+      <c r="B120" s="3">
+        <v>1.0527000000000011</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D120" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E120" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>0.98573275862069143</v>
+      </c>
+      <c r="B121" s="3">
+        <v>8.8758620689655385E-2</v>
+      </c>
+      <c r="C121" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D121" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E121" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>2.4678620689655215</v>
+      </c>
+      <c r="B122" s="3">
+        <v>1.4475724137931072</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D122" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E122" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>2.3119913793103488</v>
+      </c>
+      <c r="B123" s="3">
+        <v>0.63691034482758779</v>
+      </c>
+      <c r="C123" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D123" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E123" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>1.4337931034482783</v>
+      </c>
+      <c r="B124" s="3">
+        <v>0.29357586206896624</v>
+      </c>
+      <c r="C124" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D124" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E124" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>3.4476206896551775</v>
+      </c>
+      <c r="B125" s="3">
+        <v>1.0051241379310369</v>
+      </c>
+      <c r="C125" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="D125" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E125" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>3-1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>0.33095927835051486</v>
+      </c>
+      <c r="B126" s="3">
+        <v>0.8183092783505147</v>
+      </c>
+      <c r="C126" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D126" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E126" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>0-1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>2.2428865979381398</v>
+      </c>
+      <c r="B127" s="3">
+        <v>0.5114432989690717</v>
+      </c>
+      <c r="C127" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D127" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E127" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>1.4055422680412344</v>
+      </c>
+      <c r="B128" s="3">
+        <v>1.0461340206185559</v>
+      </c>
+      <c r="C128" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D128" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E128" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>1.073381443298967</v>
+      </c>
+      <c r="B129" s="3">
+        <v>1.1377628865979372</v>
+      </c>
+      <c r="C129" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D129" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E129" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>1.7843234309623408</v>
+      </c>
+      <c r="B130" s="3">
+        <v>0.30646276150627605</v>
+      </c>
+      <c r="C130" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D130" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E130" s="2" t="str">
+        <f t="shared" ref="E130:E188" si="8">CONCATENATE(C130,"-",D130)</f>
+        <v>2-0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>0.88490836820083563</v>
+      </c>
+      <c r="B131" s="3">
+        <v>0.95746945606694522</v>
+      </c>
+      <c r="C131" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D131" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E131" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>1.5680937238493702</v>
+      </c>
+      <c r="B132" s="3">
+        <v>0.4569740585774057</v>
+      </c>
+      <c r="C132" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D132" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E132" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>2.3284958158995788</v>
+      </c>
+      <c r="B133" s="3">
+        <v>0.52225606694560656</v>
+      </c>
+      <c r="C133" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D133" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E133" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>1.0345362318840567</v>
+      </c>
+      <c r="B134" s="3">
+        <v>0.72190821256038928</v>
+      </c>
+      <c r="C134" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D134" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E134" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>1.6430869565217376</v>
+      </c>
+      <c r="B135" s="3">
+        <v>0.47669806763285205</v>
+      </c>
+      <c r="C135" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D135" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E135" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>1.5429101449275346</v>
+      </c>
+      <c r="B136" s="3">
+        <v>1.001483574879231</v>
+      </c>
+      <c r="C136" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D136" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E136" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>2.4167265700483065</v>
+      </c>
+      <c r="B137" s="3">
+        <v>0.89970048309179096</v>
+      </c>
+      <c r="C137" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D137" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E137" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>1.0332695652173904</v>
+      </c>
+      <c r="B138" s="3">
+        <v>0.73564734299516921</v>
+      </c>
+      <c r="C138" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D138" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E138" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>0.87104347826086903</v>
+      </c>
+      <c r="B139" s="3">
+        <v>1.2484057971014493</v>
+      </c>
+      <c r="C139" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D139" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E139" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>1.2044057971014486</v>
+      </c>
+      <c r="B140" s="3">
+        <v>0.42397342995169079</v>
+      </c>
+      <c r="C140" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D140" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E140" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>1.0741333333333327</v>
+      </c>
+      <c r="B141" s="3">
+        <v>0.75958937198067633</v>
+      </c>
+      <c r="C141" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D141" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E141" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>0.89154320987654423</v>
+      </c>
+      <c r="B142" s="3">
+        <v>0.62053580246913698</v>
+      </c>
+      <c r="C142" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D142" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E142" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>1.9068271604938296</v>
+      </c>
+      <c r="B143" s="3">
+        <v>0.86074320987654485</v>
+      </c>
+      <c r="C143" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D143" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E143" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>2.1404235294117688</v>
+      </c>
+      <c r="B144" s="3">
+        <v>0.76901176470588339</v>
+      </c>
+      <c r="C144" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D144" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E144" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>1.9335745098039256</v>
+      </c>
+      <c r="B145" s="3">
+        <v>0.36610588235294167</v>
+      </c>
+      <c r="C145" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D145" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E145" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>1.4484313725490223</v>
+      </c>
+      <c r="B146" s="3">
+        <v>1.5309882352941198</v>
+      </c>
+      <c r="C146" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D146" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E146" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>2.1566659459459414</v>
+      </c>
+      <c r="B147" s="3">
+        <v>0.44093189189189319</v>
+      </c>
+      <c r="C147" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D147" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E147" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>2.4243956756756706</v>
+      </c>
+      <c r="B148" s="3">
+        <v>1.6530908108108155</v>
+      </c>
+      <c r="C148" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D148" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E148" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>1.5713675675675645</v>
+      </c>
+      <c r="B149" s="3">
+        <v>1.4237416216216259</v>
+      </c>
+      <c r="C149" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D149" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E149" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>0.72287027027026884</v>
+      </c>
+      <c r="B150" s="3">
+        <v>2.5702183783783861</v>
+      </c>
+      <c r="C150" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D150" s="1">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E150" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>1.2276826086956563</v>
+      </c>
+      <c r="B151" s="3">
+        <v>1.490314009661839</v>
+      </c>
+      <c r="C151" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D151" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E151" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>1.1516289855072501</v>
+      </c>
+      <c r="B152" s="3">
+        <v>0.65096618357488056</v>
+      </c>
+      <c r="C152" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D152" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E152" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>1.1378521739130472</v>
+      </c>
+      <c r="B153" s="3">
+        <v>1.0202898550724659</v>
+      </c>
+      <c r="C153" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D153" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E153" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>0.52590869565217568</v>
+      </c>
+      <c r="B154" s="3">
+        <v>2.5467391304347879</v>
+      </c>
+      <c r="C154" s="1">
+        <f t="shared" ref="C154:C188" si="9">ROUND(A154,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D154" s="1">
+        <f t="shared" ref="D154:D188" si="10">ROUND(B154,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E154" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>1.5414565217391356</v>
+      </c>
+      <c r="B155" s="3">
+        <v>1.7157608695652211</v>
+      </c>
+      <c r="C155" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D155" s="1">
         <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E155" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>2.2849826086956599</v>
+      </c>
+      <c r="B156" s="3">
+        <v>0.45275362318840673</v>
+      </c>
+      <c r="C156" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D156" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E156" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>1.2500347826086997</v>
+      </c>
+      <c r="B157" s="3">
+        <v>1.7113768115942061</v>
+      </c>
+      <c r="C157" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D157" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E157" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>0.93239999999999679</v>
+      </c>
+      <c r="B158" s="3">
+        <v>2.1498967741935542</v>
+      </c>
+      <c r="C158" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D158" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E158" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>0.97751612903225471</v>
+      </c>
+      <c r="B159" s="3">
+        <v>0.57602580645161439</v>
+      </c>
+      <c r="C159" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D159" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E159" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>1.753799999999994</v>
+      </c>
+      <c r="B160" s="3">
+        <v>0.14795483870967779</v>
+      </c>
+      <c r="C160" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D160" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E160" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>0.52730967741935297</v>
+      </c>
+      <c r="B161" s="3">
+        <v>3.4884000000000093</v>
+      </c>
+      <c r="C161" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D161" s="1">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="E161" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>1.2263842105263152</v>
+      </c>
+      <c r="B162" s="3">
+        <v>1.7840284210526294</v>
+      </c>
+      <c r="C162" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D162" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E162" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>2.0250689473684202</v>
+      </c>
+      <c r="B163" s="3">
+        <v>1.2231999999999983</v>
+      </c>
+      <c r="C163" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D163" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E163" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>1.4081605263157888</v>
+      </c>
+      <c r="B164" s="3">
+        <v>2.3653410526315755</v>
+      </c>
+      <c r="C164" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D164" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E164" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1.380530526315789</v>
+      </c>
+      <c r="B165">
+        <v>0.6417410526315781</v>
+      </c>
+      <c r="C165" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D165" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E165" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>4.0019873684210507</v>
+      </c>
+      <c r="B166">
+        <v>0.84511999999999876</v>
+      </c>
+      <c r="C166" s="1">
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="D95" s="1">
-        <f t="shared" si="11"/>
+      <c r="D166" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E166" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>4-1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1.3774605263157891</v>
+      </c>
+      <c r="B167">
+        <v>0.82785473684210398</v>
+      </c>
+      <c r="C167" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D167" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E167" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>2.1532588235294083</v>
+      </c>
+      <c r="B168">
+        <v>0.36930802139037322</v>
+      </c>
+      <c r="C168" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D168" s="1">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E95" s="2" t="str">
+      <c r="E168" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1.435505882352939</v>
+      </c>
+      <c r="B169">
+        <v>0.55624171122994481</v>
+      </c>
+      <c r="C169" s="1">
         <f t="shared" si="9"/>
-        <v>4-0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="2"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="2"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="2"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="2"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="2"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="2"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="2"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="2"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="2"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="2"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="2"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="2"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="2"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="2"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="2"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="2"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="2"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="2"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="2"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="2"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="2"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="2"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="2"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="2"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="2"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="2"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="2"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="2"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="2"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="2"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="2"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="2"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="2"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="2"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="2"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="2"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="2"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="2"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="2"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="2"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="2"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="D169" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E169" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1.5866117647058797</v>
+      </c>
+      <c r="B170">
+        <v>0.50326631016042633</v>
+      </c>
+      <c r="C170" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D170" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E170" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1.4014814814814791</v>
+      </c>
+      <c r="B171">
+        <v>1.2245333333333368</v>
+      </c>
+      <c r="C171" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D171" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E171" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1.5217222222222198</v>
+      </c>
+      <c r="B172">
+        <v>1.3566000000000038</v>
+      </c>
+      <c r="C172" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D172" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E172" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1.7246185185185154</v>
+      </c>
+      <c r="B173">
+        <v>0.65333333333333532</v>
+      </c>
+      <c r="C173" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D173" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E173" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>0.94313333333333171</v>
+      </c>
+      <c r="B174">
+        <v>2.7751111111111193</v>
+      </c>
+      <c r="C174" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D174" s="1">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="E174" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>0.62429629629629524</v>
+      </c>
+      <c r="B175">
+        <v>1.401400000000004</v>
+      </c>
+      <c r="C175" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D175" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E175" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1.2877000000000001</v>
+      </c>
+      <c r="B176">
+        <v>1.5379875000000003</v>
+      </c>
+      <c r="C176" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D176" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E176" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1.0465469072164928</v>
+      </c>
+      <c r="B177">
+        <v>0.60386597938144282</v>
+      </c>
+      <c r="C177" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D177" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E177" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>0.42040773195876208</v>
+      </c>
+      <c r="B178">
+        <v>1.4606185567010297</v>
+      </c>
+      <c r="C178" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D178" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E178" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0-1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1.6821649484536052</v>
+      </c>
+      <c r="B179">
+        <v>0.87376288659793744</v>
+      </c>
+      <c r="C179" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D179" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E179" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>2.7335180412371081</v>
+      </c>
+      <c r="B180">
+        <v>0.74459793814432929</v>
+      </c>
+      <c r="C180" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="D180" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E180" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>3-1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1.9437828451882819</v>
+      </c>
+      <c r="B181">
+        <v>0.43521338912133883</v>
+      </c>
+      <c r="C181" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D181" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E181" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1.3798493723849354</v>
+      </c>
+      <c r="B182">
+        <v>0.20309958158995811</v>
+      </c>
+      <c r="C182" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D182" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E182" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>0.81146108786610782</v>
+      </c>
+      <c r="B183">
+        <v>0.40619916317991622</v>
+      </c>
+      <c r="C183" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D183" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E183" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1.3926426778242658</v>
+      </c>
+      <c r="B184">
+        <v>0.64737991631799141</v>
+      </c>
+      <c r="C184" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D184" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E184" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>0.96291449275362218</v>
+      </c>
+      <c r="B185">
+        <v>0.85698260869565546</v>
+      </c>
+      <c r="C185" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D185" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E185" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>0.41443864734299468</v>
+      </c>
+      <c r="B186">
+        <v>0.83240193236715299</v>
+      </c>
+      <c r="C186" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D186" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E186" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0-1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1.1656086956521727</v>
+      </c>
+      <c r="B187">
+        <v>0.91891159420290214</v>
+      </c>
+      <c r="C187" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D187" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E187" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1.2732753623188391</v>
+      </c>
+      <c r="B188">
+        <v>0.32074202898550846</v>
+      </c>
+      <c r="C188" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D188" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E188" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CS generator.xlsx
+++ b/CS generator.xlsx
@@ -346,18 +346,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
-        <v>0.85695365853658478</v>
+        <v>0.64751999999999998</v>
       </c>
       <c r="B1" s="3">
-        <v>1.1205731707317048</v>
+        <v>0.52236799999999872</v>
       </c>
       <c r="C1" s="1">
         <f>ROUND(A1,0)</f>
@@ -374,30 +374,30 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>0.81500487804878008</v>
+        <v>1.033619883040936</v>
       </c>
       <c r="B2" s="3">
-        <v>1.3673048780487773</v>
+        <v>2.9643976608187157</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:C25" si="0">ROUND(A2,0)</f>
+        <f t="shared" ref="C2:C4" si="0">ROUND(A2,0)</f>
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D25" si="1">ROUND(B2,0)</f>
-        <v>1</v>
+        <f t="shared" ref="D2:D4" si="1">ROUND(B2,0)</f>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="str">
         <f t="shared" ref="E2:E65" si="2">CONCATENATE(C2,"-",D2)</f>
-        <v>1-1</v>
+        <v>1-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1.3050731707317065</v>
+        <v>1.4611345029239744</v>
       </c>
       <c r="B3" s="3">
-        <v>1.4940975609756064</v>
+        <v>1.431710526315789</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
@@ -414,14 +414,14 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1.4921780487804868</v>
+        <v>2.176960818713447</v>
       </c>
       <c r="B4" s="3">
-        <v>1.4107570731707282</v>
+        <v>0.77684210526315745</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
@@ -429,15 +429,15 @@
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>0.67987500000000234</v>
+        <v>1.1223333333333372</v>
       </c>
       <c r="B5" s="3">
-        <v>1.2633923076923042</v>
+        <v>0.58703076923076769</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C24" si="3">ROUND(A5,0)</f>
@@ -454,97 +454,97 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>2.0886025641025712</v>
+        <v>0.41998321678321604</v>
       </c>
       <c r="B6" s="3">
-        <v>0.34881538461538364</v>
+        <v>1.4111748251748211</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-0</v>
+        <v>0-1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>1.2202884615384657</v>
+        <v>1.1463242009132424</v>
       </c>
       <c r="B7" s="3">
-        <v>0.45516153846153729</v>
+        <v>0.918823287671232</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C7:C70" si="5">ROUND(A7,0)</f>
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="D7:D70" si="6">ROUND(B7,0)</f>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-0</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>0.92974358974359295</v>
+        <v>0.72807077625570793</v>
       </c>
       <c r="B8" s="3">
-        <v>1.0492820512820484</v>
+        <v>0.36420410958904076</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>0.37189743589743723</v>
+        <v>0.55080136986301376</v>
       </c>
       <c r="B9" s="3">
-        <v>0.81532051282051055</v>
+        <v>0.94580136986301289</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>1.3856223776223751</v>
+        <v>1.3202260273972608</v>
       </c>
       <c r="B10" s="3">
-        <v>1.3727517482517444</v>
+        <v>0.51028310502283059</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E10" s="2" t="str">
@@ -554,97 +554,97 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>1.1670377622377599</v>
+        <v>2.2414611872146128</v>
       </c>
       <c r="B11" s="3">
-        <v>0.51696503496503354</v>
+        <v>1.1864082191780811</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>1.7349818181818148</v>
+        <v>1.2702511415525115</v>
       </c>
       <c r="B12" s="3">
-        <v>0.9011958041958017</v>
+        <v>0.32927899543378963</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>0.9425454545454528</v>
+        <v>0.49463013698630159</v>
       </c>
       <c r="B13" s="3">
-        <v>2.314699300699294</v>
+        <v>0.94862465753424585</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="E13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-2</v>
+        <v>0-1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>1.5368055944055912</v>
+        <v>0.94831050228310532</v>
       </c>
       <c r="B14" s="3">
-        <v>1.047902097902095</v>
+        <v>0.44576575342465707</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>1.4585315436241575</v>
+        <v>0.68447999999999987</v>
       </c>
       <c r="B15" s="3">
-        <v>0.95858255033557382</v>
+        <v>1.1315</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E15" s="2" t="str">
@@ -654,17 +654,17 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>1.960179865771807</v>
+        <v>2.4414713567839113</v>
       </c>
       <c r="B16" s="3">
-        <v>0.87138590604027166</v>
+        <v>0.85531809045226137</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E16" s="2" t="str">
@@ -674,17 +674,17 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>1.6202255033557005</v>
+        <v>2.2217600000000002</v>
       </c>
       <c r="B17" s="3">
-        <v>1.374014765100676</v>
+        <v>1.1031111111111103</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E17" s="2" t="str">
@@ -694,37 +694,37 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>2.0712161073825452</v>
+        <v>1.0157619718309858</v>
       </c>
       <c r="B18" s="3">
-        <v>0.42263087248322306</v>
+        <v>0.51211267605633726</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="E18" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-0</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>0.94373959731543378</v>
+        <v>0.68146056338028171</v>
       </c>
       <c r="B19" s="3">
-        <v>0.79417449664429807</v>
+        <v>1.3638309859154909</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E19" s="2" t="str">
@@ -734,77 +734,77 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>2.5577882352941126</v>
+        <v>0.28740845070422533</v>
       </c>
       <c r="B20" s="3">
-        <v>1.1870911764705918</v>
+        <v>2.0256901408450672</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="E20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>3-1</v>
+        <v>0-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>3.2838588235294051</v>
+        <v>0.78318802816901401</v>
       </c>
       <c r="B21" s="3">
-        <v>0.96092352941176762</v>
+        <v>0.92957746478873093</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E21" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>3-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>1.2852784313725467</v>
+        <v>3.3087267605633803</v>
       </c>
       <c r="B22" s="3">
-        <v>0.67041176470588426</v>
+        <v>0.48811267605633724</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>3-0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>1.3476705882352917</v>
+        <v>0.83518749999999997</v>
       </c>
       <c r="B23" s="3">
-        <v>0.67118235294117856</v>
+        <v>0.55829531250000008</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E23" s="2" t="str">
@@ -814,37 +814,37 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>1.5090196078431346</v>
+        <v>0.79609463414634096</v>
       </c>
       <c r="B24" s="3">
-        <v>0.57434509803921741</v>
+        <v>0.9236721951219542</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E24" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>0.49057647058823434</v>
+        <v>0.29155555555555585</v>
       </c>
       <c r="B25" s="3">
-        <v>0.5937382352941194</v>
+        <v>1.1353333333333331</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" ref="C25:C83" si="5">ROUND(A25,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25:D83" si="6">ROUND(B25,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E25" s="2" t="str">
@@ -854,14 +854,14 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>0.73419607843137125</v>
+        <v>2.5280640000000001</v>
       </c>
       <c r="B26" s="3">
-        <v>1.0033058823529442</v>
+        <v>1.1691093333333307</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="6"/>
@@ -869,15 +869,15 @@
       </c>
       <c r="E26" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>3-1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>1.9750745098039175</v>
+        <v>1.534896</v>
       </c>
       <c r="B27" s="3">
-        <v>1.9033529411764765</v>
+        <v>1.9266559999999953</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -894,50 +894,50 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>1.8141826484018271</v>
+        <v>0.45052799999999998</v>
       </c>
       <c r="B28" s="3">
-        <v>1.2827136986301357</v>
+        <v>3.9101279999999914</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E28" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>0-4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>1.1064520547945209</v>
+        <v>1.9863359999999999</v>
       </c>
       <c r="B29" s="3">
-        <v>1.1142575342465744</v>
+        <v>1.5484479999999963</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>1.2559726027397264</v>
+        <v>0.73766608187134541</v>
       </c>
       <c r="B30" s="3">
-        <v>1.5355547945205466</v>
+        <v>1.340505263157896</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -945,79 +945,79 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>1.1667990867579912</v>
+        <v>2.0038093567251472</v>
       </c>
       <c r="B31" s="3">
-        <v>0.39567853881278503</v>
+        <v>1.6431812865497093</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-0</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>1.2984041095890415</v>
+        <v>1.5085263157894742</v>
       </c>
       <c r="B32" s="3">
-        <v>0.67319726027397198</v>
+        <v>1.6324491228070188</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>2.3713150684931517</v>
+        <v>0.73207894736842138</v>
       </c>
       <c r="B33" s="3">
-        <v>0.48278219178082149</v>
+        <v>1.6718970760233933</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E33" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-0</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>0.56736986301369885</v>
+        <v>0.5958514619883043</v>
       </c>
       <c r="B34" s="3">
-        <v>0.48560547945205434</v>
+        <v>1.6718970760233933</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -1025,19 +1025,19 @@
       </c>
       <c r="D34" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E34" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-0</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>2.2926484018264848</v>
+        <v>1.5906900584795327</v>
       </c>
       <c r="B35" s="3">
-        <v>0.88086575342465678</v>
+        <v>0.51804444444444486</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -1054,10 +1054,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>0.69937899543379012</v>
+        <v>0.94730760233917977</v>
       </c>
       <c r="B36" s="3">
-        <v>1.2188237442922361</v>
+        <v>1.0915789473684205</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -1074,14 +1074,14 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>1.7814497716894981</v>
+        <v>1.3681532163742667</v>
       </c>
       <c r="B37" s="3">
-        <v>0.77818173515981648</v>
+        <v>1.1868421052631573</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="6"/>
@@ -1089,15 +1089,15 @@
       </c>
       <c r="E37" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>0.92898090452261006</v>
+        <v>0.89385146198830268</v>
       </c>
       <c r="B38" s="3">
-        <v>0.92574723618090471</v>
+        <v>1.7211842105263151</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -1105,23 +1105,23 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>0.42392746478873228</v>
+        <v>1.448897560975609</v>
       </c>
       <c r="B39" s="3">
-        <v>0.84777464788732271</v>
+        <v>1.4392682926829234</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="6"/>
@@ -1129,15 +1129,15 @@
       </c>
       <c r="E39" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>1.4916266666666707</v>
+        <v>0.9368560975609751</v>
       </c>
       <c r="B40" s="3">
-        <v>1.2096</v>
+        <v>0.99926341463414403</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="5"/>
@@ -1154,14 +1154,14 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>0.39102000000000098</v>
+        <v>1.1053170731707309</v>
       </c>
       <c r="B41" s="3">
-        <v>1.56816</v>
+        <v>1.6997073170731667</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="6"/>
@@ -1169,15 +1169,15 @@
       </c>
       <c r="E41" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0-2</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>1.1207466666666697</v>
+        <v>0.69168878048780447</v>
       </c>
       <c r="B42" s="3">
-        <v>2.2339200000000003</v>
+        <v>1.688330243902435</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="5"/>
@@ -1194,10 +1194,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>0.98278363636363342</v>
+        <v>0.97880487804877991</v>
       </c>
       <c r="B43" s="3">
-        <v>1.4259381818181871</v>
+        <v>1.613625365853655</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="5"/>
@@ -1205,23 +1205,23 @@
       </c>
       <c r="D43" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>2.9206799999999915</v>
+        <v>0.67406410256410476</v>
       </c>
       <c r="B44" s="3">
-        <v>0.38254545454545602</v>
+        <v>0.48767307692307565</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="6"/>
@@ -1229,19 +1229,19 @@
       </c>
       <c r="E44" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>3-0</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>1.9655672727272668</v>
+        <v>0.86333333333333628</v>
       </c>
       <c r="B45" s="3">
-        <v>0.95636363636364008</v>
+        <v>0.80823076923076698</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="6"/>
@@ -1249,19 +1249,19 @@
       </c>
       <c r="E45" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>0.44612195121951193</v>
+        <v>0.98287179487179832</v>
       </c>
       <c r="B46" s="3">
-        <v>1.3878658536585333</v>
+        <v>0.58135897435897277</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="6"/>
@@ -1269,15 +1269,15 @@
       </c>
       <c r="E46" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>0.52935365853658511</v>
+        <v>0.98204166666667003</v>
       </c>
       <c r="B47" s="3">
-        <v>2.360674146341458</v>
+        <v>0.77419999999999789</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" si="5"/>
@@ -1285,83 +1285,83 @@
       </c>
       <c r="D47" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>1.0786829268292677</v>
+        <v>2.0172115384615457</v>
       </c>
       <c r="B48" s="3">
-        <v>1.6728409756097522</v>
+        <v>0.84529999999999783</v>
       </c>
       <c r="C48" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-2</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>2.0881170731707304</v>
+        <v>0.88574679487179786</v>
       </c>
       <c r="B49" s="3">
-        <v>1.548926829268289</v>
+        <v>0.92288205128204892</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>2.2093024390243889</v>
+        <v>0.88906730769231068</v>
       </c>
       <c r="B50" s="3">
-        <v>0.81421463414633954</v>
+        <v>0.42113076923076809</v>
       </c>
       <c r="C50" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>2.2045833333333409</v>
+        <v>0.91729166666666972</v>
       </c>
       <c r="B51" s="3">
-        <v>0.84226153846153617</v>
+        <v>0.77207307692307492</v>
       </c>
       <c r="C51" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="6"/>
@@ -1369,15 +1369,15 @@
       </c>
       <c r="E51" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>0.62093225806451535</v>
+        <v>0.88574679487179786</v>
       </c>
       <c r="B52" s="3">
-        <v>0.92436082949308562</v>
+        <v>1.5840512820512778</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" si="5"/>
@@ -1385,19 +1385,19 @@
       </c>
       <c r="D52" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>1.4387972350230396</v>
+        <v>1.4430000000000049</v>
       </c>
       <c r="B53" s="3">
-        <v>0.90277050691244076</v>
+        <v>1.7063999999999953</v>
       </c>
       <c r="C53" s="1">
         <f t="shared" si="5"/>
@@ -1405,19 +1405,19 @@
       </c>
       <c r="D53" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>1.2957663594470028</v>
+        <v>0.69730769230769474</v>
       </c>
       <c r="B54" s="3">
-        <v>1.1985981566820254</v>
+        <v>0.48919230769230637</v>
       </c>
       <c r="C54" s="1">
         <f t="shared" si="5"/>
@@ -1425,19 +1425,19 @@
       </c>
       <c r="D54" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>1.8844423963133616</v>
+        <v>1.5633902097902064</v>
       </c>
       <c r="B55" s="3">
-        <v>0.81533640552995235</v>
+        <v>0.56586713286713131</v>
       </c>
       <c r="C55" s="1">
         <f t="shared" si="5"/>
@@ -1454,10 +1454,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>1.4706290322580629</v>
+        <v>1.2239664335664313</v>
       </c>
       <c r="B56" s="3">
-        <v>0.97116221198156494</v>
+        <v>3.4697202797202698</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" si="5"/>
@@ -1465,23 +1465,23 @@
       </c>
       <c r="D56" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E56" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-3</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>0.23541382488479234</v>
+        <v>2.2809062937062894</v>
       </c>
       <c r="B57" s="3">
-        <v>1.4181221198156653</v>
+        <v>1.1389790209790176</v>
       </c>
       <c r="C57" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="6"/>
@@ -1489,15 +1489,15 @@
       </c>
       <c r="E57" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>1.0647382488479249</v>
+        <v>1.4089846153846126</v>
       </c>
       <c r="B58" s="3">
-        <v>1.2766451612903202</v>
+        <v>0.49781818181818038</v>
       </c>
       <c r="C58" s="1">
         <f t="shared" si="5"/>
@@ -1505,19 +1505,19 @@
       </c>
       <c r="D58" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>1.1576870967741919</v>
+        <v>0.85930069930069775</v>
       </c>
       <c r="B59" s="3">
-        <v>1.1720460829493065</v>
+        <v>0.92344755244754972</v>
       </c>
       <c r="C59" s="1">
         <f t="shared" si="5"/>
@@ -1534,34 +1534,34 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>3.5524285714285671</v>
+        <v>0.38426853146853079</v>
       </c>
       <c r="B60" s="3">
-        <v>0.23253179723502262</v>
+        <v>1.3257902097902059</v>
       </c>
       <c r="C60" s="1">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>4-0</v>
+        <v>0-1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>1.104634101382487</v>
+        <v>2.6775272727272674</v>
       </c>
       <c r="B61" s="3">
-        <v>0.92556774193548197</v>
+        <v>0.6601783216783198</v>
       </c>
       <c r="C61" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="6"/>
@@ -1569,19 +1569,19 @@
       </c>
       <c r="E61" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>3-1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>1.1359466666666695</v>
+        <v>2.06057622377622</v>
       </c>
       <c r="B62" s="3">
-        <v>0.81731999999999994</v>
+        <v>0.87661538461538202</v>
       </c>
       <c r="C62" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" si="6"/>
@@ -1589,15 +1589,15 @@
       </c>
       <c r="E62" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>0.87780000000000236</v>
+        <v>0.9836307692307672</v>
       </c>
       <c r="B63" s="3">
-        <v>0.55044000000000004</v>
+        <v>1.9995524475524418</v>
       </c>
       <c r="C63" s="1">
         <f t="shared" si="5"/>
@@ -1605,39 +1605,39 @@
       </c>
       <c r="D63" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>4.6233333333333455</v>
+        <v>0.8700419580419565</v>
       </c>
       <c r="B64" s="3">
-        <v>0.10164000000000001</v>
+        <v>1.0507482517482487</v>
       </c>
       <c r="C64" s="1">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>5-0</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>0.66484374999999996</v>
+        <v>1.1624727272727249</v>
       </c>
       <c r="B65" s="3">
-        <v>0.73800468750000003</v>
+        <v>1.2833566433566397</v>
       </c>
       <c r="C65" s="1">
         <f t="shared" si="5"/>
@@ -1654,30 +1654,30 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>1.3870078125</v>
+        <v>1.8190228187919417</v>
       </c>
       <c r="B66" s="3">
-        <v>1.30771875</v>
+        <v>0.85304093959731864</v>
       </c>
       <c r="C66" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E66" s="2" t="str">
-        <f t="shared" ref="E66:E83" si="7">CONCATENATE(C66,"-",D66)</f>
-        <v>1-1</v>
+        <f t="shared" ref="E66:E129" si="7">CONCATENATE(C66,"-",D66)</f>
+        <v>2-1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>1.1631109090909055</v>
+        <v>1.1593771812080507</v>
       </c>
       <c r="B67" s="3">
-        <v>0.84877272727273045</v>
+        <v>1.5488724832214817</v>
       </c>
       <c r="C67" s="1">
         <f t="shared" si="5"/>
@@ -1685,19 +1685,19 @@
       </c>
       <c r="D67" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>1.8048272727272676</v>
+        <v>1.788902013422814</v>
       </c>
       <c r="B68" s="3">
-        <v>1.0759090909090949</v>
+        <v>1.09198993288591</v>
       </c>
       <c r="C68" s="1">
         <f t="shared" si="5"/>
@@ -1714,14 +1714,14 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>0.53864999999999841</v>
+        <v>2.0033073825503305</v>
       </c>
       <c r="B69" s="3">
-        <v>0.78087090909091206</v>
+        <v>0.52016107382550536</v>
       </c>
       <c r="C69" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" s="1">
         <f t="shared" si="6"/>
@@ -1729,15 +1729,15 @@
       </c>
       <c r="E69" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>1.3885199999999958</v>
+        <v>0.88979597315436021</v>
       </c>
       <c r="B70" s="3">
-        <v>1.8503245454545525</v>
+        <v>1.359849664429535</v>
       </c>
       <c r="C70" s="1">
         <f t="shared" si="5"/>
@@ -1745,26 +1745,26 @@
       </c>
       <c r="D70" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>1-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>2.4061254545454474</v>
+        <v>2.1084563758389208</v>
       </c>
       <c r="B71" s="3">
-        <v>0.50818772727272921</v>
+        <v>0.61908456375839149</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C71:C134" si="8">ROUND(A71,0)</f>
         <v>2</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D71:D134" si="9">ROUND(B71,0)</f>
         <v>1</v>
       </c>
       <c r="E71" s="2" t="str">
@@ -1774,57 +1774,57 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>1.3543463414634136</v>
+        <v>2.0378093959731491</v>
       </c>
       <c r="B72" s="3">
-        <v>1.2665560975609726</v>
+        <v>0.73205704697986851</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E72" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>1.3350626760563378</v>
+        <v>1.4030818791946271</v>
       </c>
       <c r="B73" s="3">
-        <v>1.2381971830985898</v>
+        <v>1.6856469798657778</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="E73" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>0.79150774647887312</v>
+        <v>1.0241073825503331</v>
       </c>
       <c r="B74" s="3">
-        <v>2.0457464788732365</v>
+        <v>1.7241946308724896</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="E74" s="2" t="str">
@@ -1834,867 +1834,2190 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>1.9799669014084502</v>
+        <v>0.96879463087248074</v>
       </c>
       <c r="B75" s="3">
-        <v>0.2526197183098588</v>
+        <v>0.6419577181208076</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="E75" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>2-0</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>1.1443394366197184</v>
+        <v>1.9693530201342229</v>
       </c>
       <c r="B76" s="3">
-        <v>0.48980281690140764</v>
+        <v>1.1726845637583936</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="E76" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>1-0</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>1.9534418181818125</v>
+        <v>0.6908117647058809</v>
       </c>
       <c r="B77" s="3">
-        <v>0.78087090909091206</v>
+        <v>1.7230352941176523</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="E77" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>2-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>2.4027054545454476</v>
+        <v>1.2852784313725467</v>
       </c>
       <c r="B78" s="3">
-        <v>1.3448863636363686</v>
+        <v>0.44694117647058951</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="E78" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>2-1</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>1.0157619718309858</v>
+        <v>1.3327254901960759</v>
       </c>
       <c r="B79" s="3">
-        <v>0.51211267605633726</v>
+        <v>1.7877647058823583</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="E79" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>0.68146056338028171</v>
+        <v>0.50058823529411667</v>
       </c>
       <c r="B80" s="3">
-        <v>1.3638309859154909</v>
+        <v>2.621541176470596</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="E80" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>1-1</v>
+        <v>1-3</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>0.28740845070422533</v>
+        <v>1.1979294117647037</v>
       </c>
       <c r="B81" s="3">
-        <v>2.0256901408450672</v>
+        <v>0.3105470588235304</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="D81" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
       <c r="E81" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>0-2</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>0.78318802816901401</v>
+        <v>2.0215058823529377</v>
       </c>
       <c r="B82" s="3">
-        <v>0.92957746478873093</v>
+        <v>0.88630490196078704</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E82" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>3.3087267605633803</v>
+        <v>1.8196470046082929</v>
       </c>
       <c r="B83" s="3">
-        <v>0.48811267605633724</v>
+        <v>2.2470027649769539</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E83" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>2.6580258064516098</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1.0577917050691223</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="D83" s="1">
-        <f t="shared" si="6"/>
+      <c r="D84" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E84" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>3-1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>0.95976405529953801</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1.6971870967741902</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E85" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>0.61640182648401842</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0.84531324200913149</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E86" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>1.3456849315068498</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0.89937397260273877</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E87" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>1.1410434782608687</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0.8645239130434812</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E88" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>0.81422608695652121</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1.2224478260869607</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>2.7417599999999998</v>
+      </c>
+      <c r="B90" s="3">
+        <v>1.221436</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E90" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>3-1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>1.6128000000000002</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1.3286</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E91" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>2.4732799999999999</v>
+      </c>
+      <c r="B92" s="3">
+        <v>0.89133000000000007</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E92" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>1.044</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E93" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>1.349234170854267</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1.6905135678391963</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E94" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>0.3317788944723607</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0.61138492462311567</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E83" s="2" t="str">
+      <c r="D95" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E95" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0-1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>1.4951115577889398</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1.7106361809045227</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E96" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>0.61036783919597792</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0.756524623115578</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E97" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>1.1406874371859257</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0.91408040201005025</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E98" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>1.0360190954773836</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0.58441206030150761</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E99" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>1.5814793969849192</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0.80147939698492465</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E100" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>1.8311035175879335</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1.1686100502512564</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E101" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>1.3737600000000003</v>
+      </c>
+      <c r="B102" s="3">
+        <v>4.8715199999999967</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="E102" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>1.05152</v>
+      </c>
+      <c r="B103" s="3">
+        <v>0.52526222222222185</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E103" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>1.4476800000000001</v>
+      </c>
+      <c r="B104" s="3">
+        <v>1.2974399999999993</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E104" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>1.6118399999999997</v>
+      </c>
+      <c r="B105" s="3">
+        <v>0.87765333333333273</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E105" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>2.1014000000000057</v>
+      </c>
+      <c r="B106" s="3">
+        <v>0.50112000000000001</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E106" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>0.76076000000000199</v>
+      </c>
+      <c r="B107" s="3">
+        <v>0.86328000000000016</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E107" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>1.6828933333333376</v>
+      </c>
+      <c r="B108" s="3">
+        <v>1.3939199999999998</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E108" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>0.89110000000000233</v>
+      </c>
+      <c r="B109" s="3">
+        <v>0.63360000000000005</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E109" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>0.86982000000000226</v>
+      </c>
+      <c r="B110" s="3">
+        <v>0.7128000000000001</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D110" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E110" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>1.8687500000000001</v>
+      </c>
+      <c r="B111" s="3">
+        <v>1.7671875000000001</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D111" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E111" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>0.42549999999999999</v>
+      </c>
+      <c r="B112" s="3">
+        <v>0.66337500000000005</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D112" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E112" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0-1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>1.9945312500000001</v>
+      </c>
+      <c r="B113" s="3">
+        <v>0.89528437500000002</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D113" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E113" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>0.95450000000000002</v>
+      </c>
+      <c r="B114" s="3">
+        <v>1.30771875</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D114" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E114" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>2.7984497560975594</v>
+      </c>
+      <c r="B115" s="3">
+        <v>0.80130731707317326</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D115" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E115" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>3-1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>0.37953658536585344</v>
+      </c>
+      <c r="B116" s="3">
+        <v>1.3058341463414678</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D116" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E116" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0-1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>0.59926829268292647</v>
+      </c>
+      <c r="B117" s="3">
+        <v>1.3457853658536629</v>
+      </c>
+      <c r="C117" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D117" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E117" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>2.0807926829268282</v>
+      </c>
+      <c r="B118" s="3">
+        <v>0.52005073170731875</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D118" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E118" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>0.85280000000000078</v>
+      </c>
+      <c r="B119" s="3">
+        <v>0.98399999999999954</v>
+      </c>
+      <c r="C119" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D119" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E119" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>0.88195555555555649</v>
+      </c>
+      <c r="B120" s="3">
+        <v>0.47999999999999982</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D120" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E120" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>0.50384444444444498</v>
+      </c>
+      <c r="B121" s="3">
+        <v>0.72199999999999975</v>
+      </c>
+      <c r="C121" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D121" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E121" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>1.1105672727272693</v>
+      </c>
+      <c r="B122" s="3">
+        <v>1.2545100000000047</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D122" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E122" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>2.9063781818181731</v>
+      </c>
+      <c r="B123" s="3">
+        <v>0.43084181818181988</v>
+      </c>
+      <c r="C123" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D123" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E123" s="2" t="str">
         <f t="shared" si="7"/>
         <v>3-0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="2"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="2"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="2"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="2"/>
-    </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="2"/>
+      <c r="A124" s="3">
+        <v>1.5236099999999955</v>
+      </c>
+      <c r="B124" s="3">
+        <v>1.2447072727272774</v>
+      </c>
+      <c r="C124" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D124" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E124" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="2"/>
+      <c r="A125" s="3">
+        <v>1.3384636363636324</v>
+      </c>
+      <c r="B125" s="3">
+        <v>1.4065718181818236</v>
+      </c>
+      <c r="C125" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D125" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E125" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="2"/>
+      <c r="A126" s="3">
+        <v>1.9366320000000004</v>
+      </c>
+      <c r="B126" s="3">
+        <v>1.7344426666666626</v>
+      </c>
+      <c r="C126" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D126" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E126" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="2"/>
+      <c r="A127" s="3">
+        <v>1.1162880000000002</v>
+      </c>
+      <c r="B127" s="3">
+        <v>0.95145599999999786</v>
+      </c>
+      <c r="C127" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D127" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E127" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="2"/>
+      <c r="A128" s="3">
+        <v>2.5748800000000003</v>
+      </c>
+      <c r="B128" s="3">
+        <v>1.0322986666666643</v>
+      </c>
+      <c r="C128" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D128" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E128" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="2"/>
+      <c r="A129" s="3">
+        <v>1.534896</v>
+      </c>
+      <c r="B129" s="3">
+        <v>0.89548799999999795</v>
+      </c>
+      <c r="C129" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D129" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E129" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="2"/>
+      <c r="A130" s="3">
+        <v>1.7094988304093575</v>
+      </c>
+      <c r="B130" s="3">
+        <v>1.8563742690058496</v>
+      </c>
+      <c r="C130" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D130" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E130" s="2" t="str">
+        <f t="shared" ref="E130:E182" si="10">CONCATENATE(C130,"-",D130)</f>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="2"/>
+      <c r="A131" s="3">
+        <v>0.85203801169590665</v>
+      </c>
+      <c r="B131" s="3">
+        <v>1.4517426900584809</v>
+      </c>
+      <c r="C131" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D131" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E131" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="2"/>
+      <c r="A132" s="3">
+        <v>2.0216140350877159</v>
+      </c>
+      <c r="B132" s="3">
+        <v>0.67302631578947347</v>
+      </c>
+      <c r="C132" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D132" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E132" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="2"/>
+      <c r="A133" s="3">
+        <v>1.3840280701754364</v>
+      </c>
+      <c r="B133" s="3">
+        <v>0.73092105263157869</v>
+      </c>
+      <c r="C133" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D133" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E133" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="2"/>
+      <c r="A134" s="3">
+        <v>2.0522298245614001</v>
+      </c>
+      <c r="B134" s="3">
+        <v>0.58736842105263132</v>
+      </c>
+      <c r="C134" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D134" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E134" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="2"/>
+      <c r="A135" s="3">
+        <v>2.1519058536585347</v>
+      </c>
+      <c r="B135" s="3">
+        <v>0.90468292682926621</v>
+      </c>
+      <c r="C135" s="1">
+        <f t="shared" ref="C135:C182" si="11">ROUND(A135,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D135" s="1">
+        <f t="shared" ref="D135:D182" si="12">ROUND(B135,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E135" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="2"/>
+      <c r="A136" s="3">
+        <v>0.89890243902438971</v>
+      </c>
+      <c r="B136" s="3">
+        <v>2.057468292682922</v>
+      </c>
+      <c r="C136" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D136" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E136" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="2"/>
+      <c r="A137" s="3">
+        <v>1.0520487804878043</v>
+      </c>
+      <c r="B137" s="3">
+        <v>1.1308536585365827</v>
+      </c>
+      <c r="C137" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D137" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E137" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="2"/>
+      <c r="A138" s="3">
+        <v>0.53934146341463385</v>
+      </c>
+      <c r="B138" s="3">
+        <v>1.5688024390243867</v>
+      </c>
+      <c r="C138" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D138" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E138" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="2"/>
+      <c r="A139" s="3">
+        <v>1.9150009216589836</v>
+      </c>
+      <c r="B139" s="3">
+        <v>1.6414009216589833</v>
+      </c>
+      <c r="C139" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D139" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E139" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="2"/>
+      <c r="A140" s="3">
+        <v>2.1535271889400893</v>
+      </c>
+      <c r="B140" s="3">
+        <v>1.4757857142857114</v>
+      </c>
+      <c r="C140" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D140" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E140" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="2"/>
+      <c r="A141" s="3">
+        <v>1.1680147465437773</v>
+      </c>
+      <c r="B141" s="3">
+        <v>2.1779405529953877</v>
+      </c>
+      <c r="C141" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D141" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E141" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="2"/>
+      <c r="A142" s="3">
+        <v>0.9869271889400909</v>
+      </c>
+      <c r="B142" s="3">
+        <v>2.6755907834101329</v>
+      </c>
+      <c r="C142" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D142" s="1">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="E142" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-3</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="2"/>
+      <c r="A143" s="3">
+        <v>0.57948018433179649</v>
+      </c>
+      <c r="B143" s="3">
+        <v>1.3404774193548361</v>
+      </c>
+      <c r="C143" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D143" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E143" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="2"/>
+      <c r="A144" s="3">
+        <v>0.62093225806451535</v>
+      </c>
+      <c r="B144" s="3">
+        <v>1.7426474654377841</v>
+      </c>
+      <c r="C144" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D144" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E144" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="2"/>
+      <c r="A145" s="3">
+        <v>0.86978617511520617</v>
+      </c>
+      <c r="B145" s="3">
+        <v>1.6112281105990753</v>
+      </c>
+      <c r="C145" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D145" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E145" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="2"/>
+      <c r="A146" s="3">
+        <v>1.4927478260869558</v>
+      </c>
+      <c r="B146" s="3">
+        <v>0.54039492753623375</v>
+      </c>
+      <c r="C146" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D146" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E146" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="2"/>
+      <c r="A147" s="3">
+        <v>3.1984434782608671</v>
+      </c>
+      <c r="B147" s="3">
+        <v>0.17437318840579769</v>
+      </c>
+      <c r="C147" s="1">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="D147" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E147" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>3-0</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="2"/>
+      <c r="A148" s="3">
+        <v>0.68251304347826036</v>
+      </c>
+      <c r="B148" s="3">
+        <v>0.94528623188406125</v>
+      </c>
+      <c r="C148" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D148" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E148" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="2"/>
+      <c r="A149" s="3">
+        <v>0.8681086956521733</v>
+      </c>
+      <c r="B149" s="3">
+        <v>1.2224478260869609</v>
+      </c>
+      <c r="C149" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D149" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E149" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="2"/>
+      <c r="A150" s="3">
+        <v>1.0377599999999998</v>
+      </c>
+      <c r="B150" s="3">
+        <v>1.6201620000000003</v>
+      </c>
+      <c r="C150" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D150" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E150" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="2"/>
+      <c r="A151" s="3">
+        <v>3.24</v>
+      </c>
+      <c r="B151" s="3">
+        <v>0.8421280000000001</v>
+      </c>
+      <c r="C151" s="1">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="D151" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E151" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="2"/>
+      <c r="A152" s="3">
+        <v>0.48576000000000003</v>
+      </c>
+      <c r="B152" s="3">
+        <v>0.8260679999999998</v>
+      </c>
+      <c r="C152" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D152" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E152" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="2"/>
+      <c r="A153" s="3">
+        <v>0.30400000000000005</v>
+      </c>
+      <c r="B153" s="3">
+        <v>0.66167200000000004</v>
+      </c>
+      <c r="C153" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D153" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E153" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="2"/>
+      <c r="A154" s="3">
+        <v>1.9039999999999999</v>
+      </c>
+      <c r="B154" s="3">
+        <v>0.96710399999999985</v>
+      </c>
+      <c r="C154" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D154" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E154" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="2"/>
+      <c r="A155" s="3">
+        <v>1.3049969849246188</v>
+      </c>
+      <c r="B155" s="3">
+        <v>0.70728844221105536</v>
+      </c>
+      <c r="C155" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D155" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E155" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="2"/>
+      <c r="A156" s="3">
+        <v>2.5763199999999999</v>
+      </c>
+      <c r="B156" s="3">
+        <v>0.56213333333333293</v>
+      </c>
+      <c r="C156" s="1">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="D156" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E156" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="2"/>
+      <c r="A157" s="3">
+        <v>0.89424000000000015</v>
+      </c>
+      <c r="B157" s="3">
+        <v>0.95305777777777712</v>
+      </c>
+      <c r="C157" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D157" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E157" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="2"/>
+      <c r="A158" s="3">
+        <v>2.2560000000000002</v>
+      </c>
+      <c r="B158" s="3">
+        <v>1.0502222222222213</v>
+      </c>
+      <c r="C158" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D158" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E158" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="2"/>
+      <c r="A159" s="3">
+        <v>1.03776</v>
+      </c>
+      <c r="B159" s="3">
+        <v>1.7332444444444433</v>
+      </c>
+      <c r="C159" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D159" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E159" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="2"/>
+      <c r="A160" s="3">
+        <v>1.2962373239436618</v>
+      </c>
+      <c r="B160" s="3">
+        <v>0.87346478873239308</v>
+      </c>
+      <c r="C160" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D160" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E160" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="2"/>
+      <c r="A161" s="3">
+        <v>0.254093333333334</v>
+      </c>
+      <c r="B161" s="3">
+        <v>2.6354399999999996</v>
+      </c>
+      <c r="C161" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D161" s="1">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="E161" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>0-3</v>
+      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="2"/>
+      <c r="A162" s="3">
+        <v>1.46820731707317</v>
+      </c>
+      <c r="B162" s="3">
+        <v>0.54105365853658705</v>
+      </c>
+      <c r="C162" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D162" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E162" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="2"/>
+      <c r="A163" s="3">
+        <v>2.0315195121951204</v>
+      </c>
+      <c r="B163" s="3">
+        <v>0.74845756097561222</v>
+      </c>
+      <c r="C163" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D163" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E163" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="2"/>
+      <c r="A164" s="3">
+        <v>0.91741317073170658</v>
+      </c>
+      <c r="B164" s="3">
+        <v>1.2636000000000041</v>
+      </c>
+      <c r="C164" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D164" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E164" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="2"/>
+      <c r="A165">
+        <v>0.69168878048780447</v>
+      </c>
+      <c r="B165">
+        <v>1.618024390243908</v>
+      </c>
+      <c r="C165" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D165" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E165" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="2"/>
+      <c r="A166">
+        <v>0.69973333333333398</v>
+      </c>
+      <c r="B166">
+        <v>0.29333333333333322</v>
+      </c>
+      <c r="C166" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D166" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E166" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="2"/>
+      <c r="A167">
+        <v>0.69973333333333398</v>
+      </c>
+      <c r="B167">
+        <v>0.18933333333333324</v>
+      </c>
+      <c r="C167" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D167" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E167" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="2"/>
+      <c r="A168">
+        <v>0.80177777777777859</v>
+      </c>
+      <c r="B168">
+        <v>0.7839999999999997</v>
+      </c>
+      <c r="C168" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D168" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E168" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="2"/>
+      <c r="A169">
+        <v>2.099200000000002</v>
+      </c>
+      <c r="B169">
+        <v>0.40599999999999992</v>
+      </c>
+      <c r="C169" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D169" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E169" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="2"/>
+      <c r="A170">
+        <v>1.7347555555555576</v>
+      </c>
+      <c r="B170">
+        <v>0.96066666666666634</v>
+      </c>
+      <c r="C170" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D170" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E170" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="2"/>
+      <c r="A171">
+        <v>0.72503999999999802</v>
+      </c>
+      <c r="B171">
+        <v>0.64052454545454773</v>
+      </c>
+      <c r="C171" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D171" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E171" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="2"/>
+      <c r="A172">
+        <v>1.3151454545454506</v>
+      </c>
+      <c r="B172">
+        <v>0.99031454545454933</v>
+      </c>
+      <c r="C172" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D172" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E172" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="2"/>
+      <c r="A173">
+        <v>0.48439636363636218</v>
+      </c>
+      <c r="B173">
+        <v>0.67160636363636628</v>
+      </c>
+      <c r="C173" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D173" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E173" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="2"/>
+      <c r="A174">
+        <v>2.1266181818181757</v>
+      </c>
+      <c r="B174">
+        <v>0.40549818181818342</v>
+      </c>
+      <c r="C174" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D174" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E174" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="2"/>
+      <c r="A175">
+        <v>0.60583625730994073</v>
+      </c>
+      <c r="B175">
+        <v>0.92157894736842072</v>
+      </c>
+      <c r="C175" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D175" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E175" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="2"/>
-    </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="2"/>
-    </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="2"/>
-    </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="2"/>
-    </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="2"/>
-    </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="2"/>
-    </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="2"/>
-    </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1.9416292682926821</v>
+      </c>
+      <c r="B176">
+        <v>1.2856092682926796</v>
+      </c>
+      <c r="C176" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D176" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E176" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>0.81422608695652121</v>
+      </c>
+      <c r="B177">
+        <v>1.217913043478265</v>
+      </c>
+      <c r="C177" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D177" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E177" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>2.3011902439024374</v>
+      </c>
+      <c r="B178">
+        <v>0.18103609756097622</v>
+      </c>
+      <c r="C178" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D178" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E178" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>0.75804444444444519</v>
+      </c>
+      <c r="B179">
+        <v>0.43666666666666659</v>
+      </c>
+      <c r="C179" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D179" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E179" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>0.5612444444444451</v>
+      </c>
+      <c r="B180">
+        <v>0.47666666666666652</v>
+      </c>
+      <c r="C180" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D180" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E180" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1.682639999999995</v>
+      </c>
+      <c r="B181">
+        <v>0.69623272727273</v>
+      </c>
+      <c r="C181" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D181" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E181" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>0.7744745454545432</v>
+      </c>
+      <c r="B182">
+        <v>0.63598181818182054</v>
+      </c>
+      <c r="C182" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D182" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E182" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="2"/>
     </row>
-    <row r="184" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="2"/>
     </row>
-    <row r="185" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="2"/>
     </row>
-    <row r="186" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="2"/>
     </row>
-    <row r="187" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="2"/>
     </row>
-    <row r="188" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="2"/>

--- a/CS generator.xlsx
+++ b/CS generator.xlsx
@@ -346,18 +346,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E50"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
-        <v>1.2279063829787273</v>
+        <v>0.68880000000000008</v>
       </c>
       <c r="B1" s="3">
-        <v>1.3413419452887505</v>
+        <v>0.79863076923076748</v>
       </c>
       <c r="C1" s="1">
         <f>ROUND(A1,0)</f>
@@ -374,50 +374,50 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1.5140851063829837</v>
+        <v>1.692839664804473</v>
       </c>
       <c r="B2" s="3">
-        <v>0.43021276595744573</v>
+        <v>0.37206927374301701</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:C21" si="0">ROUND(A2,0)</f>
+        <f t="shared" ref="C2:C16" si="0">ROUND(A2,0)</f>
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D21" si="1">ROUND(B2,0)</f>
+        <f t="shared" ref="D2:D16" si="1">ROUND(B2,0)</f>
         <v>0</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f t="shared" ref="E2:E50" si="2">CONCATENATE(C2,"-",D2)</f>
+        <f t="shared" ref="E2:E65" si="2">CONCATENATE(C2,"-",D2)</f>
         <v>2-0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>2.1066534653465401</v>
+        <v>1.4814882681564203</v>
       </c>
       <c r="B3" s="3">
-        <v>0.62245544554455601</v>
+        <v>0.43185698324022476</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1.854716831683173</v>
+        <v>2.4072569832402166</v>
       </c>
       <c r="B4" s="3">
-        <v>0.7429306930693087</v>
+        <v>0.78181005586592422</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
@@ -434,34 +434,34 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>1.3053306930693103</v>
+        <v>1.9317063829787298</v>
       </c>
       <c r="B5" s="3">
-        <v>2.0596633663366384</v>
+        <v>1.2648255319148907</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-2</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>0.38820594059406044</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="B6" s="3">
-        <v>0.68346534653465496</v>
+        <v>1.4222857142857168</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
@@ -469,19 +469,19 @@
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>0.83485148514851693</v>
+        <v>2.9960595238095249</v>
       </c>
       <c r="B7" s="3">
-        <v>1.0477227722772302</v>
+        <v>0.70771904761904736</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
@@ -489,55 +489,55 @@
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>3-1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>1.84394455445545</v>
+        <v>1.1973405405405377</v>
       </c>
       <c r="B8" s="3">
-        <v>0.72413861386138778</v>
+        <v>0.4236486486486496</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>2.469275247524759</v>
+        <v>0.60739681528662182</v>
       </c>
       <c r="B9" s="3">
-        <v>1.1217326732673294</v>
+        <v>0.21087898089171983</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>1.1885861386138643</v>
+        <v>0.8247771428571421</v>
       </c>
       <c r="B10" s="3">
-        <v>1.657821782178222</v>
+        <v>2.4011999999999927</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
@@ -554,30 +554,30 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>0.43843168316831793</v>
+        <v>1.349162790697676</v>
       </c>
       <c r="B11" s="3">
-        <v>1.5800792079207957</v>
+        <v>1.1021581395348807</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>0.90675643564356667</v>
+        <v>0.81325095057034213</v>
       </c>
       <c r="B12" s="3">
-        <v>0.73520792079208075</v>
+        <v>0.35005323193916371</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
@@ -585,19 +585,19 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>1.9981402597402593</v>
+        <v>2.0690999999999997</v>
       </c>
       <c r="B13" s="3">
-        <v>0.80215519480519781</v>
+        <v>0.956175</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
@@ -614,10 +614,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>1.1378298701298699</v>
+        <v>1.1124000000000001</v>
       </c>
       <c r="B14" s="3">
-        <v>0.88770909090909411</v>
+        <v>1.7418461538461503</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -625,23 +625,23 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>0.49790259740259724</v>
+        <v>1.3049999999999999</v>
       </c>
       <c r="B15" s="3">
-        <v>1.0926188311688354</v>
+        <v>1.3843692307692277</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
@@ -649,15 +649,15 @@
       </c>
       <c r="E15" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>1.5138415584415581</v>
+        <v>2.0078999999999998</v>
       </c>
       <c r="B16" s="3">
-        <v>1.6089727272727332</v>
+        <v>1.413969230769228</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
@@ -665,66 +665,66 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>2-2</v>
+        <f>CONCATENATE(C16,"-",D16)</f>
+        <v>2-1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>1.2789022727272723</v>
+        <v>2.8730966480446991</v>
       </c>
       <c r="B17" s="3">
-        <v>1.3315636363636414</v>
+        <v>1.1454815642458109</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ref="C17:C80" si="3">ROUND(A17,0)</f>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D17:D80" si="4">ROUND(B17,0)</f>
         <v>1</v>
       </c>
       <c r="E17" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>3-1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>1.9650827922077918</v>
+        <v>3.0198972067039169</v>
       </c>
       <c r="B18" s="3">
-        <v>0.2272889610389619</v>
+        <v>0.80766256983240292</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E18" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-0</v>
+        <v>3-1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>1.179457792207792</v>
+        <v>1.4179340782122938</v>
       </c>
       <c r="B19" s="3">
-        <v>1.1789886363636406</v>
+        <v>1.4349988826815652</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E19" s="2" t="str">
@@ -734,57 +734,57 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>1.8555714285714282</v>
+        <v>1.169202234636874</v>
       </c>
       <c r="B20" s="3">
-        <v>0.6346607142857168</v>
+        <v>1.0867877094972076</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>0.85976623376623351</v>
+        <v>4.2991592178771034</v>
       </c>
       <c r="B21" s="3">
-        <v>1.1308500000000041</v>
+        <v>0.57610726256983291</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E21" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>4-1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>1.5648392523364527</v>
+        <v>1.9235452513966429</v>
       </c>
       <c r="B22" s="3">
-        <v>0.68020373831775738</v>
+        <v>1.4160335195530769</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" ref="C22:C50" si="3">ROUND(A22,0)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" ref="D22:D50" si="4">ROUND(B22,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E22" s="2" t="str">
@@ -794,10 +794,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>1.6227962616822471</v>
+        <v>1.6574715083798834</v>
       </c>
       <c r="B23" s="3">
-        <v>0.56258411214953297</v>
+        <v>0.54248044692737596</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="3"/>
@@ -814,30 +814,30 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>0.38159813084112248</v>
+        <v>1.4864932960893813</v>
       </c>
       <c r="B24" s="3">
-        <v>1.6917070093457953</v>
+        <v>0.9642324022346398</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>1.4942579439252375</v>
+        <v>1.3964027932960856</v>
       </c>
       <c r="B25" s="3">
-        <v>0.74743317757009387</v>
+        <v>1.772900558659223</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="3"/>
@@ -845,39 +845,39 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>2.7625696261682311</v>
+        <v>1.4689440000000038</v>
       </c>
       <c r="B26" s="3">
-        <v>0.67701448598130864</v>
+        <v>2.0396444444444461</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>3-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>1.1301616822429936</v>
+        <v>1.3816800000000036</v>
       </c>
       <c r="B27" s="3">
-        <v>0.88559158878504729</v>
+        <v>0.55850666666666715</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="3"/>
@@ -894,14 +894,14 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>2.5719140186915954</v>
+        <v>1.3443773333333369</v>
       </c>
       <c r="B28" s="3">
-        <v>1.3429303738317762</v>
+        <v>0.88786133333333395</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="4"/>
@@ -909,35 +909,35 @@
       </c>
       <c r="E28" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>3-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>2.3670560747663614</v>
+        <v>0.67764266666666839</v>
       </c>
       <c r="B29" s="3">
-        <v>0.39380887850467311</v>
+        <v>1.5742222222222233</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-0</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>0.5853084112149548</v>
+        <v>0.83857021276596011</v>
       </c>
       <c r="B30" s="3">
-        <v>1.9027079439252346</v>
+        <v>1.0841361702127634</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="3"/>
@@ -945,19 +945,19 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>1.094369047619048</v>
+        <v>0.57758662613981948</v>
       </c>
       <c r="B31" s="3">
-        <v>0.58623999999999965</v>
+        <v>0.59000607902735414</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="3"/>
@@ -974,34 +974,34 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>3.0654642857142873</v>
+        <v>1.882504559270523</v>
       </c>
       <c r="B32" s="3">
-        <v>0.27589047619047607</v>
+        <v>0.85182127659574269</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>3-0</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>2.3325238095238103</v>
+        <v>0.44923404255319294</v>
       </c>
       <c r="B33" s="3">
-        <v>1.2182799999999994</v>
+        <v>0.96797872340425306</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="4"/>
@@ -1009,35 +1009,35 @@
       </c>
       <c r="E33" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>0-1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>1.2141904761904765</v>
+        <v>2.5157106382978807</v>
       </c>
       <c r="B34" s="3">
-        <v>0.4797004761904759</v>
+        <v>0.65248936170212601</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-0</v>
+        <v>3-1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>0.68173809523809548</v>
+        <v>0.72733130699088377</v>
       </c>
       <c r="B35" s="3">
-        <v>0.42572190476190458</v>
+        <v>0.48183829787233934</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="3"/>
@@ -1054,10 +1054,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>1.0120000000000002</v>
+        <v>1.3163270516717369</v>
       </c>
       <c r="B36" s="3">
-        <v>0.60499619047619013</v>
+        <v>0.78298723404255144</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="3"/>
@@ -1074,14 +1074,14 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>0.75900000000000012</v>
+        <v>1.5787367781155066</v>
       </c>
       <c r="B37" s="3">
-        <v>0.91414619047619006</v>
+        <v>1.1615744680851037</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="4"/>
@@ -1089,19 +1089,19 @@
       </c>
       <c r="E37" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>0.68671428571428594</v>
+        <v>2.0536413373860247</v>
       </c>
       <c r="B38" s="3">
-        <v>1.0075999999999996</v>
+        <v>0.70985106382978558</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="4"/>
@@ -1109,39 +1109,39 @@
       </c>
       <c r="E38" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>2.5311273885350216</v>
+        <v>1.6757623762376279</v>
       </c>
       <c r="B39" s="3">
-        <v>0.54998598726114678</v>
+        <v>2.8566534653465419</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D39" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="E39" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>3-1</v>
+        <v>2-3</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>1.6845089171974454</v>
+        <v>1.0449108910891116</v>
       </c>
       <c r="B40" s="3">
-        <v>0.60860127388535057</v>
+        <v>0.63249504950495194</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="4"/>
@@ -1149,39 +1149,39 @@
       </c>
       <c r="E40" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>0.6898828025477679</v>
+        <v>1.7238336633663409</v>
       </c>
       <c r="B41" s="3">
-        <v>0.76698726114649707</v>
+        <v>1.7163861386138655</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>0.26995414012738744</v>
+        <v>1.6279603960396081</v>
       </c>
       <c r="B42" s="3">
-        <v>1.8058496815286631</v>
+        <v>1.732990099009905</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="4"/>
@@ -1189,19 +1189,19 @@
       </c>
       <c r="E42" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0-2</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>2.3385488372093048</v>
+        <v>1.2147089108910922</v>
       </c>
       <c r="B43" s="3">
-        <v>0.45597395348837083</v>
+        <v>0.4633663366336645</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="4"/>
@@ -1209,19 +1209,19 @@
       </c>
       <c r="E43" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-0</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>1.3163270516717369</v>
+        <v>1.5851405940594101</v>
       </c>
       <c r="B44" s="3">
-        <v>1.4957063829787198</v>
+        <v>1.4132673267326765</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="4"/>
@@ -1229,15 +1229,15 @@
       </c>
       <c r="E44" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>1.102357142857143</v>
+        <v>0.95603960396039844</v>
       </c>
       <c r="B45" s="3">
-        <v>0.67184238095238069</v>
+        <v>1.0477227722772302</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" si="3"/>
@@ -1254,30 +1254,30 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>2.7238095238095248</v>
+        <v>1.354883168316835</v>
       </c>
       <c r="B46" s="3">
-        <v>0.41634380952380934</v>
+        <v>1.0000990099009923</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>3-0</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>1.4335308641975351</v>
+        <v>0.97165940594059652</v>
       </c>
       <c r="B47" s="3">
-        <v>1.0798518518518523</v>
+        <v>1.2360297029702998</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" si="3"/>
@@ -1294,14 +1294,14 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>2.200795679012352</v>
+        <v>0.79714851485148719</v>
       </c>
       <c r="B48" s="3">
-        <v>0.97283950617283999</v>
+        <v>1.3785148514851515</v>
       </c>
       <c r="C48" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="4"/>
@@ -1309,15 +1309,15 @@
       </c>
       <c r="E48" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>0.66776975308642161</v>
+        <v>1.1821785714285711</v>
       </c>
       <c r="B49" s="3">
-        <v>2.4173845679012356</v>
+        <v>0.71800000000000286</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" si="3"/>
@@ -1325,947 +1325,2654 @@
       </c>
       <c r="D49" s="1">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>2.2043657142857125</v>
+        <v>0.68454805194805179</v>
       </c>
       <c r="B50" s="3">
-        <v>0.2796799999999991</v>
+        <v>0.68163376623376881</v>
       </c>
       <c r="C50" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>2.1303701298701294</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0.21563311688311768</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E50" s="2" t="str">
+      <c r="E51" s="2" t="str">
         <f t="shared" si="2"/>
         <v>2-0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="2"/>
-    </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="2"/>
+      <c r="A52" s="3">
+        <v>1.1971428571428571</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0.98235454545454914</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="2"/>
+      <c r="A53" s="3">
+        <v>0.62441883116883101</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1.1385428571428613</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E53" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="2"/>
+      <c r="A54" s="3">
+        <v>1.175376623376623</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0.85390714285714597</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E54" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="2"/>
+      <c r="A55" s="3">
+        <v>0.65557175324675299</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0.99237857142857511</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="2"/>
+      <c r="A56" s="3">
+        <v>0.61256542056074914</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.97667663551401918</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E56" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="2"/>
+      <c r="A57" s="3">
+        <v>3.9482495327102902</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0.50453971962616839</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E57" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>4-1</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="2"/>
+      <c r="A58" s="3">
+        <v>1.4862242990654242</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1.066103271028038</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E58" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="2"/>
+      <c r="A59" s="3">
+        <v>4.0343242990654309</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0.33831588785046746</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>4-0</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="2"/>
+      <c r="A60" s="3">
+        <v>1.4408915887850504</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0.96442990654205651</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E60" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="2"/>
+      <c r="A61" s="3">
+        <v>1.0755042056074793</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0.73926869158878539</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="2"/>
+      <c r="A62" s="3">
+        <v>1.4288411214953305</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2.9754448598130856</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="E62" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1-3</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="2"/>
+      <c r="A63" s="3">
+        <v>0.82344859813084315</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1.1920149532710287</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E63" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="2"/>
+      <c r="A64" s="3">
+        <v>1.1591401869158908</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1.4162831775700941</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="2"/>
+      <c r="A65" s="3">
+        <v>0.66707943925233815</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0.39801869158878528</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="2"/>
+      <c r="A66" s="3">
+        <v>1.5458835443037955</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0.36964556962025252</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="2" t="str">
+        <f t="shared" ref="E66:E129" si="5">CONCATENATE(C66,"-",D66)</f>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="2"/>
+      <c r="A67" s="3">
+        <v>0.85290126582278369</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0.99367088607594756</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E67" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="2"/>
+      <c r="A68" s="3">
+        <v>2.4570531645569593</v>
+      </c>
+      <c r="B68" s="3">
+        <v>0.80129620253164402</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E68" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="2"/>
+      <c r="A69" s="3">
+        <v>2.8042175732217509</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0.74201422594142241</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E69" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="2"/>
+      <c r="A70" s="3">
+        <v>1.5665271966527159</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0.92852133891213362</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E70" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="2"/>
+      <c r="A71" s="3">
+        <v>1.319899581589955</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1.0778711297071129</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E71" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="2"/>
+      <c r="A72" s="3">
+        <v>2.737941422594135</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0.40852468619246851</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>3-0</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="2"/>
+      <c r="A73" s="3">
+        <v>0.81338912133891017</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0.4668853556485355</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="2"/>
+      <c r="A74" s="3">
+        <v>2.0296569037656851</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0.55519832635983246</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E74" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="2"/>
+      <c r="A75" s="3">
+        <v>0.79210041841003997</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1.0298033472803343</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E75" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="2"/>
+      <c r="A76" s="3">
+        <v>1.9118326359832589</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0.45494560669456058</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="2"/>
+      <c r="A77" s="3">
+        <v>1.5151250000000056</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0.25440000000000079</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="2"/>
+      <c r="A78" s="3">
+        <v>1.220694444444449</v>
+      </c>
+      <c r="B78" s="3">
+        <v>1.1791395833333371</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E78" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="2"/>
+      <c r="A79" s="3">
+        <v>1.2110400000000001</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0.9481904761904778</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E79" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="2"/>
+      <c r="A80" s="3">
+        <v>1.6764800000000002</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1.3085028571428592</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E80" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="2"/>
+      <c r="A81" s="3">
+        <v>0.496</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2.484259047619052</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" ref="C81:C144" si="6">ROUND(A81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" ref="D81:D144" si="7">ROUND(B81,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E81" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>0-2</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="2"/>
+      <c r="A82" s="3">
+        <v>1.9315476190476197</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0.81098714285714257</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E82" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="2"/>
+      <c r="A83" s="3">
+        <v>0.8360000000000003</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1.567559523809523</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E83" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="2"/>
+      <c r="A84" s="3">
+        <v>0.68671428571428594</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1.2852352380952374</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E84" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="2"/>
+      <c r="A85" s="3">
+        <v>1.4099642857142862</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1.3897028571428565</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E85" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="2"/>
+      <c r="A86" s="3">
+        <v>1.4890595238095243</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0.97008761904761853</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E86" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="2"/>
+      <c r="A87" s="3">
+        <v>1.6363654054054015</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0.76256756756756938</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E87" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="2"/>
+      <c r="A88" s="3">
+        <v>2.0335783783783739</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1.8444324324324366</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E88" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="2"/>
+      <c r="A89" s="3">
+        <v>0.83053621621621432</v>
+      </c>
+      <c r="B89" s="3">
+        <v>2.9972027027027095</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E89" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-3</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="2"/>
+      <c r="A90" s="3">
+        <v>0.57174594594594452</v>
+      </c>
+      <c r="B90" s="3">
+        <v>2.0039324324324368</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E90" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="2"/>
+      <c r="A91" s="3">
+        <v>1.6916388535031779</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0.46824203821656063</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="2"/>
+      <c r="A92" s="3">
+        <v>1.0753910828025437</v>
+      </c>
+      <c r="B92" s="3">
+        <v>0.4489681528662422</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="2"/>
+      <c r="A93" s="3">
+        <v>2.9662993630573129</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0.98772993630573291</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="2"/>
+      <c r="A94" s="3">
+        <v>1.2029629629629666</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1.0516395061728399</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E94" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="2"/>
+      <c r="A95" s="3">
+        <v>0.92678271604938545</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1.6646500000000006</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E95" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="2"/>
+      <c r="A96" s="3">
+        <v>1.7896580246913629</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1.2938765432098773</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E96" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="2"/>
+      <c r="A97" s="3">
+        <v>3.4141592592592689</v>
+      </c>
+      <c r="B97" s="3">
+        <v>3.7211111111111132E-2</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E97" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>3-0</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="2"/>
+      <c r="A98" s="3">
+        <v>0.40261666666666784</v>
+      </c>
+      <c r="B98" s="3">
+        <v>2.4168981481481491</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E98" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>0-2</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="2"/>
+      <c r="A99" s="3">
+        <v>1.5809999999999989</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0.99885714285713956</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E99" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="2"/>
+      <c r="A100" s="3">
+        <v>1.6081028571428559</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0.39954285714285587</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E100" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="2"/>
+      <c r="A101" s="3">
+        <v>0.83116604651162873</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1.5295255813953448</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E101" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="2"/>
+      <c r="A102" s="3">
+        <v>2.392515348837212</v>
+      </c>
+      <c r="B102" s="3">
+        <v>0.56290232558139375</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E102" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="2"/>
+      <c r="A103" s="3">
+        <v>0.41824046511627955</v>
+      </c>
+      <c r="B103" s="3">
+        <v>0.65748837209302136</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E103" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="2"/>
+      <c r="A104" s="3">
+        <v>2.3722097674418627</v>
+      </c>
+      <c r="B104" s="3">
+        <v>0.72323720930232349</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E104" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="2"/>
+      <c r="A105" s="3">
+        <v>1.1142935361216733</v>
+      </c>
+      <c r="B105" s="3">
+        <v>0.939011406844107</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E105" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="2"/>
+      <c r="A106" s="3">
+        <v>0.81325095057034213</v>
+      </c>
+      <c r="B106" s="3">
+        <v>0.44510418250950595</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E106" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="2"/>
+      <c r="A107" s="3">
+        <v>1.1277079847908744</v>
+      </c>
+      <c r="B107" s="3">
+        <v>0.47491406844106487</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E107" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="2"/>
+      <c r="A108" s="3">
+        <v>0.95832000000000006</v>
+      </c>
+      <c r="B108" s="3">
+        <v>0.72105000000000008</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E108" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="2"/>
+      <c r="A109" s="3">
+        <v>1.3939199999999998</v>
+      </c>
+      <c r="B109" s="3">
+        <v>1.147125</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E109" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="2"/>
+      <c r="A110" s="3">
+        <v>1.1979</v>
+      </c>
+      <c r="B110" s="3">
+        <v>1.5731999999999999</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D110" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E110" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="2"/>
+      <c r="A111" s="3">
+        <v>1.3386000000000002</v>
+      </c>
+      <c r="B111" s="3">
+        <v>1.2449076923076898</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D111" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E111" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="2"/>
+      <c r="A112" s="3">
+        <v>1.8753</v>
+      </c>
+      <c r="B112" s="3">
+        <v>1.5918538461538427</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D112" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E112" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="2"/>
+      <c r="A113" s="3">
+        <v>0.38880000000000003</v>
+      </c>
+      <c r="B113" s="3">
+        <v>1.1992269230769208</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D113" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E113" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="2"/>
+      <c r="A114" s="3">
+        <v>1.4904000000000002</v>
+      </c>
+      <c r="B114" s="3">
+        <v>1.7674615384615349</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D114" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E114" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="2"/>
+      <c r="A115" s="3">
+        <v>1.6217966480446961</v>
+      </c>
+      <c r="B115" s="3">
+        <v>0.67622346368715147</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D115" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E115" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="2"/>
+      <c r="A116" s="3">
+        <v>2.3195463687150886</v>
+      </c>
+      <c r="B116" s="3">
+        <v>1.098204469273744</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D116" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E116" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="2"/>
+      <c r="A117" s="3">
+        <v>3.3162346368714992</v>
+      </c>
+      <c r="B117" s="3">
+        <v>0.38292737430167717</v>
+      </c>
+      <c r="C117" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="D117" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E117" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>3-0</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="2"/>
+      <c r="A118" s="3">
+        <v>1.1377558659217846</v>
+      </c>
+      <c r="B118" s="3">
+        <v>1.0216715083798913</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E118" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="2"/>
+      <c r="A119" s="3">
+        <v>1.5431631284916159</v>
+      </c>
+      <c r="B119" s="3">
+        <v>1.579575418994418</v>
+      </c>
+      <c r="C119" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D119" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E119" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="2"/>
+      <c r="A120" s="3">
+        <v>1.5641533333333371</v>
+      </c>
+      <c r="B120" s="3">
+        <v>0.71811911111111171</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D120" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E120" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="2"/>
+      <c r="A121" s="3">
+        <v>0.51267600000000135</v>
+      </c>
+      <c r="B121" s="3">
+        <v>4.5682560000000034</v>
+      </c>
+      <c r="C121" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D121" s="1">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E121" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-5</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="2"/>
+      <c r="A122" s="3">
+        <v>1.6252920000000042</v>
+      </c>
+      <c r="B122" s="3">
+        <v>1.4889404444444456</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D122" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E122" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="2"/>
+      <c r="A123" s="3">
+        <v>1.6666346666666707</v>
+      </c>
+      <c r="B123" s="3">
+        <v>1.1142755555555566</v>
+      </c>
+      <c r="C123" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D123" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E123" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="2"/>
+      <c r="A124" s="3">
+        <v>2.3574091185410406</v>
+      </c>
+      <c r="B124" s="3">
+        <v>0.83891489361701943</v>
+      </c>
+      <c r="C124" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D124" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E124" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="2"/>
+      <c r="A125" s="3">
+        <v>3.298329113924046</v>
+      </c>
+      <c r="B125" s="3">
+        <v>0.79705654008438664</v>
+      </c>
+      <c r="C125" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="D125" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E125" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="2"/>
+      <c r="A126" s="3">
+        <v>1.2881417721518971</v>
+      </c>
+      <c r="B126" s="3">
+        <v>0.75042025316455552</v>
+      </c>
+      <c r="C126" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D126" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E126" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="2"/>
+      <c r="A127" s="3">
+        <v>0.47975696202531581</v>
+      </c>
+      <c r="B127" s="3">
+        <v>0.46702531645569534</v>
+      </c>
+      <c r="C127" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D127" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E127" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>0-0</v>
+      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="2"/>
+      <c r="A128" s="3">
+        <v>1.6093974683544285</v>
+      </c>
+      <c r="B128" s="3">
+        <v>0.96902784810126397</v>
+      </c>
+      <c r="C128" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D128" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E128" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="2"/>
+      <c r="A129" s="3">
+        <v>1.3973063291139225</v>
+      </c>
+      <c r="B129" s="3">
+        <v>0.88423459915611635</v>
+      </c>
+      <c r="C129" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D129" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E129" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="2"/>
+      <c r="A130" s="3">
+        <v>2.3541265822784783</v>
+      </c>
+      <c r="B130" s="3">
+        <v>0.44304472573839587</v>
+      </c>
+      <c r="C130" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D130" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E130" s="2" t="str">
+        <f t="shared" ref="E130:E179" si="8">CONCATENATE(C130,"-",D130)</f>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="2"/>
+      <c r="A131" s="3">
+        <v>0.7750683544303788</v>
+      </c>
+      <c r="B131" s="3">
+        <v>0.89430379746835287</v>
+      </c>
+      <c r="C131" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D131" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E131" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="2"/>
+      <c r="A132" s="3">
+        <v>1.5292916666666725</v>
+      </c>
+      <c r="B132" s="3">
+        <v>0.11825625000000037</v>
+      </c>
+      <c r="C132" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D132" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E132" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="2"/>
+      <c r="A133" s="3">
+        <v>0.28097222222222329</v>
+      </c>
+      <c r="B133" s="3">
+        <v>1.4163145833333377</v>
+      </c>
+      <c r="C133" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D133" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E133" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="2"/>
+      <c r="A134" s="3">
+        <v>1.0671041666666705</v>
+      </c>
+      <c r="B134" s="3">
+        <v>1.8603000000000058</v>
+      </c>
+      <c r="C134" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D134" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E134" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="2"/>
+      <c r="A135" s="3">
+        <v>0.51177083333333528</v>
+      </c>
+      <c r="B135" s="3">
+        <v>0.77512500000000228</v>
+      </c>
+      <c r="C135" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D135" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E135" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="2"/>
+      <c r="A136" s="3">
+        <v>2.5440000000000005</v>
+      </c>
+      <c r="B136" s="3">
+        <v>1.0327314285714302</v>
+      </c>
+      <c r="C136" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="D136" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E136" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="2"/>
+      <c r="A137" s="3">
+        <v>1.0497600000000002</v>
+      </c>
+      <c r="B137" s="3">
+        <v>2.5980419047619097</v>
+      </c>
+      <c r="C137" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D137" s="1">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E137" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-3</v>
+      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="2"/>
+      <c r="A138" s="3">
+        <v>2.3235200000000003</v>
+      </c>
+      <c r="B138" s="3">
+        <v>0.99625142857143034</v>
+      </c>
+      <c r="C138" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D138" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E138" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="2"/>
+      <c r="A139" s="3">
+        <v>1.3219200000000002</v>
+      </c>
+      <c r="B139" s="3">
+        <v>2.2773942857142888</v>
+      </c>
+      <c r="C139" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D139" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E139" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="2"/>
+      <c r="A140" s="3">
+        <v>2.3457600000000003</v>
+      </c>
+      <c r="B140" s="3">
+        <v>1.5504000000000024</v>
+      </c>
+      <c r="C140" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D140" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E140" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="2"/>
+      <c r="A141" s="3">
+        <v>0.75638095238095271</v>
+      </c>
+      <c r="B141" s="3">
+        <v>1.5297199999999991</v>
+      </c>
+      <c r="C141" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D141" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E141" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="2"/>
+      <c r="A142" s="3">
+        <v>1.3907142857142862</v>
+      </c>
+      <c r="B142" s="3">
+        <v>0.81262285714285676</v>
+      </c>
+      <c r="C142" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D142" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E142" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="2"/>
+      <c r="A143" s="3">
+        <v>1.0717142857142861</v>
+      </c>
+      <c r="B143" s="3">
+        <v>1.4300504761904755</v>
+      </c>
+      <c r="C143" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D143" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E143" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="2"/>
+      <c r="A144" s="3">
+        <v>1.6610724324324286</v>
+      </c>
+      <c r="B144" s="3">
+        <v>1.0479729729729754</v>
+      </c>
+      <c r="C144" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D144" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E144" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="2"/>
+      <c r="A145" s="3">
+        <v>2.4013329729729675</v>
+      </c>
+      <c r="B145" s="3">
+        <v>0.51685135135135252</v>
+      </c>
+      <c r="C145" s="1">
+        <f t="shared" ref="C145:C179" si="9">ROUND(A145,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D145" s="1">
+        <f t="shared" ref="D145:D179" si="10">ROUND(B145,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E145" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="2"/>
+      <c r="A146" s="3">
+        <v>2.1696254054054003</v>
+      </c>
+      <c r="B146" s="3">
+        <v>1.641081081081085</v>
+      </c>
+      <c r="C146" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D146" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E146" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="2"/>
+      <c r="A147" s="3">
+        <v>1.3896118918918885</v>
+      </c>
+      <c r="B147" s="3">
+        <v>0.48162162162162281</v>
+      </c>
+      <c r="C147" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D147" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E147" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="2"/>
+      <c r="A148" s="3">
+        <v>0.94262675159235298</v>
+      </c>
+      <c r="B148" s="3">
+        <v>0.54998598726114678</v>
+      </c>
+      <c r="C148" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D148" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E148" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="2"/>
+      <c r="A149" s="3">
+        <v>0.94262675159235298</v>
+      </c>
+      <c r="B149" s="3">
+        <v>2.0328280254777078</v>
+      </c>
+      <c r="C149" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D149" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E149" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="2"/>
+      <c r="A150" s="3">
+        <v>0.98577515923566494</v>
+      </c>
+      <c r="B150" s="3">
+        <v>1.8997248407643317</v>
+      </c>
+      <c r="C150" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D150" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E150" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="2"/>
+      <c r="A151" s="3">
+        <v>0.28357345679012425</v>
+      </c>
+      <c r="B151" s="3">
+        <v>1.6428827160493831</v>
+      </c>
+      <c r="C151" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D151" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E151" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0-2</v>
+      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="2"/>
+      <c r="A152" s="3">
+        <v>0.54784186046511685</v>
+      </c>
+      <c r="B152" s="3">
+        <v>0.87203720930232309</v>
+      </c>
+      <c r="C152" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D152" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E152" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="2"/>
+      <c r="A153" s="3">
+        <v>1.8956418604651184</v>
+      </c>
+      <c r="B153" s="3">
+        <v>0.6182697674418588</v>
+      </c>
+      <c r="C153" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D153" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E153" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="2"/>
+      <c r="A154" s="3">
+        <v>1.9248055813953509</v>
+      </c>
+      <c r="B154" s="3">
+        <v>0.73973209302325382</v>
+      </c>
+      <c r="C154" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D154" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E154" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="2"/>
+      <c r="A155" s="3">
+        <v>2.2637316279069788</v>
+      </c>
+      <c r="B155" s="3">
+        <v>0.84746790697674201</v>
+      </c>
+      <c r="C155" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D155" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E155" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="2"/>
+      <c r="A156" s="3">
+        <v>0.95242585551330783</v>
+      </c>
+      <c r="B156" s="3">
+        <v>0.60233003802281404</v>
+      </c>
+      <c r="C156" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D156" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E156" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="2"/>
+      <c r="A157" s="3">
+        <v>1.9820965779467681</v>
+      </c>
+      <c r="B157" s="3">
+        <v>0.38974296577946788</v>
+      </c>
+      <c r="C157" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D157" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E157" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="2"/>
+      <c r="A158" s="3">
+        <v>0.75120912547528518</v>
+      </c>
+      <c r="B158" s="3">
+        <v>0.56246996197718657</v>
+      </c>
+      <c r="C158" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D158" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E158" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="2"/>
+      <c r="A159" s="3">
+        <v>1.5274585551330799</v>
+      </c>
+      <c r="B159" s="3">
+        <v>0.24529277566539937</v>
+      </c>
+      <c r="C159" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D159" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E159" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="2"/>
+      <c r="A160" s="3">
+        <v>1.4898980988593158</v>
+      </c>
+      <c r="B160" s="3">
+        <v>0.48743422053231955</v>
+      </c>
+      <c r="C160" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D160" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E160" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="2"/>
+      <c r="A161" s="3">
+        <v>2.4066900000000002</v>
+      </c>
+      <c r="B161" s="3">
+        <v>0.99749999999999994</v>
+      </c>
+      <c r="C161" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D161" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E161" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="2"/>
+      <c r="A162" s="3">
+        <v>2.6462700000000003</v>
+      </c>
+      <c r="B162" s="3">
+        <v>0.36052500000000004</v>
+      </c>
+      <c r="C162" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="D162" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E162" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>3-0</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="2"/>
+      <c r="A163" s="3">
+        <v>2.51559</v>
+      </c>
+      <c r="B163" s="3">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="C163" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="D163" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E163" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="2"/>
+      <c r="A164" s="3">
+        <v>1.27413</v>
+      </c>
+      <c r="B164" s="3">
+        <v>0.78659999999999997</v>
+      </c>
+      <c r="C164" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D164" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E164" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="2"/>
+      <c r="A165">
+        <v>1.7172000000000003</v>
+      </c>
+      <c r="B165">
+        <v>0.72576923076922917</v>
+      </c>
+      <c r="C165" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D165" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E165" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="2"/>
+      <c r="A166">
+        <v>4.111065921787719</v>
+      </c>
+      <c r="B166">
+        <v>0.45286480446927413</v>
+      </c>
+      <c r="C166" s="1">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="D166" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E166" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>4-0</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="2"/>
+      <c r="A167">
+        <v>1.8616320000000048</v>
+      </c>
+      <c r="B167">
+        <v>0.52195733333333372</v>
+      </c>
+      <c r="C167" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D167" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E167" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="2"/>
+      <c r="A168">
+        <v>2.1991066666666717</v>
+      </c>
+      <c r="B168">
+        <v>0.67951644444444503</v>
+      </c>
+      <c r="C168" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D168" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E168" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="2"/>
+      <c r="A169">
+        <v>1.5469790794979044</v>
+      </c>
+      <c r="B169">
+        <v>1.458502092050209</v>
+      </c>
+      <c r="C169" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D169" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E169" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="2"/>
+      <c r="A170">
+        <v>2.1146778242677771</v>
+      </c>
+      <c r="B170">
+        <v>0.84689874476987426</v>
+      </c>
+      <c r="C170" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D170" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E170" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="2"/>
+      <c r="A171">
+        <v>0.64777083333333585</v>
+      </c>
+      <c r="B171">
+        <v>1.4022916666666709</v>
+      </c>
+      <c r="C171" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D171" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E171" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="2"/>
+      <c r="A172">
+        <v>1.7280000000000002</v>
+      </c>
+      <c r="B172">
+        <v>0.68921142857142959</v>
+      </c>
+      <c r="C172" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D172" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E172" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="2"/>
+      <c r="A173">
+        <v>0.47666666666666685</v>
+      </c>
+      <c r="B173">
+        <v>0.62451571428571395</v>
+      </c>
+      <c r="C173" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D173" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E173" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="2"/>
+      <c r="A174">
+        <v>1.2623675159235617</v>
+      </c>
+      <c r="B174">
+        <v>0.67345222929936344</v>
+      </c>
+      <c r="C174" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D174" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E174" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="2"/>
+      <c r="A175">
+        <v>1.1639595348837219</v>
+      </c>
+      <c r="B175">
+        <v>1.0201451162790669</v>
+      </c>
+      <c r="C175" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D175" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E175" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="2"/>
-    </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="2"/>
-    </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="2"/>
-    </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="2"/>
-    </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1.1641505703422053</v>
+      </c>
+      <c r="B176">
+        <v>0.99326539923954427</v>
+      </c>
+      <c r="C176" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D176" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E176" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1.689438022813688</v>
+      </c>
+      <c r="B177">
+        <v>1.0384912547528524</v>
+      </c>
+      <c r="C177" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D177" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E177" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1.4483699999999999</v>
+      </c>
+      <c r="B178">
+        <v>2.3761874999999999</v>
+      </c>
+      <c r="C178" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D178" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E178" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1.2741300000000002</v>
+      </c>
+      <c r="B179">
+        <v>0.99108750000000012</v>
+      </c>
+      <c r="C179" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D179" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E179" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="2"/>
     </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="2"/>
     </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="2"/>
     </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="2"/>
     </row>
-    <row r="184" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="2"/>
     </row>
-    <row r="185" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="2"/>
     </row>
-    <row r="186" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="2"/>
     </row>
-    <row r="187" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="2"/>
     </row>
-    <row r="188" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="2"/>

--- a/CS generator.xlsx
+++ b/CS generator.xlsx
@@ -344,20 +344,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E188"/>
+  <dimension ref="A1:E190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E47"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
-        <v>1.4281968454258627</v>
+        <v>1.188893333333336</v>
       </c>
       <c r="B1" s="3">
-        <v>1.0252845425867547</v>
+        <v>1.4415975000000001</v>
       </c>
       <c r="C1" s="1">
         <f>ROUND(A1,0)</f>
@@ -374,17 +374,17 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>0.81444753363228584</v>
+        <v>0.61953829787233872</v>
       </c>
       <c r="B2" s="3">
-        <v>0.63759686098654544</v>
+        <v>1.3600452127659599</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:C16" si="0">ROUND(A2,0)</f>
+        <f t="shared" ref="C2:C15" si="0">ROUND(A2,0)</f>
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D16" si="1">ROUND(B2,0)</f>
+        <f t="shared" ref="D2:D15" si="1">ROUND(B2,0)</f>
         <v>1</v>
       </c>
       <c r="E2" s="2" t="str">
@@ -394,30 +394,30 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>0.41702631578947241</v>
+        <v>0.89986276595744452</v>
       </c>
       <c r="B3" s="3">
-        <v>0.43835233918128541</v>
+        <v>0.81765957446808379</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0-0</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1.6681052631578894</v>
+        <v>1.6654936170212726</v>
       </c>
       <c r="B4" s="3">
-        <v>0.72069152046783447</v>
+        <v>1.4998212765957426</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
@@ -434,30 +434,30 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>0.94445263157894443</v>
+        <v>1.8619914893616962</v>
       </c>
       <c r="B5" s="3">
-        <v>0.97926023391812611</v>
+        <v>1.7160842553191511</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>1.7409789473684156</v>
+        <v>1.6578157894736789</v>
       </c>
       <c r="B6" s="3">
-        <v>0.71134941520467654</v>
+        <v>0.4716725146198818</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
@@ -465,39 +465,39 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>2-0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>0.47222631578947222</v>
+        <v>1.2033036437246984</v>
       </c>
       <c r="B7" s="3">
-        <v>0.77726315789473477</v>
+        <v>2.4079603238866465</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>1.0248315789473652</v>
+        <v>1.0911945205479447</v>
       </c>
       <c r="B8" s="3">
-        <v>1.0795321637426873</v>
+        <v>1.0238858447488561</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -514,10 +514,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>0.91448275862069195</v>
+        <v>1.4816219178082184</v>
       </c>
       <c r="B9" s="3">
-        <v>0.90097899686520699</v>
+        <v>1.87224840182648</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
@@ -525,23 +525,23 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>1.7219172413793147</v>
+        <v>1.26126</v>
       </c>
       <c r="B10" s="3">
-        <v>1.3767855799373092</v>
+        <v>0.61322434782608914</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
@@ -549,39 +549,39 @@
       </c>
       <c r="E10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>0.49382068965517367</v>
+        <v>1.2576618556701036</v>
       </c>
       <c r="B11" s="3">
-        <v>2.4764360501567491</v>
+        <v>1.3234871134020585</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>1.5088965517241417</v>
+        <v>0.59815384615384581</v>
       </c>
       <c r="B12" s="3">
-        <v>0.69341755485893664</v>
+        <v>0.96203076923077224</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
@@ -589,82 +589,82 @@
       </c>
       <c r="E12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>1.1589753943217624</v>
+        <v>1.8184513274336265</v>
       </c>
       <c r="B13" s="3">
-        <v>1.0056031545741362</v>
+        <v>0.72225398230088611</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ref="C13:C20" si="3">ROUND(A13,0)</f>
+        <v>2</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D13:D20" si="4">ROUND(B13,0)</f>
         <v>1</v>
       </c>
       <c r="E13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>1.6773009463722341</v>
+        <v>0.91186058394160274</v>
       </c>
       <c r="B14" s="3">
-        <v>0.61973217665615377</v>
+        <v>0.95318978102189766</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E14" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>0.46121388012618142</v>
+        <v>0.70679999999999998</v>
       </c>
       <c r="B15" s="3">
-        <v>0.76271167192429312</v>
+        <v>1.233336</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E15" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>1.4034889589905315</v>
+        <v>1.2039350000000026</v>
       </c>
       <c r="B16" s="3">
-        <v>1.0700886435331269</v>
+        <v>1.0339500000000001</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" ref="C16:C25" si="3">ROUND(A16,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" ref="D16:D25" si="4">ROUND(B16,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E16" s="2" t="str">
@@ -674,14 +674,14 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>2.0531848580441574</v>
+        <v>1.0126050000000022</v>
       </c>
       <c r="B17" s="3">
-        <v>0.56543470031545962</v>
+        <v>0.74961375000000008</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="4"/>
@@ -689,15 +689,15 @@
       </c>
       <c r="E17" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>0.60797602523659089</v>
+        <v>1.3320900000000029</v>
       </c>
       <c r="B18" s="3">
-        <v>0.97422870662460936</v>
+        <v>2.9709112500000003</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="3"/>
@@ -705,23 +705,23 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>1.2724843049327337</v>
+        <v>1.502428723404251</v>
       </c>
       <c r="B19" s="3">
-        <v>0.80690224215246442</v>
+        <v>1.4789680851063856</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="4"/>
@@ -729,62 +729,62 @@
       </c>
       <c r="E19" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>0.38289686098654657</v>
+        <v>1.1726744680851031</v>
       </c>
       <c r="B20" s="3">
-        <v>1.6724340807174849</v>
+        <v>2.5687340425531962</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0-2</v>
+        <v>1-3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>0.52684304932735349</v>
+        <v>1.7623962765957399</v>
       </c>
       <c r="B21" s="3">
-        <v>1.3451269058295929</v>
+        <v>1.1792824468085126</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" ref="C21:C84" si="5">ROUND(A21,0)</f>
+        <v>2</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D21:D84" si="6">ROUND(B21,0)</f>
         <v>1</v>
       </c>
       <c r="E21" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>1.7403094170403566</v>
+        <v>2.4660654255319083</v>
       </c>
       <c r="B22" s="3">
-        <v>0.58356322869955013</v>
+        <v>0.80377446808510777</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E22" s="2" t="str">
@@ -794,37 +794,37 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>0.8832538116591917</v>
+        <v>0.69625531914893424</v>
       </c>
       <c r="B23" s="3">
-        <v>0.61859192825111942</v>
+        <v>2.1439271276595782</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="E23" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>0.61177130044842964</v>
+        <v>1.2624797872340396</v>
       </c>
       <c r="B24" s="3">
-        <v>1.1328430493273514</v>
+        <v>0.83310425531914767</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E24" s="2" t="str">
@@ -834,50 +834,50 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>1.7682349775784731</v>
+        <v>2.521619680851058</v>
       </c>
       <c r="B25" s="3">
-        <v>2.1892937219730886</v>
+        <v>0.53679999999999917</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="E25" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-2</v>
+        <v>3-1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>1.3956923076923069</v>
+        <v>1.9733999999999952</v>
       </c>
       <c r="B26" s="3">
-        <v>0.88186153846154114</v>
+        <v>2.0385680851063794</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" ref="C26:C47" si="5">ROUND(A26,0)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ref="D26:D47" si="6">ROUND(B26,0)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="E26" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>1.1046600000000024</v>
+        <v>1.0675744680851029</v>
       </c>
       <c r="B27" s="3">
-        <v>1.7390700000000001</v>
+        <v>1.2988051063829804</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -885,23 +885,23 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>2.013477500000004</v>
+        <v>1.1519999999999961</v>
       </c>
       <c r="B28" s="3">
-        <v>1.4055787500000001</v>
+        <v>0.79125574468085202</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="6"/>
@@ -909,19 +909,19 @@
       </c>
       <c r="E28" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>0.75982978723404004</v>
+        <v>1.5993191489361649</v>
       </c>
       <c r="B29" s="3">
-        <v>0.94478297872340544</v>
+        <v>1.4008851063829804</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="6"/>
@@ -929,15 +929,15 @@
       </c>
       <c r="E29" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>0.68479999999999774</v>
+        <v>0.79046808510638045</v>
       </c>
       <c r="B30" s="3">
-        <v>2.1664851063829809</v>
+        <v>0.52234553191489419</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -945,19 +945,19 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>0.95885789473683913</v>
+        <v>0.82957368421052369</v>
       </c>
       <c r="B31" s="3">
-        <v>1.1333011695906403</v>
+        <v>1.6358026315789431</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -965,19 +965,19 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>0.60586842105262972</v>
+        <v>1.0549736842105231</v>
       </c>
       <c r="B32" s="3">
-        <v>0.6559195906432731</v>
+        <v>0.76677923976607987</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -994,14 +994,14 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>0.70839999999999781</v>
+        <v>1.8602157894736784</v>
       </c>
       <c r="B33" s="3">
-        <v>1.6516842105263116</v>
+        <v>1.6082953216374227</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="6"/>
@@ -1009,15 +1009,15 @@
       </c>
       <c r="E33" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-2</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>1.2061684210526278</v>
+        <v>0.75899999999999757</v>
       </c>
       <c r="B34" s="3">
-        <v>0.27663011695906364</v>
+        <v>1.1546842105263131</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -1025,23 +1025,23 @@
       </c>
       <c r="D34" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-0</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>1.1606526315789438</v>
+        <v>1.7616789473684156</v>
       </c>
       <c r="B35" s="3">
-        <v>1.4287192982456105</v>
+        <v>0.71134941520467654</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="6"/>
@@ -1049,15 +1049,15 @@
       </c>
       <c r="E35" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>2.0423999999999936</v>
+        <v>1.6007999999999947</v>
       </c>
       <c r="B36" s="3">
-        <v>0.82708771929824343</v>
+        <v>0.49969883040935542</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -1065,19 +1065,19 @@
       </c>
       <c r="D36" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>2-0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>0.91448275862069206</v>
+        <v>0.87617894736841828</v>
       </c>
       <c r="B37" s="3">
-        <v>2.8625699059561232</v>
+        <v>1.1584210526315761</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -1085,23 +1085,23 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>2.1538758620689711</v>
+        <v>0.70839999999999781</v>
       </c>
       <c r="B38" s="3">
-        <v>1.2461416927899731</v>
+        <v>1.0687368421052605</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="6"/>
@@ -1109,15 +1109,15 @@
       </c>
       <c r="E38" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>1.6440870662460512</v>
+        <v>1.5020210526315743</v>
       </c>
       <c r="B39" s="3">
-        <v>1.3983047318612041</v>
+        <v>1.0596023391812837</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="5"/>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>0.90080647773279521</v>
+        <v>0.55865789473684035</v>
       </c>
       <c r="B40" s="3">
-        <v>1.1508340080971693</v>
+        <v>0.40534356725146092</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="5"/>
@@ -1145,19 +1145,19 @@
       </c>
       <c r="D40" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>1.4706238410596073</v>
+        <v>1.0650210526315755</v>
       </c>
       <c r="B41" s="3">
-        <v>0.53274172185430702</v>
+        <v>0.53032017543859522</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="5"/>
@@ -1174,10 +1174,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>1.4156307692307684</v>
+        <v>1.3945862068965551</v>
       </c>
       <c r="B42" s="3">
-        <v>0.8777502958579908</v>
+        <v>0.98678652037617909</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="5"/>
@@ -1194,14 +1194,14 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>1.5025739644970362</v>
+        <v>0.96531724137931274</v>
       </c>
       <c r="B43" s="3">
-        <v>0.44258461538461502</v>
+        <v>0.43831410658307368</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="6"/>
@@ -1209,35 +1209,35 @@
       </c>
       <c r="E43" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-0</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>1.5725704142011783</v>
+        <v>0.63717931034482922</v>
       </c>
       <c r="B44" s="3">
-        <v>1.4646153846153835</v>
+        <v>2.5819561128526738</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E44" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-3</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>2.361275</v>
+        <v>1.6346379310344867</v>
       </c>
       <c r="B45" s="3">
-        <v>0.65343055555555785</v>
+        <v>1.3868351097178733</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" si="5"/>
@@ -1254,10 +1254,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>0.96801769911504298</v>
+        <v>0.93721034482758858</v>
       </c>
       <c r="B46" s="3">
-        <v>1.798821238938056</v>
+        <v>0.6377586206896575</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" si="5"/>
@@ -1265,19 +1265,19 @@
       </c>
       <c r="D46" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>1.1859802919707989</v>
+        <v>1.3945862068965551</v>
       </c>
       <c r="B47" s="3">
-        <v>0.64327335766423366</v>
+        <v>1.2762902821316662</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" si="5"/>
@@ -1293,943 +1293,2864 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="2"/>
+      <c r="A48" s="3">
+        <v>1.9349379310344879</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0.80009717868338837</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E48" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="2"/>
+      <c r="A49" s="3">
+        <v>2.6565724137931097</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0.57205015673981396</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="2"/>
+      <c r="A50" s="3">
+        <v>1.2459827586206929</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0.80396238244514395</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="2"/>
+      <c r="A51" s="3">
+        <v>1.6581724137931078</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2.0387661442006344</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E51" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="2"/>
+      <c r="A52" s="3">
+        <v>1.1145931034482788</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1.134566144200631</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="2"/>
+      <c r="A53" s="3">
+        <v>0.31200000000000078</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2.2610153605015757</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E53" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0-2</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="2"/>
+      <c r="A54" s="3">
+        <v>2.8507230283911573</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0.66476782334385109</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E54" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="2"/>
+      <c r="A55" s="3">
+        <v>1.6914776025236535</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1.4031671924290272</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="2"/>
+      <c r="A56" s="3">
+        <v>1.585355205047313</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.84629968454258997</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E56" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="2"/>
+      <c r="A57" s="3">
+        <v>1.9264050473186054</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0.61973217665615377</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E57" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="2"/>
+      <c r="A58" s="3">
+        <v>1.9782511041009399</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0.86528643533123351</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E58" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="2"/>
+      <c r="A59" s="3">
+        <v>1.1361577287066207</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1.6384176656151481</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E59" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="2"/>
+      <c r="A60" s="3">
+        <v>1.1283268138801223</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0.46610157728706797</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="2"/>
+      <c r="A61" s="3">
+        <v>1.0787760252365894</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1.51430914826499</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E61" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="2"/>
+      <c r="A62" s="3">
+        <v>1.1458788643533082</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1.5587659305993751</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E62" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="2"/>
+      <c r="A63" s="3">
+        <v>0.94416529968453955</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0.87385362776025588</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E63" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="2"/>
+      <c r="A64" s="3">
+        <v>1.9264050473186052</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1.4097662460567877</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="2"/>
+      <c r="A65" s="3">
+        <v>1.199071748878922</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1.3400340807174855</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="2"/>
+      <c r="A66" s="3">
+        <v>0.64286367713004389</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0.96179865470851778</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E66" s="2" t="str">
+        <f t="shared" ref="E66:E129" si="7">CONCATENATE(C66,"-",D66)</f>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="2"/>
+      <c r="A67" s="3">
+        <v>0.65495515695067186</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1.6534291479820586</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E67" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="2"/>
+      <c r="A68" s="3">
+        <v>1.3142286995515677</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1.0762008968609837</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E68" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="2"/>
+      <c r="A69" s="3">
+        <v>0.97969775784753232</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0.91608744394618602</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E69" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="2"/>
+      <c r="A70" s="3">
+        <v>1.8684215246636748</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0.83509910313901137</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E70" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="2"/>
+      <c r="A71" s="3">
+        <v>1.7273542600896838</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0.76243318385650038</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E71" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="2"/>
+      <c r="A72" s="3">
+        <v>2.6480340807174856</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0.35475874439461796</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>3-0</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="2"/>
+      <c r="A73" s="3">
+        <v>1.1976322869955143</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1.1199246636771274</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E73" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="2"/>
+      <c r="A74" s="3">
+        <v>1.3127892376681598</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0.721442152466366</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E74" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="2"/>
+      <c r="A75" s="3">
+        <v>1.0662607287449413</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1.5530931174089115</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E75" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="2"/>
+      <c r="A76" s="3">
+        <v>0.72198218623481913</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1.3314510121457526</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E76" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="2"/>
+      <c r="A77" s="3">
+        <v>0.7451999999999982</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0.81044819277108093</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E77" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="2"/>
+      <c r="A78" s="3">
+        <v>0.57959999999999845</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0.62240963855421416</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E78" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="2"/>
+      <c r="A79" s="3">
+        <v>0.29333333333333261</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0.36514698795180567</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0-0</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="2"/>
+      <c r="A80" s="3">
+        <v>1.2295999999999969</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1.5221204819277043</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E80" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="2"/>
+      <c r="A81" s="3">
+        <v>0.83626666666666472</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0.30705542168674571</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="2"/>
+      <c r="A82" s="3">
+        <v>1.2499999999999969</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0.91043855421686359</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E82" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="2"/>
+      <c r="A83" s="3">
+        <v>1.3885333333333296</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0.42263132530120301</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="2"/>
+      <c r="A84" s="3">
+        <v>1.8666666666666623</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0.62746987951806965</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E84" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="2"/>
+      <c r="A85" s="3">
+        <v>0.87999999999999778</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1.4053301204819217</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" ref="C85:C148" si="8">ROUND(A85,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" ref="D85:D148" si="9">ROUND(B85,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E85" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="2"/>
+      <c r="A86" s="3">
+        <v>2.0698450331125899</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0.69636953642384414</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E86" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="2"/>
+      <c r="A87" s="3">
+        <v>1.4389748344370907</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1.0084039735099384</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E87" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="2"/>
+      <c r="A88" s="3">
+        <v>1.4180602739726018</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1.0224657534246555</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E88" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="2"/>
+      <c r="A89" s="3">
+        <v>1.0818191780821911</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0.97517671232876502</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="2"/>
+      <c r="A90" s="3">
+        <v>1.2864876712328759</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0.80135753424657341</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E90" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="2"/>
+      <c r="A91" s="3">
+        <v>1.1465999999999998</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0.74619391304348093</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E91" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="2"/>
+      <c r="A92" s="3">
+        <v>1.6307200000000002</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1.2217556521739175</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E92" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="2"/>
+      <c r="A93" s="3">
+        <v>2.6626600000000002</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0.30504782608695757</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>3-0</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="2"/>
+      <c r="A94" s="3">
+        <v>1.6243500000000002</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0.45678956521739295</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="2"/>
+      <c r="A95" s="3">
+        <v>0.91727999999999998</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0.82910434782608999</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E95" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="2"/>
+      <c r="A96" s="3">
+        <v>1.1629800000000001</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0.73412608695652437</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E96" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="2"/>
+      <c r="A97" s="3">
+        <v>0.90636000000000005</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1.3425456521739179</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E97" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="2"/>
+      <c r="A98" s="3">
+        <v>1.4143917525773204</v>
+      </c>
+      <c r="B98" s="3">
+        <v>2.4257319587628805</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E98" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="2"/>
+      <c r="A99" s="3">
+        <v>1.4523000000000006</v>
+      </c>
+      <c r="B99" s="3">
+        <v>4.3211288659793707</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="E99" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-4</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="2"/>
+      <c r="A100" s="3">
+        <v>2.3329500000000012</v>
+      </c>
+      <c r="B100" s="3">
+        <v>1.0430412371133995</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E100" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="2"/>
+      <c r="A101" s="3">
+        <v>0.64799999999999958</v>
+      </c>
+      <c r="B101" s="3">
+        <v>0.40598520710059294</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E101" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="2"/>
+      <c r="A102" s="3">
+        <v>0.69009230769230723</v>
+      </c>
+      <c r="B102" s="3">
+        <v>1.1742165680473406</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E102" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="2"/>
+      <c r="A103" s="3">
+        <v>2.5919999999999987</v>
+      </c>
+      <c r="B103" s="3">
+        <v>0.31896390532544472</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E103" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>3-0</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="2"/>
+      <c r="A104" s="3">
+        <v>1.5791248520710002</v>
+      </c>
+      <c r="B104" s="3">
+        <v>0.52467692307692271</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E104" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="2"/>
+      <c r="A105" s="3">
+        <v>2.2663514792899333</v>
+      </c>
+      <c r="B105" s="3">
+        <v>1.2184615384615376</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E105" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="2"/>
+      <c r="A106" s="3">
+        <v>1.2985207100591669</v>
+      </c>
+      <c r="B106" s="3">
+        <v>2.123692307692306</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E106" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="2"/>
+      <c r="A107" s="3">
+        <v>0.82412781065088481</v>
+      </c>
+      <c r="B107" s="3">
+        <v>1.611076923076922</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E107" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="2"/>
+      <c r="A108" s="3">
+        <v>0.81375000000000008</v>
+      </c>
+      <c r="B108" s="3">
+        <v>0.84835000000000282</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E108" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="2"/>
+      <c r="A109" s="3">
+        <v>1.2136249999999997</v>
+      </c>
+      <c r="B109" s="3">
+        <v>0.49402222222222392</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E109" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="2"/>
+      <c r="A110" s="3">
+        <v>2.6134499999999998</v>
+      </c>
+      <c r="B110" s="3">
+        <v>0.65343055555555785</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D110" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E110" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="2"/>
+      <c r="A111" s="3">
+        <v>2.4737999999999998</v>
+      </c>
+      <c r="B111" s="3">
+        <v>0.29153055555555657</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D111" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E111" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="2"/>
+      <c r="A112" s="3">
+        <v>3.15</v>
+      </c>
+      <c r="B112" s="3">
+        <v>0.56204166666666866</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D112" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E112" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="2"/>
+      <c r="A113" s="3">
+        <v>0.7760548672566363</v>
+      </c>
+      <c r="B113" s="3">
+        <v>1.3308690265486749</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D113" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E113" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="2"/>
+      <c r="A114" s="3">
+        <v>2.6728499999999968</v>
+      </c>
+      <c r="B114" s="3">
+        <v>0.38734247787610682</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D114" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E114" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>3-0</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="2"/>
+      <c r="A115" s="3">
+        <v>1.420306194690264</v>
+      </c>
+      <c r="B115" s="3">
+        <v>0.85113716814159446</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D115" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E115" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="2"/>
+      <c r="A116" s="3">
+        <v>0.79847787610619392</v>
+      </c>
+      <c r="B116" s="3">
+        <v>2.2173451327433664</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D116" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E116" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="2"/>
+      <c r="A117" s="3">
+        <v>1.788424817518242</v>
+      </c>
+      <c r="B117" s="3">
+        <v>0.50418722627737222</v>
+      </c>
+      <c r="C117" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D117" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E117" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="2"/>
+      <c r="A118" s="3">
+        <v>0.66925547445255251</v>
+      </c>
+      <c r="B118" s="3">
+        <v>0.78927919708029193</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E118" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="2"/>
+      <c r="A119" s="3">
+        <v>1.8615386861313805</v>
+      </c>
+      <c r="B119" s="3">
+        <v>0.78927919708029193</v>
+      </c>
+      <c r="C119" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D119" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E119" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="2"/>
+      <c r="A120" s="3">
+        <v>1.102608</v>
+      </c>
+      <c r="B120" s="3">
+        <v>1.1689080000000001</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D120" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E120" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="2"/>
+      <c r="A121" s="3">
+        <v>0.89726400000000006</v>
+      </c>
+      <c r="B121" s="3">
+        <v>0.46279599999999999</v>
+      </c>
+      <c r="C121" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D121" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E121" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="2"/>
+      <c r="A122" s="3">
+        <v>1.232064</v>
+      </c>
+      <c r="B122" s="3">
+        <v>0.61182999999999998</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D122" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E122" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="2"/>
+      <c r="A123" s="3">
+        <v>1.5652272</v>
+      </c>
+      <c r="B123" s="3">
+        <v>0.93833600000000006</v>
+      </c>
+      <c r="C123" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D123" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E123" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="2"/>
+      <c r="A124" s="3">
+        <v>0.91333000000000208</v>
+      </c>
+      <c r="B124" s="3">
+        <v>0.28433625000000007</v>
+      </c>
+      <c r="C124" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D124" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E124" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="2"/>
+      <c r="A125" s="3">
+        <v>0.88023833333333523</v>
+      </c>
+      <c r="B125" s="3">
+        <v>1.8452900000000001</v>
+      </c>
+      <c r="C125" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D125" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E125" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="2"/>
+      <c r="A126" s="3">
+        <v>3.1834183333333406</v>
+      </c>
+      <c r="B126" s="3">
+        <v>1.3148962500000001</v>
+      </c>
+      <c r="C126" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D126" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E126" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="2"/>
+      <c r="A127" s="3">
+        <v>2.2606120833333381</v>
+      </c>
+      <c r="B127" s="3">
+        <v>1.1428537500000002</v>
+      </c>
+      <c r="C127" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D127" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E127" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="2"/>
+      <c r="A128" s="3">
+        <v>0.4996276595744667</v>
+      </c>
+      <c r="B128" s="3">
+        <v>1.7124893617021304</v>
+      </c>
+      <c r="C128" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D128" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E128" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0-2</v>
+      </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="2"/>
+      <c r="A129" s="3">
+        <v>0.74525106382978523</v>
+      </c>
+      <c r="B129" s="3">
+        <v>1.983633510638301</v>
+      </c>
+      <c r="C129" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D129" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E129" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="2"/>
+      <c r="A130" s="3">
+        <v>1.3881590425531876</v>
+      </c>
+      <c r="B130" s="3">
+        <v>1.4880494680851091</v>
+      </c>
+      <c r="C130" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D130" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E130" s="2" t="str">
+        <f t="shared" ref="E130:E190" si="10">CONCATENATE(C130,"-",D130)</f>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="2"/>
+      <c r="A131" s="3">
+        <v>1.3814436170212734</v>
+      </c>
+      <c r="B131" s="3">
+        <v>0.73952765957446698</v>
+      </c>
+      <c r="C131" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D131" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E131" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="2"/>
+      <c r="A132" s="3">
+        <v>1.4135702127659542</v>
+      </c>
+      <c r="B132" s="3">
+        <v>1.050757446808509</v>
+      </c>
+      <c r="C132" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D132" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E132" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="2"/>
+      <c r="A133" s="3">
+        <v>1.2258999999999971</v>
+      </c>
+      <c r="B133" s="3">
+        <v>2.5183914893616981</v>
+      </c>
+      <c r="C133" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D133" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="E133" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-3</v>
+      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="2"/>
+      <c r="A134" s="3">
+        <v>1.263659574468081</v>
+      </c>
+      <c r="B134" s="3">
+        <v>1.4826034042553209</v>
+      </c>
+      <c r="C134" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D134" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E134" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="2"/>
+      <c r="A135" s="3">
+        <v>1.1628936170212727</v>
+      </c>
+      <c r="B135" s="3">
+        <v>1.9714200000000022</v>
+      </c>
+      <c r="C135" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D135" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E135" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="2"/>
+      <c r="A136" s="3">
+        <v>0.62719999999999787</v>
+      </c>
+      <c r="B136" s="3">
+        <v>1.5203404255319166</v>
+      </c>
+      <c r="C136" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D136" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E136" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="2"/>
+      <c r="A137" s="3">
+        <v>2.4167489361702046</v>
+      </c>
+      <c r="B137" s="3">
+        <v>0.91912723404255436</v>
+      </c>
+      <c r="C137" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D137" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E137" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="2"/>
+      <c r="A138" s="3">
+        <v>0.92229274447949205</v>
+      </c>
+      <c r="B138" s="3">
+        <v>0.92375173501577634</v>
+      </c>
+      <c r="C138" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D138" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E138" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="2"/>
+      <c r="A139" s="3">
+        <v>1.0928615384615405</v>
+      </c>
+      <c r="B139" s="3">
+        <v>2.1610105263157955</v>
+      </c>
+      <c r="C139" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D139" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E139" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="2"/>
+      <c r="A140" s="3">
+        <v>2.0456161943319873</v>
+      </c>
+      <c r="B140" s="3">
+        <v>1.1012842105263192</v>
+      </c>
+      <c r="C140" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D140" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E140" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="2"/>
+      <c r="A141" s="3">
+        <v>0.71696842105263292</v>
+      </c>
+      <c r="B141" s="3">
+        <v>1.4337473684210569</v>
+      </c>
+      <c r="C141" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D141" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E141" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="2"/>
+      <c r="A142" s="3">
+        <v>1.1080421052631599</v>
+      </c>
+      <c r="B142" s="3">
+        <v>2.2057651821862412</v>
+      </c>
+      <c r="C142" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D142" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E142" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="2"/>
+      <c r="A143" s="3">
+        <v>1.4857457489878567</v>
+      </c>
+      <c r="B143" s="3">
+        <v>1.3271886639676151</v>
+      </c>
+      <c r="C143" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D143" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E143" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="2"/>
+      <c r="A144" s="3">
+        <v>0.72198218623481913</v>
+      </c>
+      <c r="B144" s="3">
+        <v>2.1985724696356339</v>
+      </c>
+      <c r="C144" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D144" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E144" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="2"/>
+      <c r="A145" s="3">
+        <v>3.1419595141700456</v>
+      </c>
+      <c r="B145" s="3">
+        <v>0.61537651821862527</v>
+      </c>
+      <c r="C145" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D145" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E145" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="2"/>
+      <c r="A146" s="3">
+        <v>2.6817258278145784</v>
+      </c>
+      <c r="B146" s="3">
+        <v>0.22876556291390832</v>
+      </c>
+      <c r="C146" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D146" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E146" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>3-0</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="2"/>
+      <c r="A147" s="3">
+        <v>0.46629536423841211</v>
+      </c>
+      <c r="B147" s="3">
+        <v>0.93229801324503725</v>
+      </c>
+      <c r="C147" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D147" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E147" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="2"/>
+      <c r="A148" s="3">
+        <v>0.81021456953642657</v>
+      </c>
+      <c r="B148" s="3">
+        <v>0.91349536423841471</v>
+      </c>
+      <c r="C148" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D148" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E148" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="2"/>
+      <c r="A149" s="3">
+        <v>1.322225165562918</v>
+      </c>
+      <c r="B149" s="3">
+        <v>0.20772450331125922</v>
+      </c>
+      <c r="C149" s="1">
+        <f t="shared" ref="C149:C190" si="11">ROUND(A149,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D149" s="1">
+        <f t="shared" ref="D149:D190" si="12">ROUND(B149,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E149" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="2"/>
+      <c r="A150" s="3">
+        <v>0.29444931506849303</v>
+      </c>
+      <c r="B150" s="3">
+        <v>1.3064840182648374</v>
+      </c>
+      <c r="C150" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D150" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E150" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="2"/>
+      <c r="A151" s="3">
+        <v>1.240882191780821</v>
+      </c>
+      <c r="B151" s="3">
+        <v>1.7177424657534208</v>
+      </c>
+      <c r="C151" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D151" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E151" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="2"/>
+      <c r="A152" s="3">
+        <v>1.6336931506849304</v>
+      </c>
+      <c r="B152" s="3">
+        <v>1.5498876712328735</v>
+      </c>
+      <c r="C152" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D152" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E152" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="2"/>
+      <c r="A153" s="3">
+        <v>1.3157260273972595</v>
+      </c>
+      <c r="B153" s="3">
+        <v>1.9219515981735118</v>
+      </c>
+      <c r="C153" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D153" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E153" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="2"/>
+      <c r="A154" s="3">
+        <v>0.38219999999999993</v>
+      </c>
+      <c r="B154" s="3">
+        <v>0.76574826086956793</v>
+      </c>
+      <c r="C154" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D154" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E154" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="2"/>
+      <c r="A155" s="3">
+        <v>1.2039299999999999</v>
+      </c>
+      <c r="B155" s="3">
+        <v>1.2577356521739176</v>
+      </c>
+      <c r="C155" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D155" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E155" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="2"/>
+      <c r="A156" s="3">
+        <v>0.87921649484536135</v>
+      </c>
+      <c r="B156" s="3">
+        <v>1.6258221649484497</v>
+      </c>
+      <c r="C156" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D156" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E156" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="2"/>
+      <c r="A157" s="3">
+        <v>1.4972164948453615</v>
+      </c>
+      <c r="B157" s="3">
+        <v>1.0356958762886572</v>
+      </c>
+      <c r="C157" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D157" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E157" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="2"/>
+      <c r="A158" s="3">
+        <v>1.2041443298969079</v>
+      </c>
+      <c r="B158" s="3">
+        <v>0.78668814432989498</v>
+      </c>
+      <c r="C158" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D158" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E158" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="2"/>
+      <c r="A159" s="3">
+        <v>2.0683886597938153</v>
+      </c>
+      <c r="B159" s="3">
+        <v>0.58424999999999849</v>
+      </c>
+      <c r="C159" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D159" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E159" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="2"/>
+      <c r="A160" s="3">
+        <v>2.1430902061855677</v>
+      </c>
+      <c r="B160" s="3">
+        <v>0.56456443298968928</v>
+      </c>
+      <c r="C160" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D160" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E160" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="2"/>
+      <c r="A161" s="3">
+        <v>0.55827692307692267</v>
+      </c>
+      <c r="B161" s="3">
+        <v>0.9085846153846181</v>
+      </c>
+      <c r="C161" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D161" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E161" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="2"/>
+      <c r="A162" s="3">
+        <v>1.1663999999999992</v>
+      </c>
+      <c r="B162" s="3">
+        <v>0.72357869822485421</v>
+      </c>
+      <c r="C162" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D162" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E162" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="2"/>
+      <c r="A163" s="3">
+        <v>2.9464615384615365</v>
+      </c>
+      <c r="B163" s="3">
+        <v>0.41729112426035619</v>
+      </c>
+      <c r="C163" s="1">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="D163" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E163" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>3-0</v>
+      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="2"/>
+      <c r="A164" s="3">
+        <v>1.1364923076923068</v>
+      </c>
+      <c r="B164" s="3">
+        <v>1.7575562130177567</v>
+      </c>
+      <c r="C164" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D164" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E164" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="2"/>
+      <c r="A165">
+        <v>2.9710153846153742</v>
+      </c>
+      <c r="B165">
+        <v>3.3969230769230745E-2</v>
+      </c>
+      <c r="C165" s="1">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="D165" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E165" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>3-0</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="2"/>
+      <c r="A166">
+        <v>0.54612071005916962</v>
+      </c>
+      <c r="B166">
+        <v>3.9032615384615363</v>
+      </c>
+      <c r="C166" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D166" s="1">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="E166" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-4</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="2"/>
+      <c r="A167">
+        <v>3.0517168141592887</v>
+      </c>
+      <c r="B167">
+        <v>0.65134513274336381</v>
+      </c>
+      <c r="C167" s="1">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="D167" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E167" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="2"/>
+      <c r="A168">
+        <v>2.0672920353982276</v>
+      </c>
+      <c r="B168">
+        <v>0.60214778761062049</v>
+      </c>
+      <c r="C168" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D168" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E168" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="2"/>
+      <c r="A169">
+        <v>0.83676106194690181</v>
+      </c>
+      <c r="B169">
+        <v>0.71647964601770031</v>
+      </c>
+      <c r="C169" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D169" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E169" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="2"/>
+      <c r="A170">
+        <v>1.3781946902654854</v>
+      </c>
+      <c r="B170">
+        <v>0.84848097345132889</v>
+      </c>
+      <c r="C170" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D170" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E170" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="2"/>
+      <c r="A171">
+        <v>1.7414394160583881</v>
+      </c>
+      <c r="B171">
+        <v>0.33612481751824819</v>
+      </c>
+      <c r="C171" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D171" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E171" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="2"/>
+      <c r="A172">
+        <v>1.2131401459853972</v>
+      </c>
+      <c r="B172">
+        <v>0.768087591240876</v>
+      </c>
+      <c r="C172" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D172" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E172" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="2"/>
+      <c r="A173">
+        <v>1.0634744525547408</v>
+      </c>
+      <c r="B173">
+        <v>0.4230536496350365</v>
+      </c>
+      <c r="C173" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D173" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E173" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="2"/>
+      <c r="A174">
+        <v>1.0667978102189746</v>
+      </c>
+      <c r="B174">
+        <v>0.23578905109489048</v>
+      </c>
+      <c r="C174" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D174" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E174" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="2"/>
+      <c r="A175">
+        <v>0.70019708029196837</v>
+      </c>
+      <c r="B175">
+        <v>1.0158996350364964</v>
+      </c>
+      <c r="C175" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D175" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E175" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="2"/>
-    </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="2"/>
-    </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="2"/>
-    </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="2"/>
-    </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="2"/>
-    </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="2"/>
-    </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="2"/>
-    </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="2"/>
-    </row>
-    <row r="184" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="2"/>
-    </row>
-    <row r="185" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="2"/>
-    </row>
-    <row r="186" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="2"/>
-    </row>
-    <row r="187" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="2"/>
-    </row>
-    <row r="188" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="2"/>
+      <c r="A176">
+        <v>0.79161599999999999</v>
+      </c>
+      <c r="B176">
+        <v>1.5734119999999996</v>
+      </c>
+      <c r="C176" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D176" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E176" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1.4972256000000002</v>
+      </c>
+      <c r="B177">
+        <v>0.56168000000000007</v>
+      </c>
+      <c r="C177" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D177" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E177" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>0.73655999999999999</v>
+      </c>
+      <c r="B178">
+        <v>0.54279999999999995</v>
+      </c>
+      <c r="C178" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D178" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E178" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1.6680479999999998</v>
+      </c>
+      <c r="B179">
+        <v>0.77549599999999996</v>
+      </c>
+      <c r="C179" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D179" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E179" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>2.3681600000000054</v>
+      </c>
+      <c r="B180">
+        <v>1.0848</v>
+      </c>
+      <c r="C180" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D180" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E180" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>0.55712606382978591</v>
+      </c>
+      <c r="B181">
+        <v>1.2776255319148919</v>
+      </c>
+      <c r="C181" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D181" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E181" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1.1769191489361666</v>
+      </c>
+      <c r="B182">
+        <v>0.99908085106383115</v>
+      </c>
+      <c r="C182" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D182" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E182" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1.0599999999999974</v>
+      </c>
+      <c r="B183">
+        <v>0.87289156626505648</v>
+      </c>
+      <c r="C183" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D183" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E183" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>0.64001324503311463</v>
+      </c>
+      <c r="B184">
+        <v>1.5838993377483515</v>
+      </c>
+      <c r="C184" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D184" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E184" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>3.4437698630136966</v>
+      </c>
+      <c r="B185">
+        <v>0.40557808219177999</v>
+      </c>
+      <c r="C185" s="1">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="D185" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E185" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>3-0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>0.59815384615384581</v>
+      </c>
+      <c r="B186">
+        <v>2.4184384615384689</v>
+      </c>
+      <c r="C186" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D186" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E186" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>0.7055044247787603</v>
+      </c>
+      <c r="B187">
+        <v>1.1719592920354001</v>
+      </c>
+      <c r="C187" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D187" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E187" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>0.53173722627737041</v>
+      </c>
+      <c r="B188">
+        <v>0.43291423357664238</v>
+      </c>
+      <c r="C188" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D188" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E188" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>0.79474087591240594</v>
+      </c>
+      <c r="B189">
+        <v>0.29893138686131387</v>
+      </c>
+      <c r="C189" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D189" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E189" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1.7659583999999999</v>
+      </c>
+      <c r="B190">
+        <v>0.86564800000000008</v>
+      </c>
+      <c r="C190" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D190" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E190" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CS generator.xlsx
+++ b/CS generator.xlsx
@@ -346,22 +346,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E56"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
-        <v>2.0063593912312001</v>
+        <v>1.2405003983008001</v>
       </c>
       <c r="B1" s="3">
-        <v>0.67413197987520013</v>
+        <v>1.3508605582500002</v>
       </c>
       <c r="C1" s="1">
         <f>ROUND(A1,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>ROUND(B1,0)</f>
@@ -369,15 +369,15 @@
       </c>
       <c r="E1" s="2" t="str">
         <f>CONCATENATE(C1,"-",D1)</f>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>2.3516890694280006</v>
+        <v>1.6688649749256002</v>
       </c>
       <c r="B2" s="3">
-        <v>1.383230769588</v>
+        <v>2.2652284269999998</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C12" si="0">ROUND(A2,0)</f>
@@ -385,23 +385,23 @@
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D12" si="1">ROUND(B2,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="str">
         <f t="shared" ref="E2:E65" si="2">CONCATENATE(C2,"-",D2)</f>
-        <v>2-1</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>0.4885273225909999</v>
+        <v>2.2863643730550005</v>
       </c>
       <c r="B3" s="3">
-        <v>1.764748633021</v>
+        <v>1.5881538465639997</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="1"/>
@@ -409,35 +409,35 @@
       </c>
       <c r="E3" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0-2</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>0.91747814242699988</v>
+        <v>0.44230754706449998</v>
       </c>
       <c r="B4" s="3">
-        <v>0.81830382473840002</v>
+        <v>1.8323622647512003</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>0-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>1.7212745908214999</v>
+        <v>1.8719999999999999</v>
       </c>
       <c r="B5" s="3">
-        <v>0.76251038214260003</v>
+        <v>0.44840444453280004</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
@@ -445,19 +445,19 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>2-0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>0.88003005498099984</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="B6" s="3">
-        <v>0.93847431648320012</v>
+        <v>0.11672500002299999</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
@@ -465,19 +465,19 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>1.3229631152594998</v>
+        <v>1.1056957803374001</v>
       </c>
       <c r="B7" s="3">
-        <v>0.85836065531999994</v>
+        <v>0.74279156143360003</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
@@ -494,10 +494,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>0.52427322424399991</v>
+        <v>1.1343461539974</v>
       </c>
       <c r="B8" s="3">
-        <v>1.3938142069720001</v>
+        <v>0.73481538448890005</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -514,10 +514,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>1.2459376856919997</v>
+        <v>1.1324940238079999</v>
       </c>
       <c r="B9" s="3">
-        <v>2.2845364985268004</v>
+        <v>0.79289641462500016</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
@@ -525,99 +525,99 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>1.3476468845239997</v>
+        <v>0.9358416243383999</v>
       </c>
       <c r="B10" s="3">
-        <v>1.0143145400639999</v>
+        <v>1.7893065991343999</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C10:C16" si="3">ROUND(A10,0)</f>
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" ref="D10:D16" si="4">ROUND(B10,0)</f>
+        <v>2</v>
       </c>
       <c r="E10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>1.2526290803519999</v>
+        <v>1.2165197971776001</v>
       </c>
       <c r="B11" s="3">
-        <v>1.212908011875</v>
+        <v>1.69892132025</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>2.3318172111168001</v>
+        <v>0.99259289358320002</v>
       </c>
       <c r="B12" s="3">
-        <v>1.480071216624</v>
+        <v>0.64694923875119992</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>1.6127599409531999</v>
+        <v>0.55406147562149999</v>
       </c>
       <c r="B13" s="3">
-        <v>1.2054041543081999</v>
+        <v>0.63763934395200006</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" ref="C13:C20" si="3">ROUND(A13,0)</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:D20" si="4">ROUND(B13,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>0.94214836812799996</v>
+        <v>0.88929030993879987</v>
       </c>
       <c r="B14" s="3">
-        <v>0.54079525222799996</v>
+        <v>1.2354077516452</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="3"/>
@@ -634,70 +634,70 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>2.5780605346048002</v>
+        <v>1.3485000003480001</v>
       </c>
       <c r="B15" s="3">
-        <v>1.1918195845752</v>
+        <v>0.76964000022719992</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ref="C15:C56" si="5">ROUND(A15,0)</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" ref="D15:D56" si="6">ROUND(B15,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E15" s="2" t="str">
-        <f t="shared" ref="E15:E56" si="7">CONCATENATE(C15,"-",D15)</f>
-        <v>3-1</v>
+        <f t="shared" si="2"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>0.73658872417279997</v>
+        <v>1.4214791670335001</v>
       </c>
       <c r="B16" s="3">
-        <v>1.821626112768</v>
+        <v>0.65040000019200006</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-2</v>
+        <f t="shared" si="2"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>1.0738350150367999</v>
+        <v>0.98173793115719998</v>
       </c>
       <c r="B17" s="3">
-        <v>1.3135632047537997</v>
+        <v>0.84899704408560006</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C17:C80" si="5">ROUND(A17,0)</f>
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D17:D80" si="6">ROUND(B17,0)</f>
         <v>1</v>
       </c>
       <c r="E17" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>1.1201394660840001</v>
+        <v>1.4080000000000001</v>
       </c>
       <c r="B18" s="3">
-        <v>1.1922077151389998</v>
+        <v>1.5599422225296</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -705,19 +705,19 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="2"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>1.0920356085119998</v>
+        <v>0.78319999985760003</v>
       </c>
       <c r="B19" s="3">
-        <v>0.78557626113119983</v>
+        <v>1.0236615387024</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -728,36 +728,36 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>1.2312166174399999</v>
+        <v>1.6915932485576002</v>
       </c>
       <c r="B20" s="3">
-        <v>0.95091988130999994</v>
+        <v>1.1639278484964</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E20" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="2"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>0.90562499980679989</v>
+        <v>1.0107692309039999</v>
       </c>
       <c r="B21" s="3">
-        <v>0.79292500025759993</v>
+        <v>0.54132167822849997</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -768,16 +768,16 @@
         <v>1</v>
       </c>
       <c r="E21" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>0.98571428550400009</v>
+        <v>1.1343461539974</v>
       </c>
       <c r="B22" s="3">
-        <v>0.89705357172000011</v>
+        <v>0.93982657326480001</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>1.0499999997759999</v>
+        <v>1.2535476921108</v>
       </c>
       <c r="B23" s="3">
-        <v>0.74754464310000002</v>
+        <v>1.4458519233595002</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -808,56 +808,56 @@
         <v>1</v>
       </c>
       <c r="E23" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>0.86919642838599998</v>
+        <v>1.5232984612992</v>
       </c>
       <c r="B24" s="3">
-        <v>0.72561666690240012</v>
+        <v>0.85818307709080011</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E24" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="2"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>1.9221428567328003</v>
+        <v>3.5741976917462996</v>
       </c>
       <c r="B25" s="3">
-        <v>0.80910714312000009</v>
+        <v>0.45707576932010002</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-1</v>
+        <f t="shared" si="2"/>
+        <v>4-0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>1.5863839282330001</v>
+        <v>1.6618900396992</v>
       </c>
       <c r="B26" s="3">
-        <v>1.2406309527839998</v>
+        <v>1.6288637456000001</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -865,39 +865,39 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-1</v>
+        <f t="shared" si="2"/>
+        <v>2-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>0.80089285697199997</v>
+        <v>1.9707792827007999</v>
       </c>
       <c r="B27" s="3">
-        <v>1.4132404766496003</v>
+        <v>1.2608031876999999</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E27" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="2"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>0.64888392843299991</v>
+        <v>1.46804780864</v>
       </c>
       <c r="B28" s="3">
-        <v>1.1606583337104002</v>
+        <v>2.4701450207999995</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -905,79 +905,79 @@
       </c>
       <c r="D28" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="2"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>1.6349999996512004</v>
+        <v>3.3985827410184002</v>
       </c>
       <c r="B29" s="3">
-        <v>1.2783892861296</v>
+        <v>0.78029035539520009</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E29" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-1</v>
+        <f t="shared" si="2"/>
+        <v>3-1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>1.4249999996960001</v>
+        <v>2.6332385786039998</v>
       </c>
       <c r="B30" s="3">
-        <v>0.70943452404000018</v>
+        <v>0.71327512696319995</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E30" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="2"/>
+        <v>3-1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>0.68737676353499999</v>
+        <v>2.6695482232729999</v>
       </c>
       <c r="B31" s="3">
-        <v>0.85419709514999997</v>
+        <v>0.70511675132800011</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E31" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="2"/>
+        <v>3-1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>1.8484589212949998</v>
+        <v>1.6708751268552002</v>
       </c>
       <c r="B32" s="3">
-        <v>1.5198132774999997</v>
+        <v>0.68909137061600012</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -985,59 +985,59 @@
       </c>
       <c r="D32" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-2</v>
+        <f t="shared" si="2"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>1.2815962656525</v>
+        <v>2.1776314720181995</v>
       </c>
       <c r="B33" s="3">
-        <v>0.62963692924999992</v>
+        <v>0.73075736046719997</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E33" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="2"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>1.0754120332724999</v>
+        <v>2.8359796959520001</v>
       </c>
       <c r="B34" s="3">
-        <v>0.50619087119999995</v>
+        <v>0.36968527928639999</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="2"/>
+        <v>3-0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>0.54454522825499996</v>
+        <v>1.2216527921024001</v>
       </c>
       <c r="B35" s="3">
-        <v>1.04513526936</v>
+        <v>0.90868020328800003</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -1048,36 +1048,36 @@
         <v>1</v>
       </c>
       <c r="E35" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>1.6811502075899998</v>
+        <v>1.4888893403748</v>
       </c>
       <c r="B36" s="3">
-        <v>0.93794190840000002</v>
+        <v>0.78648730985439996</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E36" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-1</v>
+        <f t="shared" si="2"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>2.3745742740299995</v>
+        <v>1.8125587049175</v>
       </c>
       <c r="B37" s="3">
-        <v>1.4031908709000001</v>
+        <v>0.64928259126080012</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -1088,16 +1088,16 @@
         <v>1</v>
       </c>
       <c r="E37" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>0.51387676352249989</v>
+        <v>0.62502024307500004</v>
       </c>
       <c r="B38" s="3">
-        <v>0.48435518655999998</v>
+        <v>2.3223716605188001</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -1105,39 +1105,39 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E38" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-0</v>
+        <f t="shared" si="2"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>2.56578423255</v>
+        <v>0.9000291500280001</v>
       </c>
       <c r="B39" s="3">
-        <v>3.0825535259399999</v>
+        <v>1.5288340084920002</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>3-3</v>
+        <f t="shared" si="2"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>1.0332248963399999</v>
+        <v>1.4000453444880001</v>
       </c>
       <c r="B40" s="3">
-        <v>0.85518962626999995</v>
+        <v>1.1917894739920001</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="5"/>
@@ -1148,56 +1148,56 @@
         <v>1</v>
       </c>
       <c r="E40" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>2.3563692303407997</v>
+        <v>0.85194398939649996</v>
       </c>
       <c r="B41" s="3">
-        <v>1.1918307695112</v>
+        <v>0.40915191236920001</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-1</v>
+        <f t="shared" si="2"/>
+        <v>1-0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>1.9128153842675999</v>
+        <v>0.99237431731900005</v>
       </c>
       <c r="B42" s="3">
-        <v>0.33790769238720003</v>
+        <v>0.93847431648320012</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-0</v>
+        <f t="shared" si="2"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>0.99237431731900005</v>
+        <v>0.631510929203</v>
       </c>
       <c r="B43" s="3">
-        <v>0.93847431648320012</v>
+        <v>1.3155398900702</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="5"/>
@@ -1208,16 +1208,16 @@
         <v>1</v>
       </c>
       <c r="E43" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>2.435827869783</v>
+        <v>2.0488237712744999</v>
       </c>
       <c r="B44" s="3">
-        <v>0.55578852431970005</v>
+        <v>0.70814754063900009</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="5"/>
@@ -1228,36 +1228,36 @@
         <v>1</v>
       </c>
       <c r="E44" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>1.7323387984760001</v>
+        <v>1.4885614759785</v>
       </c>
       <c r="B45" s="3">
-        <v>0.26302622938020004</v>
+        <v>0.93009508151460007</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-0</v>
+        <f t="shared" si="2"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>0.73279098388649988</v>
+        <v>1.4400491808779996</v>
       </c>
       <c r="B46" s="3">
-        <v>0.47209836042600006</v>
+        <v>0.56079562814240003</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" si="5"/>
@@ -1265,16 +1265,16 @@
       </c>
       <c r="D46" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-0</v>
+        <f t="shared" si="2"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>1.3387691261945001</v>
+        <v>0.92684016428850002</v>
       </c>
       <c r="B47" s="3">
         <v>0.96708633832720015</v>
@@ -1288,16 +1288,16 @@
         <v>1</v>
       </c>
       <c r="E47" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>0.77327868881999995</v>
+        <v>1.1234426233799999</v>
       </c>
       <c r="B48" s="3">
-        <v>0.87144043673440008</v>
+        <v>0.81830382473840002</v>
       </c>
       <c r="C48" s="1">
         <f t="shared" si="5"/>
@@ -1308,16 +1308,16 @@
         <v>1</v>
       </c>
       <c r="E48" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>0.97499999979200003</v>
+        <v>1.2518360660519998</v>
       </c>
       <c r="B49" s="3">
-        <v>1.2797964289872004</v>
+        <v>1.57366120142</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" si="5"/>
@@ -1325,19 +1325,19 @@
       </c>
       <c r="D49" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="2"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>1.6139732139414</v>
+        <v>1.8082076509639999</v>
       </c>
       <c r="B50" s="3">
-        <v>0.26911607151600003</v>
+        <v>0.32679016377539999</v>
       </c>
       <c r="C50" s="1">
         <f t="shared" si="5"/>
@@ -1348,36 +1348,36 @@
         <v>0</v>
       </c>
       <c r="E50" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2-0</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>1.6831255811327999</v>
+        <v>1.1315148370059998</v>
       </c>
       <c r="B51" s="3">
-        <v>1.6221767438016002</v>
+        <v>3.3324890207868001</v>
       </c>
       <c r="C51" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E51" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-2</v>
+        <f t="shared" si="2"/>
+        <v>1-3</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>0.64901886777000006</v>
+        <v>0.80296735919999995</v>
       </c>
       <c r="B52" s="3">
-        <v>0.43423396240640005</v>
+        <v>1.0350148367999998</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" si="5"/>
@@ -1385,39 +1385,39 @@
       </c>
       <c r="D52" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-0</v>
+        <f t="shared" si="2"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>1.9815724140408</v>
+        <v>1.4132225521920001</v>
       </c>
       <c r="B53" s="3">
-        <v>1.1015467977060001</v>
+        <v>1.480071216624</v>
       </c>
       <c r="C53" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E53" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-1</v>
+        <f t="shared" si="2"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>0.93181083755490002</v>
+        <v>0.6732881306891999</v>
       </c>
       <c r="B54" s="3">
-        <v>0.8630275859533999</v>
+        <v>1.2751382789376</v>
       </c>
       <c r="C54" s="1">
         <f t="shared" si="5"/>
@@ -1428,16 +1428,16 @@
         <v>1</v>
       </c>
       <c r="E54" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>0.89615819201299995</v>
+        <v>1.37842729996</v>
       </c>
       <c r="B55" s="3">
-        <v>1.05186440676</v>
+        <v>0.81403916914319996</v>
       </c>
       <c r="C55" s="1">
         <f t="shared" si="5"/>
@@ -1448,912 +1448,2616 @@
         <v>1</v>
       </c>
       <c r="E55" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>2.4846468348738</v>
+        <v>1.0639317509400001</v>
       </c>
       <c r="B56" s="3">
-        <v>0.7169493673320001</v>
+        <v>0.98533412463360015</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E56" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>1.8929955493139996</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1.5369970326479998</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E57" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>2.6774946592523996</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0.53367952522499995</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E58" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>3-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>0.49248664697599992</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1.4200403560896</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>1.3508587539607999</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1.0858599406578</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E60" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>1.5015489617039999</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1.6560237388800001</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E61" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>1.427274480978</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1.1255786350199999</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E62" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>1.5449999996704002</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1.2271458337319998</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E63" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>2-1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="2"/>
-    </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="2"/>
+      <c r="A64" s="3">
+        <v>1.167857142608</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0.82528928598240003</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="2"/>
+      <c r="A65" s="3">
+        <v>2.9041071422376001</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1.4348166671328002</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="2"/>
+      <c r="A66" s="3">
+        <v>1.0611160712021999</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0.67800833355360002</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E66" s="2" t="str">
+        <f t="shared" ref="E66:E129" si="7">CONCATENATE(C66,"-",D66)</f>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="2"/>
+      <c r="A67" s="3">
+        <v>1.3553571425680002</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0.65080357164000002</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E67" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="2"/>
+      <c r="A68" s="3">
+        <v>1.5042857139648</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1.6909166672160001</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E68" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="2"/>
+      <c r="A69" s="3">
+        <v>1.1578124997530002</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0.54819940494000008</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E69" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="2"/>
+      <c r="A70" s="3">
+        <v>1.1999999997440003</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1.5994523814720001</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E70" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="2"/>
+      <c r="A71" s="3">
+        <v>0.75857142840960001</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1.2378166670688</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E71" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="2"/>
+      <c r="A72" s="3">
+        <v>0.60066964272900003</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1.0599303574872001</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E72" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="2"/>
+      <c r="A73" s="3">
+        <v>1.028571428352</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1.0884250003536</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E73" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="2"/>
+      <c r="A74" s="3">
+        <v>1.5725892853787999</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0.49836309540000001</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="2"/>
+      <c r="A75" s="3">
+        <v>0.83020829881500002</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0.64316016576000001</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E75" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="2"/>
+      <c r="A76" s="3">
+        <v>1.35459585072</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1.2297460576799999</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E76" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="2"/>
+      <c r="A77" s="3">
+        <v>0.75504896270999988</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1.0973672195499999</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E77" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="2"/>
+      <c r="A78" s="3">
+        <v>1.0755560166749998</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0.71462240640000008</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E78" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="2"/>
+      <c r="A79" s="3">
+        <v>1.9413282159074996</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0.30966970944</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="2"/>
+      <c r="A80" s="3">
+        <v>1.6471701246000001</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0.9673456428299998</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E80" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="2"/>
+      <c r="A81" s="3">
+        <v>3.4993726143599999</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0.78385145202000006</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" ref="C81:C144" si="8">ROUND(A81,0)</f>
+        <v>3</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" ref="D81:D144" si="9">ROUND(B81,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E81" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="2"/>
+      <c r="A82" s="3">
+        <v>0.60612558130080008</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0.76803953470169994</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E82" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="2"/>
+      <c r="A83" s="3">
+        <v>0.1653069767184</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1.4805581391840001</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E83" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="2"/>
+      <c r="A84" s="3">
+        <v>1.8036208487879999</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0.94448803060539976</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E84" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="2"/>
+      <c r="A85" s="3">
+        <v>2.070222393096</v>
+      </c>
+      <c r="B85" s="3">
+        <v>0.4436015442688</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="2"/>
+      <c r="A86" s="3">
+        <v>2.7246440144879998</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0.64002162143009989</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E86" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="2"/>
+      <c r="A87" s="3">
+        <v>0.87309034718400003</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0.80698378354229994</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E87" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="2"/>
+      <c r="A88" s="3">
+        <v>0.94201853248799994</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0.98505637036159988</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E88" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="2"/>
+      <c r="A89" s="3">
+        <v>2.1074594587199997</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0.46327413113549998</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="2"/>
+      <c r="A90" s="3">
+        <v>1.3949374512479999</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0.70495135114039997</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E90" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="2"/>
+      <c r="A91" s="3">
+        <v>3.0107884159320002</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0.50547335892209988</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E91" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="2"/>
+      <c r="A92" s="3">
+        <v>0.90200849389199989</v>
+      </c>
+      <c r="B92" s="3">
+        <v>0.81340540516199977</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E92" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="2"/>
+      <c r="A93" s="3">
+        <v>1.6269428565720001</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1.0113544398517997</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="2"/>
+      <c r="A94" s="3">
+        <v>1.3341735845880003</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1.2534566041841999</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E94" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="2"/>
+      <c r="A95" s="3">
+        <v>0.838732075272</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0.93894339653400005</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E95" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="2"/>
+      <c r="A96" s="3">
+        <v>1.5683790396416999</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1.1933685588518999</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E96" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="2"/>
+      <c r="A97" s="3">
+        <v>1.5939703060228003</v>
+      </c>
+      <c r="B97" s="3">
+        <v>2.0678305675121997</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E97" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="2"/>
+      <c r="A98" s="3">
+        <v>0.80111790410400008</v>
+      </c>
+      <c r="B98" s="3">
+        <v>1.1980087335239999</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E98" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="2"/>
+      <c r="A99" s="3">
+        <v>0.37781250009750006</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0.77381791689510004</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E99" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="2"/>
+      <c r="A100" s="3">
+        <v>0.83545000021560001</v>
+      </c>
+      <c r="B100" s="3">
+        <v>1.3691145837374998</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E100" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="2"/>
+      <c r="A101" s="3">
+        <v>0.70525000018200013</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1.8970000005599998</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E101" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="2"/>
+      <c r="A102" s="3">
+        <v>1.2586000003247999</v>
+      </c>
+      <c r="B102" s="3">
+        <v>1.105454166993</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E102" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="2"/>
+      <c r="A103" s="3">
+        <v>1.5432833337316001</v>
+      </c>
+      <c r="B103" s="3">
+        <v>0.75597708355650006</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E103" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="2"/>
+      <c r="A104" s="3">
+        <v>1.8328750004730003</v>
+      </c>
+      <c r="B104" s="3">
+        <v>0.70426125020790009</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E104" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="2"/>
+      <c r="A105" s="3">
+        <v>1.4763750003810003</v>
+      </c>
+      <c r="B105" s="3">
+        <v>0.83829333358079994</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E105" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="2"/>
+      <c r="A106" s="3">
+        <v>1.3779500003556</v>
+      </c>
+      <c r="B106" s="3">
+        <v>1.7468208338490001</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E106" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="2"/>
+      <c r="A107" s="3">
+        <v>1.9718778327588</v>
+      </c>
+      <c r="B107" s="3">
+        <v>0.30553743833390001</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E107" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="2"/>
+      <c r="A108" s="3">
+        <v>1.0117911331314</v>
+      </c>
+      <c r="B108" s="3">
+        <v>0.94034482731000002</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E108" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="2"/>
+      <c r="A109" s="3">
+        <v>2.0940295569120004</v>
+      </c>
+      <c r="B109" s="3">
+        <v>0.6240605909496999</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E109" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="2"/>
+      <c r="A110" s="3">
+        <v>0.99078620702039999</v>
+      </c>
+      <c r="B110" s="3">
+        <v>1.1800581277322</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D110" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E110" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="2"/>
+      <c r="A111" s="3">
+        <v>1.2779999999999998</v>
+      </c>
+      <c r="B111" s="3">
+        <v>1.3452133335984</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D111" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E111" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="2"/>
+      <c r="A112" s="3">
+        <v>0.55799999999999994</v>
+      </c>
+      <c r="B112" s="3">
+        <v>1.1692800002304</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D112" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E112" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="2"/>
+      <c r="A113" s="3">
+        <v>0.92000000000000015</v>
+      </c>
+      <c r="B113" s="3">
+        <v>1.9451911114944</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D113" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E113" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="2"/>
+      <c r="A114" s="3">
+        <v>1.4542372880099999</v>
+      </c>
+      <c r="B114" s="3">
+        <v>0.37903389829799999</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D114" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E114" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="2"/>
+      <c r="A115" s="3">
+        <v>1.3058305083618</v>
+      </c>
+      <c r="B115" s="3">
+        <v>0.85237288134</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D115" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E115" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="2"/>
+      <c r="A116" s="3">
+        <v>1.4373333332091998</v>
+      </c>
+      <c r="B116" s="3">
+        <v>0.68479999998719998</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D116" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E116" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="2"/>
+      <c r="A117" s="3">
+        <v>1.2963841806789997</v>
+      </c>
+      <c r="B117" s="3">
+        <v>0.79941694913759986</v>
+      </c>
+      <c r="C117" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D117" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E117" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="2"/>
+      <c r="A118" s="3">
+        <v>1.1504307690216</v>
+      </c>
+      <c r="B118" s="3">
+        <v>0.32796923084639995</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E118" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="2"/>
+      <c r="A119" s="3">
+        <v>1.5176615381856</v>
+      </c>
+      <c r="B119" s="3">
+        <v>1.0037846156208001</v>
+      </c>
+      <c r="C119" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D119" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E119" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="2"/>
+      <c r="A120" s="3">
+        <v>1.2022153843968</v>
+      </c>
+      <c r="B120" s="3">
+        <v>1.5676615388304003</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D120" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E120" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="2"/>
+      <c r="A121" s="3">
+        <v>2.7510153841151999</v>
+      </c>
+      <c r="B121" s="3">
+        <v>0.511307692428</v>
+      </c>
+      <c r="C121" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D121" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E121" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="2"/>
+      <c r="A122" s="3">
+        <v>0.64545485217280008</v>
+      </c>
+      <c r="B122" s="3">
+        <v>0.792989451746</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D122" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E122" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="2"/>
+      <c r="A123" s="3">
+        <v>1.0385063288759999</v>
+      </c>
+      <c r="B123" s="3">
+        <v>0.89647257414400006</v>
+      </c>
+      <c r="C123" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D123" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E123" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="2"/>
+      <c r="A124" s="3">
+        <v>0.8147232065644</v>
+      </c>
+      <c r="B124" s="3">
+        <v>0.68550421964200015</v>
+      </c>
+      <c r="C124" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D124" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E124" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="2"/>
+      <c r="A125" s="3">
+        <v>0.82453586479000018</v>
+      </c>
+      <c r="B125" s="3">
+        <v>0.55091898752879997</v>
+      </c>
+      <c r="C125" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D125" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E125" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="2"/>
+      <c r="A126" s="3">
+        <v>1.5000000002</v>
+      </c>
+      <c r="B126" s="3">
+        <v>0.54806153836720006</v>
+      </c>
+      <c r="C126" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D126" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E126" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="2"/>
+      <c r="A127" s="3">
+        <v>2.3479615387746002</v>
+      </c>
+      <c r="B127" s="3">
+        <v>0.66801398589900007</v>
+      </c>
+      <c r="C127" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D127" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E127" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="2"/>
+      <c r="A128" s="3">
+        <v>1.1723076924640001</v>
+      </c>
+      <c r="B128" s="3">
+        <v>0.48834125865720007</v>
+      </c>
+      <c r="C128" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D128" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E128" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="2"/>
+      <c r="A129" s="3">
+        <v>0.26434615388139998</v>
+      </c>
+      <c r="B129" s="3">
+        <v>1.2666671326490999</v>
+      </c>
+      <c r="C129" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D129" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E129" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="2"/>
+      <c r="A130" s="3">
+        <v>1.8732692304749998</v>
+      </c>
+      <c r="B130" s="3">
+        <v>0.62226538473699999</v>
+      </c>
+      <c r="C130" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D130" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E130" s="2" t="str">
+        <f t="shared" ref="E130:E184" si="10">CONCATENATE(C130,"-",D130)</f>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="2"/>
+      <c r="A131" s="3">
+        <v>1.413399999778</v>
+      </c>
+      <c r="B131" s="3">
+        <v>0.79489384630920001</v>
+      </c>
+      <c r="C131" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D131" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E131" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="2"/>
+      <c r="A132" s="3">
+        <v>1.5785415382136001</v>
+      </c>
+      <c r="B132" s="3">
+        <v>0.77600153861319998</v>
+      </c>
+      <c r="C132" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D132" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E132" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="2"/>
+      <c r="A133" s="3">
+        <v>1.5232984612992</v>
+      </c>
+      <c r="B133" s="3">
+        <v>1.4395938464352001</v>
+      </c>
+      <c r="C133" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D133" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E133" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="2"/>
+      <c r="A134" s="3">
+        <v>2.7227784611107997</v>
+      </c>
+      <c r="B134" s="3">
+        <v>0.42814692316059993</v>
+      </c>
+      <c r="C134" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D134" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E134" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>3-0</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="2"/>
+      <c r="A135" s="3">
+        <v>1.4231075696</v>
+      </c>
+      <c r="B135" s="3">
+        <v>0.98615617564999991</v>
+      </c>
+      <c r="C135" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D135" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E135" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="2"/>
+      <c r="A136" s="3">
+        <v>2.2995920316767999</v>
+      </c>
+      <c r="B136" s="3">
+        <v>0.82561912380000002</v>
+      </c>
+      <c r="C136" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D136" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E136" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="2"/>
+      <c r="A137" s="3">
+        <v>0.63635378480639992</v>
+      </c>
+      <c r="B137" s="3">
+        <v>2.0900581680749997</v>
+      </c>
+      <c r="C137" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D137" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E137" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="2"/>
+      <c r="A138" s="3">
+        <v>1.28828685248</v>
+      </c>
+      <c r="B138" s="3">
+        <v>0.76828446242499993</v>
+      </c>
+      <c r="C138" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D138" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E138" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="2"/>
+      <c r="A139" s="3">
+        <v>2.5214680202316</v>
+      </c>
+      <c r="B139" s="3">
+        <v>1.00522842648</v>
+      </c>
+      <c r="C139" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D139" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E139" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="2"/>
+      <c r="A140" s="3">
+        <v>0.86985279185299991</v>
+      </c>
+      <c r="B140" s="3">
+        <v>1.0922025381623999</v>
+      </c>
+      <c r="C140" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D140" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E140" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="2"/>
+      <c r="A141" s="3">
+        <v>2.2505664973968003</v>
+      </c>
+      <c r="B141" s="3">
+        <v>0.95860913713600004</v>
+      </c>
+      <c r="C141" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D141" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E141" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="2"/>
+      <c r="A142" s="3">
+        <v>1.8324791881535998</v>
+      </c>
+      <c r="B142" s="3">
+        <v>0.53640609151360008</v>
+      </c>
+      <c r="C142" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D142" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E142" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="2"/>
+      <c r="A143" s="3">
+        <v>1.9768446704136</v>
+      </c>
+      <c r="B143" s="3">
+        <v>0.7176243656736</v>
+      </c>
+      <c r="C143" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D143" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E143" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="2"/>
+      <c r="A144" s="3">
+        <v>1.3089137058239999</v>
+      </c>
+      <c r="B144" s="3">
+        <v>1.0111979698128</v>
+      </c>
+      <c r="C144" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D144" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E144" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="2"/>
+      <c r="A145" s="3">
+        <v>1.0875352229505002</v>
+      </c>
+      <c r="B145" s="3">
+        <v>1.4196315793140002</v>
+      </c>
+      <c r="C145" s="1">
+        <f t="shared" ref="C145:C184" si="11">ROUND(A145,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D145" s="1">
+        <f t="shared" ref="D145:D184" si="12">ROUND(B145,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E145" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="2"/>
+      <c r="A146" s="3">
+        <v>1.1736939274259999</v>
+      </c>
+      <c r="B146" s="3">
+        <v>1.2412676116566002</v>
+      </c>
+      <c r="C146" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D146" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E146" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="2"/>
+      <c r="A147" s="3">
+        <v>1.3972226724225001</v>
+      </c>
+      <c r="B147" s="3">
+        <v>0.53927125519999997</v>
+      </c>
+      <c r="C147" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D147" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E147" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="2"/>
+      <c r="A148" s="3">
+        <v>1.5569052635565002</v>
+      </c>
+      <c r="B148" s="3">
+        <v>1.420979757452</v>
+      </c>
+      <c r="C148" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D148" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E148" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="2"/>
+      <c r="A149" s="3">
+        <v>0.8430380568960002</v>
+      </c>
+      <c r="B149" s="3">
+        <v>2.1399631584473999</v>
+      </c>
+      <c r="C149" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D149" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E149" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="2"/>
+      <c r="A150" s="3">
+        <v>0.4885273225909999</v>
+      </c>
+      <c r="B150" s="3">
+        <v>1.3938142069720001</v>
+      </c>
+      <c r="C150" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D150" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E150" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="2"/>
+      <c r="A151" s="3">
+        <v>2.9335031003175995</v>
+      </c>
+      <c r="B151" s="3">
+        <v>0.94626976721760003</v>
+      </c>
+      <c r="C151" s="1">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="D151" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E151" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="2"/>
+      <c r="A152" s="3">
+        <v>1.0202279068175999</v>
+      </c>
+      <c r="B152" s="3">
+        <v>1.4215503872600002</v>
+      </c>
+      <c r="C152" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D152" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E152" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="2"/>
+      <c r="A153" s="3">
+        <v>1.5340988369699999</v>
+      </c>
+      <c r="B153" s="3">
+        <v>1.4766689918981</v>
+      </c>
+      <c r="C153" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D153" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E153" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="2"/>
+      <c r="A154" s="3">
+        <v>1.3558511625791998</v>
+      </c>
+      <c r="B154" s="3">
+        <v>1.6221767438016002</v>
+      </c>
+      <c r="C154" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D154" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E154" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="2"/>
+      <c r="A155" s="3">
+        <v>0.9918418603104</v>
+      </c>
+      <c r="B155" s="3">
+        <v>1.0259302323149999</v>
+      </c>
+      <c r="C155" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D155" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E155" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="2"/>
+      <c r="A156" s="3">
+        <v>2.0499178291375997</v>
+      </c>
+      <c r="B156" s="3">
+        <v>0.59544186032400004</v>
+      </c>
+      <c r="C156" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D156" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E156" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="2"/>
+      <c r="A157" s="3">
+        <v>0.99184186031040011</v>
+      </c>
+      <c r="B157" s="3">
+        <v>1.9118511623376002</v>
+      </c>
+      <c r="C157" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D157" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E157" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="2"/>
+      <c r="A158" s="3">
+        <v>1.2576226412100002</v>
+      </c>
+      <c r="B158" s="3">
+        <v>0.38717735861739994</v>
+      </c>
+      <c r="C158" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D158" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E158" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="2"/>
+      <c r="A159" s="3">
+        <v>0.69430754700449993</v>
+      </c>
+      <c r="B159" s="3">
+        <v>1.6792641514934998</v>
+      </c>
+      <c r="C159" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D159" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E159" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="2"/>
+      <c r="A160" s="3">
+        <v>0.57413207533499999</v>
+      </c>
+      <c r="B160" s="3">
+        <v>0.210113207616</v>
+      </c>
+      <c r="C160" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D160" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E160" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="2"/>
+      <c r="A161" s="3">
+        <v>1.0060981129680002</v>
+      </c>
+      <c r="B161" s="3">
+        <v>0.66645283040699999</v>
+      </c>
+      <c r="C161" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D161" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E161" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="2"/>
+      <c r="A162" s="3">
+        <v>1.2821065504966001</v>
+      </c>
+      <c r="B162" s="3">
+        <v>2.0416768557240004</v>
+      </c>
+      <c r="C162" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D162" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E162" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="2"/>
+      <c r="A163" s="3">
+        <v>1.449641921712</v>
+      </c>
+      <c r="B163" s="3">
+        <v>1.2579091702001999</v>
+      </c>
+      <c r="C163" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D163" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E163" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="2"/>
+      <c r="A164" s="3">
+        <v>2.3270567690640003</v>
+      </c>
+      <c r="B164" s="3">
+        <v>0.58859912658820002</v>
+      </c>
+      <c r="C164" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D164" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E164" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="2"/>
+      <c r="A165">
+        <v>1.1105973801537001</v>
+      </c>
+      <c r="B165">
+        <v>0.69096419208180004</v>
+      </c>
+      <c r="C165" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D165" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E165" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="2"/>
+      <c r="A166">
+        <v>3.0518777299200002</v>
+      </c>
+      <c r="B166">
+        <v>0.67634061129699996</v>
+      </c>
+      <c r="C166" s="1">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="D166" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E166" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="2"/>
+      <c r="A167">
+        <v>1.4768227077440998</v>
+      </c>
+      <c r="B167">
+        <v>1.2992489081880001</v>
+      </c>
+      <c r="C167" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D167" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E167" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="2"/>
+      <c r="A168">
+        <v>2.6656866998405997</v>
+      </c>
+      <c r="B168">
+        <v>1.0657241376179998</v>
+      </c>
+      <c r="C168" s="1">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="D168" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E168" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="2"/>
+      <c r="A169">
+        <v>1.2892177341513003</v>
+      </c>
+      <c r="B169">
+        <v>0.65824137911699998</v>
+      </c>
+      <c r="C169" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D169" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E169" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="2"/>
+      <c r="A170">
+        <v>0.83502660108960014</v>
+      </c>
+      <c r="B170">
+        <v>1.3349911326128001</v>
+      </c>
+      <c r="C170" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D170" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E170" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="2"/>
+      <c r="A171">
+        <v>1.3918187193857998</v>
+      </c>
+      <c r="B171">
+        <v>1.6027655167705999</v>
+      </c>
+      <c r="C171" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D171" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E171" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="2"/>
+      <c r="A172">
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="B172">
+        <v>0.85530666683520007</v>
+      </c>
+      <c r="C172" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D172" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E172" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="2"/>
+      <c r="A173">
+        <v>1.536</v>
+      </c>
+      <c r="B173">
+        <v>0.57742222233600005</v>
+      </c>
+      <c r="C173" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D173" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E173" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="2"/>
+      <c r="A174">
+        <v>1.248</v>
+      </c>
+      <c r="B174">
+        <v>2.2799155560048003</v>
+      </c>
+      <c r="C174" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D174" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E174" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="2"/>
+      <c r="A175">
+        <v>1.5046075945920001</v>
+      </c>
+      <c r="B175">
+        <v>0.99744008472680001</v>
+      </c>
+      <c r="C175" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D175" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E175" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="2"/>
-    </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="2"/>
-    </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="2"/>
-    </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="2"/>
-    </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="2"/>
-    </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="2"/>
-    </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="2"/>
-    </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="2"/>
-    </row>
-    <row r="184" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="2"/>
-    </row>
-    <row r="185" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1.2875025313506001</v>
+      </c>
+      <c r="B176">
+        <v>1.7145037980504001</v>
+      </c>
+      <c r="C176" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D176" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E176" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1.4599054848976001</v>
+      </c>
+      <c r="B177">
+        <v>0.8226050635704002</v>
+      </c>
+      <c r="C177" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D177" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E177" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>0.89949367068000008</v>
+      </c>
+      <c r="B178">
+        <v>1.2634088611884002</v>
+      </c>
+      <c r="C178" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D178" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E178" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>0.82719230780260011</v>
+      </c>
+      <c r="B179">
+        <v>0.61426573416000008</v>
+      </c>
+      <c r="C179" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D179" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E179" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>0.74076923086800006</v>
+      </c>
+      <c r="B180">
+        <v>0.49294825166340006</v>
+      </c>
+      <c r="C180" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D180" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E180" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>0.71896153855740019</v>
+      </c>
+      <c r="B181">
+        <v>0.21499300695600004</v>
+      </c>
+      <c r="C181" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D181" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E181" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1.3628076924894001</v>
+      </c>
+      <c r="B182">
+        <v>0.38007692301150003</v>
+      </c>
+      <c r="C182" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D182" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E182" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>2.1582999996609997</v>
+      </c>
+      <c r="B183">
+        <v>0.79489384630920001</v>
+      </c>
+      <c r="C183" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D183" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E183" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>0.8744861537087999</v>
+      </c>
+      <c r="B184">
+        <v>1.8398746157442001</v>
+      </c>
+      <c r="C184" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D184" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E184" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="2"/>
     </row>
-    <row r="186" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="2"/>
     </row>
-    <row r="187" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="2"/>
     </row>
-    <row r="188" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="2"/>
     </row>
-    <row r="189" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="2"/>
     </row>
-    <row r="190" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="2"/>

--- a/CS generator.xlsx
+++ b/CS generator.xlsx
@@ -346,118 +346,118 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E184"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
-        <v>1.2405003983008001</v>
+        <v>2.2592151162790675</v>
       </c>
       <c r="B1" s="3">
-        <v>1.3508605582500002</v>
+        <v>0.42862906976744208</v>
       </c>
       <c r="C1" s="1">
         <f>ROUND(A1,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1">
         <f>ROUND(B1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" s="2" t="str">
         <f>CONCATENATE(C1,"-",D1)</f>
-        <v>1-1</v>
+        <v>2-0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1.6688649749256002</v>
+        <v>1.4684261538461501</v>
       </c>
       <c r="B2" s="3">
-        <v>2.2652284269999998</v>
+        <v>0.83952948717948872</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:C12" si="0">ROUND(A2,0)</f>
-        <v>2</v>
+        <f t="shared" ref="C2:C9" si="0">ROUND(A2,0)</f>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D12" si="1">ROUND(B2,0)</f>
-        <v>2</v>
+        <f t="shared" ref="D2:D9" si="1">ROUND(B2,0)</f>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="str">
         <f t="shared" ref="E2:E65" si="2">CONCATENATE(C2,"-",D2)</f>
-        <v>2-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>2.2863643730550005</v>
+        <v>0.92574692307692086</v>
       </c>
       <c r="B3" s="3">
-        <v>1.5881538465639997</v>
+        <v>0.97432717948718128</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>0.44230754706449998</v>
+        <v>0.9928938461538438</v>
       </c>
       <c r="B4" s="3">
-        <v>1.8323622647512003</v>
+        <v>0.6989738461538475</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>1.8719999999999999</v>
+        <v>1.2525530769230739</v>
       </c>
       <c r="B5" s="3">
-        <v>0.44840444453280004</v>
+        <v>0.95849282051282225</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-0</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>0.63600000000000001</v>
+        <v>0.86642769230769023</v>
       </c>
       <c r="B6" s="3">
-        <v>0.11672500002299999</v>
+        <v>0.31463076923076982</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
@@ -474,10 +474,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>1.1056957803374001</v>
+        <v>1.4592530769230732</v>
       </c>
       <c r="B7" s="3">
-        <v>0.74279156143360003</v>
+        <v>1.4049394871794898</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
@@ -494,10 +494,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>1.1343461539974</v>
+        <v>1.2248130555555545</v>
       </c>
       <c r="B8" s="3">
-        <v>0.73481538448890005</v>
+        <v>1.4043944444444469</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -514,10 +514,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>1.1324940238079999</v>
+        <v>0.70145833333333263</v>
       </c>
       <c r="B9" s="3">
-        <v>0.79289641462500016</v>
+        <v>2.2214966666666704</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
@@ -525,19 +525,19 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>0.9358416243383999</v>
+        <v>1.0389599999999992</v>
       </c>
       <c r="B10" s="3">
-        <v>1.7893065991343999</v>
+        <v>0.67353611111111222</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ref="C10:C16" si="3">ROUND(A10,0)</f>
@@ -545,19 +545,19 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" ref="D10:D16" si="4">ROUND(B10,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>1.2165197971776001</v>
+        <v>1.4597013888888875</v>
       </c>
       <c r="B11" s="3">
-        <v>1.69892132025</v>
+        <v>0.68395833333333456</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="3"/>
@@ -565,23 +565,23 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>0.99259289358320002</v>
+        <v>1.6033333333333319</v>
       </c>
       <c r="B12" s="3">
-        <v>0.64694923875119992</v>
+        <v>1.4395694444444469</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="4"/>
@@ -589,15 +589,15 @@
       </c>
       <c r="E12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>0.55406147562149999</v>
+        <v>1.1784499999999989</v>
       </c>
       <c r="B13" s="3">
-        <v>0.63763934395200006</v>
+        <v>1.5641150000000026</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="3"/>
@@ -605,19 +605,19 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>0.88929030993879987</v>
+        <v>1.2024999999999988</v>
       </c>
       <c r="B14" s="3">
-        <v>1.2354077516452</v>
+        <v>0.71913333333333451</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="3"/>
@@ -634,110 +634,110 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>1.3485000003480001</v>
+        <v>1.3828749999999987</v>
       </c>
       <c r="B15" s="3">
-        <v>0.76964000022719992</v>
+        <v>0.82140138888889025</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C15:C78" si="5">ROUND(A15,0)</f>
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D15:D78" si="6">ROUND(B15,0)</f>
         <v>1</v>
       </c>
       <c r="E15" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E15:E78" si="7">CONCATENATE(C15,"-",D15)</f>
         <v>1-1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>1.4214791670335001</v>
+        <v>0.6840888888888883</v>
       </c>
       <c r="B16" s="3">
-        <v>0.65040000019200006</v>
+        <v>1.1427966666666687</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>0.98173793115719998</v>
+        <v>1.0922708333333324</v>
       </c>
       <c r="B17" s="3">
-        <v>0.84899704408560006</v>
+        <v>0.78622638888889018</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" ref="C17:C80" si="5">ROUND(A17,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" ref="D17:D80" si="6">ROUND(B17,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E17" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>1.4080000000000001</v>
+        <v>1.8350149999999985</v>
       </c>
       <c r="B18" s="3">
-        <v>1.5599422225296</v>
+        <v>0.911944444444446</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1-2</v>
+        <f t="shared" si="7"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>0.78319999985760003</v>
+        <v>2.2847499999999981</v>
       </c>
       <c r="B19" s="3">
-        <v>1.0236615387024</v>
+        <v>1.0896433333333353</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E19" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1-1</v>
+        <f t="shared" si="7"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>1.6915932485576002</v>
+        <v>1.6239666666666679</v>
       </c>
       <c r="B20" s="3">
-        <v>1.1639278484964</v>
+        <v>1.0468577777777768</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -748,36 +748,36 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>1.0107692309039999</v>
+        <v>1.5037458333333347</v>
       </c>
       <c r="B21" s="3">
-        <v>0.54132167822849997</v>
+        <v>1.5567016666666655</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1-1</v>
+        <f t="shared" si="7"/>
+        <v>2-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>1.1343461539974</v>
+        <v>0.92655444444444524</v>
       </c>
       <c r="B22" s="3">
-        <v>0.93982657326480001</v>
+        <v>0.89173333333333249</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>1.2535476921108</v>
+        <v>1.3519916666666678</v>
       </c>
       <c r="B23" s="3">
-        <v>1.4458519233595002</v>
+        <v>0.57707222222222165</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -808,16 +808,16 @@
         <v>1</v>
       </c>
       <c r="E23" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>1.5232984612992</v>
+        <v>1.6756025000000014</v>
       </c>
       <c r="B24" s="3">
-        <v>0.85818307709080011</v>
+        <v>0.43797111111111076</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -825,39 +825,39 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>2-1</v>
+        <f t="shared" si="7"/>
+        <v>2-0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>3.5741976917462996</v>
+        <v>0.95861333333333409</v>
       </c>
       <c r="B25" s="3">
-        <v>0.45707576932010002</v>
+        <v>0.67135444444444381</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>4-0</v>
+        <f t="shared" si="7"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>1.6618900396992</v>
+        <v>2.3042983333333358</v>
       </c>
       <c r="B26" s="3">
-        <v>1.6288637456000001</v>
+        <v>1.2630566666666656</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -865,179 +865,179 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>2-2</v>
+        <f t="shared" si="7"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>1.9707792827007999</v>
+        <v>0.77256666666666729</v>
       </c>
       <c r="B27" s="3">
-        <v>1.2608031876999999</v>
+        <v>1.0634616666666659</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E27" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>2-1</v>
+        <f t="shared" si="7"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>1.46804780864</v>
+        <v>1.6870333333333347</v>
       </c>
       <c r="B28" s="3">
-        <v>2.4701450207999995</v>
+        <v>1.9616972222222209</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E28" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1-2</v>
+        <f t="shared" si="7"/>
+        <v>2-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>3.3985827410184002</v>
+        <v>2.2893200000000022</v>
       </c>
       <c r="B29" s="3">
-        <v>0.78029035539520009</v>
+        <v>0.73881499999999933</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E29" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>3-1</v>
+        <f t="shared" si="7"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>2.6332385786039998</v>
+        <v>0.57233000000000056</v>
       </c>
       <c r="B30" s="3">
-        <v>0.71327512696319995</v>
+        <v>0.85724833333333261</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E30" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>3-1</v>
+        <f t="shared" si="7"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>2.6695482232729999</v>
+        <v>1.3785322222222234</v>
       </c>
       <c r="B31" s="3">
-        <v>0.70511675132800011</v>
+        <v>1.2796605555555545</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E31" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>3-1</v>
+        <f t="shared" si="7"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>1.6708751268552002</v>
+        <v>1.3981953488372079</v>
       </c>
       <c r="B32" s="3">
-        <v>0.68909137061600012</v>
+        <v>1.064601550387599</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E32" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>2-1</v>
+        <f t="shared" si="7"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>2.1776314720181995</v>
+        <v>1.3776465116279057</v>
       </c>
       <c r="B33" s="3">
-        <v>0.73075736046719997</v>
+        <v>1.0839534883720952</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E33" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>2-1</v>
+        <f t="shared" si="7"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>2.8359796959520001</v>
+        <v>1.8537674418604635</v>
       </c>
       <c r="B34" s="3">
-        <v>0.36968527928639999</v>
+        <v>0.39353023255814029</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E34" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>3-0</v>
+        <f t="shared" si="7"/>
+        <v>2-0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>1.2216527921024001</v>
+        <v>1.3868279069767429</v>
       </c>
       <c r="B35" s="3">
-        <v>0.90868020328800003</v>
+        <v>0.71540930232558275</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="E35" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>1.4888893403748</v>
+        <v>0.69953488372092953</v>
       </c>
       <c r="B36" s="3">
-        <v>0.78648730985439996</v>
+        <v>1.6718604651162823</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -1065,19 +1065,19 @@
       </c>
       <c r="D36" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1-1</v>
+        <f t="shared" si="7"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>1.8125587049175</v>
+        <v>1.8187906976744168</v>
       </c>
       <c r="B37" s="3">
-        <v>0.64928259126080012</v>
+        <v>1.1047751937984518</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -1088,36 +1088,36 @@
         <v>1</v>
       </c>
       <c r="E37" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>0.62502024307500004</v>
+        <v>2.5416434108527111</v>
       </c>
       <c r="B38" s="3">
-        <v>2.3223716605188001</v>
+        <v>0.6329798449612416</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1-2</v>
+        <f t="shared" si="7"/>
+        <v>3-1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>0.9000291500280001</v>
+        <v>1.3313023255813941</v>
       </c>
       <c r="B39" s="3">
-        <v>1.5288340084920002</v>
+        <v>2.1060542635658956</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="5"/>
@@ -1128,16 +1128,16 @@
         <v>2</v>
       </c>
       <c r="E39" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1-2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>1.4000453444880001</v>
+        <v>0.88684014869888261</v>
       </c>
       <c r="B40" s="3">
-        <v>1.1917894739920001</v>
+        <v>0.64647211895911016</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="5"/>
@@ -1148,16 +1148,16 @@
         <v>1</v>
       </c>
       <c r="E40" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>0.85194398939649996</v>
+        <v>0.53566728624535176</v>
       </c>
       <c r="B41" s="3">
-        <v>0.40915191236920001</v>
+        <v>0.42472304832713909</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="5"/>
@@ -1168,16 +1168,16 @@
         <v>0</v>
       </c>
       <c r="E41" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1-0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>0.99237431731900005</v>
+        <v>0.81240892193308356</v>
       </c>
       <c r="B42" s="3">
-        <v>0.93847431648320012</v>
+        <v>1.4629349442379236</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="5"/>
@@ -1188,16 +1188,16 @@
         <v>1</v>
       </c>
       <c r="E42" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>0.631510929203</v>
+        <v>0.62765055762081623</v>
       </c>
       <c r="B43" s="3">
-        <v>1.3155398900702</v>
+        <v>1.0069539033457284</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="5"/>
@@ -1208,56 +1208,56 @@
         <v>1</v>
       </c>
       <c r="E43" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>2.0488237712744999</v>
+        <v>0.58172490706319557</v>
       </c>
       <c r="B44" s="3">
-        <v>0.70814754063900009</v>
+        <v>0.50540520446096826</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E44" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>2-1</v>
+        <f t="shared" si="7"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>1.4885614759785</v>
+        <v>1.7871412639405162</v>
       </c>
       <c r="B45" s="3">
-        <v>0.93009508151460007</v>
+        <v>1.4480163568773285</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E45" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1-1</v>
+        <f t="shared" si="7"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>1.4400491808779996</v>
+        <v>0.54582899628252646</v>
       </c>
       <c r="B46" s="3">
-        <v>0.56079562814240003</v>
+        <v>0.65337323420074578</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" si="5"/>
@@ -1268,36 +1268,36 @@
         <v>1</v>
       </c>
       <c r="E46" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>0.92684016428850002</v>
+        <v>1.7871412639405162</v>
       </c>
       <c r="B47" s="3">
-        <v>0.96708633832720015</v>
+        <v>0.47435018587360755</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1-1</v>
+        <f t="shared" si="7"/>
+        <v>2-0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>1.1234426233799999</v>
+        <v>1.1133011152416332</v>
       </c>
       <c r="B48" s="3">
-        <v>0.81830382473840002</v>
+        <v>0.50560817843866346</v>
       </c>
       <c r="C48" s="1">
         <f t="shared" si="5"/>
@@ -1308,16 +1308,16 @@
         <v>1</v>
       </c>
       <c r="E48" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>1.2518360660519998</v>
+        <v>0.99888289962825039</v>
       </c>
       <c r="B49" s="3">
-        <v>1.57366120142</v>
+        <v>1.2257598513011194</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" si="5"/>
@@ -1325,19 +1325,19 @@
       </c>
       <c r="D49" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1-2</v>
+        <f t="shared" si="7"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>1.8082076509639999</v>
+        <v>1.7409747899159671</v>
       </c>
       <c r="B50" s="3">
-        <v>0.32679016377539999</v>
+        <v>1.1682352941176484</v>
       </c>
       <c r="C50" s="1">
         <f t="shared" si="5"/>
@@ -1345,59 +1345,59 @@
       </c>
       <c r="D50" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>2-0</v>
+        <f t="shared" si="7"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>1.1315148370059998</v>
+        <v>2.4190386554621863</v>
       </c>
       <c r="B51" s="3">
-        <v>3.3324890207868001</v>
+        <v>0.68703361344537883</v>
       </c>
       <c r="C51" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1-3</v>
+        <f t="shared" si="7"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>0.80296735919999995</v>
+        <v>0.49413227091633305</v>
       </c>
       <c r="B52" s="3">
-        <v>1.0350148367999998</v>
+        <v>0.88992908366534074</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E52" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1-1</v>
+        <f t="shared" si="7"/>
+        <v>0-1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>1.4132225521920001</v>
+        <v>1.3005179282868482</v>
       </c>
       <c r="B53" s="3">
-        <v>1.480071216624</v>
+        <v>1.5339227091633503</v>
       </c>
       <c r="C53" s="1">
         <f t="shared" si="5"/>
@@ -1405,19 +1405,19 @@
       </c>
       <c r="D53" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1-1</v>
+        <f t="shared" si="7"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>0.6732881306891999</v>
+        <v>1.2424302788844579</v>
       </c>
       <c r="B54" s="3">
-        <v>1.2751382789376</v>
+        <v>1.3589928286852619</v>
       </c>
       <c r="C54" s="1">
         <f t="shared" si="5"/>
@@ -1428,16 +1428,16 @@
         <v>1</v>
       </c>
       <c r="E54" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>1.37842729996</v>
+        <v>0.67381673306772683</v>
       </c>
       <c r="B55" s="3">
-        <v>0.81403916914319996</v>
+        <v>0.59029003984063877</v>
       </c>
       <c r="C55" s="1">
         <f t="shared" si="5"/>
@@ -1448,96 +1448,96 @@
         <v>1</v>
       </c>
       <c r="E55" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>1.0639317509400001</v>
+        <v>2.2545752988047734</v>
       </c>
       <c r="B56" s="3">
-        <v>0.98533412463360015</v>
+        <v>0.47906294820717243</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1-1</v>
+        <f t="shared" si="7"/>
+        <v>2-0</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>1.8929955493139996</v>
+        <v>2.5810278884462066</v>
       </c>
       <c r="B57" s="3">
-        <v>1.5369970326479998</v>
+        <v>0.94936254980079904</v>
       </c>
       <c r="C57" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>2-2</v>
+        <f t="shared" si="7"/>
+        <v>3-1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>2.6774946592523996</v>
+        <v>0.76069003984063488</v>
       </c>
       <c r="B58" s="3">
-        <v>0.53367952522499995</v>
+        <v>1.2068701195219151</v>
       </c>
       <c r="C58" s="1">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E58" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>3-1</v>
+        <f t="shared" si="7"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>0.49248664697599992</v>
+        <v>1.4289561752988003</v>
       </c>
       <c r="B59" s="3">
-        <v>1.4200403560896</v>
+        <v>0.57961673306773043</v>
       </c>
       <c r="C59" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E59" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>0-1</v>
+        <f t="shared" si="7"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>1.3508587539607999</v>
+        <v>1.1269003984063708</v>
       </c>
       <c r="B60" s="3">
-        <v>1.0858599406578</v>
+        <v>1.0475569721115561</v>
       </c>
       <c r="C60" s="1">
         <f t="shared" si="5"/>
@@ -1548,16 +1548,16 @@
         <v>1</v>
       </c>
       <c r="E60" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>1.5015489617039999</v>
+        <v>1.6978750000000014</v>
       </c>
       <c r="B61" s="3">
-        <v>1.6560237388800001</v>
+        <v>1.2075642857142876</v>
       </c>
       <c r="C61" s="1">
         <f t="shared" si="5"/>
@@ -1565,39 +1565,39 @@
       </c>
       <c r="D61" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>2-2</v>
+        <f t="shared" si="7"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>1.427274480978</v>
+        <v>2.3189425925925877</v>
       </c>
       <c r="B62" s="3">
-        <v>1.1255786350199999</v>
+        <v>0.31229629629629679</v>
       </c>
       <c r="C62" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1-1</v>
+        <f t="shared" si="7"/>
+        <v>2-0</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>1.5449999996704002</v>
+        <v>1.500999999999997</v>
       </c>
       <c r="B63" s="3">
-        <v>1.2271458337319998</v>
+        <v>1.6992592592592619</v>
       </c>
       <c r="C63" s="1">
         <f t="shared" si="5"/>
@@ -1605,59 +1605,59 @@
       </c>
       <c r="D63" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>2-1</v>
+        <f t="shared" si="7"/>
+        <v>2-2</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>1.167857142608</v>
+        <v>0.48861627906976685</v>
       </c>
       <c r="B64" s="3">
-        <v>0.82528928598240003</v>
+        <v>1.5416372093023265</v>
       </c>
       <c r="C64" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1-1</v>
+        <f t="shared" si="7"/>
+        <v>0-2</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>2.9041071422376001</v>
+        <v>0.40330232558139489</v>
       </c>
       <c r="B65" s="3">
-        <v>1.4348166671328002</v>
+        <v>1.5945054263565901</v>
       </c>
       <c r="C65" s="1">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D65" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>3-1</v>
+        <f t="shared" si="7"/>
+        <v>0-2</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>1.0611160712021999</v>
+        <v>0.81235465116278993</v>
       </c>
       <c r="B66" s="3">
-        <v>0.67800833355360002</v>
+        <v>2.3219720930232572</v>
       </c>
       <c r="C66" s="1">
         <f t="shared" si="5"/>
@@ -1665,19 +1665,19 @@
       </c>
       <c r="D66" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" s="2" t="str">
-        <f t="shared" ref="E66:E129" si="7">CONCATENATE(C66,"-",D66)</f>
-        <v>1-1</v>
+        <f t="shared" si="7"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>1.3553571425680002</v>
+        <v>1.191766153846151</v>
       </c>
       <c r="B67" s="3">
-        <v>0.65080357164000002</v>
+        <v>0.78040769230769369</v>
       </c>
       <c r="C67" s="1">
         <f t="shared" si="5"/>
@@ -1694,34 +1694,34 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>1.5042857139648</v>
+        <v>1.0321546153846128</v>
       </c>
       <c r="B68" s="3">
-        <v>1.6909166672160001</v>
+        <v>0.87685333333333493</v>
       </c>
       <c r="C68" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>2-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>1.1578124997530002</v>
+        <v>3.4901723076922986</v>
       </c>
       <c r="B69" s="3">
-        <v>0.54819940494000008</v>
+        <v>0.53291871794871892</v>
       </c>
       <c r="C69" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D69" s="1">
         <f t="shared" si="6"/>
@@ -1729,15 +1729,15 @@
       </c>
       <c r="E69" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>1-1</v>
+        <v>3-1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>1.1999999997440003</v>
+        <v>0.72210461538461357</v>
       </c>
       <c r="B70" s="3">
-        <v>1.5994523814720001</v>
+        <v>0.96743820512820677</v>
       </c>
       <c r="C70" s="1">
         <f t="shared" si="5"/>
@@ -1745,19 +1745,19 @@
       </c>
       <c r="D70" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>1-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>0.75857142840960001</v>
+        <v>0.86654999999999793</v>
       </c>
       <c r="B71" s="3">
-        <v>1.2378166670688</v>
+        <v>0.42341487179487253</v>
       </c>
       <c r="C71" s="1">
         <f t="shared" si="5"/>
@@ -1765,19 +1765,19 @@
       </c>
       <c r="D71" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>1-1</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>0.60066964272900003</v>
+        <v>1.0410830769230746</v>
       </c>
       <c r="B72" s="3">
-        <v>1.0599303574872001</v>
+        <v>1.2415576923076945</v>
       </c>
       <c r="C72" s="1">
         <f t="shared" si="5"/>
@@ -1794,14 +1794,14 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>1.028571428352</v>
+        <v>2.8997304832713775</v>
       </c>
       <c r="B73" s="3">
-        <v>1.0884250003536</v>
+        <v>1.4405353159851313</v>
       </c>
       <c r="C73" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" si="6"/>
@@ -1809,35 +1809,35 @@
       </c>
       <c r="E73" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>1-1</v>
+        <v>3-1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>1.5725892853787999</v>
+        <v>1.4200059479553915</v>
       </c>
       <c r="B74" s="3">
-        <v>0.49836309540000001</v>
+        <v>0.95112267657992644</v>
       </c>
       <c r="C74" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>2-0</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>0.83020829881500002</v>
+        <v>1.4606918215613394</v>
       </c>
       <c r="B75" s="3">
-        <v>0.64316016576000001</v>
+        <v>0.88327137546468482</v>
       </c>
       <c r="C75" s="1">
         <f t="shared" si="5"/>
@@ -1854,10 +1854,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>1.35459585072</v>
+        <v>1.4415211895910791</v>
       </c>
       <c r="B76" s="3">
-        <v>1.2297460576799999</v>
+        <v>1.0342304832713765</v>
       </c>
       <c r="C76" s="1">
         <f t="shared" si="5"/>
@@ -1874,10 +1874,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>0.75504896270999988</v>
+        <v>0.90557100371747279</v>
       </c>
       <c r="B77" s="3">
-        <v>1.0973672195499999</v>
+        <v>1.43357620817844</v>
       </c>
       <c r="C77" s="1">
         <f t="shared" si="5"/>
@@ -1894,90 +1894,90 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>1.0755560166749998</v>
+        <v>0.46202602230483308</v>
       </c>
       <c r="B78" s="3">
-        <v>0.71462240640000008</v>
+        <v>1.5156133828996299</v>
       </c>
       <c r="C78" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>1-1</v>
+        <v>0-2</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>1.9413282159074996</v>
+        <v>1.1477553903345732</v>
       </c>
       <c r="B79" s="3">
-        <v>0.30966970944</v>
+        <v>0.48339033457249114</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" ref="C79:C103" si="8">ROUND(A79,0)</f>
+        <v>1</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D79:D103" si="9">ROUND(B79,0)</f>
         <v>0</v>
       </c>
       <c r="E79" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-0</v>
+        <f t="shared" ref="E79:E103" si="10">CONCATENATE(C79,"-",D79)</f>
+        <v>1-0</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>1.6471701246000001</v>
+        <v>2.5880353159851319</v>
       </c>
       <c r="B80" s="3">
-        <v>0.9673456428299998</v>
+        <v>1.3360148698884773</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E80" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-1</v>
+        <f t="shared" si="10"/>
+        <v>3-1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>3.4993726143599999</v>
+        <v>1.1477553903345732</v>
       </c>
       <c r="B81" s="3">
-        <v>0.78385145202000006</v>
+        <v>1.6775464684014885</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" ref="C81:C144" si="8">ROUND(A81,0)</f>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" ref="D81:D144" si="9">ROUND(B81,0)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="E81" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>3-1</v>
+        <f t="shared" si="10"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>0.60612558130080008</v>
+        <v>1.204853531598514</v>
       </c>
       <c r="B82" s="3">
-        <v>0.76803953470169994</v>
+        <v>1.7574423791821578</v>
       </c>
       <c r="C82" s="1">
         <f t="shared" si="8"/>
@@ -1985,99 +1985,99 @@
       </c>
       <c r="D82" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="10"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>0.1653069767184</v>
+        <v>1.168443697478992</v>
       </c>
       <c r="B83" s="3">
-        <v>1.4805581391840001</v>
+        <v>1.485605882352943</v>
       </c>
       <c r="C83" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" s="1">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E83" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0-1</v>
+        <f t="shared" si="10"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>1.8036208487879999</v>
+        <v>4.3432739495798351</v>
       </c>
       <c r="B84" s="3">
-        <v>0.94448803060539976</v>
+        <v>0.7059478991596646</v>
       </c>
       <c r="C84" s="1">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" s="1">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E84" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-1</v>
+        <f t="shared" si="10"/>
+        <v>4-1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>2.070222393096</v>
+        <v>0.78628235294117688</v>
       </c>
       <c r="B85" s="3">
-        <v>0.4436015442688</v>
+        <v>1.2091235294117659</v>
       </c>
       <c r="C85" s="1">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-0</v>
+        <f t="shared" si="10"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>2.7246440144879998</v>
+        <v>0.98107563025210132</v>
       </c>
       <c r="B86" s="3">
-        <v>0.64002162143009989</v>
+        <v>1.0163647058823539</v>
       </c>
       <c r="C86" s="1">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D86" s="1">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E86" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>3-1</v>
+        <f t="shared" si="10"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>0.87309034718400003</v>
+        <v>1.2742924369747908</v>
       </c>
       <c r="B87" s="3">
-        <v>0.80698378354229994</v>
+        <v>0.84446722689075726</v>
       </c>
       <c r="C87" s="1">
         <f t="shared" si="8"/>
@@ -2088,16 +2088,16 @@
         <v>1</v>
       </c>
       <c r="E87" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>0.94201853248799994</v>
+        <v>1.350756302521009</v>
       </c>
       <c r="B88" s="3">
-        <v>0.98505637036159988</v>
+        <v>1.1732420168067239</v>
       </c>
       <c r="C88" s="1">
         <f t="shared" si="8"/>
@@ -2108,16 +2108,16 @@
         <v>1</v>
       </c>
       <c r="E88" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>2.1074594587199997</v>
+        <v>2.2270890756302535</v>
       </c>
       <c r="B89" s="3">
-        <v>0.46327413113549998</v>
+        <v>1.2616941176470604</v>
       </c>
       <c r="C89" s="1">
         <f t="shared" si="8"/>
@@ -2125,19 +2125,19 @@
       </c>
       <c r="D89" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-0</v>
+        <f t="shared" si="10"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>1.3949374512479999</v>
+        <v>1.0429538461538503</v>
       </c>
       <c r="B90" s="3">
-        <v>0.70495135114039997</v>
+        <v>2.1060923076923035</v>
       </c>
       <c r="C90" s="1">
         <f t="shared" si="8"/>
@@ -2145,39 +2145,39 @@
       </c>
       <c r="D90" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="10"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>3.0107884159320002</v>
+        <v>0.43301208791208962</v>
       </c>
       <c r="B91" s="3">
-        <v>0.50547335892209988</v>
+        <v>1.9215230769230733</v>
       </c>
       <c r="C91" s="1">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D91" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>3-1</v>
+        <f t="shared" si="10"/>
+        <v>0-2</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>0.90200849389199989</v>
+        <v>0.89094444444444254</v>
       </c>
       <c r="B92" s="3">
-        <v>0.81340540516199977</v>
+        <v>1.2248444444444462</v>
       </c>
       <c r="C92" s="1">
         <f t="shared" si="8"/>
@@ -2188,36 +2188,36 @@
         <v>1</v>
       </c>
       <c r="E92" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>1.6269428565720001</v>
+        <v>1.2629759259259234</v>
       </c>
       <c r="B93" s="3">
-        <v>1.0113544398517997</v>
+        <v>1.1385037037037056</v>
       </c>
       <c r="C93" s="1">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D93" s="1">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E93" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-1</v>
+        <f t="shared" si="10"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>1.3341735845880003</v>
+        <v>0.87558333333333149</v>
       </c>
       <c r="B94" s="3">
-        <v>1.2534566041841999</v>
+        <v>1.2586000000000019</v>
       </c>
       <c r="C94" s="1">
         <f t="shared" si="8"/>
@@ -2228,16 +2228,16 @@
         <v>1</v>
       </c>
       <c r="E94" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>0.838732075272</v>
+        <v>0.83871666666666489</v>
       </c>
       <c r="B95" s="3">
-        <v>0.93894339653400005</v>
+        <v>1.6544814814814843</v>
       </c>
       <c r="C95" s="1">
         <f t="shared" si="8"/>
@@ -2245,59 +2245,59 @@
       </c>
       <c r="D95" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E95" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="10"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>1.5683790396416999</v>
+        <v>0.84793333333333154</v>
       </c>
       <c r="B96" s="3">
-        <v>1.1933685588518999</v>
+        <v>0.5793555555555564</v>
       </c>
       <c r="C96" s="1">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96" s="1">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E96" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-1</v>
+        <f t="shared" si="10"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>1.5939703060228003</v>
+        <v>0.53515116279069719</v>
       </c>
       <c r="B97" s="3">
-        <v>2.0678305675121997</v>
+        <v>1.6356104651162799</v>
       </c>
       <c r="C97" s="1">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97" s="1">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="E97" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-2</v>
+        <f t="shared" si="10"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>0.80111790410400008</v>
+        <v>0.56323255813953432</v>
       </c>
       <c r="B98" s="3">
-        <v>1.1980087335239999</v>
+        <v>3.0729651162790717</v>
       </c>
       <c r="C98" s="1">
         <f t="shared" si="8"/>
@@ -2305,79 +2305,79 @@
       </c>
       <c r="D98" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E98" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="10"/>
+        <v>1-3</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>0.37781250009750006</v>
+        <v>1.3755872093023243</v>
       </c>
       <c r="B99" s="3">
-        <v>0.77381791689510004</v>
+        <v>1.2783534883720939</v>
       </c>
       <c r="C99" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" s="1">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E99" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0-1</v>
+        <f t="shared" si="10"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>0.83545000021560001</v>
+        <v>0.2177008403361346</v>
       </c>
       <c r="B100" s="3">
-        <v>1.3691145837374998</v>
+        <v>2.2029579831932797</v>
       </c>
       <c r="C100" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="10"/>
+        <v>0-2</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>0.70525000018200013</v>
+        <v>1.9139944444444406</v>
       </c>
       <c r="B101" s="3">
-        <v>1.8970000005599998</v>
+        <v>0.53526666666666756</v>
       </c>
       <c r="C101" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D101" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E101" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-2</v>
+        <f t="shared" si="10"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>1.2586000003247999</v>
+        <v>0.61195740740740612</v>
       </c>
       <c r="B102" s="3">
-        <v>1.105454166993</v>
+        <v>1.2154296296296316</v>
       </c>
       <c r="C102" s="1">
         <f t="shared" si="8"/>
@@ -2388,1676 +2388,583 @@
         <v>1</v>
       </c>
       <c r="E102" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>1.5432833337316001</v>
+        <v>1.1908518518518494</v>
       </c>
       <c r="B103" s="3">
-        <v>0.75597708355650006</v>
+        <v>0.65111481481481581</v>
       </c>
       <c r="C103" s="1">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D103" s="1">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E103" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-1</v>
+        <f t="shared" si="10"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
-        <v>1.8328750004730003</v>
-      </c>
-      <c r="B104" s="3">
-        <v>0.70426125020790009</v>
-      </c>
-      <c r="C104" s="1">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="D104" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E104" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-1</v>
-      </c>
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
-        <v>1.4763750003810003</v>
-      </c>
-      <c r="B105" s="3">
-        <v>0.83829333358079994</v>
-      </c>
-      <c r="C105" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D105" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E105" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
-      </c>
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
-        <v>1.3779500003556</v>
-      </c>
-      <c r="B106" s="3">
-        <v>1.7468208338490001</v>
-      </c>
-      <c r="C106" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D106" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="E106" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-2</v>
-      </c>
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="2"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
-        <v>1.9718778327588</v>
-      </c>
-      <c r="B107" s="3">
-        <v>0.30553743833390001</v>
-      </c>
-      <c r="C107" s="1">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="D107" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E107" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-0</v>
-      </c>
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="2"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
-        <v>1.0117911331314</v>
-      </c>
-      <c r="B108" s="3">
-        <v>0.94034482731000002</v>
-      </c>
-      <c r="C108" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D108" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E108" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
-      </c>
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="2"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
-        <v>2.0940295569120004</v>
-      </c>
-      <c r="B109" s="3">
-        <v>0.6240605909496999</v>
-      </c>
-      <c r="C109" s="1">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="D109" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E109" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-1</v>
-      </c>
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="2"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
-        <v>0.99078620702039999</v>
-      </c>
-      <c r="B110" s="3">
-        <v>1.1800581277322</v>
-      </c>
-      <c r="C110" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D110" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E110" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
-      </c>
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="2"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
-        <v>1.2779999999999998</v>
-      </c>
-      <c r="B111" s="3">
-        <v>1.3452133335984</v>
-      </c>
-      <c r="C111" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D111" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E111" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
-      </c>
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="2"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
-        <v>0.55799999999999994</v>
-      </c>
-      <c r="B112" s="3">
-        <v>1.1692800002304</v>
-      </c>
-      <c r="C112" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D112" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E112" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
-      </c>
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
-        <v>0.92000000000000015</v>
-      </c>
-      <c r="B113" s="3">
-        <v>1.9451911114944</v>
-      </c>
-      <c r="C113" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D113" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="E113" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-2</v>
-      </c>
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="2"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
-        <v>1.4542372880099999</v>
-      </c>
-      <c r="B114" s="3">
-        <v>0.37903389829799999</v>
-      </c>
-      <c r="C114" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D114" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E114" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-0</v>
-      </c>
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="2"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
-        <v>1.3058305083618</v>
-      </c>
-      <c r="B115" s="3">
-        <v>0.85237288134</v>
-      </c>
-      <c r="C115" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D115" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E115" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
-      </c>
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
-        <v>1.4373333332091998</v>
-      </c>
-      <c r="B116" s="3">
-        <v>0.68479999998719998</v>
-      </c>
-      <c r="C116" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D116" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E116" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
-      </c>
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="2"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
-        <v>1.2963841806789997</v>
-      </c>
-      <c r="B117" s="3">
-        <v>0.79941694913759986</v>
-      </c>
-      <c r="C117" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D117" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E117" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
-      </c>
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="2"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
-        <v>1.1504307690216</v>
-      </c>
-      <c r="B118" s="3">
-        <v>0.32796923084639995</v>
-      </c>
-      <c r="C118" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D118" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E118" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-0</v>
-      </c>
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="2"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
-        <v>1.5176615381856</v>
-      </c>
-      <c r="B119" s="3">
-        <v>1.0037846156208001</v>
-      </c>
-      <c r="C119" s="1">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="D119" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E119" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-1</v>
-      </c>
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="2"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
-        <v>1.2022153843968</v>
-      </c>
-      <c r="B120" s="3">
-        <v>1.5676615388304003</v>
-      </c>
-      <c r="C120" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D120" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="E120" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-2</v>
-      </c>
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="2"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
-        <v>2.7510153841151999</v>
-      </c>
-      <c r="B121" s="3">
-        <v>0.511307692428</v>
-      </c>
-      <c r="C121" s="1">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="D121" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E121" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>3-1</v>
-      </c>
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="2"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
-        <v>0.64545485217280008</v>
-      </c>
-      <c r="B122" s="3">
-        <v>0.792989451746</v>
-      </c>
-      <c r="C122" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D122" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E122" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
-      </c>
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="2"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
-        <v>1.0385063288759999</v>
-      </c>
-      <c r="B123" s="3">
-        <v>0.89647257414400006</v>
-      </c>
-      <c r="C123" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D123" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E123" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
-      </c>
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="2"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
-        <v>0.8147232065644</v>
-      </c>
-      <c r="B124" s="3">
-        <v>0.68550421964200015</v>
-      </c>
-      <c r="C124" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D124" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E124" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
-      </c>
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="2"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="3">
-        <v>0.82453586479000018</v>
-      </c>
-      <c r="B125" s="3">
-        <v>0.55091898752879997</v>
-      </c>
-      <c r="C125" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D125" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E125" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
-      </c>
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="2"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
-        <v>1.5000000002</v>
-      </c>
-      <c r="B126" s="3">
-        <v>0.54806153836720006</v>
-      </c>
-      <c r="C126" s="1">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="D126" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E126" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-1</v>
-      </c>
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="2"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
-        <v>2.3479615387746002</v>
-      </c>
-      <c r="B127" s="3">
-        <v>0.66801398589900007</v>
-      </c>
-      <c r="C127" s="1">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="D127" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E127" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-1</v>
-      </c>
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="2"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="3">
-        <v>1.1723076924640001</v>
-      </c>
-      <c r="B128" s="3">
-        <v>0.48834125865720007</v>
-      </c>
-      <c r="C128" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D128" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E128" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-0</v>
-      </c>
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="2"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="3">
-        <v>0.26434615388139998</v>
-      </c>
-      <c r="B129" s="3">
-        <v>1.2666671326490999</v>
-      </c>
-      <c r="C129" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D129" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E129" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0-1</v>
-      </c>
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="2"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
-        <v>1.8732692304749998</v>
-      </c>
-      <c r="B130" s="3">
-        <v>0.62226538473699999</v>
-      </c>
-      <c r="C130" s="1">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="D130" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E130" s="2" t="str">
-        <f t="shared" ref="E130:E184" si="10">CONCATENATE(C130,"-",D130)</f>
-        <v>2-1</v>
-      </c>
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="2"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="3">
-        <v>1.413399999778</v>
-      </c>
-      <c r="B131" s="3">
-        <v>0.79489384630920001</v>
-      </c>
-      <c r="C131" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D131" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E131" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-1</v>
-      </c>
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="2"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
-        <v>1.5785415382136001</v>
-      </c>
-      <c r="B132" s="3">
-        <v>0.77600153861319998</v>
-      </c>
-      <c r="C132" s="1">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="D132" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E132" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>2-1</v>
-      </c>
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="2"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
-        <v>1.5232984612992</v>
-      </c>
-      <c r="B133" s="3">
-        <v>1.4395938464352001</v>
-      </c>
-      <c r="C133" s="1">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="D133" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E133" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>2-1</v>
-      </c>
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="2"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
-        <v>2.7227784611107997</v>
-      </c>
-      <c r="B134" s="3">
-        <v>0.42814692316059993</v>
-      </c>
-      <c r="C134" s="1">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="D134" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E134" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>3-0</v>
-      </c>
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="2"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="3">
-        <v>1.4231075696</v>
-      </c>
-      <c r="B135" s="3">
-        <v>0.98615617564999991</v>
-      </c>
-      <c r="C135" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D135" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E135" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-1</v>
-      </c>
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="2"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
-        <v>2.2995920316767999</v>
-      </c>
-      <c r="B136" s="3">
-        <v>0.82561912380000002</v>
-      </c>
-      <c r="C136" s="1">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="D136" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E136" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>2-1</v>
-      </c>
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="2"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="3">
-        <v>0.63635378480639992</v>
-      </c>
-      <c r="B137" s="3">
-        <v>2.0900581680749997</v>
-      </c>
-      <c r="C137" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D137" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="E137" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-2</v>
-      </c>
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="2"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="3">
-        <v>1.28828685248</v>
-      </c>
-      <c r="B138" s="3">
-        <v>0.76828446242499993</v>
-      </c>
-      <c r="C138" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D138" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E138" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-1</v>
-      </c>
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="2"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="3">
-        <v>2.5214680202316</v>
-      </c>
-      <c r="B139" s="3">
-        <v>1.00522842648</v>
-      </c>
-      <c r="C139" s="1">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="D139" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E139" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>3-1</v>
-      </c>
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="2"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="3">
-        <v>0.86985279185299991</v>
-      </c>
-      <c r="B140" s="3">
-        <v>1.0922025381623999</v>
-      </c>
-      <c r="C140" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D140" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E140" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-1</v>
-      </c>
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="2"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="3">
-        <v>2.2505664973968003</v>
-      </c>
-      <c r="B141" s="3">
-        <v>0.95860913713600004</v>
-      </c>
-      <c r="C141" s="1">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="D141" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E141" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>2-1</v>
-      </c>
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="2"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="3">
-        <v>1.8324791881535998</v>
-      </c>
-      <c r="B142" s="3">
-        <v>0.53640609151360008</v>
-      </c>
-      <c r="C142" s="1">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="D142" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E142" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>2-1</v>
-      </c>
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="2"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="3">
-        <v>1.9768446704136</v>
-      </c>
-      <c r="B143" s="3">
-        <v>0.7176243656736</v>
-      </c>
-      <c r="C143" s="1">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="D143" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E143" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>2-1</v>
-      </c>
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="2"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="3">
-        <v>1.3089137058239999</v>
-      </c>
-      <c r="B144" s="3">
-        <v>1.0111979698128</v>
-      </c>
-      <c r="C144" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D144" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E144" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-1</v>
-      </c>
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="2"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="3">
-        <v>1.0875352229505002</v>
-      </c>
-      <c r="B145" s="3">
-        <v>1.4196315793140002</v>
-      </c>
-      <c r="C145" s="1">
-        <f t="shared" ref="C145:C184" si="11">ROUND(A145,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D145" s="1">
-        <f t="shared" ref="D145:D184" si="12">ROUND(B145,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E145" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-1</v>
-      </c>
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="2"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="3">
-        <v>1.1736939274259999</v>
-      </c>
-      <c r="B146" s="3">
-        <v>1.2412676116566002</v>
-      </c>
-      <c r="C146" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D146" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E146" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-1</v>
-      </c>
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="2"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="3">
-        <v>1.3972226724225001</v>
-      </c>
-      <c r="B147" s="3">
-        <v>0.53927125519999997</v>
-      </c>
-      <c r="C147" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D147" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E147" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-1</v>
-      </c>
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="2"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="3">
-        <v>1.5569052635565002</v>
-      </c>
-      <c r="B148" s="3">
-        <v>1.420979757452</v>
-      </c>
-      <c r="C148" s="1">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="D148" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E148" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>2-1</v>
-      </c>
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="2"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="3">
-        <v>0.8430380568960002</v>
-      </c>
-      <c r="B149" s="3">
-        <v>2.1399631584473999</v>
-      </c>
-      <c r="C149" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D149" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="E149" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-2</v>
-      </c>
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="2"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="3">
-        <v>0.4885273225909999</v>
-      </c>
-      <c r="B150" s="3">
-        <v>1.3938142069720001</v>
-      </c>
-      <c r="C150" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="D150" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E150" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>0-1</v>
-      </c>
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="2"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="3">
-        <v>2.9335031003175995</v>
-      </c>
-      <c r="B151" s="3">
-        <v>0.94626976721760003</v>
-      </c>
-      <c r="C151" s="1">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="D151" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E151" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>3-1</v>
-      </c>
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="2"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="3">
-        <v>1.0202279068175999</v>
-      </c>
-      <c r="B152" s="3">
-        <v>1.4215503872600002</v>
-      </c>
-      <c r="C152" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D152" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E152" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-1</v>
-      </c>
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="2"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="3">
-        <v>1.5340988369699999</v>
-      </c>
-      <c r="B153" s="3">
-        <v>1.4766689918981</v>
-      </c>
-      <c r="C153" s="1">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="D153" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E153" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>2-1</v>
-      </c>
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="2"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
-        <v>1.3558511625791998</v>
-      </c>
-      <c r="B154" s="3">
-        <v>1.6221767438016002</v>
-      </c>
-      <c r="C154" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D154" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="E154" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-2</v>
-      </c>
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="2"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="3">
-        <v>0.9918418603104</v>
-      </c>
-      <c r="B155" s="3">
-        <v>1.0259302323149999</v>
-      </c>
-      <c r="C155" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D155" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E155" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-1</v>
-      </c>
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="2"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="3">
-        <v>2.0499178291375997</v>
-      </c>
-      <c r="B156" s="3">
-        <v>0.59544186032400004</v>
-      </c>
-      <c r="C156" s="1">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="D156" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E156" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>2-1</v>
-      </c>
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="2"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="3">
-        <v>0.99184186031040011</v>
-      </c>
-      <c r="B157" s="3">
-        <v>1.9118511623376002</v>
-      </c>
-      <c r="C157" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D157" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="E157" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-2</v>
-      </c>
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="2"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="3">
-        <v>1.2576226412100002</v>
-      </c>
-      <c r="B158" s="3">
-        <v>0.38717735861739994</v>
-      </c>
-      <c r="C158" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D158" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E158" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-0</v>
-      </c>
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="2"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="3">
-        <v>0.69430754700449993</v>
-      </c>
-      <c r="B159" s="3">
-        <v>1.6792641514934998</v>
-      </c>
-      <c r="C159" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D159" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="E159" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-2</v>
-      </c>
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="2"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="3">
-        <v>0.57413207533499999</v>
-      </c>
-      <c r="B160" s="3">
-        <v>0.210113207616</v>
-      </c>
-      <c r="C160" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D160" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E160" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-0</v>
-      </c>
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="2"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="3">
-        <v>1.0060981129680002</v>
-      </c>
-      <c r="B161" s="3">
-        <v>0.66645283040699999</v>
-      </c>
-      <c r="C161" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D161" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E161" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-1</v>
-      </c>
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="2"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="3">
-        <v>1.2821065504966001</v>
-      </c>
-      <c r="B162" s="3">
-        <v>2.0416768557240004</v>
-      </c>
-      <c r="C162" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D162" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="E162" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-2</v>
-      </c>
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="2"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="3">
-        <v>1.449641921712</v>
-      </c>
-      <c r="B163" s="3">
-        <v>1.2579091702001999</v>
-      </c>
-      <c r="C163" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D163" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E163" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-1</v>
-      </c>
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="2"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="3">
-        <v>2.3270567690640003</v>
-      </c>
-      <c r="B164" s="3">
-        <v>0.58859912658820002</v>
-      </c>
-      <c r="C164" s="1">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="D164" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E164" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>2-1</v>
-      </c>
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="2"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>1.1105973801537001</v>
-      </c>
-      <c r="B165">
-        <v>0.69096419208180004</v>
-      </c>
-      <c r="C165" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D165" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E165" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-1</v>
-      </c>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="2"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>3.0518777299200002</v>
-      </c>
-      <c r="B166">
-        <v>0.67634061129699996</v>
-      </c>
-      <c r="C166" s="1">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="D166" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E166" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>3-1</v>
-      </c>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="2"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>1.4768227077440998</v>
-      </c>
-      <c r="B167">
-        <v>1.2992489081880001</v>
-      </c>
-      <c r="C167" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D167" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E167" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-1</v>
-      </c>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="2"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>2.6656866998405997</v>
-      </c>
-      <c r="B168">
-        <v>1.0657241376179998</v>
-      </c>
-      <c r="C168" s="1">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="D168" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E168" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>3-1</v>
-      </c>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="2"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>1.2892177341513003</v>
-      </c>
-      <c r="B169">
-        <v>0.65824137911699998</v>
-      </c>
-      <c r="C169" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D169" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E169" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-1</v>
-      </c>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="2"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>0.83502660108960014</v>
-      </c>
-      <c r="B170">
-        <v>1.3349911326128001</v>
-      </c>
-      <c r="C170" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D170" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E170" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-1</v>
-      </c>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="2"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>1.3918187193857998</v>
-      </c>
-      <c r="B171">
-        <v>1.6027655167705999</v>
-      </c>
-      <c r="C171" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D171" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="E171" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-2</v>
-      </c>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="2"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>1.5680000000000001</v>
-      </c>
-      <c r="B172">
-        <v>0.85530666683520007</v>
-      </c>
-      <c r="C172" s="1">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="D172" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E172" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>2-1</v>
-      </c>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="2"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>1.536</v>
-      </c>
-      <c r="B173">
-        <v>0.57742222233600005</v>
-      </c>
-      <c r="C173" s="1">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="D173" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E173" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>2-1</v>
-      </c>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="2"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>1.248</v>
-      </c>
-      <c r="B174">
-        <v>2.2799155560048003</v>
-      </c>
-      <c r="C174" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D174" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="E174" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-2</v>
-      </c>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="2"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>1.5046075945920001</v>
-      </c>
-      <c r="B175">
-        <v>0.99744008472680001</v>
-      </c>
-      <c r="C175" s="1">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="D175" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E175" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>2-1</v>
-      </c>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="2"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>1.2875025313506001</v>
-      </c>
-      <c r="B176">
-        <v>1.7145037980504001</v>
-      </c>
-      <c r="C176" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D176" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="E176" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>1.4599054848976001</v>
-      </c>
-      <c r="B177">
-        <v>0.8226050635704002</v>
-      </c>
-      <c r="C177" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D177" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E177" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>0.89949367068000008</v>
-      </c>
-      <c r="B178">
-        <v>1.2634088611884002</v>
-      </c>
-      <c r="C178" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D178" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E178" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>0.82719230780260011</v>
-      </c>
-      <c r="B179">
-        <v>0.61426573416000008</v>
-      </c>
-      <c r="C179" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D179" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E179" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>0.74076923086800006</v>
-      </c>
-      <c r="B180">
-        <v>0.49294825166340006</v>
-      </c>
-      <c r="C180" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D180" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E180" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>0.71896153855740019</v>
-      </c>
-      <c r="B181">
-        <v>0.21499300695600004</v>
-      </c>
-      <c r="C181" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D181" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E181" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>1.3628076924894001</v>
-      </c>
-      <c r="B182">
-        <v>0.38007692301150003</v>
-      </c>
-      <c r="C182" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D182" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E182" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>2.1582999996609997</v>
-      </c>
-      <c r="B183">
-        <v>0.79489384630920001</v>
-      </c>
-      <c r="C183" s="1">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="D183" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E183" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>2-1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>0.8744861537087999</v>
-      </c>
-      <c r="B184">
-        <v>1.8398746157442001</v>
-      </c>
-      <c r="C184" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D184" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="E184" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="2"/>
+    </row>
+    <row r="177" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="2"/>
+    </row>
+    <row r="178" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="2"/>
+    </row>
+    <row r="179" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="2"/>
+    </row>
+    <row r="180" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="2"/>
+    </row>
+    <row r="181" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="2"/>
+    </row>
+    <row r="182" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="2"/>
+    </row>
+    <row r="183" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="2"/>
+    </row>
+    <row r="184" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="2"/>
+    </row>
+    <row r="185" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="2"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="2"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="2"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="2"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="2"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="2"/>

--- a/CS generator.xlsx
+++ b/CS generator.xlsx
@@ -346,38 +346,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E103"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
-        <v>2.2592151162790675</v>
+        <v>1.3340293436293398</v>
       </c>
       <c r="B1" s="3">
-        <v>0.42862906976744208</v>
+        <v>0.69059536679536793</v>
       </c>
       <c r="C1" s="1">
         <f>ROUND(A1,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>ROUND(B1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="2" t="str">
         <f>CONCATENATE(C1,"-",D1)</f>
-        <v>2-0</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1.4684261538461501</v>
+        <v>0.89473543689320278</v>
       </c>
       <c r="B2" s="3">
-        <v>0.83952948717948872</v>
+        <v>1.5838873786407821</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C9" si="0">ROUND(A2,0)</f>
@@ -385,23 +385,23 @@
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D9" si="1">ROUND(B2,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f t="shared" ref="E2:E65" si="2">CONCATENATE(C2,"-",D2)</f>
-        <v>1-1</v>
+        <f t="shared" ref="E2:E14" si="2">CONCATENATE(C2,"-",D2)</f>
+        <v>1-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>0.92574692307692086</v>
+        <v>2.3557565217391354</v>
       </c>
       <c r="B3" s="3">
-        <v>0.97432717948718128</v>
+        <v>1.4445439613526598</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="1"/>
@@ -409,19 +409,19 @@
       </c>
       <c r="E3" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>0.9928938461538438</v>
+        <v>1.7368251207729501</v>
       </c>
       <c r="B4" s="3">
-        <v>0.6989738461538475</v>
+        <v>1.2398801932367174</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
@@ -429,15 +429,15 @@
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>1.2525530769230739</v>
+        <v>1.1331641791044775</v>
       </c>
       <c r="B5" s="3">
-        <v>0.95849282051282225</v>
+        <v>1.1271069651741279</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
@@ -454,150 +454,150 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>0.86642769230769023</v>
+        <v>1.1373714953271026</v>
       </c>
       <c r="B6" s="3">
-        <v>0.31463076923076982</v>
+        <v>1.865805607476638</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C6:C13" si="3">ROUND(A6,0)</f>
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="D6:D13" si="4">ROUND(B6,0)</f>
+        <v>2</v>
       </c>
       <c r="E6" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1-0</v>
+        <f t="shared" ref="E6:E13" si="5">CONCATENATE(C6,"-",D6)</f>
+        <v>1-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>1.4592530769230732</v>
+        <v>1.4065100529100543</v>
       </c>
       <c r="B7" s="3">
-        <v>1.4049394871794898</v>
+        <v>0.38562539682539659</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1-1</v>
+        <f t="shared" si="5"/>
+        <v>1-0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>1.2248130555555545</v>
+        <v>1.738158730158732</v>
       </c>
       <c r="B8" s="3">
-        <v>1.4043944444444469</v>
+        <v>0.47047619047619027</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1-1</v>
+        <f t="shared" si="5"/>
+        <v>2-0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>0.70145833333333263</v>
+        <v>1.1995161290322554</v>
       </c>
       <c r="B9" s="3">
-        <v>2.2214966666666704</v>
+        <v>1.0892250000000017</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1-2</v>
+        <f t="shared" si="5"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>1.0389599999999992</v>
+        <v>1.456932659932662</v>
       </c>
       <c r="B10" s="3">
-        <v>0.67353611111111222</v>
+        <v>0.38787878787878799</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" ref="C10:C16" si="3">ROUND(A10,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" ref="D10:D16" si="4">ROUND(B10,0)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1-1</v>
+        <f t="shared" si="5"/>
+        <v>1-0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>1.4597013888888875</v>
+        <v>1.8220378378378328</v>
       </c>
       <c r="B11" s="3">
-        <v>0.68395833333333456</v>
+        <v>1.9791196911196944</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1-1</v>
+        <f t="shared" si="5"/>
+        <v>2-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>1.6033333333333319</v>
+        <v>1.4954038610038565</v>
       </c>
       <c r="B12" s="3">
-        <v>1.4395694444444469</v>
+        <v>2.3523011583011622</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>2-1</v>
+        <f t="shared" si="5"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>1.1784499999999989</v>
+        <v>0.97272972972972704</v>
       </c>
       <c r="B13" s="3">
-        <v>1.5641150000000026</v>
+        <v>0.81470965250965388</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="3"/>
@@ -605,2249 +605,3072 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1-2</v>
+        <f t="shared" si="5"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>1.2024999999999988</v>
+        <v>1.8693262135922306</v>
       </c>
       <c r="B14" s="3">
-        <v>0.71913333333333451</v>
+        <v>1.4087300970873835</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" ref="C14:C77" si="6">ROUND(A14,0)</f>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D14:D77" si="7">ROUND(B14,0)</f>
         <v>1</v>
       </c>
       <c r="E14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1-1</v>
+        <f t="shared" ref="E14:E77" si="8">CONCATENATE(C14,"-",D14)</f>
+        <v>2-1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>1.3828749999999987</v>
+        <v>1.2427689320388333</v>
       </c>
       <c r="B15" s="3">
-        <v>0.82140138888889025</v>
+        <v>1.5221009708737916</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ref="C15:C78" si="5">ROUND(A15,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" ref="D15:D78" si="6">ROUND(B15,0)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="E15" s="2" t="str">
-        <f t="shared" ref="E15:E78" si="7">CONCATENATE(C15,"-",D15)</f>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>0.6840888888888883</v>
+        <v>0.84187572815533873</v>
       </c>
       <c r="B16" s="3">
-        <v>1.1427966666666687</v>
+        <v>1.3006757281553443</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>1.0922708333333324</v>
+        <v>1.0319766990291248</v>
       </c>
       <c r="B17" s="3">
-        <v>0.78622638888889018</v>
+        <v>1.3496737864077717</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E17" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>1.8350149999999985</v>
+        <v>0.84914999999999896</v>
       </c>
       <c r="B18" s="3">
-        <v>0.911944444444446</v>
+        <v>1.2000932038834993</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E18" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-1</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>2.2847499999999981</v>
+        <v>3.3571572815533939</v>
       </c>
       <c r="B19" s="3">
-        <v>1.0896433333333353</v>
+        <v>1.7270019417475786</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="E19" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-1</v>
+        <f t="shared" si="8"/>
+        <v>3-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>1.6239666666666679</v>
+        <v>1.70362512077295</v>
       </c>
       <c r="B20" s="3">
-        <v>1.0468577777777768</v>
+        <v>0.99711884057971223</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E20" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>1.5037458333333347</v>
+        <v>1.5405120772946888</v>
       </c>
       <c r="B21" s="3">
-        <v>1.5567016666666655</v>
+        <v>1.1300173913043501</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E21" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-2</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>0.92655444444444524</v>
+        <v>1.4317700483091815</v>
       </c>
       <c r="B22" s="3">
-        <v>0.89173333333333249</v>
+        <v>1.2006434782608721</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E22" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>1.3519916666666678</v>
+        <v>0.58610377358490451</v>
       </c>
       <c r="B23" s="3">
-        <v>0.57707222222222165</v>
+        <v>1.12417358490566</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E23" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>1.6756025000000014</v>
+        <v>1.1658498113207525</v>
       </c>
       <c r="B24" s="3">
-        <v>0.43797111111111076</v>
+        <v>1.1527675471698111</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E24" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-0</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>0.95861333333333409</v>
+        <v>2.2501086792452787</v>
       </c>
       <c r="B25" s="3">
-        <v>0.67135444444444381</v>
+        <v>1.0144981132075468</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E25" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>2.3042983333333358</v>
+        <v>0.60266037735848943</v>
       </c>
       <c r="B26" s="3">
-        <v>1.2630566666666656</v>
+        <v>1.8279245283018859</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="E26" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-1</v>
+        <f t="shared" si="8"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>0.77256666666666729</v>
+        <v>1.719122885572139</v>
       </c>
       <c r="B27" s="3">
-        <v>1.0634616666666659</v>
+        <v>0.43523383084577055</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="E27" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>2-0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>1.6870333333333347</v>
+        <v>0.92026666666666668</v>
       </c>
       <c r="B28" s="3">
-        <v>1.9616972222222209</v>
+        <v>0.71241666666666581</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E28" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-2</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>2.2893200000000022</v>
+        <v>2.1389087064676615</v>
       </c>
       <c r="B29" s="3">
-        <v>0.73881499999999933</v>
+        <v>0.80811442786069543</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E29" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>0.57233000000000056</v>
+        <v>0.90064477611940286</v>
       </c>
       <c r="B30" s="3">
-        <v>0.85724833333333261</v>
+        <v>0.80811442786069543</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E30" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>1.3785322222222234</v>
+        <v>1.0757701492537313</v>
       </c>
       <c r="B31" s="3">
-        <v>1.2796605555555545</v>
+        <v>0.73585074626865576</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E31" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>1.3981953488372079</v>
+        <v>0.96539701492537278</v>
       </c>
       <c r="B32" s="3">
-        <v>1.064601550387599</v>
+        <v>0.87542288557213821</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E32" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>1.3776465116279057</v>
+        <v>1.1601442786069651</v>
       </c>
       <c r="B33" s="3">
-        <v>1.0839534883720952</v>
+        <v>0.2000671641791042</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="E33" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>1-0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>1.8537674418604635</v>
+        <v>0.67376666666666651</v>
       </c>
       <c r="B34" s="3">
-        <v>0.39353023255814029</v>
+        <v>0.94882213930348125</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E34" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-0</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>1.3868279069767429</v>
+        <v>2.0455820895522385</v>
       </c>
       <c r="B35" s="3">
-        <v>0.71540930232558275</v>
+        <v>0.6237388059701483</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E35" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>0.69953488372092953</v>
+        <v>2.3337786069651738</v>
       </c>
       <c r="B36" s="3">
-        <v>1.6718604651162823</v>
+        <v>0.81761194029850637</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E36" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-2</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>1.8187906976744168</v>
+        <v>1.065223383084577</v>
       </c>
       <c r="B37" s="3">
-        <v>1.1047751937984518</v>
+        <v>0.50543283582089482</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E37" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-1</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>2.5416434108527111</v>
+        <v>1.0475999999999972</v>
       </c>
       <c r="B38" s="3">
-        <v>0.6329798449612416</v>
+        <v>1.4385451612903217</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E38" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>3-1</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>1.3313023255813941</v>
+        <v>2.0899999999999941</v>
       </c>
       <c r="B39" s="3">
-        <v>2.1060542635658956</v>
+        <v>0.75841666666666629</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E39" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-2</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>0.88684014869888261</v>
+        <v>1.5541333333333294</v>
       </c>
       <c r="B40" s="3">
-        <v>0.64647211895911016</v>
+        <v>0.64909650537634378</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E40" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>0.53566728624535176</v>
+        <v>0.88666666666666427</v>
       </c>
       <c r="B41" s="3">
-        <v>0.42472304832713909</v>
+        <v>1.6584731182795696</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="E41" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-0</v>
+        <f t="shared" si="8"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>0.81240892193308356</v>
+        <v>2.4439999999999937</v>
       </c>
       <c r="B42" s="3">
-        <v>1.4629349442379236</v>
+        <v>0.89619354838709653</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E42" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>0.62765055762081623</v>
+        <v>1.3013333333333301</v>
       </c>
       <c r="B43" s="3">
-        <v>1.0069539033457284</v>
+        <v>0.34560107526881706</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="E43" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>1-0</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>0.58172490706319557</v>
+        <v>1.6725333333333294</v>
       </c>
       <c r="B44" s="3">
-        <v>0.50540520446096826</v>
+        <v>0.98504032258064478</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E44" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>1.7871412639405162</v>
+        <v>0.43866666666666548</v>
       </c>
       <c r="B45" s="3">
-        <v>1.4480163568773285</v>
+        <v>1.6736672043010747</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="E45" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-1</v>
+        <f t="shared" si="8"/>
+        <v>0-2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>0.54582899628252646</v>
+        <v>0.89759999999999773</v>
       </c>
       <c r="B46" s="3">
-        <v>0.65337323420074578</v>
+        <v>0.83683360215053737</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E46" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>1.7871412639405162</v>
+        <v>1.2697333333333303</v>
       </c>
       <c r="B47" s="3">
-        <v>0.47435018587360755</v>
+        <v>0.90134408602150495</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E47" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-0</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>1.1133011152416332</v>
+        <v>1.5941333333333292</v>
       </c>
       <c r="B48" s="3">
-        <v>0.50560817843866346</v>
+        <v>1.1248774193548383</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E48" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>0.99888289962825039</v>
+        <v>1.0266666666666642</v>
       </c>
       <c r="B49" s="3">
-        <v>1.2257598513011194</v>
+        <v>2.2108682795698917</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="E49" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>1.7409747899159671</v>
+        <v>1.7752043010752756</v>
       </c>
       <c r="B50" s="3">
-        <v>1.1682352941176484</v>
+        <v>0.76500000000000012</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E50" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>2.4190386554621863</v>
+        <v>1.1436612903225849</v>
       </c>
       <c r="B51" s="3">
-        <v>0.68703361344537883</v>
+        <v>1.2787701612903226</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E51" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-1</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>0.49413227091633305</v>
+        <v>1.1973763440860261</v>
       </c>
       <c r="B52" s="3">
-        <v>0.88992908366534074</v>
+        <v>0.97247311827957006</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E52" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0-1</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>1.3005179282868482</v>
+        <v>1.3423548387096824</v>
       </c>
       <c r="B53" s="3">
-        <v>1.5339227091633503</v>
+        <v>0.85548387096774192</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E53" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-2</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>1.2424302788844579</v>
+        <v>1.7995846774193618</v>
       </c>
       <c r="B54" s="3">
-        <v>1.3589928286852619</v>
+        <v>0.9651612903225808</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E54" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>0.67381673306772683</v>
+        <v>1.3230591397849512</v>
       </c>
       <c r="B55" s="3">
-        <v>0.59029003984063877</v>
+        <v>1.1423588709677421</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E55" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>2.2545752988047734</v>
+        <v>0.56218279569892693</v>
       </c>
       <c r="B56" s="3">
-        <v>0.47906294820717243</v>
+        <v>1.4769892473118282</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E56" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-0</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>2.5810278884462066</v>
+        <v>1.0367526881720468</v>
       </c>
       <c r="B57" s="3">
-        <v>0.94936254980079904</v>
+        <v>0.67862903225806459</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E57" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>3-1</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>0.76069003984063488</v>
+        <v>1.5143212365591454</v>
       </c>
       <c r="B58" s="3">
-        <v>1.2068701195219151</v>
+        <v>0.69028225806451626</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E58" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>1.4289561752988003</v>
+        <v>1.5473064516129091</v>
       </c>
       <c r="B59" s="3">
-        <v>0.57961673306773043</v>
+        <v>0.49354838709677418</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="E59" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>2-0</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>1.1269003984063708</v>
+        <v>0.99385887096774572</v>
       </c>
       <c r="B60" s="3">
-        <v>1.0475569721115561</v>
+        <v>0.81435483870967762</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E60" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>1.6978750000000014</v>
+        <v>2.0025806451612977</v>
       </c>
       <c r="B61" s="3">
-        <v>1.2075642857142876</v>
+        <v>1.0300537634408604</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E61" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>2.3189425925925877</v>
+        <v>2.1222744360902221</v>
       </c>
       <c r="B62" s="3">
-        <v>0.31229629629629679</v>
+        <v>0.9613323308270707</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E62" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-0</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>1.500999999999997</v>
+        <v>0.57580751879699155</v>
       </c>
       <c r="B63" s="3">
-        <v>1.6992592592592619</v>
+        <v>0.98167669172932659</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E63" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2-2</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>0.48861627906976685</v>
+        <v>0.93742857142856995</v>
       </c>
       <c r="B64" s="3">
-        <v>1.5416372093023265</v>
+        <v>0.70690526315789703</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E64" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0-2</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>0.40330232558139489</v>
+        <v>1.366381954887216</v>
       </c>
       <c r="B65" s="3">
-        <v>1.5945054263565901</v>
+        <v>0.53606165413534013</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E65" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0-2</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>0.81235465116278993</v>
+        <v>1.2115466165413513</v>
       </c>
       <c r="B66" s="3">
-        <v>2.3219720930232572</v>
+        <v>0.75372180451128057</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E66" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-2</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>1.191766153846151</v>
+        <v>1.7021729323308243</v>
       </c>
       <c r="B67" s="3">
-        <v>0.78040769230769369</v>
+        <v>1.8977857142857202</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="E67" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>2-2</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>1.0321546153846128</v>
+        <v>0.80537593984962286</v>
       </c>
       <c r="B68" s="3">
-        <v>0.87685333333333493</v>
+        <v>1.9187428571428633</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="E68" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>3.4901723076922986</v>
+        <v>2.4764947368421018</v>
       </c>
       <c r="B69" s="3">
-        <v>0.53291871794871892</v>
+        <v>0.70837593984962621</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E69" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>3-1</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>0.72210461538461357</v>
+        <v>1.2762215568862318</v>
       </c>
       <c r="B70" s="3">
-        <v>0.96743820512820677</v>
+        <v>0.92543712574850701</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E70" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>0.86654999999999793</v>
+        <v>1.2261736526946152</v>
       </c>
       <c r="B71" s="3">
-        <v>0.42341487179487253</v>
+        <v>1.216239520958089</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E71" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-0</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>1.0410830769230746</v>
+        <v>0.51382514970060067</v>
       </c>
       <c r="B72" s="3">
-        <v>1.2415576923076945</v>
+        <v>1.1430538922155737</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E72" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>2.8997304832713775</v>
+        <v>1.4210396761133643</v>
       </c>
       <c r="B73" s="3">
-        <v>1.4405353159851313</v>
+        <v>1.193276113360326</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E73" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>3-1</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>1.4200059479553915</v>
+        <v>0.84113360323886888</v>
       </c>
       <c r="B74" s="3">
-        <v>0.95112267657992644</v>
+        <v>1.1631935222672085</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E74" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>1.4606918215613394</v>
+        <v>2.0655384615384675</v>
       </c>
       <c r="B75" s="3">
-        <v>0.88327137546468482</v>
+        <v>0.70192712550607406</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E75" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>1.4415211895910791</v>
+        <v>0.6289476923076901</v>
       </c>
       <c r="B76" s="3">
-        <v>1.0342304832713765</v>
+        <v>0.82599230769230814</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E76" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>0.90557100371747279</v>
+        <v>1.3318892307692263</v>
       </c>
       <c r="B77" s="3">
-        <v>1.43357620817844</v>
+        <v>0.86427000000000054</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E77" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>0.46202602230483308</v>
+        <v>0.71219076923076674</v>
       </c>
       <c r="B78" s="3">
-        <v>1.5156133828996299</v>
+        <v>1.1040092307692315</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="C78:C141" si="9">ROUND(A78,0)</f>
+        <v>1</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" ref="D78:D141" si="10">ROUND(B78,0)</f>
+        <v>1</v>
       </c>
       <c r="E78" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0-2</v>
+        <f t="shared" ref="E78:E141" si="11">CONCATENATE(C78,"-",D78)</f>
+        <v>1-1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>1.1477553903345732</v>
+        <v>1.2486461538461495</v>
       </c>
       <c r="B79" s="3">
-        <v>0.48339033457249114</v>
+        <v>1.0314830769230774</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" ref="C79:C103" si="8">ROUND(A79,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" ref="D79:D103" si="9">ROUND(B79,0)</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="E79" s="2" t="str">
-        <f t="shared" ref="E79:E103" si="10">CONCATENATE(C79,"-",D79)</f>
-        <v>1-0</v>
+        <f t="shared" si="11"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>2.5880353159851319</v>
+        <v>1.2301476923076879</v>
       </c>
       <c r="B80" s="3">
-        <v>1.3360148698884773</v>
+        <v>1.2188423076923085</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E80" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>3-1</v>
+        <f t="shared" si="11"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>1.1477553903345732</v>
+        <v>1.8960923076923009</v>
       </c>
       <c r="B81" s="3">
-        <v>1.6775464684014885</v>
+        <v>0.83517000000000041</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="E81" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-2</v>
+        <f t="shared" si="11"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>1.204853531598514</v>
+        <v>0.90179999999999672</v>
       </c>
       <c r="B82" s="3">
-        <v>1.7574423791821578</v>
+        <v>0.4432153846153849</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="E82" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-2</v>
+        <f t="shared" si="11"/>
+        <v>1-0</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>1.168443697478992</v>
+        <v>3.0389018691588778</v>
       </c>
       <c r="B83" s="3">
-        <v>1.485605882352943</v>
+        <v>0.89563364485981445</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E83" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-1</v>
+        <f t="shared" si="11"/>
+        <v>3-1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>4.3432739495798351</v>
+        <v>1.7930327102803736</v>
       </c>
       <c r="B84" s="3">
-        <v>0.7059478991596646</v>
+        <v>0.81126448598130929</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E84" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>4-1</v>
+        <f t="shared" si="11"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>0.78628235294117688</v>
+        <v>2.1667289719626157</v>
       </c>
       <c r="B85" s="3">
-        <v>1.2091235294117659</v>
+        <v>0.51032336448598192</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E85" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-1</v>
+        <f t="shared" si="11"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>0.98107563025210132</v>
+        <v>0.8589532710280372</v>
       </c>
       <c r="B86" s="3">
-        <v>1.0163647058823539</v>
+        <v>1.3236420560747681</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D86" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E86" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>1.2742924369747908</v>
+        <v>2.1976719576719601</v>
       </c>
       <c r="B87" s="3">
-        <v>0.84446722689075726</v>
+        <v>0.57843809523809497</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E87" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-1</v>
+        <f t="shared" si="11"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>1.350756302521009</v>
+        <v>0.70325502645502713</v>
       </c>
       <c r="B88" s="3">
-        <v>1.1732420168067239</v>
+        <v>1.7626074074074067</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="E88" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-1</v>
+        <f t="shared" si="11"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>2.2270890756302535</v>
+        <v>0.72722962962963045</v>
       </c>
       <c r="B89" s="3">
-        <v>1.2616941176470604</v>
+        <v>1.1489523809523803</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E89" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>2-1</v>
+        <f t="shared" si="11"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>1.0429538461538503</v>
+        <v>2.4899304347826163</v>
       </c>
       <c r="B90" s="3">
-        <v>2.1060923076923035</v>
+        <v>0.92979782608695805</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="D90" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="E90" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-2</v>
+        <f t="shared" si="11"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>0.43301208791208962</v>
+        <v>0.85570434782608962</v>
       </c>
       <c r="B91" s="3">
-        <v>1.9215230769230733</v>
+        <v>2.0555054347826127</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E91" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>0-2</v>
+        <f t="shared" si="11"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>0.89094444444444254</v>
+        <v>2.2297739130434855</v>
       </c>
       <c r="B92" s="3">
-        <v>1.2248444444444462</v>
+        <v>0.11521304347826108</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="D92" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="E92" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-1</v>
+        <f t="shared" si="11"/>
+        <v>2-0</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>1.2629759259259234</v>
+        <v>0.90793043478261148</v>
       </c>
       <c r="B93" s="3">
-        <v>1.1385037037037056</v>
+        <v>0.82672500000000149</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D93" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E93" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>0.87558333333333149</v>
+        <v>0.22582608695652245</v>
       </c>
       <c r="B94" s="3">
-        <v>1.2586000000000019</v>
+        <v>1.197596739130437</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="D94" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E94" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-1</v>
+        <f t="shared" si="11"/>
+        <v>0-1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>0.83871666666666489</v>
+        <v>1.2876729411764702</v>
       </c>
       <c r="B95" s="3">
-        <v>1.6544814814814843</v>
+        <v>2.0731764705882298</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E95" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1-2</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>0.84793333333333154</v>
+        <v>1.0610599999999997</v>
       </c>
       <c r="B96" s="3">
-        <v>0.5793555555555564</v>
+        <v>0.53162352941176327</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D96" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E96" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>0.53515116279069719</v>
+        <v>4.8128752941176449</v>
       </c>
       <c r="B97" s="3">
-        <v>1.6356104651162799</v>
+        <v>1.3862588235294082</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
       <c r="D97" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="E97" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-2</v>
+        <f t="shared" si="11"/>
+        <v>5-1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>0.56323255813953432</v>
+        <v>1.3213199999999996</v>
       </c>
       <c r="B98" s="3">
-        <v>3.0729651162790717</v>
+        <v>1.0350352941176442</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D98" s="1">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="E98" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-3</v>
+        <f t="shared" si="11"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>1.3755872093023243</v>
+        <v>1.2994758064516099</v>
       </c>
       <c r="B99" s="3">
-        <v>1.2783534883720939</v>
+        <v>0.8190508064516141</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D99" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E99" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>0.2177008403361346</v>
+        <v>0.51438709677419236</v>
       </c>
       <c r="B100" s="3">
-        <v>2.2029579831932797</v>
+        <v>1.3218750000000021</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="D100" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="E100" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>0-2</v>
+        <f t="shared" si="11"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>1.9139944444444406</v>
+        <v>0.73186693548386916</v>
       </c>
       <c r="B101" s="3">
-        <v>0.53526666666666756</v>
+        <v>1.3554193548387117</v>
       </c>
       <c r="C101" s="1">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="D101" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E101" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>2-1</v>
+        <f t="shared" si="11"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>0.61195740740740612</v>
+        <v>0.60516129032257926</v>
       </c>
       <c r="B102" s="3">
-        <v>1.2154296296296316</v>
+        <v>2.0183467741935512</v>
       </c>
       <c r="C102" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D102" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="E102" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-1</v>
+        <f t="shared" si="11"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>1.1908518518518494</v>
+        <v>1.1253548821548838</v>
       </c>
       <c r="B103" s="3">
-        <v>0.65111481481481581</v>
+        <v>0.45058922558922576</v>
       </c>
       <c r="C103" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D103" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="E103" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>1-1</v>
+        <f t="shared" si="11"/>
+        <v>1-0</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="2"/>
+      <c r="A104" s="3">
+        <v>1.4312289562289582</v>
+      </c>
+      <c r="B104" s="3">
+        <v>0.73122895622895634</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E104" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="2"/>
+      <c r="A105" s="3">
+        <v>2.3628713804713839</v>
+      </c>
+      <c r="B105" s="3">
+        <v>0.41212121212121222</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E105" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="2"/>
+      <c r="A106" s="3">
+        <v>0.80195555555555686</v>
+      </c>
+      <c r="B106" s="3">
+        <v>0.52794612794612816</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E106" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="2"/>
+      <c r="A107" s="3">
+        <v>0.74139428571428712</v>
+      </c>
+      <c r="B107" s="3">
+        <v>0.90849999999999997</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E107" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="2"/>
+      <c r="A108" s="3">
+        <v>2.072057142857147</v>
+      </c>
+      <c r="B108" s="3">
+        <v>0.39996999999999999</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E108" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="2"/>
+      <c r="A109" s="3">
+        <v>0.86096293436293192</v>
+      </c>
+      <c r="B109" s="3">
+        <v>1.2344339768339789</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E109" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="2"/>
+      <c r="A110" s="3">
+        <v>1.850427799227794</v>
+      </c>
+      <c r="B110" s="3">
+        <v>1.0096864864864883</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D110" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E110" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="2"/>
+      <c r="A111" s="3">
+        <v>1.2336185328185292</v>
+      </c>
+      <c r="B111" s="3">
+        <v>0.52147567567567654</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D111" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E111" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="2"/>
+      <c r="A112" s="3">
+        <v>2.1367181467181404</v>
+      </c>
+      <c r="B112" s="3">
+        <v>0.86153204633204783</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D112" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E112" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="2"/>
+      <c r="A113" s="3">
+        <v>1.0122553398058241</v>
+      </c>
+      <c r="B113" s="3">
+        <v>1.5328776699029178</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D113" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E113" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="2"/>
+      <c r="A114" s="3">
+        <v>0.66082718446601862</v>
+      </c>
+      <c r="B114" s="3">
+        <v>1.3621747572815581</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D114" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E114" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="2"/>
+      <c r="A115" s="3">
+        <v>1.7211072463768147</v>
+      </c>
+      <c r="B115" s="3">
+        <v>0.67778260869565354</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D115" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E115" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="2"/>
+      <c r="A116" s="3">
+        <v>1.5762782608695685</v>
+      </c>
+      <c r="B116" s="3">
+        <v>0.92522705314009845</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D116" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E116" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="2"/>
+      <c r="A117" s="3">
+        <v>0.8307441509433946</v>
+      </c>
+      <c r="B117" s="3">
+        <v>1.5124769811320751</v>
+      </c>
+      <c r="C117" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D117" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E117" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="2"/>
+      <c r="A118" s="3">
+        <v>1.3712841509433935</v>
+      </c>
+      <c r="B118" s="3">
+        <v>0.9106981132075469</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E118" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="2"/>
+      <c r="A119" s="3">
+        <v>1.5483735849056572</v>
+      </c>
+      <c r="B119" s="3">
+        <v>0.86369433962264119</v>
+      </c>
+      <c r="C119" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D119" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E119" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="2"/>
+      <c r="A120" s="3">
+        <v>2.0683833962264111</v>
+      </c>
+      <c r="B120" s="3">
+        <v>0.87466188679245249</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D120" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E120" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="2"/>
+      <c r="A121" s="3">
+        <v>3.1763736526946218</v>
+      </c>
+      <c r="B121" s="3">
+        <v>8.6766467065868616E-2</v>
+      </c>
+      <c r="C121" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="D121" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E121" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>3-0</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="2"/>
+      <c r="A122" s="3">
+        <v>1.0510059880239557</v>
+      </c>
+      <c r="B122" s="3">
+        <v>1.4003353293413234</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D122" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E122" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="2"/>
+      <c r="A123" s="3">
+        <v>1.144428742514974</v>
+      </c>
+      <c r="B123" s="3">
+        <v>0.84502994011976407</v>
+      </c>
+      <c r="C123" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D123" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E123" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="2"/>
+      <c r="A124" s="3">
+        <v>2.1893279352226784</v>
+      </c>
+      <c r="B124" s="3">
+        <v>0.48549959514170121</v>
+      </c>
+      <c r="C124" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D124" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E124" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="2"/>
+      <c r="A125" s="3">
+        <v>1.3623190283400848</v>
+      </c>
+      <c r="B125" s="3">
+        <v>2.0055060728744976</v>
+      </c>
+      <c r="C125" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D125" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E125" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="2"/>
+      <c r="A126" s="3">
+        <v>1.6451303643724742</v>
+      </c>
+      <c r="B126" s="3">
+        <v>0.7420372469635641</v>
+      </c>
+      <c r="C126" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D126" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E126" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="2"/>
+      <c r="A127" s="3">
+        <v>0.72718380566801832</v>
+      </c>
+      <c r="B127" s="3">
+        <v>1.2133311740890709</v>
+      </c>
+      <c r="C127" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D127" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E127" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="2"/>
+      <c r="A128" s="3">
+        <v>1.6663967611336081</v>
+      </c>
+      <c r="B128" s="3">
+        <v>1.0796307692307712</v>
+      </c>
+      <c r="C128" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D128" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E128" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="2"/>
+      <c r="A129" s="3">
+        <v>2.1815514170040551</v>
+      </c>
+      <c r="B129" s="3">
+        <v>0.44288259109311823</v>
+      </c>
+      <c r="C129" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D129" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E129" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="2"/>
+      <c r="A130" s="3">
+        <v>1.6078246153846096</v>
+      </c>
+      <c r="B130" s="3">
+        <v>0.80987538461538511</v>
+      </c>
+      <c r="C130" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D130" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E130" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="2"/>
+      <c r="A131" s="3">
+        <v>0.90642461538461216</v>
+      </c>
+      <c r="B131" s="3">
+        <v>1.1654550000000008</v>
+      </c>
+      <c r="C131" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D131" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E131" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="2"/>
+      <c r="A132" s="3">
+        <v>2.8583411214953265</v>
+      </c>
+      <c r="B132" s="3">
+        <v>0.89798130841121615</v>
+      </c>
+      <c r="C132" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="D132" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E132" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="2"/>
+      <c r="A133" s="3">
+        <v>1.4693130841121491</v>
+      </c>
+      <c r="B133" s="3">
+        <v>2.691009345794396</v>
+      </c>
+      <c r="C133" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D133" s="1">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="E133" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-3</v>
+      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="2"/>
+      <c r="A134" s="3">
+        <v>1.7591775700934575</v>
+      </c>
+      <c r="B134" s="3">
+        <v>0.95549906542056195</v>
+      </c>
+      <c r="C134" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D134" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E134" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="2"/>
+      <c r="A135" s="3">
+        <v>1.6342359813084111</v>
+      </c>
+      <c r="B135" s="3">
+        <v>0.93906542056074882</v>
+      </c>
+      <c r="C135" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D135" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E135" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="2"/>
+      <c r="A136" s="3">
+        <v>0.61534814814814887</v>
+      </c>
+      <c r="B136" s="3">
+        <v>0.6708825396825393</v>
+      </c>
+      <c r="C136" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D136" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E136" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="2"/>
+      <c r="A137" s="3">
+        <v>1.1507809523809536</v>
+      </c>
+      <c r="B137" s="3">
+        <v>0.64094814814814793</v>
+      </c>
+      <c r="C137" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D137" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E137" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="2"/>
+      <c r="A138" s="3">
+        <v>0.85570434782608962</v>
+      </c>
+      <c r="B138" s="3">
+        <v>2.5594434782608744</v>
+      </c>
+      <c r="C138" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D138" s="1">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="E138" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-3</v>
+      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="2"/>
+      <c r="A139" s="3">
+        <v>0.77914516129032074</v>
+      </c>
+      <c r="B139" s="3">
+        <v>0.73786209677419468</v>
+      </c>
+      <c r="C139" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D139" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E139" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="2"/>
+      <c r="A140" s="3">
+        <v>1.4696774193548354</v>
+      </c>
+      <c r="B140" s="3">
+        <v>0.72489919354838817</v>
+      </c>
+      <c r="C140" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D140" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E140" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="2"/>
+      <c r="A141" s="3">
+        <v>1.9289516129032214</v>
+      </c>
+      <c r="B141" s="3">
+        <v>0.77197500000000119</v>
+      </c>
+      <c r="C141" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D141" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E141" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="2"/>
+      <c r="A142" s="3">
+        <v>2.6583870967741872</v>
+      </c>
+      <c r="B142" s="3">
+        <v>0.68157580645161397</v>
+      </c>
+      <c r="C142" s="1">
+        <f t="shared" ref="C142:C166" si="12">ROUND(A142,0)</f>
+        <v>3</v>
+      </c>
+      <c r="D142" s="1">
+        <f t="shared" ref="D142:D166" si="13">ROUND(B142,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E142" s="2" t="str">
+        <f t="shared" ref="E142:E166" si="14">CONCATENATE(C142,"-",D142)</f>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="2"/>
+      <c r="A143" s="3">
+        <v>0.83280000000000121</v>
+      </c>
+      <c r="B143" s="3">
+        <v>0.91102693602693641</v>
+      </c>
+      <c r="C143" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D143" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E143" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="2"/>
+      <c r="A144" s="3">
+        <v>0.88327272727272854</v>
+      </c>
+      <c r="B144" s="3">
+        <v>0.66666666666666685</v>
+      </c>
+      <c r="C144" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D144" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E144" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="2"/>
+      <c r="A145" s="3">
+        <v>2.066577777777781</v>
+      </c>
+      <c r="B145" s="3">
+        <v>0.42222222222222239</v>
+      </c>
+      <c r="C145" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D145" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E145" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="2"/>
+      <c r="A146" s="3">
+        <v>0.7094222222222234</v>
+      </c>
+      <c r="B146" s="3">
+        <v>0.6083333333333335</v>
+      </c>
+      <c r="C146" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D146" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E146" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="2"/>
+      <c r="A147" s="3">
+        <v>2.6350971428571484</v>
+      </c>
+      <c r="B147" s="3">
+        <v>0.68102999999999991</v>
+      </c>
+      <c r="C147" s="1">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D147" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E147" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="2"/>
+      <c r="A148" s="3">
+        <v>1.4619514285714315</v>
+      </c>
+      <c r="B148" s="3">
+        <v>1.02718</v>
+      </c>
+      <c r="C148" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D148" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E148" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="2"/>
+      <c r="A149" s="3">
+        <v>1.6057714285714315</v>
+      </c>
+      <c r="B149" s="3">
+        <v>0.48023999999999994</v>
+      </c>
+      <c r="C149" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D149" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E149" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="2"/>
+      <c r="A150" s="3">
+        <v>2.1507428571428613</v>
+      </c>
+      <c r="B150" s="3">
+        <v>0.48644999999999994</v>
+      </c>
+      <c r="C150" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D150" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E150" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="2"/>
+      <c r="A151" s="3">
+        <v>1.5163227799227754</v>
+      </c>
+      <c r="B151" s="3">
+        <v>0.81456988416988541</v>
+      </c>
+      <c r="C151" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D151" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E151" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="2"/>
+      <c r="A152" s="3">
+        <v>0.94307246376811771</v>
+      </c>
+      <c r="B152" s="3">
+        <v>0.92953043478261055</v>
+      </c>
+      <c r="C152" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D152" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E152" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="2"/>
+      <c r="A153" s="3">
+        <v>1.3311509433962239</v>
+      </c>
+      <c r="B153" s="3">
+        <v>1.0353886792452827</v>
+      </c>
+      <c r="C153" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D153" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E153" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="2"/>
+      <c r="A154" s="3">
+        <v>2.5370015094339577</v>
+      </c>
+      <c r="B154" s="3">
+        <v>1.5970837735849048</v>
+      </c>
+      <c r="C154" s="1">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D154" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E154" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>3-2</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="2"/>
+      <c r="A155" s="3">
+        <v>1.3312742514970106</v>
+      </c>
+      <c r="B155" s="3">
+        <v>0.96273053892215965</v>
+      </c>
+      <c r="C155" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D155" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E155" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="2"/>
+      <c r="A156" s="3">
+        <v>1.9857101214574957</v>
+      </c>
+      <c r="B156" s="3">
+        <v>1.5325408906882618</v>
+      </c>
+      <c r="C156" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D156" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E156" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="2"/>
+      <c r="A157" s="3">
+        <v>1.9423384615384545</v>
+      </c>
+      <c r="B157" s="3">
+        <v>0.88038692307692346</v>
+      </c>
+      <c r="C157" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D157" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E157" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="2"/>
+      <c r="A158" s="3">
+        <v>0.6563047619047625</v>
+      </c>
+      <c r="B158" s="3">
+        <v>1.0961269841269834</v>
+      </c>
+      <c r="C158" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D158" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E158" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="2"/>
+      <c r="A159" s="3">
+        <v>1.8989637096774146</v>
+      </c>
+      <c r="B159" s="3">
+        <v>0.77550000000000119</v>
+      </c>
+      <c r="C159" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D159" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E159" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="2"/>
+      <c r="A160" s="3">
+        <v>0.49631515151515215</v>
+      </c>
+      <c r="B160" s="3">
+        <v>0.86144781144781168</v>
+      </c>
+      <c r="C160" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D160" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E160" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="2"/>
+      <c r="A161" s="3">
+        <v>1.1956895622895638</v>
+      </c>
+      <c r="B161" s="3">
+        <v>0.64107744107744125</v>
+      </c>
+      <c r="C161" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D161" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E161" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="2"/>
+      <c r="A162" s="3">
+        <v>1.1968971428571451</v>
+      </c>
+      <c r="B162" s="3">
+        <v>0.72449999999999992</v>
+      </c>
+      <c r="C162" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D162" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E162" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="2"/>
+      <c r="A163" s="3">
+        <v>1.0360285714285735</v>
+      </c>
+      <c r="B163" s="3">
+        <v>0.77521499999999999</v>
+      </c>
+      <c r="C163" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D163" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E163" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="2"/>
+      <c r="A164" s="3">
+        <v>2.1466628571428612</v>
+      </c>
+      <c r="B164" s="3">
+        <v>0.74588999999999983</v>
+      </c>
+      <c r="C164" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D164" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E164" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="2"/>
+      <c r="A165">
+        <v>0.84514285714285875</v>
+      </c>
+      <c r="B165">
+        <v>1.430715</v>
+      </c>
+      <c r="C165" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D165" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E165" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="2"/>
+      <c r="A166">
+        <v>0.86308571428571501</v>
+      </c>
+      <c r="B166">
+        <v>0.89979259259259237</v>
+      </c>
+      <c r="C166" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D166" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E166" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C167" s="1"/>

--- a/CS generator.xlsx
+++ b/CS generator.xlsx
@@ -346,22 +346,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E43"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
-        <v>1.1382334140435861</v>
+        <v>0.36269999999999947</v>
       </c>
       <c r="B1" s="3">
-        <v>1.2888920096852348</v>
+        <v>1.2512350746268628</v>
       </c>
       <c r="C1" s="1">
         <f>ROUND(A1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1">
         <f>ROUND(B1,0)</f>
@@ -369,55 +369,55 @@
       </c>
       <c r="E1" s="2" t="str">
         <f>CONCATENATE(C1,"-",D1)</f>
-        <v>1-1</v>
+        <v>0-1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1.8476651331719172</v>
+        <v>1.2004999999999977</v>
       </c>
       <c r="B2" s="3">
-        <v>0.73313123486683074</v>
+        <v>1.9019000000000053</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C5" si="0">ROUND(A2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D5" si="1">ROUND(B2,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="str">
         <f t="shared" ref="E2:E5" si="2">CONCATENATE(C2,"-",D2)</f>
-        <v>2-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1.3582291666666702</v>
+        <v>2.1633488372092962</v>
       </c>
       <c r="B3" s="3">
-        <v>1.7833838541666716</v>
+        <v>0.77108837209302483</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-2</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1.171625000000003</v>
+        <v>0.72762391304347862</v>
       </c>
       <c r="B4" s="3">
-        <v>1.7258062500000046</v>
+        <v>1.6436228260869628</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
@@ -434,50 +434,50 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>2.1412083333333389</v>
+        <v>1.2773942307692283</v>
       </c>
       <c r="B5" s="3">
-        <v>1.4265041666666705</v>
+        <v>1.5297500000000046</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>1.7550000000000043</v>
+        <v>1.0259908860759488</v>
       </c>
       <c r="B6" s="3">
-        <v>1.0820531250000029</v>
+        <v>0.81789873417721337</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ref="C6:C13" si="3">ROUND(A6,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ref="D6:D13" si="4">ROUND(B6,0)</f>
         <v>1</v>
       </c>
       <c r="E6" s="2" t="str">
-        <f t="shared" ref="E6:E13" si="5">CONCATENATE(C6,"-",D6)</f>
-        <v>2-1</v>
+        <f t="shared" ref="E6:E69" si="5">CONCATENATE(C6,"-",D6)</f>
+        <v>1-1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>0.51756250000000137</v>
+        <v>0.5797000000000001</v>
       </c>
       <c r="B7" s="3">
-        <v>1.0475572916666693</v>
+        <v>1.2949999999999984</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="3"/>
@@ -494,14 +494,14 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>1.1824583333333363</v>
+        <v>2.7426054474708237</v>
       </c>
       <c r="B8" s="3">
-        <v>1.1160416666666697</v>
+        <v>0.55851828793774261</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="4"/>
@@ -509,19 +509,19 @@
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>1-1</v>
+        <v>3-1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>1.8770104166666712</v>
+        <v>3.2318754863813304</v>
       </c>
       <c r="B9" s="3">
-        <v>1.1842723958333363</v>
+        <v>1.2627610894941625</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="4"/>
@@ -529,15 +529,15 @@
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>2-1</v>
+        <v>3-1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>1.8220312500000042</v>
+        <v>2.1409733333333407</v>
       </c>
       <c r="B10" s="3">
-        <v>1.1474937500000031</v>
+        <v>1.1870866666666642</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="3"/>
@@ -554,57 +554,57 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>0.83443750000000227</v>
+        <v>1.992190000000007</v>
       </c>
       <c r="B11" s="3">
-        <v>1.3230166666666701</v>
+        <v>0.70509222222222079</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" ref="C11:C74" si="6">ROUND(A11,0)</f>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D11:D74" si="7">ROUND(B11,0)</f>
         <v>1</v>
       </c>
       <c r="E11" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>1.2475937500000032</v>
+        <v>1.4578282828282854</v>
       </c>
       <c r="B12" s="3">
-        <v>1.6918177083333377</v>
+        <v>1.3289606060606109</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E12" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>1-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>1.2347291666666698</v>
+        <v>1.2802813186813213</v>
       </c>
       <c r="B13" s="3">
-        <v>0.67114687500000192</v>
+        <v>1.2115769230769251</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E13" s="2" t="str">
@@ -614,30 +614,30 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>0.66354166666666836</v>
+        <v>1.8224849420849463</v>
       </c>
       <c r="B14" s="3">
-        <v>1.2824333333333369</v>
+        <v>0.88594285714285492</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" ref="C14:C43" si="6">ROUND(A14,0)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" ref="D14:D43" si="7">ROUND(B14,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E14" s="2" t="str">
-        <f t="shared" ref="E14:E43" si="8">CONCATENATE(C14,"-",D14)</f>
-        <v>1-1</v>
+        <f t="shared" si="5"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>0.84451041666666882</v>
+        <v>1.2634999999999978</v>
       </c>
       <c r="B15" s="3">
-        <v>1.3063593750000002</v>
+        <v>0.88932012987012943</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="6"/>
@@ -648,36 +648,36 @@
         <v>1</v>
       </c>
       <c r="E15" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>2.7602156250000069</v>
+        <v>1.3332386363636339</v>
       </c>
       <c r="B16" s="3">
-        <v>0.76124999999999998</v>
+        <v>0.23029870129870122</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>3-1</v>
+        <f t="shared" si="5"/>
+        <v>1-0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>1.0859671875000025</v>
+        <v>1.3049548275862028</v>
       </c>
       <c r="B17" s="3">
-        <v>0.65793750000000006</v>
+        <v>2.1459862068965547</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="6"/>
@@ -685,59 +685,59 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-1</v>
+        <f t="shared" si="5"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>1.7130750000000046</v>
+        <v>0.85051296296296142</v>
       </c>
       <c r="B18" s="3">
-        <v>1.0541953125000001</v>
+        <v>1.2345666666666699</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E18" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>2-1</v>
+        <f t="shared" si="5"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>0.98883541666666919</v>
+        <v>2.0087731481481446</v>
       </c>
       <c r="B19" s="3">
-        <v>0.47849999999999998</v>
+        <v>0.56352592592592754</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-0</v>
+        <f t="shared" si="5"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>1.2223177083333367</v>
+        <v>0.84034999999999838</v>
       </c>
       <c r="B20" s="3">
-        <v>0.48846875000000001</v>
+        <v>1.6624870370370419</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="6"/>
@@ -745,99 +745,99 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-0</v>
+        <f t="shared" si="5"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>0.6720786458333351</v>
+        <v>3.461759259259253</v>
       </c>
       <c r="B21" s="3">
-        <v>1.4681249999999999</v>
+        <v>0.33452222222222316</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-1</v>
+        <f t="shared" si="5"/>
+        <v>3-0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>1.103223437500003</v>
+        <v>2.2707870370370324</v>
       </c>
       <c r="B22" s="3">
-        <v>0.90103906249999999</v>
+        <v>1.0025685185185214</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E22" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-1</v>
+        <f t="shared" si="5"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>1.8040625000000046</v>
+        <v>1.0334762790697645</v>
       </c>
       <c r="B23" s="3">
-        <v>1.70091796875</v>
+        <v>0.77045581395348994</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>2-2</v>
+        <f t="shared" si="5"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>1.2868979166666703</v>
+        <v>1.7537441860465066</v>
       </c>
       <c r="B24" s="3">
-        <v>1.57325</v>
+        <v>1.1893358139534909</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-2</v>
+        <f t="shared" si="5"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>0.7862052083333354</v>
+        <v>1.0940217391304357</v>
       </c>
       <c r="B25" s="3">
-        <v>1.3955117187500001</v>
+        <v>1.3325413043478311</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="6"/>
@@ -848,16 +848,16 @@
         <v>1</v>
       </c>
       <c r="E25" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>0.6161040000000011</v>
+        <v>1.3227717391304357</v>
       </c>
       <c r="B26" s="3">
-        <v>1.5831599999999939</v>
+        <v>0.96027826086956869</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="6"/>
@@ -865,79 +865,79 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-2</v>
+        <f t="shared" si="5"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>0.85881163636363789</v>
+        <v>1.5997913043478271</v>
       </c>
       <c r="B27" s="3">
-        <v>0.95426836363636003</v>
+        <v>0.70805000000000273</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E27" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-1</v>
+        <f t="shared" si="5"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>1.1138210909090929</v>
+        <v>0.26230000000000014</v>
       </c>
       <c r="B28" s="3">
-        <v>0.67625890909090647</v>
+        <v>1.8567880434782678</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-1</v>
+        <f t="shared" si="5"/>
+        <v>0-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>2.6524167272727319</v>
+        <v>0.96098221153845975</v>
       </c>
       <c r="B29" s="3">
-        <v>0.75751199999999719</v>
+        <v>1.2699562500000037</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E29" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>3-1</v>
+        <f t="shared" si="5"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>0.74766109090909227</v>
+        <v>0.95804567307692123</v>
       </c>
       <c r="B30" s="3">
-        <v>0.8835818181818148</v>
+        <v>1.6597990384615435</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="6"/>
@@ -945,59 +945,59 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-1</v>
+        <f t="shared" si="5"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>1.3615941818181843</v>
+        <v>1.5857307692307663</v>
       </c>
       <c r="B31" s="3">
-        <v>0.91382399999999653</v>
+        <v>0.85850625000000269</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E31" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-1</v>
+        <f t="shared" si="5"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>3.1139520000000056</v>
+        <v>1.0573985576923057</v>
       </c>
       <c r="B32" s="3">
-        <v>1.5029999999999941</v>
+        <v>0.59140865384615571</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>3-2</v>
+        <f t="shared" si="5"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>0.91872872727272892</v>
+        <v>0.58192403846153729</v>
       </c>
       <c r="B33" s="3">
-        <v>0.69277672727272466</v>
+        <v>0.82350865384615624</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="6"/>
@@ -1008,16 +1008,16 @@
         <v>1</v>
       </c>
       <c r="E33" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>1.1799484304932732</v>
+        <v>1.0219153846153828</v>
       </c>
       <c r="B34" s="3">
-        <v>1.9178475336322898</v>
+        <v>0.81235000000000246</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="6"/>
@@ -1025,19 +1025,19 @@
       </c>
       <c r="D34" s="1">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-2</v>
+        <f t="shared" si="5"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>0.86409746192893089</v>
+        <v>0.72238846153846015</v>
       </c>
       <c r="B35" s="3">
-        <v>0.89256395939085986</v>
+        <v>0.8913735576923103</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="6"/>
@@ -1048,56 +1048,56 @@
         <v>1</v>
       </c>
       <c r="E35" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>1.346966292134834</v>
+        <v>1.6925473557692279</v>
       </c>
       <c r="B36" s="3">
-        <v>0.50713483146067284</v>
+        <v>0.74762980769231002</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E36" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-1</v>
+        <f t="shared" si="5"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>2.3921123595505667</v>
+        <v>0.79286538461538314</v>
       </c>
       <c r="B37" s="3">
-        <v>1.4032719101123561</v>
+        <v>1.4232355769230811</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E37" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>2-1</v>
+        <f t="shared" si="5"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>0.8212855813953478</v>
+        <v>1.0350477272727265</v>
       </c>
       <c r="B38" s="3">
-        <v>1.3270437209302341</v>
+        <v>1.3939196969696968</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="6"/>
@@ -1108,56 +1108,56 @@
         <v>1</v>
       </c>
       <c r="E38" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>3.1326923636363575</v>
+        <v>1.0239181818181811</v>
       </c>
       <c r="B39" s="3">
-        <v>0.64016181818181761</v>
+        <v>0.69543560606060606</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E39" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>3-1</v>
+        <f t="shared" si="5"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>1.3638668280871704</v>
+        <v>1.5769090909090897</v>
       </c>
       <c r="B40" s="3">
-        <v>0.61936949152542597</v>
+        <v>1.0936439393939392</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E40" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-1</v>
+        <f t="shared" si="5"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>0.97747956989247653</v>
+        <v>1.216874999999999</v>
       </c>
       <c r="B41" s="3">
-        <v>1.2472580645161278</v>
+        <v>1.3159292929292927</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="6"/>
@@ -1168,926 +1168,2589 @@
         <v>1</v>
       </c>
       <c r="E41" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>0.95216781609195433</v>
+        <v>1.7721454545454531</v>
       </c>
       <c r="B42" s="3">
-        <v>1.0695000000000006</v>
+        <v>0.83655505050505041</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E42" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-1</v>
+        <f t="shared" si="5"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>2.1567503875969027</v>
+        <v>2.5530909090909075</v>
       </c>
       <c r="B43" s="3">
-        <v>0.5310000000000008</v>
+        <v>0.83833333333333337</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E43" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
+        <v>3-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>1.2242499999999992</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.62951212121212108</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E44" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>1.3877068181818173</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.7024217171717172</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>1.946195454545453</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1.2937007575757575</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>2-1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="2"/>
-    </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="2"/>
+      <c r="A47" s="3">
+        <v>1.7571272727272715</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1.3319338383838384</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E47" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="2"/>
+      <c r="A48" s="3">
+        <v>1.2363098734177209</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0.68135696202531482</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E48" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="2"/>
+      <c r="A49" s="3">
+        <v>1.933367088607594</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1.276192405063288</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="2"/>
+      <c r="A50" s="3">
+        <v>1.3520506329113917</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0.80415443037974488</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="2"/>
+      <c r="A51" s="3">
+        <v>1.3003199999999995</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0.95252531645569394</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E51" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="2"/>
+      <c r="A52" s="3">
+        <v>1.4722329113924042</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1.1491139240506303</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="2"/>
+      <c r="A53" s="3">
+        <v>1.2697518987341767</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1.1716455696202503</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E53" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="2"/>
+      <c r="A54" s="3">
+        <v>1.0052202531645567</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2.0753898734177167</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E54" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="2"/>
+      <c r="A55" s="3">
+        <v>1.3651139240506325</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1.2268481012658201</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="2"/>
+      <c r="A56" s="3">
+        <v>0.62429468354430351</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.6936367088607579</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E56" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="2"/>
+      <c r="A57" s="3">
+        <v>0.97543594936708811</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0.67425949367088456</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E57" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="2"/>
+      <c r="A58" s="3">
+        <v>3.6966530035335654</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1.0042155477031778</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E58" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>4-1</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="2"/>
+      <c r="A59" s="3">
+        <v>1.8224395759717298</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0.97846643109540399</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="2"/>
+      <c r="A60" s="3">
+        <v>1.4892173144876313</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0.94119151943462676</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E60" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="2"/>
+      <c r="A61" s="3">
+        <v>1.803455830388691</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1.4779992932862156</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="2"/>
+      <c r="A62" s="3">
+        <v>1.1532625441696103</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0.43037809187279058</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="2"/>
+      <c r="A63" s="3">
+        <v>1.346120141342755</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0.41198586572438067</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="2"/>
+      <c r="A64" s="3">
+        <v>1.803455830388691</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0.95051024734982115</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="2"/>
+      <c r="A65" s="3">
+        <v>0.7046996466431088</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1.5823445229681943</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E65" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="2"/>
+      <c r="A66" s="3">
+        <v>1.25895</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1.1440928571428559</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E66" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="2"/>
+      <c r="A67" s="3">
+        <v>1.8590000000000002</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0.82668571428571347</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E67" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="2"/>
+      <c r="A68" s="3">
+        <v>1.8415290322580598</v>
+      </c>
+      <c r="B68" s="3">
+        <v>0.87025806451613075</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E68" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="2"/>
+      <c r="A69" s="3">
+        <v>0.89916129032257841</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0.65742544802867509</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E69" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="2"/>
+      <c r="A70" s="3">
+        <v>1.4886114695340464</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0.81470967741935651</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E70" s="2" t="str">
+        <f t="shared" ref="E70:E133" si="8">CONCATENATE(C70,"-",D70)</f>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="2"/>
+      <c r="A71" s="3">
+        <v>2.5347784946236498</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0.37649462365591468</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>3-0</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="2"/>
+      <c r="A72" s="3">
+        <v>1.2987885304659466</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0.94792293906810221</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E72" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="2"/>
+      <c r="A73" s="3">
+        <v>1.4986021505376308</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0.5024043010752699</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E73" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="2"/>
+      <c r="A74" s="3">
+        <v>2.911569892473111</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0.82376200716846038</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E74" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="2"/>
+      <c r="A75" s="3">
+        <v>1.4215311827956953</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0.52935555555555658</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" ref="C75:C138" si="9">ROUND(A75,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" ref="D75:D138" si="10">ROUND(B75,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E75" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="2"/>
+      <c r="A76" s="3">
+        <v>1.0849867704280181</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1.1519439688715944</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E76" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="2"/>
+      <c r="A77" s="3">
+        <v>1.2087470817120651</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1.05013073929961</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E77" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="2"/>
+      <c r="A78" s="3">
+        <v>1.5463626459144006</v>
+      </c>
+      <c r="B78" s="3">
+        <v>1.2608217898832674</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E78" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="2"/>
+      <c r="A79" s="3">
+        <v>0.5667577777777798</v>
+      </c>
+      <c r="B79" s="3">
+        <v>1.2079599999999977</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E79" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="2"/>
+      <c r="A80" s="3">
+        <v>1.6795566666666726</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0.78723888888888716</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E80" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="2"/>
+      <c r="A81" s="3">
+        <v>0.97581777777778111</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0.99114666666666473</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E81" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="2"/>
+      <c r="A82" s="3">
+        <v>1.2450088888888933</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1.0048377777777757</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E82" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="2"/>
+      <c r="A83" s="3">
+        <v>1.7628000000000064</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0.63573888888888763</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E83" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="2"/>
+      <c r="A84" s="3">
+        <v>0.62250444444444664</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1.0450133333333311</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E84" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="2"/>
+      <c r="A85" s="3">
+        <v>1.2525422222222267</v>
+      </c>
+      <c r="B85" s="3">
+        <v>0.55662222222222113</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E85" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="2"/>
+      <c r="A86" s="3">
+        <v>1.0446222222222259</v>
+      </c>
+      <c r="B86" s="3">
+        <v>1.7529111111111078</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E86" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="2"/>
+      <c r="A87" s="3">
+        <v>1.4564151785714323</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1.6585156250000033</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E87" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="2"/>
+      <c r="A88" s="3">
+        <v>1.122375000000003</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0.88098214285714471</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E88" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="2"/>
+      <c r="A89" s="3">
+        <v>1.6060000000000043</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1.6778125000000033</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E89" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="2"/>
+      <c r="A90" s="3">
+        <v>1.1800580357142887</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0.15843750000000031</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="2"/>
+      <c r="A91" s="3">
+        <v>1.5290892857142897</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0.85660714285714457</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E91" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="2"/>
+      <c r="A92" s="3">
+        <v>0.79863636363636503</v>
+      </c>
+      <c r="B92" s="3">
+        <v>0.28407272727272836</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="2"/>
+      <c r="A93" s="3">
+        <v>2.3384833333333375</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0.72333333333333605</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="2"/>
+      <c r="A94" s="3">
+        <v>1.2918893939393965</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0.54797979797980001</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E94" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="2"/>
+      <c r="A95" s="3">
+        <v>0.42441818181818258</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1.298712121212126</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E95" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="2"/>
+      <c r="A96" s="3">
+        <v>1.7893610526315775</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1.0349873684210535</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E96" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="2"/>
+      <c r="A97" s="3">
+        <v>0.50543999999999956</v>
+      </c>
+      <c r="B97" s="3">
+        <v>2.1551526315789493</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E97" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="2"/>
+      <c r="A98" s="3">
+        <v>1.920421978021982</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0.60258461538461638</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E98" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="2"/>
+      <c r="A99" s="3">
+        <v>1.640360439560443</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0.47704615384615467</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E99" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="2"/>
+      <c r="A100" s="3">
+        <v>2.9821186813186875</v>
+      </c>
+      <c r="B100" s="3">
+        <v>1.1522076923076943</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E100" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="2"/>
+      <c r="A101" s="3">
+        <v>2.1390065934065978</v>
+      </c>
+      <c r="B101" s="3">
+        <v>0.90387692307692458</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E101" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="2"/>
+      <c r="A102" s="3">
+        <v>0.88787027027027243</v>
+      </c>
+      <c r="B102" s="3">
+        <v>0.75291428571428376</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E102" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="2"/>
+      <c r="A103" s="3">
+        <v>2.0294177606177652</v>
+      </c>
+      <c r="B103" s="3">
+        <v>0.40434285714285606</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E103" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="2"/>
+      <c r="A104" s="3">
+        <v>0.89798455598455806</v>
+      </c>
+      <c r="B104" s="3">
+        <v>0.90697142857142621</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E104" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="2"/>
+      <c r="A105" s="3">
+        <v>0.51118146718146851</v>
+      </c>
+      <c r="B105" s="3">
+        <v>0.89234285714285477</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E105" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="2"/>
+      <c r="A106" s="3">
+        <v>1.099409090909089</v>
+      </c>
+      <c r="B106" s="3">
+        <v>0.384331818181818</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E106" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="2"/>
+      <c r="A107" s="3">
+        <v>1.0438525974025956</v>
+      </c>
+      <c r="B107" s="3">
+        <v>0.54612499999999975</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E107" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="2"/>
+      <c r="A108" s="3">
+        <v>1.1945818181818162</v>
+      </c>
+      <c r="B108" s="3">
+        <v>0.62739707792207766</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E108" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="2"/>
+      <c r="A109" s="3">
+        <v>0.60772240259740151</v>
+      </c>
+      <c r="B109" s="3">
+        <v>0.81572467532467496</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E109" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="2"/>
+      <c r="A110" s="3">
+        <v>1.003431724137928</v>
+      </c>
+      <c r="B110" s="3">
+        <v>0.88693103448275989</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D110" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E110" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="2"/>
+      <c r="A111" s="3">
+        <v>1.5362144827586159</v>
+      </c>
+      <c r="B111" s="3">
+        <v>0.46216551724138005</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D111" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E111" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="2"/>
+      <c r="A112" s="3">
+        <v>1.3636044827586165</v>
+      </c>
+      <c r="B112" s="3">
+        <v>1.7016413793103471</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D112" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E112" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="2"/>
+      <c r="A113" s="3">
+        <v>0.53089551724137762</v>
+      </c>
+      <c r="B113" s="3">
+        <v>1.0762758620689672</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D113" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E113" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="2"/>
+      <c r="A114" s="3">
+        <v>2.5210499999999954</v>
+      </c>
+      <c r="B114" s="3">
+        <v>0.64936666666666853</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="D114" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E114" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="2"/>
+      <c r="A115" s="3">
+        <v>2.1008749999999958</v>
+      </c>
+      <c r="B115" s="3">
+        <v>0.99002037037037327</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D115" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E115" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="2"/>
+      <c r="A116" s="3">
+        <v>2.1809083333333295</v>
+      </c>
+      <c r="B116" s="3">
+        <v>1.370600000000004</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D116" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E116" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="2"/>
+      <c r="A117" s="3">
+        <v>2.5568874418604572</v>
+      </c>
+      <c r="B117" s="3">
+        <v>0.38649302325581475</v>
+      </c>
+      <c r="C117" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="D117" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E117" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>3-0</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="2"/>
+      <c r="A118" s="3">
+        <v>1.6605293023255765</v>
+      </c>
+      <c r="B118" s="3">
+        <v>0.43520000000000092</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D118" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E118" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="2"/>
+      <c r="A119" s="3">
+        <v>1.0915367441860433</v>
+      </c>
+      <c r="B119" s="3">
+        <v>0.87318325581395517</v>
+      </c>
+      <c r="C119" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D119" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E119" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="2"/>
+      <c r="A120" s="3">
+        <v>1.220928260869566</v>
+      </c>
+      <c r="B120" s="3">
+        <v>0.9953315217391342</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D120" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E120" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="2"/>
+      <c r="A121" s="3">
+        <v>2.0458869565217404</v>
+      </c>
+      <c r="B121" s="3">
+        <v>0.51157065217391495</v>
+      </c>
+      <c r="C121" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D121" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E121" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="2"/>
+      <c r="A122" s="3">
+        <v>0.99894130434782669</v>
+      </c>
+      <c r="B122" s="3">
+        <v>1.3097760869565265</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D122" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E122" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="2"/>
+      <c r="A123" s="3">
+        <v>1.9978826086956538</v>
+      </c>
+      <c r="B123" s="3">
+        <v>1.6077934782608756</v>
+      </c>
+      <c r="C123" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D123" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E123" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="2"/>
+      <c r="A124" s="3">
+        <v>0.62181201923076812</v>
+      </c>
+      <c r="B124" s="3">
+        <v>0.82776923076923337</v>
+      </c>
+      <c r="C124" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D124" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E124" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="2"/>
+      <c r="A125" s="3">
+        <v>1.1526624999999999</v>
+      </c>
+      <c r="B125" s="3">
+        <v>1.8955892857142838</v>
+      </c>
+      <c r="C125" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D125" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E125" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="2"/>
+      <c r="A126" s="3">
+        <v>0.30607500000000004</v>
+      </c>
+      <c r="B126" s="3">
+        <v>1.0766999999999989</v>
+      </c>
+      <c r="C126" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D126" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E126" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="2"/>
+      <c r="A127" s="3">
+        <v>0.99110000000000009</v>
+      </c>
+      <c r="B127" s="3">
+        <v>1.2209999999999988</v>
+      </c>
+      <c r="C127" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D127" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E127" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="2"/>
+      <c r="A128" s="3">
+        <v>1.169025</v>
+      </c>
+      <c r="B128" s="3">
+        <v>1.8445821428571409</v>
+      </c>
+      <c r="C128" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D128" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E128" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="2"/>
+      <c r="A129" s="3">
+        <v>1.4265624999999997</v>
+      </c>
+      <c r="B129" s="3">
+        <v>1.4835678571428559</v>
+      </c>
+      <c r="C129" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D129" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E129" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="2"/>
+      <c r="A130" s="3">
+        <v>1.1412499999999999</v>
+      </c>
+      <c r="B130" s="3">
+        <v>1.7019999999999982</v>
+      </c>
+      <c r="C130" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D130" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E130" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="2"/>
+      <c r="A131" s="3">
+        <v>2.7744749999999998</v>
+      </c>
+      <c r="B131" s="3">
+        <v>0.41479642857142812</v>
+      </c>
+      <c r="C131" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="D131" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E131" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>3-0</v>
+      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="2"/>
+      <c r="A132" s="3">
+        <v>1.2853028571428602</v>
+      </c>
+      <c r="B132" s="3">
+        <v>0.24534400000000037</v>
+      </c>
+      <c r="C132" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D132" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E132" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="2"/>
+      <c r="A133" s="3">
+        <v>1.5419982857142891</v>
+      </c>
+      <c r="B133" s="3">
+        <v>0.39964571428571494</v>
+      </c>
+      <c r="C133" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D133" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E133" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="2"/>
+      <c r="A134" s="3">
+        <v>0.96409885714285937</v>
+      </c>
+      <c r="B134" s="3">
+        <v>0.66572000000000087</v>
+      </c>
+      <c r="C134" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D134" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E134" s="2" t="str">
+        <f t="shared" ref="E134:E170" si="11">CONCATENATE(C134,"-",D134)</f>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="2"/>
+      <c r="A135" s="3">
+        <v>0.92819314285714505</v>
+      </c>
+      <c r="B135" s="3">
+        <v>0.8228000000000012</v>
+      </c>
+      <c r="C135" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D135" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E135" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="2"/>
+      <c r="A136" s="3">
+        <v>0.309397714285715</v>
+      </c>
+      <c r="B136" s="3">
+        <v>2.2254068571428602</v>
+      </c>
+      <c r="C136" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D136" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E136" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>0-2</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="2"/>
+      <c r="A137" s="3">
+        <v>0.96409885714285937</v>
+      </c>
+      <c r="B137" s="3">
+        <v>0.61774114285714377</v>
+      </c>
+      <c r="C137" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D137" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E137" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="2"/>
+      <c r="A138" s="3">
+        <v>0.6716194285714302</v>
+      </c>
+      <c r="B138" s="3">
+        <v>1.4785822857142878</v>
+      </c>
+      <c r="C138" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D138" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E138" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="2"/>
+      <c r="A139" s="3">
+        <v>1.5027579766537003</v>
+      </c>
+      <c r="B139" s="3">
+        <v>1.1968249027237343</v>
+      </c>
+      <c r="C139" s="1">
+        <f t="shared" ref="C139:C170" si="12">ROUND(A139,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D139" s="1">
+        <f t="shared" ref="D139:D170" si="13">ROUND(B139,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E139" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="2"/>
+      <c r="A140" s="3">
+        <v>0.48349883268482602</v>
+      </c>
+      <c r="B140" s="3">
+        <v>1.5885634241245121</v>
+      </c>
+      <c r="C140" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D140" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E140" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>0-2</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="2"/>
+      <c r="A141" s="3">
+        <v>0.67122334630350355</v>
+      </c>
+      <c r="B141" s="3">
+        <v>2.2509727626459126</v>
+      </c>
+      <c r="C141" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D141" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E141" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="2"/>
+      <c r="A142" s="3">
+        <v>0.66593307392996282</v>
+      </c>
+      <c r="B142" s="3">
+        <v>1.8475984435797645</v>
+      </c>
+      <c r="C142" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D142" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E142" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="2"/>
+      <c r="A143" s="3">
+        <v>1.8083112840466968</v>
+      </c>
+      <c r="B143" s="3">
+        <v>1.6738926070038895</v>
+      </c>
+      <c r="C143" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D143" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E143" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="2"/>
+      <c r="A144" s="3">
+        <v>1.2960758928571461</v>
+      </c>
+      <c r="B144" s="3">
+        <v>2.260491071428576</v>
+      </c>
+      <c r="C144" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D144" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E144" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="2"/>
+      <c r="A145" s="3">
+        <v>1.8641071428571476</v>
+      </c>
+      <c r="B145" s="3">
+        <v>0.72747767857143009</v>
+      </c>
+      <c r="C145" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D145" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E145" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="2"/>
+      <c r="A146" s="3">
+        <v>1.4841160714285755</v>
+      </c>
+      <c r="B146" s="3">
+        <v>1.2013392857142882</v>
+      </c>
+      <c r="C146" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D146" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E146" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="2"/>
+      <c r="A147" s="3">
+        <v>0.45168750000000119</v>
+      </c>
+      <c r="B147" s="3">
+        <v>2.2517857142857189</v>
+      </c>
+      <c r="C147" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D147" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E147" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>0-2</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="2"/>
+      <c r="A148" s="3">
+        <v>1.3690909090909116</v>
+      </c>
+      <c r="B148" s="3">
+        <v>0.67949494949495204</v>
+      </c>
+      <c r="C148" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D148" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E148" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="2"/>
+      <c r="A149" s="3">
+        <v>1.4383060606060634</v>
+      </c>
+      <c r="B149" s="3">
+        <v>0.8308469696969728</v>
+      </c>
+      <c r="C149" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D149" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E149" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="2"/>
+      <c r="A150" s="3">
+        <v>1.7988333333333364</v>
+      </c>
+      <c r="B150" s="3">
+        <v>0.85769797979798301</v>
+      </c>
+      <c r="C150" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D150" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E150" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="2"/>
+      <c r="A151" s="3">
+        <v>1.6964664092664132</v>
+      </c>
+      <c r="B151" s="3">
+        <v>1.3343999999999965</v>
+      </c>
+      <c r="C151" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D151" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E151" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="2"/>
+      <c r="A152" s="3">
+        <v>0.90673204633204862</v>
+      </c>
+      <c r="B152" s="3">
+        <v>1.3947428571428535</v>
+      </c>
+      <c r="C152" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D152" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E152" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="2"/>
+      <c r="A153" s="3">
+        <v>0.44776216216216319</v>
+      </c>
+      <c r="B153" s="3">
+        <v>0.96685714285714042</v>
+      </c>
+      <c r="C153" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D153" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E153" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="2"/>
+      <c r="A154" s="3">
+        <v>2.0452725868725916</v>
+      </c>
+      <c r="B154" s="3">
+        <v>0.72411428571428393</v>
+      </c>
+      <c r="C154" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D154" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E154" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="2"/>
+      <c r="A155" s="3">
+        <v>0.92828571428571272</v>
+      </c>
+      <c r="B155" s="3">
+        <v>0.97559870129870085</v>
+      </c>
+      <c r="C155" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D155" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E155" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="2"/>
+      <c r="A156" s="3">
+        <v>0.31692987012986956</v>
+      </c>
+      <c r="B156" s="3">
+        <v>0.49063636363636343</v>
+      </c>
+      <c r="C156" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D156" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E156" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>0-0</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="2"/>
+      <c r="A157" s="3">
+        <v>1.3408571428571405</v>
+      </c>
+      <c r="B157" s="3">
+        <v>0.24398311688311677</v>
+      </c>
+      <c r="C157" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D157" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E157" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="2"/>
+      <c r="A158" s="3">
+        <v>1.215444805194803</v>
+      </c>
+      <c r="B158" s="3">
+        <v>0.70491428571428549</v>
+      </c>
+      <c r="C158" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D158" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E158" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="2"/>
+      <c r="A159" s="3">
+        <v>1.2274327586206859</v>
+      </c>
+      <c r="B159" s="3">
+        <v>0.93793103448276005</v>
+      </c>
+      <c r="C159" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D159" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E159" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="2"/>
+      <c r="A160" s="3">
+        <v>0.45526068965517102</v>
+      </c>
+      <c r="B160" s="3">
+        <v>1.2605793103448293</v>
+      </c>
+      <c r="C160" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D160" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E160" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="2"/>
+      <c r="A161" s="3">
+        <v>2.9284179310344731</v>
+      </c>
+      <c r="B161" s="3">
+        <v>0.68539310344827686</v>
+      </c>
+      <c r="C161" s="1">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D161" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E161" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="2"/>
+      <c r="A162" s="3">
+        <v>2.0695779310344764</v>
+      </c>
+      <c r="B162" s="3">
+        <v>0.45114482758620755</v>
+      </c>
+      <c r="C162" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D162" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E162" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="2"/>
+      <c r="A163" s="3">
+        <v>0.61713134328358121</v>
+      </c>
+      <c r="B163" s="3">
+        <v>1.9317313432835779</v>
+      </c>
+      <c r="C163" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D163" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E163" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="2"/>
+      <c r="A164" s="3">
+        <v>1.0816744186046481</v>
+      </c>
+      <c r="B164" s="3">
+        <v>0.78487813953488539</v>
+      </c>
+      <c r="C164" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D164" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E164" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="2"/>
+      <c r="A165">
+        <v>1.1998434782608702</v>
+      </c>
+      <c r="B165">
+        <v>1.5567010869565276</v>
+      </c>
+      <c r="C165" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D165" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E165" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="2"/>
+      <c r="A166">
+        <v>0.98090322580644906</v>
+      </c>
+      <c r="B166">
+        <v>0.6585569892473131</v>
+      </c>
+      <c r="C166" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D166" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E166" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="2"/>
+      <c r="A167">
+        <v>0.76631060606060752</v>
+      </c>
+      <c r="B167">
+        <v>2.6147404040404139</v>
+      </c>
+      <c r="C167" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D167" s="1">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="E167" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-3</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="2"/>
+      <c r="A168">
+        <v>3.0506872586872658</v>
+      </c>
+      <c r="B168">
+        <v>0.73417142857142659</v>
+      </c>
+      <c r="C168" s="1">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D168" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E168" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="2"/>
+      <c r="A169">
+        <v>1.5278035714285687</v>
+      </c>
+      <c r="B169">
+        <v>0.33727077922077903</v>
+      </c>
+      <c r="C169" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D169" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E169" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="2"/>
+      <c r="A170">
+        <v>1.2274327586206859</v>
+      </c>
+      <c r="B170">
+        <v>1.1625655172413811</v>
+      </c>
+      <c r="C170" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D170" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E170" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C171" s="1"/>

--- a/CS generator.xlsx
+++ b/CS generator.xlsx
@@ -346,18 +346,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E52"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
-        <v>1.7119475409836056</v>
+        <v>1.8187481481481527</v>
       </c>
       <c r="B1" s="3">
-        <v>0.85168946135831147</v>
+        <v>1.0630555556406001</v>
       </c>
       <c r="C1" s="1">
         <f>ROUND(A1,0)</f>
@@ -374,30 +374,30 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>0.54711475409836041</v>
+        <v>0.4389759999999987</v>
       </c>
       <c r="B2" s="3">
-        <v>1.2837770491803246</v>
+        <v>1.8412266660839995</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C5" si="0">ROUND(A2,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D5" si="1">ROUND(B2,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="str">
         <f t="shared" ref="E2:E5" si="2">CONCATENATE(C2,"-",D2)</f>
-        <v>1-1</v>
+        <v>0-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1.541504918032786</v>
+        <v>1.5801081081081108</v>
       </c>
       <c r="B3" s="3">
-        <v>0.74146721311475217</v>
+        <v>1.7233873870304002</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
@@ -405,39 +405,39 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1.6941147540983597</v>
+        <v>0.83001398601398491</v>
       </c>
       <c r="B4" s="3">
-        <v>1.1032459016393414</v>
+        <v>1.8183181815110003</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>0.74970491803278649</v>
+        <v>1.0965103448275859</v>
       </c>
       <c r="B5" s="3">
-        <v>0.82282903981264433</v>
+        <v>1.8920855167955999</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
@@ -445,19 +445,19 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>1.21323606557377</v>
+        <v>1.1568180555555565</v>
       </c>
       <c r="B6" s="3">
-        <v>1.1279103044496459</v>
+        <v>1.0190812499999999</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ref="C6:C10" si="3">ROUND(A6,0)</f>
@@ -468,36 +468,36 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="str">
-        <f t="shared" ref="E6:E69" si="5">CONCATENATE(C6,"-",D6)</f>
+        <f t="shared" ref="E6:E12" si="5">CONCATENATE(C6,"-",D6)</f>
         <v>1-1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>1.195847290640391</v>
+        <v>0.48631716417910298</v>
       </c>
       <c r="B7" s="3">
-        <v>1.6164413793103465</v>
+        <v>0.59552238791360002</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>1-2</v>
+        <v>0-1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>1.2124729064039375</v>
+        <v>0.81000620689655467</v>
       </c>
       <c r="B8" s="3">
-        <v>0.83506009852216834</v>
+        <v>1.1803282757136</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="3"/>
@@ -514,14 +514,14 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>1.9626206896551666</v>
+        <v>1.4932274678111628</v>
       </c>
       <c r="B9" s="3">
-        <v>1.0391408866995082</v>
+        <v>1.1344133044733997</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="4"/>
@@ -529,15 +529,15 @@
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>1.4472266009852175</v>
+        <v>0.67350869565217197</v>
       </c>
       <c r="B10" s="3">
-        <v>1.304243349753696</v>
+        <v>0.54521739112500001</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="3"/>
@@ -554,74 +554,74 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>2.0259310344827526</v>
+        <v>2.1572571428571461</v>
       </c>
       <c r="B11" s="3">
-        <v>0.96849753694581375</v>
+        <v>2.3085000005129999</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ref="C11:C74" si="6">ROUND(A11,0)</f>
+        <f t="shared" ref="C11:C12" si="6">ROUND(A11,0)</f>
         <v>2</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" ref="D11:D74" si="7">ROUND(B11,0)</f>
-        <v>1</v>
+        <f t="shared" ref="D11:D12" si="7">ROUND(B11,0)</f>
+        <v>2</v>
       </c>
       <c r="E11" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>2-1</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>1.3519950738916218</v>
+        <v>1.4973600000000009</v>
       </c>
       <c r="B12" s="3">
-        <v>0.81353793103448357</v>
+        <v>1.1123666671454999</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="C12:C75" si="8">ROUND(A12,0)</f>
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D12:D75" si="9">ROUND(B12,0)</f>
         <v>1</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E12:E75" si="10">CONCATENATE(C12,"-",D12)</f>
         <v>1-1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>1.8540886699507333</v>
+        <v>1.468993103448279</v>
       </c>
       <c r="B13" s="3">
-        <v>1.1356108374384246</v>
+        <v>0.78900940408479991</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" ref="C13:C52" si="8">ROUND(A13,0)</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:D52" si="9">ROUND(B13,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E13" s="2" t="str">
-        <f t="shared" ref="E13:E52" si="10">CONCATENATE(C13,"-",D13)</f>
-        <v>2-1</v>
+        <f t="shared" si="10"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>1.1740344827586173</v>
+        <v>1.6624679999999963</v>
       </c>
       <c r="B14" s="3">
-        <v>0.6262950738916262</v>
+        <v>0.63145733315240005</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="9"/>
@@ -629,55 +629,55 @@
       </c>
       <c r="E14" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>1.4427428571428524</v>
+        <v>3.0136319999999932</v>
       </c>
       <c r="B15" s="3">
-        <v>0.7210679802955664</v>
+        <v>0.37750166655850004</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>1-1</v>
+        <v>3-0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>1.5212541871921132</v>
+        <v>1.2323496296296323</v>
       </c>
       <c r="B16" s="3">
-        <v>0.86230344827586192</v>
+        <v>1.6255555556856001</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>2-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>1.1261064039408832</v>
+        <v>0.85214074074074286</v>
       </c>
       <c r="B17" s="3">
-        <v>0.93021379310344821</v>
+        <v>0.69277777783319994</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="8"/>
@@ -694,54 +694,54 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>0.94446798029556356</v>
+        <v>2.3162666666666727</v>
       </c>
       <c r="B18" s="3">
-        <v>1.2271241379310345</v>
+        <v>2.0833333334999997</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>1-1</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>2.0402581280788112</v>
+        <v>1.1144414814814843</v>
       </c>
       <c r="B19" s="3">
-        <v>0.30559655172413791</v>
+        <v>1.2326388889875</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>2-0</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>1.4652857142857096</v>
+        <v>3.681237333333323</v>
       </c>
       <c r="B20" s="3">
-        <v>1.934091133004926</v>
+        <v>1.8784444438500001</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="9"/>
@@ -749,15 +749,15 @@
       </c>
       <c r="E20" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>1-2</v>
+        <v>4-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>1.3381706484641673</v>
+        <v>1.2437653333333298</v>
       </c>
       <c r="B21" s="3">
-        <v>0.73985426621160588</v>
+        <v>0.78943822197239999</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="8"/>
@@ -774,30 +774,30 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>1.8480450511945441</v>
+        <v>1.0047031111111082</v>
       </c>
       <c r="B22" s="3">
-        <v>1.4430832764505157</v>
+        <v>2.1066666659999997</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>2-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>0.89948464163822761</v>
+        <v>0.61674844444444266</v>
       </c>
       <c r="B23" s="3">
-        <v>1.2650170648464194</v>
+        <v>1.2908248884804001</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="8"/>
@@ -814,54 +814,54 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>2.4566416382252623</v>
+        <v>0.76211111111110896</v>
       </c>
       <c r="B24" s="3">
-        <v>0.50359726962457474</v>
+        <v>2.1737991104231997</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>2-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>1.3558607508532459</v>
+        <v>1.6008000000000022</v>
       </c>
       <c r="B25" s="3">
-        <v>0.50419965870307293</v>
+        <v>1.6926126122620002</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>1-1</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>0.31956313993174146</v>
+        <v>2.5281729729729769</v>
       </c>
       <c r="B26" s="3">
-        <v>0.55998088737201501</v>
+        <v>0.53691891880770004</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="9"/>
@@ -869,19 +869,19 @@
       </c>
       <c r="E26" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>0-1</v>
+        <v>3-1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>1.0408627986348149</v>
+        <v>2.6410378378378421</v>
       </c>
       <c r="B27" s="3">
-        <v>0.74792627986348315</v>
+        <v>0.63529729716569994</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="9"/>
@@ -889,15 +889,15 @@
       </c>
       <c r="E27" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>1-1</v>
+        <v>3-1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>1.2425870307167268</v>
+        <v>1.1009580419580403</v>
       </c>
       <c r="B28" s="3">
-        <v>2.2119726962457396</v>
+        <v>0.80252377608820014</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="8"/>
@@ -905,23 +905,23 @@
       </c>
       <c r="D28" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>1-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>1.1655494880546104</v>
+        <v>1.7388109339407753</v>
       </c>
       <c r="B29" s="3">
-        <v>0.53564436860068398</v>
+        <v>0.62569567182119989</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="9"/>
@@ -929,35 +929,35 @@
       </c>
       <c r="E29" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>1.22518225255973</v>
+        <v>1.868234624145787</v>
       </c>
       <c r="B30" s="3">
-        <v>1.3271836177474439</v>
+        <v>0.47362186775999998</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>1-1</v>
+        <v>2-0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>1.1054804270462657</v>
+        <v>0.89499772209567263</v>
       </c>
       <c r="B31" s="3">
-        <v>1.4752825622775814</v>
+        <v>0.85622596788960004</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="8"/>
@@ -974,14 +974,14 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>0.76240462633452111</v>
+        <v>1.7918234624145797</v>
       </c>
       <c r="B32" s="3">
-        <v>1.1908046263345207</v>
+        <v>0.62569567182119989</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="9"/>
@@ -989,15 +989,15 @@
       </c>
       <c r="E32" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>1.1456797153024934</v>
+        <v>0.8539282460136679</v>
       </c>
       <c r="B33" s="3">
-        <v>1.2469964412811401</v>
+        <v>0.85004829135359994</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="8"/>
@@ -1014,14 +1014,14 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>1.6785715302491138</v>
+        <v>1.3197072892938504</v>
       </c>
       <c r="B34" s="3">
-        <v>1.360919572953738</v>
+        <v>0.54991617297959994</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="9"/>
@@ -1029,35 +1029,35 @@
       </c>
       <c r="E34" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>1.6016903914590781</v>
+        <v>0.79555353075170887</v>
       </c>
       <c r="B35" s="3">
-        <v>0.83199074733096157</v>
+        <v>0.34100774478719997</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>2-1</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>1.5248092526690422</v>
+        <v>1.5131116173120738</v>
       </c>
       <c r="B36" s="3">
-        <v>0.58325124555160202</v>
+        <v>0.91182505671359992</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="8"/>
@@ -1074,10 +1074,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>1.2557252669039172</v>
+        <v>1.3337220956719822</v>
       </c>
       <c r="B37" s="3">
-        <v>0.48494306049822106</v>
+        <v>0.68644282442519977</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="8"/>
@@ -1085,23 +1085,23 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>1-0</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>2.3602007117437767</v>
+        <v>1.3259225512528483</v>
       </c>
       <c r="B38" s="3">
-        <v>0.35100640569395053</v>
+        <v>0.42831890649600002</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="9"/>
@@ -1109,15 +1109,15 @@
       </c>
       <c r="E38" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>2-0</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>0.85473736654804444</v>
+        <v>0.9341173120728935</v>
       </c>
       <c r="B39" s="3">
-        <v>0.94217508896797242</v>
+        <v>0.55599088823999998</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="8"/>
@@ -1134,14 +1134,14 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>1.9820624999999958</v>
+        <v>1.2152674698795201</v>
       </c>
       <c r="B40" s="3">
-        <v>0.89555624999999761</v>
+        <v>0.95456385511199993</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="9"/>
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E40" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>1.781854166666663</v>
+        <v>1.3383932530120508</v>
       </c>
       <c r="B41" s="3">
-        <v>1.1084208333333303</v>
+        <v>0.73359999976199985</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="9"/>
@@ -1169,15 +1169,15 @@
       </c>
       <c r="E41" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>1.0457104072398158</v>
+        <v>0.67159518072289281</v>
       </c>
       <c r="B42" s="3">
-        <v>1.5559194570135759</v>
+        <v>1.7192250596831999</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="8"/>
@@ -1194,34 +1194,34 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>0.69074754098360613</v>
+        <v>1.5278790361445806</v>
       </c>
       <c r="B43" s="3">
-        <v>1.104064637002339</v>
+        <v>1.9151884331136</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>1-1</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>0.77590819672131095</v>
+        <v>2.1853493975903651</v>
       </c>
       <c r="B44" s="3">
-        <v>0.91473208430913122</v>
+        <v>0.56970795162239996</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="9"/>
@@ -1229,19 +1229,19 @@
       </c>
       <c r="E44" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>0.61262295081967177</v>
+        <v>1.5937060240963881</v>
       </c>
       <c r="B45" s="3">
-        <v>1.1783648711943762</v>
+        <v>1.3674506019659998</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="9"/>
@@ -1249,15 +1249,15 @@
       </c>
       <c r="E45" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>0.54711475409836041</v>
+        <v>0.98314072289156795</v>
       </c>
       <c r="B46" s="3">
-        <v>1.7365377049180282</v>
+        <v>0.87855228887159986</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" si="8"/>
@@ -1265,23 +1265,23 @@
       </c>
       <c r="D46" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>1-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>1.7701770491803268</v>
+        <v>0.9744792771084354</v>
       </c>
       <c r="B47" s="3">
-        <v>1.2833676814988257</v>
+        <v>0.65556819255839993</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="9"/>
@@ -1289,19 +1289,19 @@
       </c>
       <c r="E47" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>1.2456262295081961</v>
+        <v>1.9424291566265093</v>
       </c>
       <c r="B48" s="3">
-        <v>0.52961943793910871</v>
+        <v>0.94660915631939979</v>
       </c>
       <c r="C48" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="9"/>
@@ -1309,15 +1309,15 @@
       </c>
       <c r="E48" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>0.6188719211822642</v>
+        <v>0.74954819277108564</v>
       </c>
       <c r="B49" s="3">
-        <v>1.0695251231527105</v>
+        <v>1.6259151801953999</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" si="8"/>
@@ -1325,19 +1325,19 @@
       </c>
       <c r="D49" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>0.6436374384236434</v>
+        <v>1.1060000000000019</v>
       </c>
       <c r="B50" s="3">
-        <v>1.4241995073891625</v>
+        <v>2.2351440956603996</v>
       </c>
       <c r="C50" s="1">
         <f t="shared" si="8"/>
@@ -1345,19 +1345,19 @@
       </c>
       <c r="D50" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>1.2561797752809005</v>
+        <v>0.70677397590361568</v>
       </c>
       <c r="B51" s="3">
-        <v>1.8335674157303345</v>
+        <v>1.1079759032549998</v>
       </c>
       <c r="C51" s="1">
         <f t="shared" si="8"/>
@@ -1365,946 +1365,2792 @@
       </c>
       <c r="D51" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>1-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>1.8245929368029679</v>
+        <v>1.2656571428571473</v>
       </c>
       <c r="B52" s="3">
-        <v>0.43155687732341985</v>
+        <v>0.63409588388520011</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>0.83237142857143132</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0.44591186448270004</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E52" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="E53" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>1.6783714285714342</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1.2093210655812001</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E54" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>1.193400000000004</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1.0243951575593999</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>1.3659428571428618</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1.1655050849442001</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E56" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>0.99282857142857484</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0.81396610183350004</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E57" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>1.032428571428575</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0.70071864418710006</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E58" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>1.972800000000007</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1.2028048428198002</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>1.1356714285714324</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0.96979370476560012</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E60" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>1.8360000000000063</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0.85362518174340007</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>1.2304285714285756</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0.52376949161460007</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E62" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>1.4950285714285763</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1.3013346249189</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E63" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>0.92171287128712709</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1.2295425741767998</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>1.1601980198019783</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0.76159405935599989</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>0.56720792079207827</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1.5239128711871999</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E66" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>1.6464785478547825</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0.95002970290799993</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E67" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>1.0226930693069289</v>
+      </c>
+      <c r="B68" s="3">
+        <v>0.80085148509600002</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E68" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>1.6947485148514823</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0.66097425738240001</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E69" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>1.9852277227722741</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0.98252277221279982</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E70" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>1.5039603960396015</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0.90292079201999997</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E71" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>2.7353458745874537</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0.76195643559359993</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E72" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>3-1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>1.5899009900990073</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0.93275643558239996</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E73" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>0.77998344827586186</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0.89098206875559993</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E74" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>0.89468689655172384</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1.3973296548432002</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E75" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>0.41030000000000033</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0.51974999999999993</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" ref="C76:C139" si="11">ROUND(A76,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" ref="D76:D139" si="12">ROUND(B76,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E76" s="2" t="str">
+        <f t="shared" ref="E76:E139" si="13">CONCATENATE(C76,"-",D76)</f>
+        <v>0-1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>1.2536944444444456</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1.3181437499999999</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E77" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>1.0471197916666675</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0.98690624999999998</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E78" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>0.35616319444444478</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0.91884375000000007</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E79" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>0-1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>0.86191493055555635</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1.721671875</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E80" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>1.0143527777777785</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1.0766249999999999</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E81" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>1.1283250000000009</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0.71857500000000007</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E82" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>1.0969826388888899</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0.39012187500000001</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>1.1283250000000009</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0.87243749999999998</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E84" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>1.7674021978021928</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1.1298461539049998</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E85" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>0.93183296703296437</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0.64140659343999995</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E86" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>0.80259890109889875</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0.51112087914749993</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E87" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>1.0781538461538431</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0.36796483518399997</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>1.2922141791044737</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1.0604944027248999</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>1.2044832089552202</v>
+      </c>
+      <c r="B90" s="3">
+        <v>1.2020988803020998</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E90" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>2.0349393103448348</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0.40627241374199996</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>2-0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="2"/>
-    </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="2"/>
+      <c r="A92" s="3">
+        <v>0.67631586206896799</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1.5367075860135999</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E92" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="2"/>
+      <c r="A93" s="3">
+        <v>0.79889655172414087</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0.90070758609360013</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="2"/>
+      <c r="A94" s="3">
+        <v>1.5256427586206951</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0.65431241371080007</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E94" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="2"/>
+      <c r="A95" s="3">
+        <v>1.1638924137931077</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0.52459034476160005</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E95" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="2"/>
+      <c r="A96" s="3">
+        <v>1.2882206896551769</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1.1713365515767999</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E96" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="2"/>
+      <c r="A97" s="3">
+        <v>1.1280536480686723</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1.8935987120330002</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E97" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="2"/>
+      <c r="A98" s="3">
+        <v>2.3994115879828386</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0.21183862656320004</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="2"/>
+      <c r="A99" s="3">
+        <v>1.120245922746784</v>
+      </c>
+      <c r="B99" s="3">
+        <v>1.26579399114</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E99" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="2"/>
+      <c r="A100" s="3">
+        <v>1.294798550724634</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0.46459130419499994</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E100" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="2"/>
+      <c r="A101" s="3">
+        <v>2.1853140096618295</v>
+      </c>
+      <c r="B101" s="3">
+        <v>0.64148405776000006</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E101" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="2"/>
+      <c r="A102" s="3">
+        <v>1.0037198067632822</v>
+      </c>
+      <c r="B102" s="3">
+        <v>1.2503652169800001</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E102" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="2"/>
+      <c r="A103" s="3">
+        <v>1.2766299516908175</v>
+      </c>
+      <c r="B103" s="3">
+        <v>0.5507246375</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E103" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="2"/>
+      <c r="A104" s="3">
+        <v>0.85369375000000003</v>
+      </c>
+      <c r="B104" s="3">
+        <v>0.67710937500000001</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E104" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="2"/>
+      <c r="A105" s="3">
+        <v>0.69001562500000002</v>
+      </c>
+      <c r="B105" s="3">
+        <v>1.3004296875000003</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E105" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="2"/>
+      <c r="A106" s="3">
+        <v>1.0895828125</v>
+      </c>
+      <c r="B106" s="3">
+        <v>1.05984375</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E106" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="2"/>
+      <c r="A107" s="3">
+        <v>0.62903750000000003</v>
+      </c>
+      <c r="B107" s="3">
+        <v>1.4439843750000001</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E107" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="2"/>
+      <c r="A108" s="3">
+        <v>0.68483125</v>
+      </c>
+      <c r="B108" s="3">
+        <v>0.46828124999999998</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E108" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="2"/>
+      <c r="A109" s="3">
+        <v>0.56160000000000099</v>
+      </c>
+      <c r="B109" s="3">
+        <v>1.0530000002339999</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E109" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="2"/>
+      <c r="A110" s="3">
+        <v>0.88251428571428714</v>
+      </c>
+      <c r="B110" s="3">
+        <v>0.77914285731599986</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D110" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E110" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="2"/>
+      <c r="A111" s="3">
+        <v>1.5533142857142879</v>
+      </c>
+      <c r="B111" s="3">
+        <v>0.78068571445919988</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D111" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E111" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="2"/>
+      <c r="A112" s="3">
+        <v>1.2636000000000021</v>
+      </c>
+      <c r="B112" s="3">
+        <v>1.2076714288398001</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D112" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E112" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="2"/>
+      <c r="A113" s="3">
+        <v>2.117632</v>
+      </c>
+      <c r="B113" s="3">
+        <v>0.8580000000000001</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D113" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E113" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="2"/>
+      <c r="A114" s="3">
+        <v>0.625664</v>
+      </c>
+      <c r="B114" s="3">
+        <v>0.31031000000000003</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D114" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E114" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="2"/>
+      <c r="A115" s="3">
+        <v>1.1681280000000001</v>
+      </c>
+      <c r="B115" s="3">
+        <v>0.70784999999999998</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D115" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E115" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="2"/>
+      <c r="A116" s="3">
+        <v>0.56550400000000001</v>
+      </c>
+      <c r="B116" s="3">
+        <v>0.49786000000000002</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D116" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E116" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="2"/>
+      <c r="A117" s="3">
+        <v>0.86502400000000002</v>
+      </c>
+      <c r="B117" s="3">
+        <v>1.4114100000000001</v>
+      </c>
+      <c r="C117" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D117" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E117" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="2"/>
+      <c r="A118" s="3">
+        <v>1.3563733333333365</v>
+      </c>
+      <c r="B118" s="3">
+        <v>1.2715999999064997</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E118" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="2"/>
+      <c r="A119" s="3">
+        <v>2.2440000000000047</v>
+      </c>
+      <c r="B119" s="3">
+        <v>1.2391111110199999</v>
+      </c>
+      <c r="C119" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D119" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E119" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="2"/>
+      <c r="A120" s="3">
+        <v>1.8749866666666708</v>
+      </c>
+      <c r="B120" s="3">
+        <v>1.3563733332336001</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D120" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E120" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="2"/>
+      <c r="A121" s="3">
+        <v>4.0048800000000098</v>
+      </c>
+      <c r="B121" s="3">
+        <v>1.1945333332454999</v>
+      </c>
+      <c r="C121" s="1">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="D121" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E121" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>4-1</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="2"/>
+      <c r="A122" s="3">
+        <v>1.0172800000000024</v>
+      </c>
+      <c r="B122" s="3">
+        <v>0.20445333331830001</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D122" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E122" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="2"/>
+      <c r="A123" s="3">
+        <v>1.4442129629629639</v>
+      </c>
+      <c r="B123" s="3">
+        <v>0.68699407436979987</v>
+      </c>
+      <c r="C123" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D123" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E123" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="2"/>
+      <c r="A124" s="3">
+        <v>0.99824000000000068</v>
+      </c>
+      <c r="B124" s="3">
+        <v>1.7729637044669002</v>
+      </c>
+      <c r="C124" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D124" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E124" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="2"/>
+      <c r="A125" s="3">
+        <v>0.84110962962963021</v>
+      </c>
+      <c r="B125" s="3">
+        <v>0.79056888922919988</v>
+      </c>
+      <c r="C125" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D125" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E125" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="2"/>
+      <c r="A126" s="3">
+        <v>0.66576518518518557</v>
+      </c>
+      <c r="B126" s="3">
+        <v>1.4657066672975998</v>
+      </c>
+      <c r="C126" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D126" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E126" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="2"/>
+      <c r="A127" s="3">
+        <v>0.62387711598746232</v>
+      </c>
+      <c r="B127" s="3">
+        <v>0.84918808744719998</v>
+      </c>
+      <c r="C127" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D127" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E127" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="2"/>
+      <c r="A128" s="3">
+        <v>1.3625579937304106</v>
+      </c>
+      <c r="B128" s="3">
+        <v>0.48811598727280003</v>
+      </c>
+      <c r="C128" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D128" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E128" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="2"/>
+      <c r="A129" s="3">
+        <v>1.5288702194357402</v>
+      </c>
+      <c r="B129" s="3">
+        <v>0.58121943551280009</v>
+      </c>
+      <c r="C129" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D129" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E129" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="2"/>
+      <c r="A130" s="3">
+        <v>1.6711373040752386</v>
+      </c>
+      <c r="B130" s="3">
+        <v>0.29352978045120004</v>
+      </c>
+      <c r="C130" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D130" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E130" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="2"/>
+      <c r="A131" s="3">
+        <v>1.1615039999999974</v>
+      </c>
+      <c r="B131" s="3">
+        <v>1.0944639996864001</v>
+      </c>
+      <c r="C131" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D131" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E131" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="2"/>
+      <c r="A132" s="3">
+        <v>1.797627999999996</v>
+      </c>
+      <c r="B132" s="3">
+        <v>0.99534799971480015</v>
+      </c>
+      <c r="C132" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D132" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E132" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="2"/>
+      <c r="A133" s="3">
+        <v>1.1894079999999974</v>
+      </c>
+      <c r="B133" s="3">
+        <v>0.84364933309159995</v>
+      </c>
+      <c r="C133" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D133" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E133" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="2"/>
+      <c r="A134" s="3">
+        <v>1.6370346666666629</v>
+      </c>
+      <c r="B134" s="3">
+        <v>0.87110399975039998</v>
+      </c>
+      <c r="C134" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D134" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E134" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="2"/>
+      <c r="A135" s="3">
+        <v>1.8847348148148195</v>
+      </c>
+      <c r="B135" s="3">
+        <v>0.72138888894659992</v>
+      </c>
+      <c r="C135" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D135" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E135" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="2"/>
+      <c r="A136" s="3">
+        <v>2.1061866666666718</v>
+      </c>
+      <c r="B136" s="3">
+        <v>2.1701388890625002</v>
+      </c>
+      <c r="C136" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D136" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="E136" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="2"/>
+      <c r="A137" s="3">
+        <v>1.297288888888892</v>
+      </c>
+      <c r="B137" s="3">
+        <v>0.71666666672399992</v>
+      </c>
+      <c r="C137" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D137" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E137" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="2"/>
+      <c r="A138" s="3">
+        <v>1.6330577777777819</v>
+      </c>
+      <c r="B138" s="3">
+        <v>0.86972222229179996</v>
+      </c>
+      <c r="C138" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D138" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E138" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="2"/>
+      <c r="A139" s="3">
+        <v>2.2863333333333267</v>
+      </c>
+      <c r="B139" s="3">
+        <v>0.96457244413919996</v>
+      </c>
+      <c r="C139" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D139" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E139" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="2"/>
+      <c r="A140" s="3">
+        <v>0.51278044444444304</v>
+      </c>
+      <c r="B140" s="3">
+        <v>1.8547093327463999</v>
+      </c>
+      <c r="C140" s="1">
+        <f t="shared" ref="C140:C190" si="14">ROUND(A140,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D140" s="1">
+        <f t="shared" ref="D140:D190" si="15">ROUND(B140,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E140" s="2" t="str">
+        <f t="shared" ref="E140:E190" si="16">CONCATENATE(C140,"-",D140)</f>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="2"/>
+      <c r="A141" s="3">
+        <v>1.623697777777773</v>
+      </c>
+      <c r="B141" s="3">
+        <v>0.95783111080799999</v>
+      </c>
+      <c r="C141" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="D141" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E141" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="2"/>
+      <c r="A142" s="3">
+        <v>1.7732324324324353</v>
+      </c>
+      <c r="B142" s="3">
+        <v>1.0613513511315</v>
+      </c>
+      <c r="C142" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="D142" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E142" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="2"/>
+      <c r="A143" s="3">
+        <v>1.0634378378378395</v>
+      </c>
+      <c r="B143" s="3">
+        <v>1.6588108104672001</v>
+      </c>
+      <c r="C143" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D143" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="E143" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="2"/>
+      <c r="A144" s="3">
+        <v>1.2274054054054073</v>
+      </c>
+      <c r="B144" s="3">
+        <v>0.92248648629540009</v>
+      </c>
+      <c r="C144" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D144" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E144" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="2"/>
+      <c r="A145" s="3">
+        <v>1.2455496503496488</v>
+      </c>
+      <c r="B145" s="3">
+        <v>1.0970220277867</v>
+      </c>
+      <c r="C145" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D145" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E145" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="2"/>
+      <c r="A146" s="3">
+        <v>1.4321706293706273</v>
+      </c>
+      <c r="B146" s="3">
+        <v>1.5881090906408</v>
+      </c>
+      <c r="C146" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D146" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="E146" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="2"/>
+      <c r="A147" s="3">
+        <v>1.0970565517241377</v>
+      </c>
+      <c r="B147" s="3">
+        <v>1.3572855169216</v>
+      </c>
+      <c r="C147" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D147" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E147" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="2"/>
+      <c r="A148" s="3">
+        <v>2.3246565517241375</v>
+      </c>
+      <c r="B148" s="3">
+        <v>1.5764744823871999</v>
+      </c>
+      <c r="C148" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="D148" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="E148" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="2"/>
+      <c r="A149" s="3">
+        <v>0.36705103448275855</v>
+      </c>
+      <c r="B149" s="3">
+        <v>1.5638289651488</v>
+      </c>
+      <c r="C149" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D149" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="E149" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>0-2</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="2"/>
+      <c r="A150" s="3">
+        <v>1.8926068965517238</v>
+      </c>
+      <c r="B150" s="3">
+        <v>1.8201641375021997</v>
+      </c>
+      <c r="C150" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="D150" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="E150" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="2"/>
+      <c r="A151" s="3">
+        <v>1.3556855172413791</v>
+      </c>
+      <c r="B151" s="3">
+        <v>1.0659117238867999</v>
+      </c>
+      <c r="C151" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D151" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E151" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="2"/>
+      <c r="A152" s="3">
+        <v>2.1728110344827583</v>
+      </c>
+      <c r="B152" s="3">
+        <v>0.30559999992799997</v>
+      </c>
+      <c r="C152" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="D152" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E152" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="2"/>
+      <c r="A153" s="3">
+        <v>0.97552551724137915</v>
+      </c>
+      <c r="B153" s="3">
+        <v>1.250062068671</v>
+      </c>
+      <c r="C153" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D153" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E153" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="2"/>
+      <c r="A154" s="3">
+        <v>0.76902692307692089</v>
+      </c>
+      <c r="B154" s="3">
+        <v>0.73930549454399985</v>
+      </c>
+      <c r="C154" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D154" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E154" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="2"/>
+      <c r="A155" s="3">
+        <v>1.5633230769230726</v>
+      </c>
+      <c r="B155" s="3">
+        <v>0.26690109891499997</v>
+      </c>
+      <c r="C155" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="D155" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E155" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="2"/>
+      <c r="A156" s="3">
+        <v>2.0561934065934007</v>
+      </c>
+      <c r="B156" s="3">
+        <v>1.0802637363199998</v>
+      </c>
+      <c r="C156" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="D156" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E156" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="2"/>
+      <c r="A157" s="3">
+        <v>0.76857499999999768</v>
+      </c>
+      <c r="B157" s="3">
+        <v>1.2821361937153</v>
+      </c>
+      <c r="C157" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D157" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E157" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="2"/>
+      <c r="A158" s="3">
+        <v>2.5417746268656636</v>
+      </c>
+      <c r="B158" s="3">
+        <v>0.45937499988729996</v>
+      </c>
+      <c r="C158" s="1">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="D158" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E158" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>3-0</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="2"/>
+      <c r="A159" s="3">
+        <v>2.0034328358208895</v>
+      </c>
+      <c r="B159" s="3">
+        <v>1.6091417906499998</v>
+      </c>
+      <c r="C159" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="D159" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="E159" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="2"/>
+      <c r="A160" s="3">
+        <v>0.92093283582089269</v>
+      </c>
+      <c r="B160" s="3">
+        <v>0.92350746246000004</v>
+      </c>
+      <c r="C160" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D160" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E160" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="2"/>
+      <c r="A161" s="3">
+        <v>0.67211940298507267</v>
+      </c>
+      <c r="B161" s="3">
+        <v>1.3653917907097999</v>
+      </c>
+      <c r="C161" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D161" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E161" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="2"/>
+      <c r="A162" s="3">
+        <v>2.0286373134328297</v>
+      </c>
+      <c r="B162" s="3">
+        <v>1.1851679101570001</v>
+      </c>
+      <c r="C162" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="D162" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E162" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="2"/>
+      <c r="A163" s="3">
+        <v>0.74072689655172674</v>
+      </c>
+      <c r="B163" s="3">
+        <v>0.798289655072</v>
+      </c>
+      <c r="C163" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D163" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E163" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="2"/>
+      <c r="A164" s="3">
+        <v>1.4830765517241433</v>
+      </c>
+      <c r="B164" s="3">
+        <v>0.59520827578719993</v>
+      </c>
+      <c r="C164" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D164" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E164" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="2"/>
+      <c r="A165">
+        <v>1.859377253218889</v>
+      </c>
+      <c r="B165">
+        <v>1.224328325913</v>
+      </c>
+      <c r="C165" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="D165" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E165" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="2"/>
+      <c r="A166">
+        <v>2.0056094420600914</v>
+      </c>
+      <c r="B166">
+        <v>1.9627081540779998</v>
+      </c>
+      <c r="C166" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="D166" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="E166" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="2"/>
+      <c r="A167">
+        <v>2.2694454935622379</v>
+      </c>
+      <c r="B167">
+        <v>0.34831158790679995</v>
+      </c>
+      <c r="C167" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="D167" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E167" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="2"/>
+      <c r="A168">
+        <v>1.1126008583691016</v>
+      </c>
+      <c r="B168">
+        <v>0.71059055778480007</v>
+      </c>
+      <c r="C168" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D168" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E168" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="2"/>
+      <c r="A169">
+        <v>4.5040815450643894</v>
+      </c>
+      <c r="B169">
+        <v>0.43167939904739994</v>
+      </c>
+      <c r="C169" s="1">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="D169" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E169" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>5-0</v>
+      </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="2"/>
+      <c r="A170">
+        <v>0.5721202898550708</v>
+      </c>
+      <c r="B170">
+        <v>0.26511884049249995</v>
+      </c>
+      <c r="C170" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D170" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E170" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="2"/>
+      <c r="A171">
+        <v>1.180069565217388</v>
+      </c>
+      <c r="B171">
+        <v>0.82873043450999995</v>
+      </c>
+      <c r="C171" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D171" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E171" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="2"/>
+      <c r="A172">
+        <v>0.72420289855072251</v>
+      </c>
+      <c r="B172">
+        <v>0.93050434752000011</v>
+      </c>
+      <c r="C172" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D172" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E172" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="2"/>
+      <c r="A173">
+        <v>1.2197101449275327</v>
+      </c>
+      <c r="B173">
+        <v>0.9377739127350001</v>
+      </c>
+      <c r="C173" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D173" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E173" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="2"/>
+      <c r="A174">
+        <v>0.65668749999999998</v>
+      </c>
+      <c r="B174">
+        <v>0.94406250000000003</v>
+      </c>
+      <c r="C174" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D174" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E174" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="2"/>
+      <c r="A175">
+        <v>1.036163333333334</v>
+      </c>
+      <c r="B175">
+        <v>0.36978222238139991</v>
+      </c>
+      <c r="C175" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D175" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E175" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="2"/>
-    </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="2"/>
-    </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="2"/>
-    </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="2"/>
-    </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="2"/>
-    </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="2"/>
-    </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="2"/>
-    </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="2"/>
-    </row>
-    <row r="184" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="2"/>
-    </row>
-    <row r="185" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="2"/>
-    </row>
-    <row r="186" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="2"/>
-    </row>
-    <row r="187" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="2"/>
-    </row>
-    <row r="188" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="2"/>
-    </row>
-    <row r="189" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="2"/>
-    </row>
-    <row r="190" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="2"/>
+      <c r="A176">
+        <v>2.4268214814814826</v>
+      </c>
+      <c r="B176">
+        <v>0.85253481518179997</v>
+      </c>
+      <c r="C176" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="D176" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E176" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1.566682222222223</v>
+      </c>
+      <c r="B177">
+        <v>0.6657422225088</v>
+      </c>
+      <c r="C177" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="D177" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E177" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>3.0371288888888905</v>
+      </c>
+      <c r="B178">
+        <v>0.43353777796439996</v>
+      </c>
+      <c r="C178" s="1">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="D178" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E178" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>3-0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>0.90118888888888948</v>
+      </c>
+      <c r="B179">
+        <v>1.0882066671350998</v>
+      </c>
+      <c r="C179" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D179" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E179" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1.0920501567398144</v>
+      </c>
+      <c r="B180">
+        <v>0.96878369868639991</v>
+      </c>
+      <c r="C180" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D180" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E180" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1.0149642633228864</v>
+      </c>
+      <c r="B181">
+        <v>0.51596238224640001</v>
+      </c>
+      <c r="C181" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D181" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E181" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1.350181818181821</v>
+      </c>
+      <c r="B182">
+        <v>0.33457993717520002</v>
+      </c>
+      <c r="C182" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D182" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E182" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>0.89391347962382639</v>
+      </c>
+      <c r="B183">
+        <v>0.68896551697600006</v>
+      </c>
+      <c r="C183" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D183" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E183" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1.3228239999999969</v>
+      </c>
+      <c r="B184">
+        <v>0.78664599977459992</v>
+      </c>
+      <c r="C184" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D184" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E184" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1.0677639999999977</v>
+      </c>
+      <c r="B185">
+        <v>0.84364933309159995</v>
+      </c>
+      <c r="C185" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D185" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E185" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1.0118106666666644</v>
+      </c>
+      <c r="B186">
+        <v>0.71382133312880003</v>
+      </c>
+      <c r="C186" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D186" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E186" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1.2321359999999972</v>
+      </c>
+      <c r="B187">
+        <v>0.83794899975989989</v>
+      </c>
+      <c r="C187" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D187" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E187" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1.5589459459459483</v>
+      </c>
+      <c r="B188">
+        <v>1.0955315313045999</v>
+      </c>
+      <c r="C188" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="D188" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E188" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1.0503247648902847</v>
+      </c>
+      <c r="B189">
+        <v>0.72019749188560012</v>
+      </c>
+      <c r="C189" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D189" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E189" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>0.91171159874608354</v>
+      </c>
+      <c r="B190">
+        <v>0.62184639474480008</v>
+      </c>
+      <c r="C190" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D190" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E190" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>1-1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CS generator.xlsx
+++ b/CS generator.xlsx
@@ -346,22 +346,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E55"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
-        <v>0.68586426914152976</v>
+        <v>2.3649805869074494</v>
       </c>
       <c r="B1" s="3">
-        <v>0.94694895591647588</v>
+        <v>1.2953769751693047</v>
       </c>
       <c r="C1" s="1">
         <f>ROUND(A1,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1">
         <f>ROUND(B1,0)</f>
@@ -369,59 +369,59 @@
       </c>
       <c r="E1" s="2" t="str">
         <f>CONCATENATE(C1,"-",D1)</f>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>0.93966545454545791</v>
+        <v>1.573226666666663</v>
       </c>
       <c r="B2" s="3">
-        <v>0.18666666666666656</v>
+        <v>0.91941818181817969</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C5" si="0">ROUND(A2,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D5" si="1">ROUND(B2,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="str">
         <f t="shared" ref="E2:E5" si="2">CONCATENATE(C2,"-",D2)</f>
-        <v>1-0</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>0.81550545454545764</v>
+        <v>2.1194699999999953</v>
       </c>
       <c r="B3" s="3">
-        <v>0.93469090909090857</v>
+        <v>0.49840909090908969</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1.4456380510440803</v>
+        <v>1.5260000000000045</v>
       </c>
       <c r="B4" s="3">
-        <v>1.331175870069609</v>
+        <v>0.84236574074074266</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
@@ -429,15 +429,15 @@
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>1.6177378190255183</v>
+        <v>2.0208833333333387</v>
       </c>
       <c r="B5" s="3">
-        <v>0.65558004640371403</v>
+        <v>1.2306149999999998</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
@@ -454,10 +454,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>0.51069605568445353</v>
+        <v>1.0979200000000029</v>
       </c>
       <c r="B6" s="3">
-        <v>1.9063127610208868</v>
+        <v>0.17445499999999997</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ref="C6:C10" si="3">ROUND(A6,0)</f>
@@ -465,23 +465,23 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" ref="D6:D10" si="4">ROUND(B6,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" ref="E6:E11" si="5">CONCATENATE(C6,"-",D6)</f>
-        <v>1-2</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>1.009785382830624</v>
+        <v>2.7336066666666738</v>
       </c>
       <c r="B7" s="3">
-        <v>0.53358515081206648</v>
+        <v>1.0938799999999997</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="4"/>
@@ -489,39 +489,39 @@
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>1-1</v>
+        <v>3-1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>1.8886948955916427</v>
+        <v>0.95776000000000239</v>
       </c>
       <c r="B8" s="3">
-        <v>1.2538997679814419</v>
+        <v>0.33947999999999995</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>2-1</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>2.6091125290023141</v>
+        <v>1.6960333333333377</v>
       </c>
       <c r="B9" s="3">
-        <v>0.90577726218097698</v>
+        <v>0.85283999999999993</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="4"/>
@@ -529,19 +529,19 @@
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>3-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>1.0982366589327122</v>
+        <v>0.12084210526315786</v>
       </c>
       <c r="B10" s="3">
-        <v>1.6073429234338792</v>
+        <v>1.7362526315789488</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="4"/>
@@ -549,99 +549,99 @@
       </c>
       <c r="E10" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>1-2</v>
+        <v>0-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>1.0328654292343364</v>
+        <v>0.41891929824561402</v>
       </c>
       <c r="B11" s="3">
-        <v>1.8377777262181023</v>
+        <v>3.9065684210526346</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11" si="6">ROUND(A11,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ref="D11" si="7">ROUND(B11,0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>1-2</v>
+        <v>0-4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>1.6147087962962927</v>
+        <v>0.7492210526315789</v>
       </c>
       <c r="B12" s="3">
-        <v>1.2344444444444433</v>
+        <v>2.9619473684210553</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" ref="C12:C75" si="8">ROUND(A12,0)</f>
-        <v>2</v>
+        <f t="shared" ref="C12:C15" si="8">ROUND(A12,0)</f>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" ref="D12:D75" si="9">ROUND(B12,0)</f>
-        <v>1</v>
+        <f t="shared" ref="D12:D15" si="9">ROUND(B12,0)</f>
+        <v>3</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f t="shared" ref="E12:E75" si="10">CONCATENATE(C12,"-",D12)</f>
-        <v>2-1</v>
+        <f t="shared" ref="E12:E15" si="10">CONCATENATE(C12,"-",D12)</f>
+        <v>1-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>1.5176777777777748</v>
+        <v>1.1198035087719296</v>
       </c>
       <c r="B13" s="3">
-        <v>0.59999999999999942</v>
+        <v>0.32937894736842127</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>2-1</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>1.6371104166666632</v>
+        <v>0.69153982300884731</v>
       </c>
       <c r="B14" s="3">
-        <v>1.7399999999999984</v>
+        <v>0.72713864306784659</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>2-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>1.5622249999999966</v>
+        <v>0.85040707964601492</v>
       </c>
       <c r="B15" s="3">
-        <v>1.1122222222222213</v>
+        <v>1.0372418879056047</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="9"/>
@@ -649,15 +649,15 @@
       </c>
       <c r="E15" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>1.8804560185185144</v>
+        <v>1.5713840707964548</v>
       </c>
       <c r="B16" s="3">
-        <v>0.88888888888888806</v>
+        <v>0.48042477876106182</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" ref="C16:C55" si="11">ROUND(A16,0)</f>
@@ -665,19 +665,19 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" ref="D16:D55" si="12">ROUND(B16,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="str">
         <f t="shared" ref="E16:E55" si="13">CONCATENATE(C16,"-",D16)</f>
-        <v>2-1</v>
+        <v>2-0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>0.66564814814814677</v>
+        <v>1.2615929203539782</v>
       </c>
       <c r="B17" s="3">
-        <v>1.2133333333333323</v>
+        <v>0.68436578171091444</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="11"/>
@@ -694,34 +694,34 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>0.95392499999999802</v>
+        <v>1.6203545454545443</v>
       </c>
       <c r="B18" s="3">
-        <v>0.36833333333333301</v>
+        <v>1.2057913636363617</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>1-0</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>1.6241814814814781</v>
+        <v>1.184261946902651</v>
       </c>
       <c r="B19" s="3">
-        <v>1.1899999999999988</v>
+        <v>0.63055752212389371</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="12"/>
@@ -729,728 +729,325 @@
       </c>
       <c r="E19" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>0.92921921296296084</v>
+        <v>0.81816637168141315</v>
       </c>
       <c r="B20" s="3">
-        <v>1.1716666666666655</v>
+        <v>0.9196165191740413</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="C20:C24" si="14">ROUND(A20,0)</f>
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="D20:D24" si="15">ROUND(B20,0)</f>
         <v>1</v>
       </c>
       <c r="E20" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="E20:E24" si="16">CONCATENATE(C20,"-",D20)</f>
         <v>1-1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>1.024586111111109</v>
+        <v>1.8529061946902594</v>
       </c>
       <c r="B21" s="3">
-        <v>0.53444444444444394</v>
+        <v>0.60463716814159285</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="E21" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1-1</v>
+        <f t="shared" si="16"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>1.3629145833333305</v>
+        <v>1.2858902654867215</v>
       </c>
       <c r="B22" s="3">
-        <v>0.91111111111111021</v>
+        <v>0.49958702064896754</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1-1</v>
+        <f t="shared" si="16"/>
+        <v>1-0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>1.64896822429906</v>
+        <v>2.0045309734513204</v>
       </c>
       <c r="B23" s="3">
-        <v>0.53933457943925356</v>
+        <v>0.9196165191740413</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="E23" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>0.80074766355139904</v>
+        <v>1.3763044247787566</v>
       </c>
       <c r="B24" s="3">
-        <v>1.4812710280373866</v>
+        <v>0.46348672566371679</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1-1</v>
+        <f t="shared" si="16"/>
+        <v>1-0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>1.1339158878504634</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1.1282822429906567</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E25" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1-1</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>1.4299065420560699</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1.538242990654209</v>
-      </c>
-      <c r="C26" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="E26" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1-2</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>1.3584112149532663</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1.146560747663554</v>
-      </c>
-      <c r="C27" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1-1</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>0.88296728971962313</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0.50633831775701055</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E28" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1-1</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>1.1954018691588746</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0.71143738317757177</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E29" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1-1</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>3.2670504672897089</v>
-      </c>
-      <c r="B30" s="3">
-        <v>1.0103028037383202</v>
-      </c>
-      <c r="C30" s="1">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>3-1</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>1.9415271028037318</v>
-      </c>
-      <c r="B31" s="3">
-        <v>1.2313065420560776</v>
-      </c>
-      <c r="C31" s="1">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>2-1</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>1.2658252427184469</v>
-      </c>
-      <c r="B32" s="3">
-        <v>2.1322485436893164</v>
-      </c>
-      <c r="C32" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="E32" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1-2</v>
-      </c>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>3.8931844660194184</v>
-      </c>
-      <c r="B33" s="3">
-        <v>1.1790291262135901</v>
-      </c>
-      <c r="C33" s="1">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E33" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>4-1</v>
-      </c>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>1.2522407766990296</v>
-      </c>
-      <c r="B34" s="3">
-        <v>0.44982524271844576</v>
-      </c>
-      <c r="C34" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1-0</v>
-      </c>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>1.4912038834951458</v>
-      </c>
-      <c r="B35" s="3">
-        <v>0.54786407766990186</v>
-      </c>
-      <c r="C35" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E35" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1-1</v>
-      </c>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>1.5000029126213597</v>
-      </c>
-      <c r="B36" s="3">
-        <v>0.93194563106795947</v>
-      </c>
-      <c r="C36" s="1">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="D36" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E36" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>2-1</v>
-      </c>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>0.51386181818181631</v>
-      </c>
-      <c r="B37" s="3">
-        <v>0.38225454545454507</v>
-      </c>
-      <c r="C37" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1-0</v>
-      </c>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>0.53192727272727092</v>
-      </c>
-      <c r="B38" s="3">
-        <v>0.80290909090909024</v>
-      </c>
-      <c r="C38" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E38" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1-1</v>
-      </c>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>1.0572054545454508</v>
-      </c>
-      <c r="B39" s="3">
-        <v>0.52559999999999951</v>
-      </c>
-      <c r="C39" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D39" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E39" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1-1</v>
-      </c>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>0.48174545454545276</v>
-      </c>
-      <c r="B40" s="3">
-        <v>3.4379999999999966</v>
-      </c>
-      <c r="C40" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="D40" s="1">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="E40" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>0-3</v>
-      </c>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>3.4203927272727146</v>
-      </c>
-      <c r="B41" s="3">
-        <v>0.9599999999999993</v>
-      </c>
-      <c r="C41" s="1">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="D41" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E41" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>3-1</v>
-      </c>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>0.56649230769230707</v>
-      </c>
-      <c r="B42" s="3">
-        <v>1.0259999999999965</v>
-      </c>
-      <c r="C42" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D42" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E42" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1-1</v>
-      </c>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>6.9569230769230703E-2</v>
-      </c>
-      <c r="B43" s="3">
-        <v>3.3629538461538346</v>
-      </c>
-      <c r="C43" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="D43" s="1">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="E43" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>0-3</v>
-      </c>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>0.71556923076922996</v>
-      </c>
-      <c r="B44" s="3">
-        <v>1.901630769230763</v>
-      </c>
-      <c r="C44" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D44" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="E44" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1-2</v>
-      </c>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>1.9116923076923058</v>
-      </c>
-      <c r="B45" s="3">
-        <v>1.202676923076919</v>
-      </c>
-      <c r="C45" s="1">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="D45" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E45" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>2-1</v>
-      </c>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>1.641892307692306</v>
-      </c>
-      <c r="B46" s="3">
-        <v>1.4787692307692257</v>
-      </c>
-      <c r="C46" s="1">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="D46" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E46" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>2-1</v>
-      </c>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>1.4337187878787931</v>
-      </c>
-      <c r="B47" s="3">
-        <v>0.63415757575757536</v>
-      </c>
-      <c r="C47" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D47" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E47" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1-1</v>
-      </c>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>1.3431854545454593</v>
-      </c>
-      <c r="B48" s="3">
-        <v>0.88530909090909027</v>
-      </c>
-      <c r="C48" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D48" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E48" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1-1</v>
-      </c>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>1.5290727272727327</v>
-      </c>
-      <c r="B49" s="3">
-        <v>0.57646060606060578</v>
-      </c>
-      <c r="C49" s="1">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="D49" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>2-1</v>
-      </c>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>1.2952145454545501</v>
-      </c>
-      <c r="B50" s="3">
-        <v>0.94512727272727215</v>
-      </c>
-      <c r="C50" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D50" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E50" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1-1</v>
-      </c>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>0.80351272727273026</v>
-      </c>
-      <c r="B51" s="3">
-        <v>0.48533333333333301</v>
-      </c>
-      <c r="C51" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D51" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E51" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1-0</v>
-      </c>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>0.93966545454545802</v>
-      </c>
-      <c r="B52" s="3">
-        <v>0.34533333333333316</v>
-      </c>
-      <c r="C52" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D52" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E52" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1-0</v>
-      </c>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>0.82373575757576045</v>
-      </c>
-      <c r="B53" s="3">
-        <v>0.26812121212121198</v>
-      </c>
-      <c r="C53" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D53" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E53" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1-0</v>
-      </c>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>1.7269527272727336</v>
-      </c>
-      <c r="B54" s="3">
-        <v>0.3046909090909089</v>
-      </c>
-      <c r="C54" s="1">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="D54" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E54" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>2-0</v>
-      </c>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>0.28782545454545561</v>
-      </c>
-      <c r="B55" s="3">
-        <v>0.78756363636363591</v>
-      </c>
-      <c r="C55" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="D55" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E55" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>0-1</v>
-      </c>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>

--- a/CS generator.xlsx
+++ b/CS generator.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\FDAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,12 +37,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -57,13 +63,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -346,8 +364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E68"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69:E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,15 +518,15 @@
         <v>1.1174639999999953</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" ref="C8:C71" si="6">ROUND(A8,0)</f>
+        <f t="shared" ref="C8:C12" si="6">ROUND(A8,0)</f>
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" ref="D8:D71" si="7">ROUND(B8,0)</f>
+        <f t="shared" ref="D8:D12" si="7">ROUND(B8,0)</f>
         <v>1</v>
       </c>
       <c r="E8" s="2" t="str">
-        <f t="shared" ref="E8:E71" si="8">CONCATENATE(C8,"-",D8)</f>
+        <f t="shared" ref="E8:E12" si="8">CONCATENATE(C8,"-",D8)</f>
         <v>1-1</v>
       </c>
     </row>
@@ -1692,249 +1710,665 @@
         <v>2-1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+    <row r="68" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
         <v>1.5473715575620768</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="4">
         <v>0.47908916478555469</v>
       </c>
-      <c r="C68" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="D68" s="1">
+      <c r="C68" s="5">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D68" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E68" s="2" t="str">
+      <c r="E68" s="6" t="str">
         <f t="shared" si="11"/>
         <v>2-0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="2"/>
+    <row r="69" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
+        <v>1.3162499999999999</v>
+      </c>
+      <c r="B69" s="8">
+        <v>1.9751111111111141</v>
+      </c>
+      <c r="C69" s="9">
+        <f t="shared" ref="C69:C100" si="12">ROUND(A69,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D69" s="9">
+        <f t="shared" ref="D69:D100" si="13">ROUND(B69,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E69" s="10" t="str">
+        <f t="shared" ref="E69:E100" si="14">CONCATENATE(C69,"-",D69)</f>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="2"/>
+      <c r="A70" s="3">
+        <v>0.90907499999999997</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0.72691500000000198</v>
+      </c>
+      <c r="C70" s="9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D70" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E70" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="2"/>
+      <c r="A71" s="3">
+        <v>1.1563044247787644</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1.2243398230088531</v>
+      </c>
+      <c r="C71" s="9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D71" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E71" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="2"/>
+      <c r="A72" s="3">
+        <v>0.81769911504425019</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1.4428035398230132</v>
+      </c>
+      <c r="C72" s="9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D72" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E72" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="2"/>
+      <c r="A73" s="3">
+        <v>1.4031111111111085</v>
+      </c>
+      <c r="B73" s="3">
+        <v>2.2555555555555533</v>
+      </c>
+      <c r="C73" s="9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D73" s="9">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E73" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="2"/>
+      <c r="A74" s="3">
+        <v>0.58593333333333231</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1.3081111111111099</v>
+      </c>
+      <c r="C74" s="9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D74" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E74" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="2"/>
+      <c r="A75" s="3">
+        <v>0.31484444444444393</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0.95822222222222142</v>
+      </c>
+      <c r="C75" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D75" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E75" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="2"/>
+      <c r="A76" s="3">
+        <v>1.137888888888887</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0.78166666666666607</v>
+      </c>
+      <c r="C76" s="9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D76" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E76" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="2"/>
+      <c r="A77" s="3">
+        <v>0.52848888888888801</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1.4031111111111096</v>
+      </c>
+      <c r="C77" s="9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D77" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E77" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="2"/>
+      <c r="A78" s="3">
+        <v>0.72093913043478253</v>
+      </c>
+      <c r="B78" s="3">
+        <v>1.9790405797101445</v>
+      </c>
+      <c r="C78" s="9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D78" s="9">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E78" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="2"/>
+      <c r="A79" s="3">
+        <v>1.0985739130434782</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0.81957101449275349</v>
+      </c>
+      <c r="C79" s="9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D79" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E79" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="2"/>
+      <c r="A80" s="3">
+        <v>1.9739999999999998</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0.91547826086956519</v>
+      </c>
+      <c r="C80" s="9">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D80" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E80" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="2"/>
+      <c r="A81" s="3">
+        <v>3.4759565217391297</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0.21170434782608691</v>
+      </c>
+      <c r="C81" s="9">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D81" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>3-0</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="2"/>
+      <c r="A82" s="3">
+        <v>1.4418782608695651</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0.30829275362318836</v>
+      </c>
+      <c r="C82" s="9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D82" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="2"/>
+      <c r="A83" s="3">
+        <v>2.640645871559641</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0.84669357798165268</v>
+      </c>
+      <c r="C83" s="9">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D83" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E83" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="2"/>
+      <c r="A84" s="3">
+        <v>1.6102467889908303</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0.9898844036697263</v>
+      </c>
+      <c r="C84" s="9">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D84" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E84" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="2"/>
+      <c r="A85" s="3">
+        <v>1.4126984709480161</v>
+      </c>
+      <c r="B85" s="3">
+        <v>0.72287155963302852</v>
+      </c>
+      <c r="C85" s="9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D85" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E85" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="2"/>
+      <c r="A86" s="3">
+        <v>2.3413499999999998</v>
+      </c>
+      <c r="B86" s="3">
+        <v>1.9695000000000027</v>
+      </c>
+      <c r="C86" s="9">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D86" s="9">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E86" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="2"/>
+      <c r="A87" s="3">
+        <v>2.9350588235294168</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1.1185937716262979</v>
+      </c>
+      <c r="C87" s="9">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D87" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E87" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="2"/>
+      <c r="A88" s="3">
+        <v>1.7116380622837399</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0.79479031141868539</v>
+      </c>
+      <c r="C88" s="9">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D88" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E88" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="2"/>
+      <c r="A89" s="3">
+        <v>1.67241379310345</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0.91108965517241258</v>
+      </c>
+      <c r="C89" s="9">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D89" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E89" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="2"/>
+      <c r="A90" s="3">
+        <v>1.3750422018348663</v>
+      </c>
+      <c r="B90" s="3">
+        <v>1.1054055045871576</v>
+      </c>
+      <c r="C90" s="9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D90" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E90" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="2"/>
+      <c r="A91" s="3">
+        <v>1.7280697247706471</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0.67883058103975635</v>
+      </c>
+      <c r="C91" s="9">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D91" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E91" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="2"/>
+      <c r="A92" s="3">
+        <v>1.2753119266055082</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1.5640311926605523</v>
+      </c>
+      <c r="C92" s="9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D92" s="9">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E92" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="2"/>
+      <c r="A93" s="3">
+        <v>1.9129678899082625</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0.36155107033639194</v>
+      </c>
+      <c r="C93" s="9">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D93" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="2"/>
+      <c r="A94" s="3">
+        <v>2.6715799999999996</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0.45150000000000123</v>
+      </c>
+      <c r="C94" s="9">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D94" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>3-0</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="2"/>
+      <c r="A95" s="3">
+        <v>1.0799555555555536</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1.2437777777777765</v>
+      </c>
+      <c r="C95" s="9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D95" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E95" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="2"/>
+      <c r="A96" s="3">
+        <v>0.49756666666666582</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0.58177777777777728</v>
+      </c>
+      <c r="C96" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D96" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E96" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="2"/>
+      <c r="A97" s="3">
+        <v>2.4828260869565217</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0.43348985507246368</v>
+      </c>
+      <c r="C97" s="9">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D97" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E97" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="2"/>
+      <c r="A98" s="3">
+        <v>0.86580000000000257</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0.7118036697247716</v>
+      </c>
+      <c r="C98" s="9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D98" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E98" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="2"/>
+      <c r="A99" s="3">
+        <v>1.9560666666666724</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0.46692660550458781</v>
+      </c>
+      <c r="C99" s="9">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D99" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E99" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="2"/>
+      <c r="A100" s="3">
+        <v>0.72282385321101128</v>
+      </c>
+      <c r="B100" s="3">
+        <v>1.6786299694189626</v>
+      </c>
+      <c r="C100" s="9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D100" s="9">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E100" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>

--- a/CS generator.xlsx
+++ b/CS generator.xlsx
@@ -63,7 +63,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -71,16 +71,8 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -362,20 +354,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E190"/>
+  <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69:E100"/>
+    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
-        <v>1.4211877256317735</v>
+        <v>1.32</v>
       </c>
       <c r="B1" s="3">
-        <v>1.2871288808664221</v>
+        <v>1.4970444444444466</v>
       </c>
       <c r="C1" s="1">
         <f>ROUND(A1,0)</f>
@@ -392,10 +384,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1.1843231046931444</v>
+        <v>0.72944444444444534</v>
       </c>
       <c r="B2" s="3">
-        <v>1.4234602888086596</v>
+        <v>1.0561185185185216</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C5" si="0">ROUND(A2,0)</f>
@@ -412,14 +404,14 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1.7031480144404383</v>
+        <v>2.9908799999999998</v>
       </c>
       <c r="B3" s="3">
-        <v>1.1830137184115488</v>
+        <v>0.99994708333333604</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="1"/>
@@ -427,19 +419,19 @@
       </c>
       <c r="E3" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>3-1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1.9513991304347809</v>
+        <v>0.64159199999999994</v>
       </c>
       <c r="B4" s="3">
-        <v>0.62729478260869675</v>
+        <v>0.93285833333333579</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
@@ -447,15 +439,15 @@
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>1.8957931034482733</v>
+        <v>1.6622879746835404</v>
       </c>
       <c r="B5" s="3">
-        <v>1.3531062068965483</v>
+        <v>0.58795864978902845</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
@@ -472,10 +464,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>0.97856379310344721</v>
+        <v>1.1338250000000014</v>
       </c>
       <c r="B6" s="3">
-        <v>1.0918220689655145</v>
+        <v>1.6123461538461534</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ref="C6:C7" si="3">ROUND(A6,0)</f>
@@ -483,19 +475,19 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" ref="D6:D7" si="4">ROUND(B6,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" ref="E6:E7" si="5">CONCATENATE(C6,"-",D6)</f>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>0.80379022222222307</v>
+        <v>1.4328557692307708</v>
       </c>
       <c r="B7" s="3">
-        <v>0.69744177777777483</v>
+        <v>0.69987179487179474</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="3"/>
@@ -512,14 +504,14 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>1.0936817777777788</v>
+        <v>0.49714322580645331</v>
       </c>
       <c r="B8" s="3">
-        <v>1.1174639999999953</v>
+        <v>1.4346903225806493</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ref="C8:C12" si="6">ROUND(A8,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ref="D8:D12" si="7">ROUND(B8,0)</f>
@@ -527,15 +519,15 @@
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" ref="E8:E12" si="8">CONCATENATE(C8,"-",D8)</f>
-        <v>1-1</v>
+        <v>0-1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>1.2241208888888899</v>
+        <v>0.79235015772870476</v>
       </c>
       <c r="B9" s="3">
-        <v>1.0441137777777731</v>
+        <v>1.8146498422712882</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="6"/>
@@ -543,39 +535,39 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>1.2209777777777788</v>
+        <v>2.5221027888446255</v>
       </c>
       <c r="B10" s="3">
-        <v>1.2059759999999948</v>
+        <v>0.22756972111553764</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>1-1</v>
+        <v>3-0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>0.82083555555555632</v>
+        <v>0.83377777777777484</v>
       </c>
       <c r="B11" s="3">
-        <v>0.7822657777777744</v>
+        <v>0.78216355555555228</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="6"/>
@@ -592,50 +584,50 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>1.4622720000000013</v>
+        <v>4.077592920353994</v>
       </c>
       <c r="B12" s="3">
-        <v>0.63064799999999721</v>
+        <v>0.85499469026548924</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" ref="C12:C75" si="9">ROUND(A12,0)</f>
+        <v>4</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D12:D75" si="10">ROUND(B12,0)</f>
         <v>1</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-1</v>
+        <f t="shared" ref="E12:E75" si="11">CONCATENATE(C12,"-",D12)</f>
+        <v>4-1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>1.9852373333333353</v>
+        <v>1.0275310344827597</v>
       </c>
       <c r="B13" s="3">
-        <v>0.87006066666666282</v>
+        <v>0.77126896551724022</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" ref="C13:C68" si="9">ROUND(A13,0)</f>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:D68" si="10">ROUND(B13,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E13" s="2" t="str">
-        <f t="shared" ref="E13:E68" si="11">CONCATENATE(C13,"-",D13)</f>
-        <v>2-1</v>
+        <f t="shared" si="11"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>1.1884586666666677</v>
+        <v>0.92780831024930532</v>
       </c>
       <c r="B14" s="3">
-        <v>0.96256799999999598</v>
+        <v>0.4466454293628806</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="9"/>
@@ -643,19 +635,19 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-1</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>1.6320000000000017</v>
+        <v>1.8906000000000003</v>
       </c>
       <c r="B15" s="3">
-        <v>0.60729066666666398</v>
+        <v>2.0340277777777809</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="9"/>
@@ -663,63 +655,63 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>2-1</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>0.58389333333333382</v>
+        <v>1.7472000000000003</v>
       </c>
       <c r="B16" s="3">
-        <v>0.77857777777777448</v>
+        <v>2.0515625000000028</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-1</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>0.87923409090909033</v>
+        <v>1.8875999999999999</v>
       </c>
       <c r="B17" s="3">
-        <v>1.2316818181818163</v>
+        <v>1.542775000000002</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-1</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>1.1185863636363627</v>
+        <v>3.3125925925925963</v>
       </c>
       <c r="B18" s="3">
-        <v>0.99917045454545328</v>
+        <v>1.0646913580246944</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="10"/>
@@ -727,15 +719,15 @@
       </c>
       <c r="E18" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-1</v>
+        <v>3-1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>1.253481818181817</v>
+        <v>1.283629629629631</v>
       </c>
       <c r="B19" s="3">
-        <v>1.3065881818181799</v>
+        <v>1.0673185185185217</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="9"/>
@@ -752,14 +744,14 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>1.8471022727272712</v>
+        <v>1.4211728395061742</v>
       </c>
       <c r="B20" s="3">
-        <v>1.8984238636363611</v>
+        <v>2.1307654320987717</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="10"/>
@@ -767,15 +759,15 @@
       </c>
       <c r="E20" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>2-2</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>1.45300909090909</v>
+        <v>0.52738271604938336</v>
       </c>
       <c r="B21" s="3">
-        <v>0.35366863636363588</v>
+        <v>1.6122469135802517</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="9"/>
@@ -783,19 +775,19 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-0</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>1.7721454545454531</v>
+        <v>1.7188888888888909</v>
       </c>
       <c r="B22" s="3">
-        <v>0.84458181818181688</v>
+        <v>1.5762962962963005</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="9"/>
@@ -803,19 +795,19 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>2-1</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>1.9248749999999986</v>
+        <v>1.83768</v>
       </c>
       <c r="B23" s="3">
-        <v>0.86267999999999889</v>
+        <v>1.1422950000000032</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="9"/>
@@ -832,10 +824,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>0.97859545454545371</v>
+        <v>1.3596600000000001</v>
       </c>
       <c r="B24" s="3">
-        <v>0.99741090909090779</v>
+        <v>0.55986000000000147</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="9"/>
@@ -852,10 +844,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>1.0239181818181811</v>
+        <v>1.3959299999999999</v>
       </c>
       <c r="B25" s="3">
-        <v>1.7525072727272699</v>
+        <v>1.5994387500000045</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="9"/>
@@ -872,14 +864,14 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>1.6908863636363625</v>
+        <v>3.3542879999999999</v>
       </c>
       <c r="B26" s="3">
-        <v>1.0723172727272714</v>
+        <v>1.0530700000000026</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="10"/>
@@ -887,15 +879,15 @@
       </c>
       <c r="E26" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>2-1</v>
+        <v>3-1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>0.83471590909090843</v>
+        <v>0.87636000000000003</v>
       </c>
       <c r="B27" s="3">
-        <v>2.39612386363636</v>
+        <v>1.138258333333336</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="9"/>
@@ -903,19 +895,19 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>1.3077670428893906</v>
+        <v>0.70350000000000001</v>
       </c>
       <c r="B28" s="3">
-        <v>0.93881444695259908</v>
+        <v>1.3258833333333366</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="9"/>
@@ -932,14 +924,14 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>1.7681336343115126</v>
+        <v>0.76712468354430208</v>
       </c>
       <c r="B29" s="3">
-        <v>1.2419593679458283</v>
+        <v>0.75513333333333199</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="10"/>
@@ -947,19 +939,19 @@
       </c>
       <c r="E29" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>1.7146618510158014</v>
+        <v>1.2294658227848072</v>
       </c>
       <c r="B30" s="3">
-        <v>0.78512753950338865</v>
+        <v>0.88692067510548378</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="10"/>
@@ -967,15 +959,15 @@
       </c>
       <c r="E30" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>1.1365300225733632</v>
+        <v>0.63773312236286761</v>
       </c>
       <c r="B31" s="3">
-        <v>0.63433408577878314</v>
+        <v>1.1654434599156098</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="9"/>
@@ -992,14 +984,14 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>0.42624650112866819</v>
+        <v>2.4601616033755218</v>
       </c>
       <c r="B32" s="3">
-        <v>1.1949963882618553</v>
+        <v>0.55806244725738308</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="10"/>
@@ -1007,15 +999,15 @@
       </c>
       <c r="E32" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>0-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>1.0592505643340857</v>
+        <v>0.6077221518987328</v>
       </c>
       <c r="B33" s="3">
-        <v>1.0121523702031638</v>
+        <v>0.73194852320674975</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="9"/>
@@ -1032,10 +1024,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>1.348634762979684</v>
+        <v>1.4230611814345957</v>
       </c>
       <c r="B34" s="3">
-        <v>0.86080248306998042</v>
+        <v>1.1201924050632892</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="9"/>
@@ -1052,10 +1044,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>1.1203611738148984</v>
+        <v>0.58361497890295222</v>
       </c>
       <c r="B35" s="3">
-        <v>1.0310711060948119</v>
+        <v>1.2157789029535844</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="9"/>
@@ -1072,10 +1064,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>1.2975819413092551</v>
+        <v>1.3516006329113894</v>
       </c>
       <c r="B36" s="3">
-        <v>0.69776749435666152</v>
+        <v>0.76733586497890161</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="9"/>
@@ -1092,10 +1084,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>1.2848505643340857</v>
+        <v>0.67955168776371144</v>
       </c>
       <c r="B37" s="3">
-        <v>1.4983638826185155</v>
+        <v>1.1915772151898714</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="9"/>
@@ -1112,14 +1104,14 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>0.65216666666666512</v>
+        <v>1.6633949367088567</v>
       </c>
       <c r="B38" s="3">
-        <v>0.84154909090908903</v>
+        <v>0.58206075949366998</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="10"/>
@@ -1127,15 +1119,15 @@
       </c>
       <c r="E38" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>0.98326666666666429</v>
+        <v>0.60624620253164418</v>
       </c>
       <c r="B39" s="3">
-        <v>1.0458381818181794</v>
+        <v>0.44396877637130722</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="9"/>
@@ -1143,23 +1135,23 @@
       </c>
       <c r="D39" s="1">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-1</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>1.6043299999999963</v>
+        <v>1.4209696969697019</v>
       </c>
       <c r="B40" s="3">
-        <v>0.72650454545454379</v>
+        <v>0.53881904761904842</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="10"/>
@@ -1167,19 +1159,19 @@
       </c>
       <c r="E40" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>1.286559999999997</v>
+        <v>1.7040952380952439</v>
       </c>
       <c r="B41" s="3">
-        <v>1.2822599999999971</v>
+        <v>1.1570000000000018</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="10"/>
@@ -1187,15 +1179,15 @@
       </c>
       <c r="E41" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>1.9590799999999955</v>
+        <v>1.884654545454552</v>
       </c>
       <c r="B42" s="3">
-        <v>1.3519199999999969</v>
+        <v>0.83138095238095366</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="9"/>
@@ -1212,10 +1204,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>0.93309999999999793</v>
+        <v>1.4663766233766284</v>
       </c>
       <c r="B43" s="3">
-        <v>0.99681818181817938</v>
+        <v>0.74805714285714398</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="9"/>
@@ -1232,14 +1224,14 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>3.5087999999999919</v>
+        <v>1.0517045454545491</v>
       </c>
       <c r="B44" s="3">
-        <v>1.3369090909090877</v>
+        <v>0.99332380952381083</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="10"/>
@@ -1247,15 +1239,15 @@
       </c>
       <c r="E44" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>4-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>0.63353333333333184</v>
+        <v>1.2484233766233805</v>
       </c>
       <c r="B45" s="3">
-        <v>0.50075454545454423</v>
+        <v>0.84574285714285835</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" si="9"/>
@@ -1272,10 +1264,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>1.3135066666666637</v>
+        <v>0.9255000000000031</v>
       </c>
       <c r="B46" s="3">
-        <v>0.72368999999999828</v>
+        <v>1.3055714285714304</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" si="9"/>
@@ -1292,10 +1284,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>1.1463799999999975</v>
+        <v>1.0497012987013021</v>
       </c>
       <c r="B47" s="3">
-        <v>0.68182363636363474</v>
+        <v>0.66114285714285803</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" si="9"/>
@@ -1312,30 +1304,30 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>2.0057516778523565</v>
+        <v>1.2265212121212163</v>
       </c>
       <c r="B48" s="3">
-        <v>0.61441208053691321</v>
+        <v>2.1727333333333365</v>
       </c>
       <c r="C48" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>2-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>1.3666575250836097</v>
+        <v>1.3353642857142902</v>
       </c>
       <c r="B49" s="3">
-        <v>0.57875719063545017</v>
+        <v>0.957666666666668</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" si="9"/>
@@ -1352,10 +1344,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>0.86647123745819254</v>
+        <v>0.90600173160173469</v>
       </c>
       <c r="B50" s="3">
-        <v>1.4315819397993277</v>
+        <v>0.89613333333333456</v>
       </c>
       <c r="C50" s="1">
         <f t="shared" si="9"/>
@@ -1372,10 +1364,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>1.4363849498327736</v>
+        <v>0.9073372294372325</v>
       </c>
       <c r="B51" s="3">
-        <v>0.68659063545150323</v>
+        <v>1.3735428571428592</v>
       </c>
       <c r="C51" s="1">
         <f t="shared" si="9"/>
@@ -1392,10 +1384,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>0.64642876254180504</v>
+        <v>1.2514991452991466</v>
       </c>
       <c r="B52" s="3">
-        <v>0.85588695652173696</v>
+        <v>0.93756410256410216</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" si="9"/>
@@ -1412,34 +1404,34 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>1.8975732441471542</v>
+        <v>1.1338250000000014</v>
       </c>
       <c r="B53" s="3">
-        <v>0.39119698996655417</v>
+        <v>0.99137499999999978</v>
       </c>
       <c r="C53" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>2-0</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>0.96964314381270766</v>
+        <v>1.5215833333333355</v>
       </c>
       <c r="B54" s="3">
-        <v>1.403693979933107</v>
+        <v>0.56033760683760669</v>
       </c>
       <c r="C54" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="10"/>
@@ -1447,15 +1439,15 @@
       </c>
       <c r="E54" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>1.0796026755852828</v>
+        <v>1.4129707264957283</v>
       </c>
       <c r="B55" s="3">
-        <v>1.0345886287625392</v>
+        <v>0.81563675213675202</v>
       </c>
       <c r="C55" s="1">
         <f t="shared" si="9"/>
@@ -1472,10 +1464,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>1.1161324414715701</v>
+        <v>1.4473290598290618</v>
       </c>
       <c r="B56" s="3">
-        <v>1.074834782608693</v>
+        <v>0.7510416666666665</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" si="9"/>
@@ -1492,10 +1484,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>1.2928575250836101</v>
+        <v>1.4227873931623947</v>
       </c>
       <c r="B57" s="3">
-        <v>0.55338461538461414</v>
+        <v>1.0767681623931622</v>
       </c>
       <c r="C57" s="1">
         <f t="shared" si="9"/>
@@ -1512,10 +1504,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>1.1668055555555559</v>
+        <v>1.1421314102564115</v>
       </c>
       <c r="B58" s="3">
-        <v>1.7869833333333305</v>
+        <v>0.32748717948717937</v>
       </c>
       <c r="C58" s="1">
         <f t="shared" si="9"/>
@@ -1523,23 +1515,23 @@
       </c>
       <c r="D58" s="1">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E58" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-2</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>2.0698879629629632</v>
+        <v>1.1496826923076937</v>
       </c>
       <c r="B59" s="3">
-        <v>0.62508055555555453</v>
+        <v>1.2043076923076916</v>
       </c>
       <c r="C59" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="10"/>
@@ -1547,39 +1539,39 @@
       </c>
       <c r="E59" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>0.41402777777777794</v>
+        <v>0.81805555555555665</v>
       </c>
       <c r="B60" s="3">
-        <v>2.03985833333333</v>
+        <v>1.1911025641025637</v>
       </c>
       <c r="C60" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>0-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>2.1603000000000021</v>
+        <v>0.77740448717948807</v>
       </c>
       <c r="B61" s="3">
-        <v>0.58256857142857199</v>
+        <v>1.0976762820512818</v>
       </c>
       <c r="C61" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="10"/>
@@ -1587,15 +1579,15 @@
       </c>
       <c r="E61" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>0.87493805309734218</v>
+        <v>1.0150598290598278</v>
       </c>
       <c r="B62" s="3">
-        <v>0.43996165191740411</v>
+        <v>1.0424045584045603</v>
       </c>
       <c r="C62" s="1">
         <f t="shared" si="9"/>
@@ -1603,39 +1595,39 @@
       </c>
       <c r="D62" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-0</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>0.81022300884955478</v>
+        <v>1.6221054131054109</v>
       </c>
       <c r="B63" s="3">
-        <v>0.37152507374631266</v>
+        <v>0.56337037037037141</v>
       </c>
       <c r="C63" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-0</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>2.4584258064516136</v>
+        <v>1.6134333333333313</v>
       </c>
       <c r="B64" s="3">
-        <v>0.86232774193548634</v>
+        <v>0.9868034188034206</v>
       </c>
       <c r="C64" s="1">
         <f t="shared" si="9"/>
@@ -1652,14 +1644,14 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>1.5181226666666683</v>
+        <v>1.2055612535612523</v>
       </c>
       <c r="B65" s="3">
-        <v>0.64365844444444165</v>
+        <v>1.2521937321937344</v>
       </c>
       <c r="C65" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" s="1">
         <f t="shared" si="10"/>
@@ -1667,35 +1659,35 @@
       </c>
       <c r="E65" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>2.1112035555555577</v>
+        <v>3.8691692307692267</v>
       </c>
       <c r="B66" s="3">
-        <v>0.36572666666666509</v>
+        <v>1.1213675213675234</v>
       </c>
       <c r="C66" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>2-0</v>
+        <v>4-1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>1.6866528216704288</v>
+        <v>1.5638176638176622</v>
       </c>
       <c r="B67" s="3">
-        <v>0.98822573363431487</v>
+        <v>0.53148148148148244</v>
       </c>
       <c r="C67" s="1">
         <f t="shared" si="9"/>
@@ -1710,1243 +1702,2585 @@
         <v>2-1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>1.5473715575620768</v>
+        <v>1.0946723646723635</v>
       </c>
       <c r="B68" s="4">
-        <v>0.47908916478555469</v>
-      </c>
-      <c r="C68" s="5">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="D68" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E68" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>2-0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
-        <v>1.3162499999999999</v>
-      </c>
-      <c r="B69" s="8">
-        <v>1.9751111111111141</v>
-      </c>
-      <c r="C69" s="9">
-        <f t="shared" ref="C69:C100" si="12">ROUND(A69,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D69" s="9">
-        <f t="shared" ref="D69:D100" si="13">ROUND(B69,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E69" s="10" t="str">
-        <f t="shared" ref="E69:E100" si="14">CONCATENATE(C69,"-",D69)</f>
-        <v>1-2</v>
+        <v>0.71907692307692428</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E68" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>0.87858119658119549</v>
+      </c>
+      <c r="B69" s="6">
+        <v>0.72152991452991566</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E69" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>0.90907499999999997</v>
+        <v>0.57337548387096993</v>
       </c>
       <c r="B70" s="3">
-        <v>0.72691500000000198</v>
-      </c>
-      <c r="C70" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="D70" s="9">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E70" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <v>1.9822516129032315</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E70" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>1.1563044247787644</v>
+        <v>1.6531509677419414</v>
       </c>
       <c r="B71" s="3">
-        <v>1.2243398230088531</v>
-      </c>
-      <c r="C71" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="D71" s="9">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E71" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <v>1.3679729032258103</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E71" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>0.81769911504425019</v>
+        <v>1.2929657980456073</v>
       </c>
       <c r="B72" s="3">
-        <v>1.4428035398230132</v>
-      </c>
-      <c r="C72" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="D72" s="9">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E72" s="10" t="str">
-        <f t="shared" si="14"/>
+        <v>1.0084208469055354</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E72" s="2" t="str">
+        <f t="shared" si="11"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>1.4031111111111085</v>
+        <v>1.3925667752443047</v>
       </c>
       <c r="B73" s="3">
-        <v>2.2555555555555533</v>
-      </c>
-      <c r="C73" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="D73" s="9">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="E73" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>1-2</v>
+        <v>0.69170032573289764</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E73" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>0.58593333333333231</v>
+        <v>2.0647084690553821</v>
       </c>
       <c r="B74" s="3">
-        <v>1.3081111111111099</v>
-      </c>
-      <c r="C74" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="D74" s="9">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E74" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <v>0.59195960912051993</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E74" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>0.31484444444444393</v>
+        <v>0.78044951140065433</v>
       </c>
       <c r="B75" s="3">
-        <v>0.95822222222222142</v>
-      </c>
-      <c r="C75" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D75" s="9">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E75" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>0-1</v>
+        <v>0.60904625407165991</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E75" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>1.137888888888887</v>
+        <v>0.68863192182410671</v>
       </c>
       <c r="B76" s="3">
-        <v>0.78166666666666607</v>
-      </c>
-      <c r="C76" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="D76" s="9">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E76" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <v>1.5490175895765439</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" ref="C76:C139" si="12">ROUND(A76,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" ref="D76:D139" si="13">ROUND(B76,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E76" s="2" t="str">
+        <f t="shared" ref="E76:E139" si="14">CONCATENATE(C76,"-",D76)</f>
+        <v>1-2</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>0.52848888888888801</v>
+        <v>1.159197068403913</v>
       </c>
       <c r="B77" s="3">
-        <v>1.4031111111111096</v>
-      </c>
-      <c r="C77" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="D77" s="9">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E77" s="10" t="str">
+        <v>0.82015895765472135</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E77" s="2" t="str">
         <f t="shared" si="14"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>0.72093913043478253</v>
+        <v>0.63533550488599577</v>
       </c>
       <c r="B78" s="3">
-        <v>1.9790405797101445</v>
-      </c>
-      <c r="C78" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="D78" s="9">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="E78" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>1-2</v>
+        <v>0.95849902280130084</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E78" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>1.0985739130434782</v>
+        <v>1.7647182410423516</v>
       </c>
       <c r="B79" s="3">
-        <v>0.81957101449275349</v>
-      </c>
-      <c r="C79" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="D79" s="9">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E79" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <v>0.75881172638436312</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E79" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>1.9739999999999998</v>
+        <v>0.75622346938775642</v>
       </c>
       <c r="B80" s="3">
-        <v>0.91547826086956519</v>
-      </c>
-      <c r="C80" s="9">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="D80" s="9">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E80" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <v>0.16698673469387834</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-0</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>3.4759565217391297</v>
+        <v>1.2053142857142882</v>
       </c>
       <c r="B81" s="3">
-        <v>0.21170434782608691</v>
-      </c>
-      <c r="C81" s="9">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="D81" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E81" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>3-0</v>
+        <v>0.96886428571429029</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E81" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>1.4418782608695651</v>
+        <v>1.7170408163265336</v>
       </c>
       <c r="B82" s="3">
-        <v>0.30829275362318836</v>
-      </c>
-      <c r="C82" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="D82" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>1-0</v>
+        <v>0.99349642857143339</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E82" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>2.640645871559641</v>
+        <v>2.2841024221453328</v>
       </c>
       <c r="B83" s="3">
-        <v>0.84669357798165268</v>
-      </c>
-      <c r="C83" s="9">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="D83" s="9">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E83" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>3-1</v>
+        <v>1.0342463667820072</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E83" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>1.6102467889908303</v>
+        <v>0.35233494809688642</v>
       </c>
       <c r="B84" s="3">
-        <v>0.9898844036697263</v>
-      </c>
-      <c r="C84" s="9">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="D84" s="9">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E84" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <v>1.999005190311419</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E84" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>0-2</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>1.4126984709480161</v>
+        <v>1.04453564013841</v>
       </c>
       <c r="B85" s="3">
-        <v>0.72287155963302852</v>
-      </c>
-      <c r="C85" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="D85" s="9">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E85" s="10" t="str">
+        <v>0.87800553633218026</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E85" s="2" t="str">
         <f t="shared" si="14"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>2.3413499999999998</v>
+        <v>0.60591482649842132</v>
       </c>
       <c r="B86" s="3">
-        <v>1.9695000000000027</v>
-      </c>
-      <c r="C86" s="9">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="D86" s="9">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="E86" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>2-2</v>
+        <v>1.0799432176656123</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E86" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>2.9350588235294168</v>
+        <v>2.1205154574132443</v>
       </c>
       <c r="B87" s="3">
-        <v>1.1185937716262979</v>
-      </c>
-      <c r="C87" s="9">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="D87" s="9">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E87" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>3-1</v>
+        <v>0.68507886435331045</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E87" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>1.7116380622837399</v>
+        <v>1.0775962145110385</v>
       </c>
       <c r="B88" s="3">
-        <v>0.79479031141868539</v>
-      </c>
-      <c r="C88" s="9">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="D88" s="9">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E88" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <v>0.71852365930599182</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E88" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>1.67241379310345</v>
+        <v>0.9414984227129316</v>
       </c>
       <c r="B89" s="3">
-        <v>0.91108965517241258</v>
-      </c>
-      <c r="C89" s="9">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="D89" s="9">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E89" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <v>1.0098170347003128</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>1.3750422018348663</v>
+        <v>1.8209760252365892</v>
       </c>
       <c r="B90" s="3">
-        <v>1.1054055045871576</v>
-      </c>
-      <c r="C90" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="D90" s="9">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E90" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <v>0.9213501577287041</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E90" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>1.7280697247706471</v>
+        <v>0.58105678233438351</v>
       </c>
       <c r="B91" s="3">
-        <v>0.67883058103975635</v>
-      </c>
-      <c r="C91" s="9">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="D91" s="9">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E91" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <v>1.0771381703470002</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E91" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>1.2753119266055082</v>
+        <v>1.6980494023904407</v>
       </c>
       <c r="B92" s="3">
-        <v>1.5640311926605523</v>
-      </c>
-      <c r="C92" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="D92" s="9">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="E92" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>1-2</v>
+        <v>0.56536852589641384</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E92" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>1.9129678899082625</v>
+        <v>1.6661055776892455</v>
       </c>
       <c r="B93" s="3">
-        <v>0.36155107033639194</v>
-      </c>
-      <c r="C93" s="9">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="D93" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E93" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>2-0</v>
+        <v>0.84485258964143339</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>2.6715799999999996</v>
+        <v>1.3841243027888466</v>
       </c>
       <c r="B94" s="3">
-        <v>0.45150000000000123</v>
-      </c>
-      <c r="C94" s="9">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="D94" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E94" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>3-0</v>
+        <v>0.59964621513944161</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E94" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>1.0799555555555536</v>
+        <v>1.0215537848605591</v>
       </c>
       <c r="B95" s="3">
-        <v>1.2437777777777765</v>
-      </c>
-      <c r="C95" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="D95" s="9">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E95" s="10" t="str">
+        <v>1.2815019920318713</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E95" s="2" t="str">
         <f t="shared" si="14"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>0.49756666666666582</v>
+        <v>0.70771555555555299</v>
       </c>
       <c r="B96" s="3">
-        <v>0.58177777777777728</v>
-      </c>
-      <c r="C96" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D96" s="9">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E96" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>0-1</v>
+        <v>0.99850666666666266</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E96" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>2.4828260869565217</v>
+        <v>0.89214222222221917</v>
       </c>
       <c r="B97" s="3">
-        <v>0.43348985507246368</v>
-      </c>
-      <c r="C97" s="9">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="D97" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E97" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>2-0</v>
+        <v>0.76507199999999698</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E97" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>0.86580000000000257</v>
+        <v>0.86613333333333031</v>
       </c>
       <c r="B98" s="3">
-        <v>0.7118036697247716</v>
-      </c>
-      <c r="C98" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="D98" s="9">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E98" s="10" t="str">
+        <v>1.4478346666666608</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E98" s="2" t="str">
         <f t="shared" si="14"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>1.9560666666666724</v>
+        <v>1.0527999999999962</v>
       </c>
       <c r="B99" s="3">
-        <v>0.46692660550458781</v>
-      </c>
-      <c r="C99" s="9">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="D99" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E99" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>2-0</v>
+        <v>1.0095262222222183</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E99" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>0.72282385321101128</v>
+        <v>1.9359454545454509</v>
       </c>
       <c r="B100" s="3">
-        <v>1.6786299694189626</v>
-      </c>
-      <c r="C100" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="D100" s="9">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="E100" s="10" t="str">
+        <v>0.68653737373737578</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E100" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>0.93678787878787695</v>
+      </c>
+      <c r="B101" s="3">
+        <v>0.78068181818182047</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E101" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>1.944518181818178</v>
+      </c>
+      <c r="B102" s="3">
+        <v>0.68815656565656758</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E102" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>0.8547878787878771</v>
+      </c>
+      <c r="B103" s="3">
+        <v>1.452646464646469</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E103" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>0.37272727272727202</v>
+      </c>
+      <c r="B104" s="3">
+        <v>0.40479797979798093</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E104" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>0-0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>1.0027327433628348</v>
+      </c>
+      <c r="B105" s="3">
+        <v>0.75650265486725887</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E105" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>1.634775221238943</v>
+      </c>
+      <c r="B106" s="3">
+        <v>0.5584707964601785</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E106" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>1.2031858407079681</v>
+      </c>
+      <c r="B107" s="3">
+        <v>2.0439716814159352</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E107" s="2" t="str">
         <f t="shared" si="14"/>
         <v>1-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="2"/>
-    </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="2"/>
+      <c r="A108" s="3">
+        <v>1.9736920353982361</v>
+      </c>
+      <c r="B108" s="3">
+        <v>0.44570265486725785</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E108" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="2"/>
+      <c r="A109" s="3">
+        <v>1.746311111111108</v>
+      </c>
+      <c r="B109" s="3">
+        <v>0.4021111111111107</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E109" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="2"/>
+      <c r="A110" s="3">
+        <v>1.6866666666666639</v>
+      </c>
+      <c r="B110" s="3">
+        <v>0.47499999999999953</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D110" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E110" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="2"/>
+      <c r="A111" s="3">
+        <v>1.0167666666666648</v>
+      </c>
+      <c r="B111" s="3">
+        <v>1.1635555555555546</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D111" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E111" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="2"/>
+      <c r="A112" s="3">
+        <v>1.8949333333333302</v>
+      </c>
+      <c r="B112" s="3">
+        <v>1.1673333333333322</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D112" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E112" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="2"/>
+      <c r="A113" s="3">
+        <v>0.49622222222222129</v>
+      </c>
+      <c r="B113" s="3">
+        <v>1.0499999999999992</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D113" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E113" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="2"/>
+      <c r="A114" s="3">
+        <v>0.56073043478260853</v>
+      </c>
+      <c r="B114" s="3">
+        <v>3.184147826086956</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D114" s="1">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="E114" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-3</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="2"/>
+      <c r="A115" s="3">
+        <v>0.9612521739130433</v>
+      </c>
+      <c r="B115" s="3">
+        <v>1.9790405797101445</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D115" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E115" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="2"/>
+      <c r="A116" s="3">
+        <v>0.60922898550724636</v>
+      </c>
+      <c r="B116" s="3">
+        <v>2.5232869565217388</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D116" s="1">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="E116" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-3</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="2"/>
+      <c r="A117" s="3">
+        <v>0.18391304347826087</v>
+      </c>
+      <c r="B117" s="3">
+        <v>1.4762086956521738</v>
+      </c>
+      <c r="C117" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D117" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E117" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="2"/>
+      <c r="A118" s="3">
+        <v>1.7415884057971012</v>
+      </c>
+      <c r="B118" s="3">
+        <v>1.9790405797101447</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D118" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E118" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="2"/>
+      <c r="A119" s="3">
+        <v>1.017496551724139</v>
+      </c>
+      <c r="B119" s="3">
+        <v>0.42577655172413731</v>
+      </c>
+      <c r="C119" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D119" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E119" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="2"/>
+      <c r="A120" s="3">
+        <v>2.3697434482758641</v>
+      </c>
+      <c r="B120" s="3">
+        <v>0.59175724137930941</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D120" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E120" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="2"/>
+      <c r="A121" s="3">
+        <v>0.61558206896551793</v>
+      </c>
+      <c r="B121" s="3">
+        <v>0.97423448275861946</v>
+      </c>
+      <c r="C121" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D121" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E121" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="2"/>
+      <c r="A122" s="3">
+        <v>0.94310758620689761</v>
+      </c>
+      <c r="B122" s="3">
+        <v>1.0669220689655157</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D122" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E122" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="2"/>
+      <c r="A123" s="3">
+        <v>1.591609972299165</v>
+      </c>
+      <c r="B123" s="3">
+        <v>1.1248332409972293</v>
+      </c>
+      <c r="C123" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D123" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E123" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="2"/>
+      <c r="A124" s="3">
+        <v>1.8111423822714636</v>
+      </c>
+      <c r="B124" s="3">
+        <v>0.69114792243767276</v>
+      </c>
+      <c r="C124" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D124" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E124" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="2"/>
+      <c r="A125" s="3">
+        <v>1.5547058171745116</v>
+      </c>
+      <c r="B125" s="3">
+        <v>0.7828254847645425</v>
+      </c>
+      <c r="C125" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D125" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E125" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="2"/>
+      <c r="A126" s="3">
+        <v>1.6142183486238577</v>
+      </c>
+      <c r="B126" s="3">
+        <v>0.63259908256880826</v>
+      </c>
+      <c r="C126" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D126" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E126" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="2"/>
+      <c r="A127" s="3">
+        <v>0.56219633027523097</v>
+      </c>
+      <c r="B127" s="3">
+        <v>0.86329541284403788</v>
+      </c>
+      <c r="C127" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D127" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E127" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="2"/>
+      <c r="A128" s="3">
+        <v>2.3496923547400677</v>
+      </c>
+      <c r="B128" s="3">
+        <v>0.65715596330275328</v>
+      </c>
+      <c r="C128" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D128" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E128" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="2"/>
+      <c r="A129" s="3">
+        <v>2.4920999999999998</v>
+      </c>
+      <c r="B129" s="3">
+        <v>1.0986555555555573</v>
+      </c>
+      <c r="C129" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D129" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E129" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="2"/>
+      <c r="A130" s="3">
+        <v>0.88875000000000004</v>
+      </c>
+      <c r="B130" s="3">
+        <v>1.5037777777777803</v>
+      </c>
+      <c r="C130" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D130" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E130" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="2"/>
+      <c r="A131" s="3">
+        <v>0.53279999999999994</v>
+      </c>
+      <c r="B131" s="3">
+        <v>0.99737500000000168</v>
+      </c>
+      <c r="C131" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D131" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E131" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="2"/>
+      <c r="A132" s="3">
+        <v>1.5286500000000001</v>
+      </c>
+      <c r="B132" s="3">
+        <v>0.97633333333333472</v>
+      </c>
+      <c r="C132" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D132" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E132" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="2"/>
+      <c r="A133" s="3">
+        <v>0.52577777777777834</v>
+      </c>
+      <c r="B133" s="3">
+        <v>1.2029629629629663</v>
+      </c>
+      <c r="C133" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D133" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E133" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="2"/>
+      <c r="A134" s="3">
+        <v>1.2903703703703719</v>
+      </c>
+      <c r="B134" s="3">
+        <v>1.2743111111111147</v>
+      </c>
+      <c r="C134" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D134" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E134" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="2"/>
+      <c r="A135" s="3">
+        <v>2.2871799999999998</v>
+      </c>
+      <c r="B135" s="3">
+        <v>0.65216666666666845</v>
+      </c>
+      <c r="C135" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D135" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E135" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="2"/>
+      <c r="A136" s="3">
+        <v>1.3500500000000002</v>
+      </c>
+      <c r="B136" s="3">
+        <v>0.61454166666666821</v>
+      </c>
+      <c r="C136" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D136" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E136" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="2"/>
+      <c r="A137" s="3">
+        <v>1.4346800000000002</v>
+      </c>
+      <c r="B137" s="3">
+        <v>1.7077987500000047</v>
+      </c>
+      <c r="C137" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D137" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E137" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="2"/>
+      <c r="A138" s="3">
+        <v>0.99696000000000007</v>
+      </c>
+      <c r="B138" s="3">
+        <v>0.58657500000000151</v>
+      </c>
+      <c r="C138" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D138" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E138" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="2"/>
+      <c r="A139" s="3">
+        <v>1.1235900000000001</v>
+      </c>
+      <c r="B139" s="3">
+        <v>1.6654516666666708</v>
+      </c>
+      <c r="C139" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D139" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E139" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="2"/>
+      <c r="A140" s="3">
+        <v>1.1584300000000003</v>
+      </c>
+      <c r="B140" s="3">
+        <v>1.3408933333333368</v>
+      </c>
+      <c r="C140" s="1">
+        <f t="shared" ref="C140:C196" si="15">ROUND(A140,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D140" s="1">
+        <f t="shared" ref="D140:D196" si="16">ROUND(B140,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E140" s="2" t="str">
+        <f t="shared" ref="E140:E196" si="17">CONCATENATE(C140,"-",D140)</f>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="2"/>
+      <c r="A141" s="3">
+        <v>0.56950000000000001</v>
+      </c>
+      <c r="B141" s="3">
+        <v>1.5930350000000044</v>
+      </c>
+      <c r="C141" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D141" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E141" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="2"/>
+      <c r="A142" s="3">
+        <v>1.2767541935483915</v>
+      </c>
+      <c r="B142" s="3">
+        <v>0.98481290322580928</v>
+      </c>
+      <c r="C142" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D142" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E142" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="2"/>
+      <c r="A143" s="3">
+        <v>2.5516025806451705</v>
+      </c>
+      <c r="B143" s="3">
+        <v>1.063225806451616</v>
+      </c>
+      <c r="C143" s="1">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="D143" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E143" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="2"/>
+      <c r="A144" s="3">
+        <v>1.9406554838709751</v>
+      </c>
+      <c r="B144" s="3">
+        <v>0.96288387096774464</v>
+      </c>
+      <c r="C144" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D144" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E144" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="2"/>
+      <c r="A145" s="3">
+        <v>1.3419600000000049</v>
+      </c>
+      <c r="B145" s="3">
+        <v>1.8274193548387152</v>
+      </c>
+      <c r="C145" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D145" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E145" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="2"/>
+      <c r="A146" s="3">
+        <v>1.0613980645161327</v>
+      </c>
+      <c r="B146" s="3">
+        <v>1.5450000000000044</v>
+      </c>
+      <c r="C146" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D146" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E146" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="2"/>
+      <c r="A147" s="3">
+        <v>3.4141161290322701</v>
+      </c>
+      <c r="B147" s="3">
+        <v>0.77615483870967972</v>
+      </c>
+      <c r="C147" s="1">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="D147" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E147" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="2"/>
+      <c r="A148" s="3">
+        <v>2.1933109677419433</v>
+      </c>
+      <c r="B148" s="3">
+        <v>0.88247741935484125</v>
+      </c>
+      <c r="C148" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D148" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E148" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="2"/>
+      <c r="A149" s="3">
+        <v>0.74614983713355321</v>
+      </c>
+      <c r="B149" s="3">
+        <v>0.35326123778501556</v>
+      </c>
+      <c r="C149" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D149" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E149" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="2"/>
+      <c r="A150" s="3">
+        <v>1.2817346938775533</v>
+      </c>
+      <c r="B150" s="3">
+        <v>0.62145510204081933</v>
+      </c>
+      <c r="C150" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D150" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E150" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="2"/>
+      <c r="A151" s="3">
+        <v>1.1407438775510226</v>
+      </c>
+      <c r="B151" s="3">
+        <v>0.95542857142857618</v>
+      </c>
+      <c r="C151" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D151" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E151" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="2"/>
+      <c r="A152" s="3">
+        <v>2.1377158163265344</v>
+      </c>
+      <c r="B152" s="3">
+        <v>0.21326530612245001</v>
+      </c>
+      <c r="C152" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D152" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E152" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="2"/>
+      <c r="A153" s="3">
+        <v>2.9078823529411815</v>
+      </c>
+      <c r="B153" s="3">
+        <v>0.76365536332179951</v>
+      </c>
+      <c r="C153" s="1">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="D153" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E153" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="2"/>
+      <c r="A154" s="3">
+        <v>1.7528823529411794</v>
+      </c>
+      <c r="B154" s="3">
+        <v>0.33116262975778554</v>
+      </c>
+      <c r="C154" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D154" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E154" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="2"/>
+      <c r="A155" s="3">
+        <v>1.3003141868512131</v>
+      </c>
+      <c r="B155" s="3">
+        <v>1.6201494809688588</v>
+      </c>
+      <c r="C155" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D155" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E155" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="2"/>
+      <c r="A156" s="3">
+        <v>1.0068083044982716</v>
+      </c>
+      <c r="B156" s="3">
+        <v>1.1234055363321804</v>
+      </c>
+      <c r="C156" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D156" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E156" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="2"/>
+      <c r="A157" s="3">
+        <v>2.1178463667820102</v>
+      </c>
+      <c r="B157" s="3">
+        <v>0.71327335640138434</v>
+      </c>
+      <c r="C157" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D157" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E157" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="2"/>
+      <c r="A158" s="3">
+        <v>0.83591626297577992</v>
+      </c>
+      <c r="B158" s="3">
+        <v>1.541179930795848</v>
+      </c>
+      <c r="C158" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D158" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E158" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="2"/>
+      <c r="A159" s="3">
+        <v>1.0527381703470007</v>
+      </c>
+      <c r="B159" s="3">
+        <v>1.1638788643533091</v>
+      </c>
+      <c r="C159" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D159" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E159" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="2"/>
+      <c r="A160" s="3">
+        <v>1.1036971608832784</v>
+      </c>
+      <c r="B160" s="3">
+        <v>0.84151419558359397</v>
+      </c>
+      <c r="C160" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D160" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E160" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="2"/>
+      <c r="A161" s="3">
+        <v>1.2425661354581692</v>
+      </c>
+      <c r="B161" s="3">
+        <v>1.5076494023904368</v>
+      </c>
+      <c r="C161" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D161" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E161" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="2"/>
+      <c r="A162" s="3">
+        <v>1.3053187250996032</v>
+      </c>
+      <c r="B162" s="3">
+        <v>0.44802788844621466</v>
+      </c>
+      <c r="C162" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D162" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E162" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="2"/>
+      <c r="A163" s="3">
+        <v>1.1310059760956193</v>
+      </c>
+      <c r="B163" s="3">
+        <v>3.4920573705179248</v>
+      </c>
+      <c r="C163" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D163" s="1">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="E163" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-3</v>
+      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="2"/>
+      <c r="A164" s="3">
+        <v>0.44834860557768985</v>
+      </c>
+      <c r="B164" s="3">
+        <v>2.6312749003984037</v>
+      </c>
+      <c r="C164" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D164" s="1">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="E164" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>0-3</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="2"/>
+      <c r="A165">
+        <v>0.78375111111110829</v>
+      </c>
+      <c r="B165">
+        <v>0.54040799999999789</v>
+      </c>
+      <c r="C165" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D165" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E165" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="2"/>
+      <c r="A166">
+        <v>1.0826666666666629</v>
+      </c>
+      <c r="B166">
+        <v>0.47035511111110917</v>
+      </c>
+      <c r="C166" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D166" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E166" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="2"/>
+      <c r="A167">
+        <v>0.9475199999999967</v>
+      </c>
+      <c r="B167">
+        <v>0.22466399999999911</v>
+      </c>
+      <c r="C167" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D167" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E167" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="2"/>
+      <c r="A168">
+        <v>2.0505955555555486</v>
+      </c>
+      <c r="B168">
+        <v>0.43043733333333162</v>
+      </c>
+      <c r="C168" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D168" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E168" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="2"/>
+      <c r="A169">
+        <v>1.6713090909090875</v>
+      </c>
+      <c r="B169">
+        <v>0.15012222222222266</v>
+      </c>
+      <c r="C169" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D169" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E169" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="2"/>
+      <c r="A170">
+        <v>1.2168482758620702</v>
+      </c>
+      <c r="B170">
+        <v>0.56773965517241298</v>
+      </c>
+      <c r="C170" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D170" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E170" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="2"/>
+      <c r="A171">
+        <v>1.0018427586206906</v>
+      </c>
+      <c r="B171">
+        <v>1.2185824137931016</v>
+      </c>
+      <c r="C171" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D171" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E171" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="2"/>
+      <c r="A172">
+        <v>1.7125517241379329</v>
+      </c>
+      <c r="B172">
+        <v>1.1755086206896534</v>
+      </c>
+      <c r="C172" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D172" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E172" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="2"/>
+      <c r="A173">
+        <v>0.79419586206896642</v>
+      </c>
+      <c r="B173">
+        <v>1.3639282758620672</v>
+      </c>
+      <c r="C173" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D173" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E173" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="2"/>
+      <c r="A174">
+        <v>1.015337396121881</v>
+      </c>
+      <c r="B174">
+        <v>0.50048642659279752</v>
+      </c>
+      <c r="C174" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D174" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E174" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="2"/>
+      <c r="A175">
+        <v>0.79426731301938869</v>
+      </c>
+      <c r="B175">
+        <v>0.72837562326869765</v>
+      </c>
+      <c r="C175" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D175" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E175" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="2"/>
-    </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="2"/>
-    </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="2"/>
-    </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="2"/>
-    </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="2"/>
-    </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="2"/>
-    </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="2"/>
-    </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="2"/>
-    </row>
-    <row r="184" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="2"/>
-    </row>
-    <row r="185" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="2"/>
-    </row>
-    <row r="186" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="2"/>
-    </row>
-    <row r="187" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="2"/>
-    </row>
-    <row r="188" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="2"/>
-    </row>
-    <row r="189" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="2"/>
-    </row>
-    <row r="190" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="2"/>
+      <c r="A176">
+        <v>2.4053939058171685</v>
+      </c>
+      <c r="B176">
+        <v>0.50274792243767286</v>
+      </c>
+      <c r="C176" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D176" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E176" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1.2668060941828223</v>
+      </c>
+      <c r="B177">
+        <v>0.47839335180055376</v>
+      </c>
+      <c r="C177" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D177" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E177" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1.1116193905817147</v>
+      </c>
+      <c r="B178">
+        <v>0.65078891966758967</v>
+      </c>
+      <c r="C178" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D178" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E178" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1.6488587257617686</v>
+      </c>
+      <c r="B179">
+        <v>0.36688421052631554</v>
+      </c>
+      <c r="C179" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D179" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E179" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>0.78975198776758626</v>
+      </c>
+      <c r="B180">
+        <v>0.66580275229357888</v>
+      </c>
+      <c r="C180" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D180" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E180" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1.7945565749235526</v>
+      </c>
+      <c r="B181">
+        <v>0.63409785932721807</v>
+      </c>
+      <c r="C181" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D181" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E181" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>0.62515290519877853</v>
+      </c>
+      <c r="B182">
+        <v>0.5310281345565756</v>
+      </c>
+      <c r="C182" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D182" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E182" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>0.86785932721712777</v>
+      </c>
+      <c r="B183">
+        <v>1.9599388379204921</v>
+      </c>
+      <c r="C183" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D183" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E183" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>0.81839999999999991</v>
+      </c>
+      <c r="B184">
+        <v>1.192361111111113</v>
+      </c>
+      <c r="C184" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D184" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E184" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1.0239506172839516</v>
+      </c>
+      <c r="B185">
+        <v>1.2604839506172876</v>
+      </c>
+      <c r="C185" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D185" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E185" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>0.98892000000000013</v>
+      </c>
+      <c r="B186">
+        <v>1.9789500000000049</v>
+      </c>
+      <c r="C186" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D186" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E186" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>0.85760000000000014</v>
+      </c>
+      <c r="B187">
+        <v>1.4156800000000036</v>
+      </c>
+      <c r="C187" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D187" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E187" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>0.8622410423452801</v>
+      </c>
+      <c r="B188">
+        <v>1.5493263843648175</v>
+      </c>
+      <c r="C188" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D188" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E188" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>0.84183367346938909</v>
+      </c>
+      <c r="B189">
+        <v>0.43602091836734908</v>
+      </c>
+      <c r="C189" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D189" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E189" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1.0876982698961957</v>
+      </c>
+      <c r="B190">
+        <v>2.0752858131487892</v>
+      </c>
+      <c r="C190" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D190" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E190" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>2.24915583596214</v>
+      </c>
+      <c r="B191">
+        <v>0.95479495268138537</v>
+      </c>
+      <c r="C191" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D191" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E191" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>0.91621517241379413</v>
+      </c>
+      <c r="B192">
+        <v>1.4262837931034462</v>
+      </c>
+      <c r="C192" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D192" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E192" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1.1116193905817147</v>
+      </c>
+      <c r="B193">
+        <v>0.66853296398891926</v>
+      </c>
+      <c r="C193" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D193" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E193" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1.4753608562691172</v>
+      </c>
+      <c r="B194">
+        <v>1.181727828746179</v>
+      </c>
+      <c r="C194" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D194" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E194" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>3.2619743119266147</v>
+      </c>
+      <c r="B195">
+        <v>0.55201100917431267</v>
+      </c>
+      <c r="C195" s="1">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="D195" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E195" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>3-1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>1.4253486238532149</v>
+      </c>
+      <c r="B196">
+        <v>0.91436911314984837</v>
+      </c>
+      <c r="C196" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D196" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E196" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CS generator.xlsx
+++ b/CS generator.xlsx
@@ -356,22 +356,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E42"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
-        <v>0.99814814814814989</v>
+        <v>2.2244047619047578</v>
       </c>
       <c r="B1" s="3">
-        <v>0.9720222222222209</v>
+        <v>0.62577777777777932</v>
       </c>
       <c r="C1" s="1">
         <f>ROUND(A1,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1">
         <f>ROUND(B1,0)</f>
@@ -379,15 +379,15 @@
       </c>
       <c r="E1" s="2" t="str">
         <f>CONCATENATE(C1,"-",D1)</f>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>0.80802469135802613</v>
+        <v>0.80443548387096819</v>
       </c>
       <c r="B2" s="3">
-        <v>0.74515555555555457</v>
+        <v>0.75875483870967586</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C5" si="0">ROUND(A2,0)</f>
@@ -404,10 +404,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1.1962962962962984</v>
+        <v>0.95459677419354882</v>
       </c>
       <c r="B3" s="3">
-        <v>1.3030999999999981</v>
+        <v>1.7749443548387058</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
@@ -415,19 +415,19 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1.1181434599156104</v>
+        <v>1.1218064516129014</v>
       </c>
       <c r="B4" s="3">
-        <v>1.6524050632911438</v>
+        <v>1.8691580645161303</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
@@ -444,30 +444,30 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>0.41772151898734122</v>
+        <v>1.2574293877551022</v>
       </c>
       <c r="B5" s="3">
-        <v>2.4303797468354498</v>
+        <v>0.656640000000001</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>0.9282700421940917</v>
+        <v>1.3620816326530614</v>
       </c>
       <c r="B6" s="3">
-        <v>1.3772151898734215</v>
+        <v>1.0235314285714301</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ref="C6:C7" si="3">ROUND(A6,0)</f>
@@ -484,14 +484,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>2.0886075949367062</v>
+        <v>3.0496929460580939</v>
       </c>
       <c r="B7" s="3">
-        <v>1.0253164556962053</v>
+        <v>0.50692780082987487</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="4"/>
@@ -499,35 +499,35 @@
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>2-1</v>
+        <v>3-1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>1.6317246835443016</v>
+        <v>0.88453552361396248</v>
       </c>
       <c r="B8" s="3">
-        <v>1.1424050632911422</v>
+        <v>1.0477145790554447</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" ref="C8:C11" si="6">ROUND(A8,0)</f>
-        <v>2</v>
+        <f t="shared" ref="C8" si="6">ROUND(A8,0)</f>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" ref="D8:D11" si="7">ROUND(B8,0)</f>
+        <f t="shared" ref="D8" si="7">ROUND(B8,0)</f>
         <v>1</v>
       </c>
       <c r="E8" s="2" t="str">
-        <f t="shared" ref="E8:E11" si="8">CONCATENATE(C8,"-",D8)</f>
-        <v>2-1</v>
+        <f t="shared" ref="E8" si="8">CONCATENATE(C8,"-",D8)</f>
+        <v>1-1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>1.6534810126582256</v>
+        <v>1.5139881249999998</v>
       </c>
       <c r="B9" s="3">
-        <v>1.334810126582282</v>
+        <v>0.57293000000000005</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ref="C9:C42" si="9">ROUND(A9,0)</f>
@@ -544,14 +544,14 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>0.94936708860759367</v>
+        <v>1.653125</v>
       </c>
       <c r="B10" s="3">
-        <v>0.61113924050633073</v>
+        <v>0.75066310975609607</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="10"/>
@@ -559,1522 +559,3168 @@
       </c>
       <c r="E10" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>1.5611814345991541</v>
+        <v>0.97602136752136692</v>
       </c>
       <c r="B11" s="3">
-        <v>1.920000000000005</v>
+        <v>1.1203316239316283</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>2-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>1.4351756249999963</v>
+        <v>0.4291367521367519</v>
       </c>
       <c r="B12" s="3">
-        <v>0.80696875000000234</v>
+        <v>1.789186324786332</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-1</v>
+        <v>0-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>1.5560697916666626</v>
+        <v>0.98367828418230596</v>
       </c>
       <c r="B13" s="3">
-        <v>1.6070206250000048</v>
+        <v>0.66480563002680992</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" ref="C13:C76" si="12">ROUND(A13,0)</f>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" ref="D13:D76" si="13">ROUND(B13,0)</f>
+        <v>1</v>
       </c>
       <c r="E13" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>2-2</v>
+        <f t="shared" ref="E13:E76" si="14">CONCATENATE(C13,"-",D13)</f>
+        <v>1-1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>1.3844658333333297</v>
+        <v>0.89855227882037558</v>
       </c>
       <c r="B14" s="3">
-        <v>0.65611500000000189</v>
+        <v>0.31755764075067039</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>1-1</v>
+        <f t="shared" si="14"/>
+        <v>1-0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>0.71347791666666482</v>
+        <v>1.1422800000000033</v>
       </c>
       <c r="B15" s="3">
-        <v>0.70936395833333543</v>
+        <v>1.9394550000000055</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
       <c r="E15" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>1-1</v>
+        <f t="shared" si="14"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>1.0238066666666641</v>
+        <v>1.2852123529411801</v>
       </c>
       <c r="B16" s="3">
-        <v>0.66698437500000207</v>
+        <v>0.58487647058823711</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>1.555437499999996</v>
+        <v>1.6407750000000048</v>
       </c>
       <c r="B17" s="3">
-        <v>0.73077333333333561</v>
+        <v>0.89604000000000261</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E17" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>0.93895312499999761</v>
+        <v>2.9533950000000084</v>
       </c>
       <c r="B18" s="3">
-        <v>1.0490593750000032</v>
+        <v>0.36248470588235404</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>1-1</v>
+        <f t="shared" si="14"/>
+        <v>3-0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>0.90339333333333272</v>
+        <v>0.93604377104376979</v>
       </c>
       <c r="B19" s="3">
-        <v>1.0023872222222214</v>
+        <v>0.55618181818181645</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E19" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>1.7322799999999989</v>
+        <v>1.7188888888888869</v>
       </c>
       <c r="B20" s="3">
-        <v>1.0310666666666659</v>
+        <v>1.5866666666666622</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
       <c r="E20" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>2-1</v>
+        <f t="shared" si="14"/>
+        <v>2-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>0.89407999999999932</v>
+        <v>1.4011746031746002</v>
       </c>
       <c r="B21" s="3">
-        <v>0.69596999999999942</v>
+        <v>0.82915555555555753</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E21" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>2.0973344444444426</v>
+        <v>3.7565587301587224</v>
       </c>
       <c r="B22" s="3">
-        <v>0.41381999999999963</v>
+        <v>0.61264761904762055</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>4</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E22" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>2-0</v>
+        <f t="shared" si="14"/>
+        <v>4-1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>1.5451666666666655</v>
+        <v>1.5396888888888856</v>
       </c>
       <c r="B23" s="3">
-        <v>0.96139999999999903</v>
+        <v>1.5190476190476225</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
       <c r="E23" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>2-1</v>
+        <f t="shared" si="14"/>
+        <v>2-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>1.2805833333333325</v>
+        <v>1.9040904761904727</v>
       </c>
       <c r="B24" s="3">
-        <v>0.75797333333333261</v>
+        <v>1.2476444444444472</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E24" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>1-1</v>
+        <f t="shared" si="14"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>1.1424355555555548</v>
+        <v>1.462095238095235</v>
       </c>
       <c r="B25" s="3">
-        <v>1.590722222222221</v>
+        <v>0.79283809523809712</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E25" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>1-2</v>
+        <f t="shared" si="14"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>1.0286999999999993</v>
+        <v>2.0584761904761866</v>
       </c>
       <c r="B26" s="3">
-        <v>0.89173333333333249</v>
+        <v>0.69813333333333505</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E26" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>1-1</v>
+        <f t="shared" si="14"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>0.91706422018348721</v>
+        <v>2.0271774193548397</v>
       </c>
       <c r="B27" s="3">
-        <v>1.6680550458715535</v>
+        <v>0.80183104838709507</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E27" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>1-2</v>
+        <f t="shared" si="14"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>1.9568440677966048</v>
+        <v>1.2052741935483853</v>
       </c>
       <c r="B28" s="3">
-        <v>0.98023728813559663</v>
+        <v>1.8318548387096789</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
       <c r="E28" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>2-1</v>
+        <f t="shared" si="14"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>1.3356237288135555</v>
+        <v>1.7027419354838684</v>
       </c>
       <c r="B29" s="3">
-        <v>1.867896610169498</v>
+        <v>0.41966129032258093</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="E29" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>1-2</v>
+        <f t="shared" si="14"/>
+        <v>2-0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>1.8885189873417796</v>
+        <v>1.5611551020408165</v>
       </c>
       <c r="B30" s="3">
-        <v>0.64215189873417566</v>
+        <v>0.88796571428571547</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E30" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>1.9103240506329184</v>
+        <v>0.73688000000000009</v>
       </c>
       <c r="B31" s="3">
-        <v>0.91241898734177007</v>
+        <v>0.84846857142857246</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E31" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>2-1</v>
+        <f t="shared" si="14"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>1.1007999999999973</v>
+        <v>1.4237142857142862</v>
       </c>
       <c r="B32" s="3">
-        <v>0.59460266666666817</v>
+        <v>0.76649142857142971</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E32" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>2.3907999999999938</v>
+        <v>1.575577142857143</v>
       </c>
       <c r="B33" s="3">
-        <v>0.41267200000000104</v>
+        <v>0.61508571428571523</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E33" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>2-0</v>
+        <f t="shared" si="14"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>1.6983999999999957</v>
+        <v>1.2580457142857144</v>
       </c>
       <c r="B34" s="3">
-        <v>0.3752320000000009</v>
+        <v>0.8103085714285726</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E34" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>2-0</v>
+        <f t="shared" si="14"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>1.3989333333333298</v>
+        <v>1.7084571428571431</v>
       </c>
       <c r="B35" s="3">
-        <v>1.609920000000004</v>
+        <v>1.1635200000000017</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E35" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>1-2</v>
+        <f t="shared" si="14"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>0.91306666666666436</v>
+        <v>1.7195510204081634</v>
       </c>
       <c r="B36" s="3">
-        <v>0.45995733333333449</v>
+        <v>0.38777142857142916</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E36" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>1-0</v>
+        <f t="shared" si="14"/>
+        <v>2-0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>0.80307692307692391</v>
+        <v>1.309817142857143</v>
       </c>
       <c r="B37" s="3">
-        <v>0.9403238866396777</v>
+        <v>0.52920000000000078</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E37" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>1.8305905362776005</v>
+        <v>0.67014107883817498</v>
       </c>
       <c r="B38" s="3">
-        <v>0.30668517350157631</v>
+        <v>1.1068929460580896</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E38" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>2-0</v>
+        <f t="shared" si="14"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>1.7123456790123488</v>
+        <v>0.68156016597510427</v>
       </c>
       <c r="B39" s="3">
-        <v>0.91699629629629498</v>
+        <v>1.5769829875518648</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
       <c r="E39" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>2-1</v>
+        <f t="shared" si="14"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>1.2406329113924099</v>
+        <v>1.7877510373444003</v>
       </c>
       <c r="B40" s="3">
-        <v>0.74805063291139062</v>
+        <v>1.4615663900414917</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E40" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>1-1</v>
+        <f t="shared" si="14"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>1.41983544303798</v>
+        <v>1.5893775933609973</v>
       </c>
       <c r="B41" s="3">
-        <v>1.102924050632909</v>
+        <v>1.376701244813276</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E41" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>1-1</v>
+        <f t="shared" si="14"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>2.0983999999999945</v>
+        <v>0.93609958506224156</v>
       </c>
       <c r="B42" s="3">
-        <v>0.7488000000000018</v>
+        <v>0.35706224066389991</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="E42" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>1-0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>1.125311203319503</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1.4313921161825705</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E43" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>1.4988215767634869</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1.9877302904564287</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E44" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>1.6312033195020763</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1.1798141078838158</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>2-1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="2"/>
-    </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="2"/>
+      <c r="A46" s="3">
+        <v>1.0655601659751048</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1.3861307053941889</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="2"/>
+      <c r="A47" s="3">
+        <v>1.6981244813278022</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1.5363734439834005</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E47" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="2"/>
+      <c r="A48" s="3">
+        <v>1.4183568464730305</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0.95048962655601521</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E48" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="2"/>
+      <c r="A49" s="3">
+        <v>2.2714841889117028</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1.3266665297741318</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="2"/>
+      <c r="A50" s="3">
+        <v>1.8369954825462</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0.38662915811088416</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="2"/>
+      <c r="A51" s="3">
+        <v>1.4753642710472272</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0.82523285420944825</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E51" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="2"/>
+      <c r="A52" s="3">
+        <v>0.66090349075975319</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1.3439913757700248</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="2"/>
+      <c r="A53" s="3">
+        <v>0.94069650924024595</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1.0000164271047258</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E53" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="2"/>
+      <c r="A54" s="3">
+        <v>1.2507203285420938</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0.6743531827515421</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E54" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="2"/>
+      <c r="A55" s="3">
+        <v>1.9603219712525655</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1.5427885010266991</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E55" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="2"/>
+      <c r="A56" s="3">
+        <v>0.91337494866529723</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1.1313782340862459</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E56" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="2"/>
+      <c r="A57" s="3">
+        <v>1.0014110882956873</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0.58904476386037152</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E57" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="2"/>
+      <c r="A58" s="3">
+        <v>1.0909650924024634</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0.67983572895277422</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E58" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="2"/>
+      <c r="A59" s="3">
+        <v>1.285757700205338</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1.0875178644763894</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="2"/>
+      <c r="A60" s="3">
+        <v>3.0357269021739093</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0.89303668478260634</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E60" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="2"/>
+      <c r="A61" s="3">
+        <v>0.69952173913043403</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0.94855135869564977</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="2"/>
+      <c r="A62" s="3">
+        <v>0.40969972826086903</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2.1229092391304292</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E62" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>0-2</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="2"/>
+      <c r="A63" s="3">
+        <v>1.4343016304347806</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0.80426005434782399</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E63" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="2"/>
+      <c r="A64" s="3">
+        <v>0.92122499999999896</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0.66406793478260695</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="2"/>
+      <c r="A65" s="3">
+        <v>1.4667391304347808</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0.72906929347825888</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="2"/>
+      <c r="A66" s="3">
+        <v>1.3539130434782591</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0.47433423913043354</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="2"/>
+      <c r="A67" s="3">
+        <v>1.3718241847826071</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1.4386967391304308</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E67" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="68" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="2"/>
+      <c r="A68" s="4">
+        <v>1.2038543478260855</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1.0343999999999973</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E68" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="69" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="2"/>
+      <c r="A69" s="6">
+        <v>1.2015978260869549</v>
+      </c>
+      <c r="B69" s="6">
+        <v>1.1936826086956491</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E69" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="2"/>
+      <c r="A70" s="3">
+        <v>0.76576500000000014</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1.4045000000000001</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E70" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="2"/>
+      <c r="A71" s="3">
+        <v>2.1851374999999997</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0.76585000000000003</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E71" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="2"/>
+      <c r="A72" s="3">
+        <v>1.8444339622641481</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0.26363773584905581</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="2"/>
+      <c r="A73" s="3">
+        <v>1.9169433962264122</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0.70138364779874007</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E73" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="2"/>
+      <c r="A74" s="3">
+        <v>1.2846981132075452</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0.66631446540880301</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E74" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="2"/>
+      <c r="A75" s="3">
+        <v>1.8946226415094307</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0.8679622641509408</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E75" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="2"/>
+      <c r="A76" s="3">
+        <v>1.1199999999999983</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1.1570767295597451</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E76" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="2"/>
+      <c r="A77" s="3">
+        <v>0.81305660377358369</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0.53717735849056447</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" ref="C77:C140" si="15">ROUND(A77,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" ref="D77:D140" si="16">ROUND(B77,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E77" s="2" t="str">
+        <f t="shared" ref="E77:E140" si="17">CONCATENATE(C77,"-",D77)</f>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="2"/>
+      <c r="A78" s="3">
+        <v>0.90339622641509298</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0.9004528301886765</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E78" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="2"/>
+      <c r="A79" s="3">
+        <v>1.5433018867924504</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0.69705157232704196</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E79" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="2"/>
+      <c r="A80" s="3">
+        <v>2.4724528301886757</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0.47023647798741997</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="2"/>
+      <c r="A81" s="3">
+        <v>1.1919811320754699</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0.76038238993710461</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E81" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="2"/>
+      <c r="A82" s="3">
+        <v>1.1265103448275844</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0.83785024630541594</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E82" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="2"/>
+      <c r="A83" s="3">
+        <v>0.69316256157635348</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0.91495566502462755</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E83" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="2"/>
+      <c r="A84" s="3">
+        <v>0.76781083743842227</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0.82217142857142589</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E84" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="2"/>
+      <c r="A85" s="3">
+        <v>1.566120401337789</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1.7350073578595375</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E85" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="2"/>
+      <c r="A86" s="3">
+        <v>1.1181150501672215</v>
+      </c>
+      <c r="B86" s="3">
+        <v>1.2834301003344526</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E86" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="2"/>
+      <c r="A87" s="3">
+        <v>2.0071652173912997</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1.1306408026755892</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E87" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="2"/>
+      <c r="A88" s="3">
+        <v>1.4351357859531739</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1.4964862876254232</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E88" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="2"/>
+      <c r="A89" s="3">
+        <v>1.9112499999999999</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0.60053048780487694</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="2"/>
+      <c r="A90" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0.68608993902438886</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E90" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="2"/>
+      <c r="A91" s="3">
+        <v>1.0125</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0.655417682926828</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E91" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="2"/>
+      <c r="A92" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="B92" s="3">
+        <v>0.46815548780487715</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="2"/>
+      <c r="A93" s="3">
+        <v>0.984375</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0.58761585365853553</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="2"/>
+      <c r="A94" s="3">
+        <v>0.890625</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1.63854420731707</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E94" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="2"/>
+      <c r="A95" s="3">
+        <v>1.16875</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0.64573170731707197</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E95" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="2"/>
+      <c r="A96" s="3">
+        <v>1.2706250000000001</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0.85075152439024226</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E96" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="2"/>
+      <c r="A97" s="3">
+        <v>1.2107606837606832</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1.5594393162393225</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E97" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="2"/>
+      <c r="A98" s="3">
+        <v>2.2609102564102552</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0.95311794871795241</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E98" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="2"/>
+      <c r="A99" s="3">
+        <v>0.8459188034188031</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0.98323931623932015</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E99" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="2"/>
+      <c r="A100" s="3">
+        <v>2.0473504273504259</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0.52569230769230979</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E100" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="2"/>
+      <c r="A101" s="3">
+        <v>0.8277649572649568</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1.4193692307692367</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E101" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="2"/>
+      <c r="A102" s="3">
+        <v>1.0721333333333312</v>
+      </c>
+      <c r="B102" s="3">
+        <v>2.1559999999999944</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E102" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="2"/>
+      <c r="A103" s="3">
+        <v>1.0172799999999977</v>
+      </c>
+      <c r="B103" s="3">
+        <v>0.87471999999999772</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E103" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="2"/>
+      <c r="A104" s="3">
+        <v>1.8151466666666627</v>
+      </c>
+      <c r="B104" s="3">
+        <v>0.79643666666666468</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E104" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="2"/>
+      <c r="A105" s="3">
+        <v>1.3274361445783105</v>
+      </c>
+      <c r="B105" s="3">
+        <v>1.2152337349397537</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E105" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="2"/>
+      <c r="A106" s="3">
+        <v>1.4004530120481897</v>
+      </c>
+      <c r="B106" s="3">
+        <v>0.56661204819276867</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E106" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="2"/>
+      <c r="A107" s="3">
+        <v>0.99136172839506242</v>
+      </c>
+      <c r="B107" s="3">
+        <v>0.79408395061728276</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E107" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="2"/>
+      <c r="A108" s="3">
+        <v>0.63300740740740802</v>
+      </c>
+      <c r="B108" s="3">
+        <v>2.2423580246913546</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E108" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="2"/>
+      <c r="A109" s="3">
+        <v>0.33238271604938302</v>
+      </c>
+      <c r="B109" s="3">
+        <v>1.7462518518518491</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E109" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>0-2</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="2"/>
+      <c r="A110" s="3">
+        <v>3.123724691358027</v>
+      </c>
+      <c r="B110" s="3">
+        <v>0.89432592592592475</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="D110" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E110" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="2"/>
+      <c r="A111" s="3">
+        <v>0.57637399463806993</v>
+      </c>
+      <c r="B111" s="3">
+        <v>0.21342627345844514</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D111" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E111" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="2"/>
+      <c r="A112" s="3">
+        <v>0.6857372654155498</v>
+      </c>
+      <c r="B112" s="3">
+        <v>0.84423860589812383</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D112" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E112" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="2"/>
+      <c r="A113" s="3">
+        <v>1.5612345844504023</v>
+      </c>
+      <c r="B113" s="3">
+        <v>0.84682037533512111</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D113" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E113" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="2"/>
+      <c r="A114" s="3">
+        <v>0.94584450402144804</v>
+      </c>
+      <c r="B114" s="3">
+        <v>0.34681769436997334</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D114" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E114" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="2"/>
+      <c r="A115" s="3">
+        <v>0.99684264705882641</v>
+      </c>
+      <c r="B115" s="3">
+        <v>0.76242000000000232</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D115" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E115" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="2"/>
+      <c r="A116" s="3">
+        <v>1.2852123529411801</v>
+      </c>
+      <c r="B116" s="3">
+        <v>1.3967682352941218</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D116" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E116" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="2"/>
+      <c r="A117" s="3">
+        <v>1.1147250000000031</v>
+      </c>
+      <c r="B117" s="3">
+        <v>0.76195764705882585</v>
+      </c>
+      <c r="C117" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D117" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E117" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="2"/>
+      <c r="A118" s="3">
+        <v>1.4428800000000042</v>
+      </c>
+      <c r="B118" s="3">
+        <v>1.3232541176470629</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E118" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="2"/>
+      <c r="A119" s="3">
+        <v>2.1306868686868659</v>
+      </c>
+      <c r="B119" s="3">
+        <v>0.42721212121211993</v>
+      </c>
+      <c r="C119" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D119" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E119" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="2"/>
+      <c r="A120" s="3">
+        <v>1.3536632996632978</v>
+      </c>
+      <c r="B120" s="3">
+        <v>1.6661414141414093</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D120" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E120" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="2"/>
+      <c r="A121" s="3">
+        <v>1.9667643097643075</v>
+      </c>
+      <c r="B121" s="3">
+        <v>0.70933333333333115</v>
+      </c>
+      <c r="C121" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D121" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E121" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="2"/>
+      <c r="A122" s="3">
+        <v>1.6992794612794588</v>
+      </c>
+      <c r="B122" s="3">
+        <v>1.1310303030302997</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D122" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E122" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="2"/>
+      <c r="A123" s="3">
+        <v>1.1808552188552173</v>
+      </c>
+      <c r="B123" s="3">
+        <v>1.2116363636363601</v>
+      </c>
+      <c r="C123" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D123" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E123" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="2"/>
+      <c r="A124" s="3">
+        <v>1.886488215488213</v>
+      </c>
+      <c r="B124" s="3">
+        <v>1.3191111111111073</v>
+      </c>
+      <c r="C124" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D124" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E124" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="2"/>
+      <c r="A125" s="3">
+        <v>1.0276565656565644</v>
+      </c>
+      <c r="B125" s="3">
+        <v>1.5111515151515107</v>
+      </c>
+      <c r="C125" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D125" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E125" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="2"/>
+      <c r="A126" s="3">
+        <v>1.9119460317460282</v>
+      </c>
+      <c r="B126" s="3">
+        <v>0.98336507936508177</v>
+      </c>
+      <c r="C126" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D126" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E126" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="2"/>
+      <c r="A127" s="3">
+        <v>1.9068951612903238</v>
+      </c>
+      <c r="B127" s="3">
+        <v>0.62377419354838581</v>
+      </c>
+      <c r="C127" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D127" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E127" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="2"/>
+      <c r="A128" s="3">
+        <v>0.84090322580645216</v>
+      </c>
+      <c r="B128" s="3">
+        <v>1.4642076612903192</v>
+      </c>
+      <c r="C128" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D128" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E128" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="2"/>
+      <c r="A129" s="3">
+        <v>1.5955403225806459</v>
+      </c>
+      <c r="B129" s="3">
+        <v>0.91073588709677211</v>
+      </c>
+      <c r="C129" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D129" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E129" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="2"/>
+      <c r="A130" s="3">
+        <v>1.0817419354838693</v>
+      </c>
+      <c r="B130" s="3">
+        <v>0.89927419354838778</v>
+      </c>
+      <c r="C130" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D130" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E130" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="2"/>
+      <c r="A131" s="3">
+        <v>2.483999999999996</v>
+      </c>
+      <c r="B131" s="3">
+        <v>0.79935483870967794</v>
+      </c>
+      <c r="C131" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D131" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E131" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="2"/>
+      <c r="A132" s="3">
+        <v>0.87284163265306125</v>
+      </c>
+      <c r="B132" s="3">
+        <v>0.88529142857142973</v>
+      </c>
+      <c r="C132" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D132" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E132" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="2"/>
+      <c r="A133" s="3">
+        <v>1.0641493877551023</v>
+      </c>
+      <c r="B133" s="3">
+        <v>1.097485714285716</v>
+      </c>
+      <c r="C133" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D133" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E133" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="2"/>
+      <c r="A134" s="3">
+        <v>2.0732562500000005</v>
+      </c>
+      <c r="B134" s="3">
+        <v>0.55809000000000009</v>
+      </c>
+      <c r="C134" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D134" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E134" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="2"/>
+      <c r="A135" s="3">
+        <v>1.8785000000000003</v>
+      </c>
+      <c r="B135" s="3">
+        <v>1.8416174999999997</v>
+      </c>
+      <c r="C135" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D135" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E135" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="2"/>
+      <c r="A136" s="3">
+        <v>0.24461937500000003</v>
+      </c>
+      <c r="B136" s="3">
+        <v>1.3779999999999999</v>
+      </c>
+      <c r="C136" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D136" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E136" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="2"/>
+      <c r="A137" s="3">
+        <v>1.2975462500000001</v>
+      </c>
+      <c r="B137" s="3">
+        <v>2.1086049999999998</v>
+      </c>
+      <c r="C137" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D137" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E137" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="2"/>
+      <c r="A138" s="3">
+        <v>0.80775500000000011</v>
+      </c>
+      <c r="B138" s="3">
+        <v>0.85462499999999997</v>
+      </c>
+      <c r="C138" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D138" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E138" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="2"/>
+      <c r="A139" s="3">
+        <v>0.94864250000000017</v>
+      </c>
+      <c r="B139" s="3">
+        <v>1.5204375000000001</v>
+      </c>
+      <c r="C139" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D139" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E139" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="2"/>
+      <c r="A140" s="3">
+        <v>0.67626000000000008</v>
+      </c>
+      <c r="B140" s="3">
+        <v>2.0481849999999997</v>
+      </c>
+      <c r="C140" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D140" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E140" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="2"/>
+      <c r="A141" s="3">
+        <v>0.75787389162561436</v>
+      </c>
+      <c r="B141" s="3">
+        <v>0.53501280788177163</v>
+      </c>
+      <c r="C141" s="1">
+        <f t="shared" ref="C141:C168" si="18">ROUND(A141,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D141" s="1">
+        <f t="shared" ref="D141:D168" si="19">ROUND(B141,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E141" s="2" t="str">
+        <f t="shared" ref="E141:E168" si="20">CONCATENATE(C141,"-",D141)</f>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="2"/>
+      <c r="A142" s="3">
+        <v>1.5753694581280762</v>
+      </c>
+      <c r="B142" s="3">
+        <v>1.1854689655172375</v>
+      </c>
+      <c r="C142" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D142" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E142" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="2"/>
+      <c r="A143" s="3">
+        <v>1.5359852216748739</v>
+      </c>
+      <c r="B143" s="3">
+        <v>1.7182266009852161</v>
+      </c>
+      <c r="C143" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D143" s="1">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="E143" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="2"/>
+      <c r="A144" s="3">
+        <v>1.6183244147157156</v>
+      </c>
+      <c r="B144" s="3">
+        <v>0.64426153846154066</v>
+      </c>
+      <c r="C144" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D144" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E144" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="2"/>
+      <c r="A145" s="3">
+        <v>1.8609939799331063</v>
+      </c>
+      <c r="B145" s="3">
+        <v>1.7949913043478323</v>
+      </c>
+      <c r="C145" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D145" s="1">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="E145" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="2"/>
+      <c r="A146" s="3">
+        <v>2.1527036789297607</v>
+      </c>
+      <c r="B146" s="3">
+        <v>1.3190809364548541</v>
+      </c>
+      <c r="C146" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D146" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E146" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="2"/>
+      <c r="A147" s="3">
+        <v>1.7768347826086917</v>
+      </c>
+      <c r="B147" s="3">
+        <v>0.82732575250836404</v>
+      </c>
+      <c r="C147" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D147" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E147" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="2"/>
+      <c r="A148" s="3">
+        <v>1.5376454849498293</v>
+      </c>
+      <c r="B148" s="3">
+        <v>1.6042876254180656</v>
+      </c>
+      <c r="C148" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D148" s="1">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="E148" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="2"/>
+      <c r="A149" s="3">
+        <v>1.3473381270902978</v>
+      </c>
+      <c r="B149" s="3">
+        <v>1.2656046822742517</v>
+      </c>
+      <c r="C149" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D149" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E149" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="2"/>
+      <c r="A150" s="3">
+        <v>1.2748034188034181</v>
+      </c>
+      <c r="B150" s="3">
+        <v>1.1788564102564147</v>
+      </c>
+      <c r="C150" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D150" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E150" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="2"/>
+      <c r="A151" s="3">
+        <v>0.90189316239316197</v>
+      </c>
+      <c r="B151" s="3">
+        <v>3.1531230769230896</v>
+      </c>
+      <c r="C151" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D151" s="1">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="E151" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-3</v>
+      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="2"/>
+      <c r="A152" s="3">
+        <v>1.0947300000000029</v>
+      </c>
+      <c r="B152" s="3">
+        <v>0.77189399999999997</v>
+      </c>
+      <c r="C152" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D152" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E152" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="2"/>
+      <c r="A153" s="3">
+        <v>1.2531250000000029</v>
+      </c>
+      <c r="B153" s="3">
+        <v>1.1850299999999998</v>
+      </c>
+      <c r="C153" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D153" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E153" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="2"/>
+      <c r="A154" s="3">
+        <v>1.0426000000000026</v>
+      </c>
+      <c r="B154" s="3">
+        <v>1.0670399999999998</v>
+      </c>
+      <c r="C154" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D154" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E154" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="2"/>
+      <c r="A155" s="3">
+        <v>1.8045000000000047</v>
+      </c>
+      <c r="B155" s="3">
+        <v>0.42293999999999998</v>
+      </c>
+      <c r="C155" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D155" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E155" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="2"/>
+      <c r="A156" s="3">
+        <v>1.7644000000000044</v>
+      </c>
+      <c r="B156" s="3">
+        <v>0.77805000000000002</v>
+      </c>
+      <c r="C156" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D156" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E156" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="2"/>
+      <c r="A157" s="3">
+        <v>1.0292333333333359</v>
+      </c>
+      <c r="B157" s="3">
+        <v>1.3851000000000002</v>
+      </c>
+      <c r="C157" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D157" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E157" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="2"/>
+      <c r="A158" s="3">
+        <v>0.57075666666666802</v>
+      </c>
+      <c r="B158" s="3">
+        <v>0.88919999999999999</v>
+      </c>
+      <c r="C158" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D158" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E158" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="2"/>
+      <c r="A159" s="3">
+        <v>1.1228000000000029</v>
+      </c>
+      <c r="B159" s="3">
+        <v>1.3919400000000002</v>
+      </c>
+      <c r="C159" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D159" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E159" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="2"/>
+      <c r="A160" s="3">
+        <v>0.65322386058981252</v>
+      </c>
+      <c r="B160" s="3">
+        <v>0.89501340482573777</v>
+      </c>
+      <c r="C160" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D160" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E160" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="2"/>
+      <c r="A161" s="3">
+        <v>0.69342225201072394</v>
+      </c>
+      <c r="B161" s="3">
+        <v>0.95826675603217193</v>
+      </c>
+      <c r="C161" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D161" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E161" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="2"/>
+      <c r="A162" s="3">
+        <v>1.3660359249329765</v>
+      </c>
+      <c r="B162" s="3">
+        <v>0.56592386058981259</v>
+      </c>
+      <c r="C162" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D162" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E162" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="2"/>
+      <c r="A163" s="3">
+        <v>1.9211876470588289</v>
+      </c>
+      <c r="B163" s="3">
+        <v>0.51783529411764861</v>
+      </c>
+      <c r="C163" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D163" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E163" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="2"/>
+      <c r="A164" s="3">
+        <v>0.79423235294117878</v>
+      </c>
+      <c r="B164" s="3">
+        <v>2.1222000000000065</v>
+      </c>
+      <c r="C164" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D164" s="1">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="E164" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="2"/>
+      <c r="A165">
+        <v>1.2620322580645142</v>
+      </c>
+      <c r="B165">
+        <v>1.7385967741935495</v>
+      </c>
+      <c r="C165" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D165" s="1">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="E165" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="2"/>
+      <c r="A166">
+        <v>0.9437674876847274</v>
+      </c>
+      <c r="B166">
+        <v>1.0418896551724104</v>
+      </c>
+      <c r="C166" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D166" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E166" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="2"/>
+      <c r="A167">
+        <v>1.4017415549597858</v>
+      </c>
+      <c r="B167">
+        <v>0.48408176943699754</v>
+      </c>
+      <c r="C167" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D167" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E167" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="2"/>
+      <c r="A168">
+        <v>1.0682131367292227</v>
+      </c>
+      <c r="B168">
+        <v>0.94974691689008073</v>
+      </c>
+      <c r="C168" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D168" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E168" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C169" s="1"/>

--- a/CS generator.xlsx
+++ b/CS generator.xlsx
@@ -37,18 +37,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -63,15 +57,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -356,42 +348,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E168"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
-        <v>2.2244047619047578</v>
+        <v>0.60358846153846257</v>
       </c>
       <c r="B1" s="3">
-        <v>0.62577777777777932</v>
+        <v>2.2058480769230719</v>
       </c>
       <c r="C1" s="1">
         <f>ROUND(A1,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>ROUND(B1,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="str">
         <f>CONCATENATE(C1,"-",D1)</f>
-        <v>2-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>0.80443548387096819</v>
+        <v>1.9314830769230809</v>
       </c>
       <c r="B2" s="3">
-        <v>0.75875483870967586</v>
+        <v>1.0738834615384591</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C5" si="0">ROUND(A2,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D5" si="1">ROUND(B2,0)</f>
@@ -399,15 +391,15 @@
       </c>
       <c r="E2" s="2" t="str">
         <f t="shared" ref="E2:E5" si="2">CONCATENATE(C2,"-",D2)</f>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>0.95459677419354882</v>
+        <v>1.4788730769230798</v>
       </c>
       <c r="B3" s="3">
-        <v>1.7749443548387058</v>
+        <v>0.58767692307692176</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
@@ -415,43 +407,43 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1.1218064516129014</v>
+        <v>1.9471015384615422</v>
       </c>
       <c r="B4" s="3">
-        <v>1.8691580645161303</v>
+        <v>0.68406692307692152</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-2</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>1.2574293877551022</v>
+        <v>1.7540787401574784</v>
       </c>
       <c r="B5" s="3">
-        <v>0.656640000000001</v>
+        <v>1.1363779527559095</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
@@ -459,19 +451,19 @@
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>1.3620816326530614</v>
+        <v>2.2248425196850365</v>
       </c>
       <c r="B6" s="3">
-        <v>1.0235314285714301</v>
+        <v>0.66516850393701021</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ref="C6:C7" si="3">ROUND(A6,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ref="D6:D7" si="4">ROUND(B6,0)</f>
@@ -479,39 +471,39 @@
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" ref="E6:E7" si="5">CONCATENATE(C6,"-",D6)</f>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>3.0496929460580939</v>
+        <v>1.756535433070864</v>
       </c>
       <c r="B7" s="3">
-        <v>0.50692780082987487</v>
+        <v>2.250028346456701</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>3-1</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>0.88453552361396248</v>
+        <v>1.6940822784810132</v>
       </c>
       <c r="B8" s="3">
-        <v>1.0477145790554447</v>
+        <v>0.89316455696202335</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ref="C8" si="6">ROUND(A8,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ref="D8" si="7">ROUND(B8,0)</f>
@@ -519,55 +511,55 @@
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" ref="E8" si="8">CONCATENATE(C8,"-",D8)</f>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>1.5139881249999998</v>
+        <v>1.506627490039846</v>
       </c>
       <c r="B9" s="3">
-        <v>0.57293000000000005</v>
+        <v>0.88116573705179346</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" ref="C9:C42" si="9">ROUND(A9,0)</f>
+        <f t="shared" ref="C9:C12" si="9">ROUND(A9,0)</f>
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" ref="D9:D42" si="10">ROUND(B9,0)</f>
+        <f t="shared" ref="D9:D12" si="10">ROUND(B9,0)</f>
         <v>1</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f t="shared" ref="E9:E42" si="11">CONCATENATE(C9,"-",D9)</f>
+        <f t="shared" ref="E9:E12" si="11">CONCATENATE(C9,"-",D9)</f>
         <v>2-1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>1.653125</v>
+        <v>1.0330039840637488</v>
       </c>
       <c r="B10" s="3">
-        <v>0.75066310975609607</v>
+        <v>0.43254980079681299</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>2-1</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>0.97602136752136692</v>
+        <v>0.7975398406374532</v>
       </c>
       <c r="B11" s="3">
-        <v>1.1203316239316283</v>
+        <v>0.66303705179282912</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="9"/>
@@ -584,30 +576,30 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>0.4291367521367519</v>
+        <v>0.93426095617530225</v>
       </c>
       <c r="B12" s="3">
-        <v>1.789186324786332</v>
+        <v>0.85428585657370582</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>0-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>0.98367828418230596</v>
+        <v>1.2952978087649449</v>
       </c>
       <c r="B13" s="3">
-        <v>0.66480563002680992</v>
+        <v>0.57570318725099634</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ref="C13:C76" si="12">ROUND(A13,0)</f>
@@ -624,10 +616,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>0.89855227882037558</v>
+        <v>0.75151821862348323</v>
       </c>
       <c r="B14" s="3">
-        <v>0.31755764075067039</v>
+        <v>1.8213149797570904</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="12"/>
@@ -635,1283 +627,1283 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>1-0</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>1.1422800000000033</v>
+        <v>1.3814574898785452</v>
       </c>
       <c r="B15" s="3">
-        <v>1.9394550000000055</v>
+        <v>0.99507692307692586</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="C15:C78" si="15">ROUND(A15,0)</f>
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" ref="D15:D78" si="16">ROUND(B15,0)</f>
+        <v>1</v>
       </c>
       <c r="E15" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-2</v>
+        <f t="shared" ref="E15:E78" si="17">CONCATENATE(C15,"-",D15)</f>
+        <v>1-1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>1.2852123529411801</v>
+        <v>1.4255465587044562</v>
       </c>
       <c r="B16" s="3">
-        <v>0.58487647058823711</v>
+        <v>1.9312971659919083</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <f t="shared" si="17"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>1.6407750000000048</v>
+        <v>1.2927449392712571</v>
       </c>
       <c r="B17" s="3">
-        <v>0.89604000000000261</v>
+        <v>1.2318753036437284</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E17" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>2.9533950000000084</v>
+        <v>0.71277327935222812</v>
       </c>
       <c r="B18" s="3">
-        <v>0.36248470588235404</v>
+        <v>2.0849230769230829</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="E18" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>3-0</v>
+        <f t="shared" si="17"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>0.93604377104376979</v>
+        <v>0.73348178137651954</v>
       </c>
       <c r="B19" s="3">
-        <v>0.55618181818181645</v>
+        <v>0.77910283400809932</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E19" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>1.7188888888888869</v>
+        <v>0.79667611336032529</v>
       </c>
       <c r="B20" s="3">
-        <v>1.5866666666666622</v>
+        <v>1.8506186234817867</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E20" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-2</v>
+        <f t="shared" si="17"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>1.4011746031746002</v>
+        <v>1.44024291497976</v>
       </c>
       <c r="B21" s="3">
-        <v>0.82915555555555753</v>
+        <v>1.176385425101218</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E21" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>3.7565587301587224</v>
+        <v>1.2960850202429173</v>
       </c>
       <c r="B22" s="3">
-        <v>0.61264761904762055</v>
+        <v>0.46923238866396894</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="12"/>
-        <v>4</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>4-1</v>
+        <f t="shared" si="17"/>
+        <v>1-0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>1.5396888888888856</v>
+        <v>0.64129554655870558</v>
       </c>
       <c r="B23" s="3">
-        <v>1.5190476190476225</v>
+        <v>0.61799514170040659</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="E23" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-2</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>1.9040904761904727</v>
+        <v>2.421959514170045</v>
       </c>
       <c r="B24" s="3">
-        <v>1.2476444444444472</v>
+        <v>0.85392064777328192</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E24" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>1.462095238095235</v>
+        <v>0.91491497975708669</v>
       </c>
       <c r="B25" s="3">
-        <v>0.79283809523809712</v>
+        <v>1.3766477732793561</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E25" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>2.0584761904761866</v>
+        <v>1.7337571142284505</v>
       </c>
       <c r="B26" s="3">
-        <v>0.69813333333333505</v>
+        <v>1.3965210420841647</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E26" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>2.0271774193548397</v>
+        <v>1.0357707414829622</v>
       </c>
       <c r="B27" s="3">
-        <v>0.80183104838709507</v>
+        <v>0.7121058116232446</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E27" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>1.2052741935483853</v>
+        <v>1.0798460921843647</v>
       </c>
       <c r="B28" s="3">
-        <v>1.8318548387096789</v>
+        <v>0.73129298597194192</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="E28" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-2</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>1.7027419354838684</v>
+        <v>1.3529106212424804</v>
       </c>
       <c r="B29" s="3">
-        <v>0.41966129032258093</v>
+        <v>0.50955030060120099</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="E29" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-0</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>1.5611551020408165</v>
+        <v>1.5737939879759464</v>
       </c>
       <c r="B30" s="3">
-        <v>0.88796571428571547</v>
+        <v>1.4030621242484933</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E30" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>0.73688000000000009</v>
+        <v>0.88910621242484644</v>
       </c>
       <c r="B31" s="3">
-        <v>0.84846857142857246</v>
+        <v>1.2606845691382731</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E31" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>1.4237142857142862</v>
+        <v>1.1869947895791542</v>
       </c>
       <c r="B32" s="3">
-        <v>0.76649142857142971</v>
+        <v>1.4547366733466893</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E32" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>1.575577142857143</v>
+        <v>1.1037835671342646</v>
       </c>
       <c r="B33" s="3">
-        <v>0.61508571428571523</v>
+        <v>1.1368400801603178</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E33" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>1.2580457142857144</v>
+        <v>1.4149707414829609</v>
       </c>
       <c r="B34" s="3">
-        <v>0.8103085714285726</v>
+        <v>1.0711022044088148</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E34" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>1.7084571428571431</v>
+        <v>1.1306340681362685</v>
       </c>
       <c r="B35" s="3">
-        <v>1.1635200000000017</v>
+        <v>0.73129298597194192</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E35" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>1.7195510204081634</v>
+        <v>0.69709979959919599</v>
       </c>
       <c r="B36" s="3">
-        <v>0.38777142857142916</v>
+        <v>0.65628857715430677</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="E36" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-0</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>1.309817142857143</v>
+        <v>0.67442885771542838</v>
       </c>
       <c r="B37" s="3">
-        <v>0.52920000000000078</v>
+        <v>0.6432064128256495</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E37" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>0.67014107883817498</v>
+        <v>2.5361547619047702</v>
       </c>
       <c r="B38" s="3">
-        <v>1.1068929460580896</v>
+        <v>1.0111619047619078</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E38" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <f t="shared" si="17"/>
+        <v>3-1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>0.68156016597510427</v>
+        <v>2.2697870370370445</v>
       </c>
       <c r="B39" s="3">
-        <v>1.5769829875518648</v>
+        <v>0.75372698412698647</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="E39" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-2</v>
+        <f t="shared" si="17"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>1.7877510373444003</v>
+        <v>1.2299338624338665</v>
       </c>
       <c r="B40" s="3">
-        <v>1.4615663900414917</v>
+        <v>0.7759238095238119</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E40" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>1.5893775933609973</v>
+        <v>1.9196309523809587</v>
       </c>
       <c r="B41" s="3">
-        <v>1.376701244813276</v>
+        <v>1.7534285714285764</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="E41" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <f t="shared" si="17"/>
+        <v>2-2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>0.93609958506224156</v>
+        <v>0.91445370370370671</v>
       </c>
       <c r="B42" s="3">
-        <v>0.35706224066389991</v>
+        <v>1.4973206349206396</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="E42" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-0</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>1.125311203319503</v>
+        <v>1.0658826219512179</v>
       </c>
       <c r="B43" s="3">
-        <v>1.4313921161825705</v>
+        <v>0.40156097560975645</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="E43" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <f t="shared" si="17"/>
+        <v>1-0</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>1.4988215767634869</v>
+        <v>0.98909451219512046</v>
       </c>
       <c r="B44" s="3">
-        <v>1.9877302904564287</v>
+        <v>0.50072195121951268</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="E44" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-2</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>1.6312033195020763</v>
+        <v>1.1816615853658519</v>
       </c>
       <c r="B45" s="3">
-        <v>1.1798141078838158</v>
+        <v>1.0685414634146351</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E45" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>1.0655601659751048</v>
+        <v>0.81323780487804742</v>
       </c>
       <c r="B46" s="3">
-        <v>1.3861307053941889</v>
+        <v>0.70293658536585424</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E46" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>1.6981244813278022</v>
+        <v>1.4522103658536563</v>
       </c>
       <c r="B47" s="3">
-        <v>1.5363734439834005</v>
+        <v>1.0756097560975619</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="E47" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-2</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>1.4183568464730305</v>
+        <v>1.6185182926829242</v>
       </c>
       <c r="B48" s="3">
-        <v>0.95048962655601521</v>
+        <v>0.8748292682926837</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E48" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <f t="shared" si="17"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>2.2714841889117028</v>
+        <v>0.84878048780487692</v>
       </c>
       <c r="B49" s="3">
-        <v>1.3266665297741318</v>
+        <v>1.0547121951219522</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E49" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>1.8369954825462</v>
+        <v>0.95461280487804723</v>
       </c>
       <c r="B50" s="3">
-        <v>0.38662915811088416</v>
+        <v>0.94366829268292762</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="E50" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-0</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>1.4753642710472272</v>
+        <v>1.1219817073170715</v>
       </c>
       <c r="B51" s="3">
-        <v>0.82523285420944825</v>
+        <v>1.0842146341463423</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E51" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>0.66090349075975319</v>
+        <v>1.24401294498382</v>
       </c>
       <c r="B52" s="3">
-        <v>1.3439913757700248</v>
+        <v>0.79197411003236406</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E52" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>0.94069650924024595</v>
+        <v>1.8965555555555502</v>
       </c>
       <c r="B53" s="3">
-        <v>1.0000164271047258</v>
+        <v>0.60424691358024563</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E53" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <f t="shared" si="17"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>1.2507203285420938</v>
+        <v>1.3792682926829298</v>
       </c>
       <c r="B54" s="3">
-        <v>0.6743531827515421</v>
+        <v>0.99688617886178688</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E54" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>1.9603219712525655</v>
+        <v>0.49590243902439129</v>
       </c>
       <c r="B55" s="3">
-        <v>1.5427885010266991</v>
+        <v>1.2184731707317051</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="E55" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-2</v>
+        <f t="shared" si="17"/>
+        <v>0-1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>0.91337494866529723</v>
+        <v>2.8117058823529364</v>
       </c>
       <c r="B56" s="3">
-        <v>1.1313782340862459</v>
+        <v>0.93352941176470527</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E56" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <f t="shared" si="17"/>
+        <v>3-1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>1.0014110882956873</v>
+        <v>0.28289882352941131</v>
       </c>
       <c r="B57" s="3">
-        <v>0.58904476386037152</v>
+        <v>0.990677647058823</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E57" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <f t="shared" si="17"/>
+        <v>0-1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>1.0909650924024634</v>
+        <v>0.88100117647058651</v>
       </c>
       <c r="B58" s="3">
-        <v>0.67983572895277422</v>
+        <v>1.3150588235294112</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E58" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>1.285757700205338</v>
+        <v>0.88100117647058662</v>
       </c>
       <c r="B59" s="3">
-        <v>1.0875178644763894</v>
+        <v>0.69703529411764675</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E59" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>3.0357269021739093</v>
+        <v>0.53109999999999902</v>
       </c>
       <c r="B60" s="3">
-        <v>0.89303668478260634</v>
+        <v>1.7550352941176459</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="E60" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>3-1</v>
+        <f t="shared" si="17"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>0.69952173913043403</v>
+        <v>0.67639764705882144</v>
       </c>
       <c r="B61" s="3">
-        <v>0.94855135869564977</v>
+        <v>1.6239999999999999</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="E61" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <f t="shared" si="17"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>0.40969972826086903</v>
+        <v>1.4569941176470542</v>
       </c>
       <c r="B62" s="3">
-        <v>2.1229092391304292</v>
+        <v>1.2006399999999999</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="E62" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>0-2</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>1.4343016304347806</v>
+        <v>0.81019058823529166</v>
       </c>
       <c r="B63" s="3">
-        <v>0.80426005434782399</v>
+        <v>0.77489999999999992</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E63" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>0.92122499999999896</v>
+        <v>2.1669776470588169</v>
       </c>
       <c r="B64" s="3">
-        <v>0.66406793478260695</v>
+        <v>0.54935999999999996</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E64" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <f t="shared" si="17"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>1.4667391304347808</v>
+        <v>0.60950117647058633</v>
       </c>
       <c r="B65" s="3">
-        <v>0.72906929347825888</v>
+        <v>0.91727999999999998</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E65" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>1.3539130434782591</v>
+        <v>1.7374628571428554</v>
       </c>
       <c r="B66" s="3">
-        <v>0.47433423913043354</v>
+        <v>0.64036571428571598</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="E66" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-0</v>
+        <f t="shared" si="17"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>1.3718241847826071</v>
+        <v>0.85063285714285619</v>
       </c>
       <c r="B67" s="3">
-        <v>1.4386967391304308</v>
+        <v>0.57632914285714421</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E67" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>1.2038543478260855</v>
+        <v>1.2256999999999989</v>
       </c>
       <c r="B68" s="4">
-        <v>1.0343999999999973</v>
+        <v>0.85884342857143059</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E68" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
-        <v>1.2015978260869549</v>
-      </c>
-      <c r="B69" s="6">
-        <v>1.1936826086956491</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>1.4007999999999985</v>
+      </c>
+      <c r="B69" s="4">
+        <v>0.57067885714285849</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E69" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>0.76576500000000014</v>
+        <v>1.0205828571428561</v>
       </c>
       <c r="B70" s="3">
-        <v>1.4045000000000001</v>
+        <v>1.2543634285714316</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E70" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>2.1851374999999997</v>
+        <v>1.8904846153846186</v>
       </c>
       <c r="B71" s="3">
-        <v>0.76585000000000003</v>
+        <v>0.90623076923076717</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E71" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>1.8444339622641481</v>
+        <v>1.8732392307692343</v>
       </c>
       <c r="B72" s="3">
-        <v>0.26363773584905581</v>
+        <v>1.5496546153846118</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="E72" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-0</v>
+        <f t="shared" si="17"/>
+        <v>2-2</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>1.9169433962264122</v>
+        <v>1.2641192307692333</v>
       </c>
       <c r="B73" s="3">
-        <v>0.70138364779874007</v>
+        <v>1.3994399999999969</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E73" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>1.2846981132075452</v>
+        <v>1.1809834615384636</v>
       </c>
       <c r="B74" s="3">
-        <v>0.66631446540880301</v>
+        <v>1.3016769230769201</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E74" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>1.8946226415094307</v>
+        <v>1.7227559055118091</v>
       </c>
       <c r="B75" s="3">
-        <v>0.8679622641509408</v>
+        <v>1.3126456692913433</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E75" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>1.1199999999999983</v>
+        <v>1.4248818897637778</v>
       </c>
       <c r="B76" s="3">
-        <v>1.1570767295597451</v>
+        <v>0.60692913385826985</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E76" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>0.81305660377358369</v>
+        <v>1.5673700787401554</v>
       </c>
       <c r="B77" s="3">
-        <v>0.53717735849056447</v>
+        <v>0.80347086614173513</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" ref="C77:C140" si="15">ROUND(A77,0)</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" ref="D77:D140" si="16">ROUND(B77,0)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E77" s="2" t="str">
-        <f t="shared" ref="E77:E140" si="17">CONCATENATE(C77,"-",D77)</f>
-        <v>1-1</v>
+        <f t="shared" si="17"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>0.90339622641509298</v>
+        <v>1.6349291338582657</v>
       </c>
       <c r="B78" s="3">
-        <v>0.9004528301886765</v>
+        <v>0.81354330708661704</v>
       </c>
       <c r="C78" s="1">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" s="1">
         <f t="shared" si="16"/>
@@ -1919,1808 +1911,1332 @@
       </c>
       <c r="E78" s="2" t="str">
         <f t="shared" si="17"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>1.5433018867924504</v>
+        <v>2.8973971518987351</v>
       </c>
       <c r="B79" s="3">
-        <v>0.69705157232704196</v>
+        <v>0.94898734177214972</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" ref="C79:C132" si="18">ROUND(A79,0)</f>
+        <v>3</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="D79:D132" si="19">ROUND(B79,0)</f>
         <v>1</v>
       </c>
       <c r="E79" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>2-1</v>
+        <f t="shared" ref="E79:E132" si="20">CONCATENATE(C79,"-",D79)</f>
+        <v>3-1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>2.4724528301886757</v>
+        <v>0.65632911392405091</v>
       </c>
       <c r="B80" s="3">
-        <v>0.47023647798741997</v>
+        <v>2.0199873417721474</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>2</v>
       </c>
       <c r="E80" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>2-0</v>
+        <f t="shared" si="20"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>1.1919811320754699</v>
+        <v>0.70712749003984321</v>
       </c>
       <c r="B81" s="3">
-        <v>0.76038238993710461</v>
+        <v>1.0241131474103591</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E81" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>1.1265103448275844</v>
+        <v>1.1507360557768966</v>
       </c>
       <c r="B82" s="3">
-        <v>0.83785024630541594</v>
+        <v>1.310831872509961</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E82" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>0.69316256157635348</v>
+        <v>1.800896414342636</v>
       </c>
       <c r="B83" s="3">
-        <v>0.91495566502462755</v>
+        <v>0.63317051792828727</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E83" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>1-1</v>
+        <f t="shared" si="20"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>0.76781083743842227</v>
+        <v>0.82032669322709473</v>
       </c>
       <c r="B84" s="3">
-        <v>0.82217142857142589</v>
+        <v>1.3002241035856583</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E84" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>1.566120401337789</v>
+        <v>0.63068127490040071</v>
       </c>
       <c r="B85" s="3">
-        <v>1.7350073578595375</v>
+        <v>0.88404940239043872</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="E85" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>2-2</v>
+        <f t="shared" si="20"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>1.1181150501672215</v>
+        <v>1.2992181274900447</v>
       </c>
       <c r="B86" s="3">
-        <v>1.2834301003344526</v>
+        <v>1.0489332669322717</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="D86" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E86" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>2.0071652173912997</v>
+        <v>1.0685318725099642</v>
       </c>
       <c r="B87" s="3">
-        <v>1.1306408026755892</v>
+        <v>1.0248340637450206</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E87" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>2-1</v>
+        <f t="shared" si="20"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>1.4351357859531739</v>
+        <v>2.8584285714285618</v>
       </c>
       <c r="B88" s="3">
-        <v>1.4964862876254232</v>
+        <v>0.21769047619047577</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>3</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="E88" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>1-1</v>
+        <f t="shared" si="20"/>
+        <v>3-0</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>1.9112499999999999</v>
+        <v>1.313371428571424</v>
       </c>
       <c r="B89" s="3">
-        <v>0.60053048780487694</v>
+        <v>0.73589999999999878</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E89" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>2-1</v>
+        <f t="shared" si="20"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>1.35</v>
+        <v>1.5471214285714232</v>
       </c>
       <c r="B90" s="3">
-        <v>0.68608993902438886</v>
+        <v>1.3876971428571403</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="D90" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E90" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>1-1</v>
+        <f t="shared" si="20"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>1.0125</v>
+        <v>1.7475728155339825</v>
       </c>
       <c r="B91" s="3">
-        <v>0.655417682926828</v>
+        <v>1.3718122977346305</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E91" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>1-1</v>
+        <f t="shared" si="20"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>1.45</v>
+        <v>2.0655339805825266</v>
       </c>
       <c r="B92" s="3">
-        <v>0.46815548780487715</v>
+        <v>1.3899145631067991</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="D92" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="E92" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>1-0</v>
+        <f t="shared" si="20"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>0.984375</v>
+        <v>1.2810679611650497</v>
       </c>
       <c r="B93" s="3">
-        <v>0.58761585365853553</v>
+        <v>1.4453527508090642</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="D93" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E93" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>0.890625</v>
+        <v>1.6752427184466034</v>
       </c>
       <c r="B94" s="3">
-        <v>1.63854420731707</v>
+        <v>1.0883987055016202</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="D94" s="1">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="E94" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>1-2</v>
+        <f t="shared" si="20"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>1.16875</v>
+        <v>3.1372168284789681</v>
       </c>
       <c r="B95" s="3">
-        <v>0.64573170731707197</v>
+        <v>0.68208770226537363</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>3</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E95" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>1-1</v>
+        <f t="shared" si="20"/>
+        <v>3-1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>1.2706250000000001</v>
+        <v>0.66343042071197478</v>
       </c>
       <c r="B96" s="3">
-        <v>0.85075152439024226</v>
+        <v>2.0025631067961203</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="D96" s="1">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>2</v>
       </c>
       <c r="E96" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>1-1</v>
+        <f t="shared" si="20"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>1.2107606837606832</v>
+        <v>0.81666666666666754</v>
       </c>
       <c r="B97" s="3">
-        <v>1.5594393162393225</v>
+        <v>0.6160427184466033</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="D97" s="1">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="E97" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>1-2</v>
+        <f t="shared" si="20"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>2.2609102564102552</v>
+        <v>1.2871888888888854</v>
       </c>
       <c r="B98" s="3">
-        <v>0.95311794871795241</v>
+        <v>0.61969382716049248</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="D98" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E98" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>2-1</v>
+        <f t="shared" si="20"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>0.8459188034188031</v>
+        <v>0.71485555555555347</v>
       </c>
       <c r="B99" s="3">
-        <v>0.98323931623932015</v>
+        <v>1.0426666666666646</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="D99" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E99" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>2.0473504273504259</v>
+        <v>2.0858370370370314</v>
       </c>
       <c r="B100" s="3">
-        <v>0.52569230769230979</v>
+        <v>0.83208888888888699</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="D100" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E100" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>0.8277649572649568</v>
+        <v>1.0334419753086392</v>
       </c>
       <c r="B101" s="3">
-        <v>1.4193692307692367</v>
+        <v>0.16548641975308606</v>
       </c>
       <c r="C101" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="D101" s="1">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="E101" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>1-1</v>
+        <f t="shared" si="20"/>
+        <v>1-0</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>1.0721333333333312</v>
+        <v>0.79153480392157027</v>
       </c>
       <c r="B102" s="3">
-        <v>2.1559999999999944</v>
+        <v>1.1441911764705865</v>
       </c>
       <c r="C102" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="D102" s="1">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="E102" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>1-2</v>
+        <f t="shared" si="20"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>1.0172799999999977</v>
+        <v>1.4921117647058852</v>
       </c>
       <c r="B103" s="3">
-        <v>0.87471999999999772</v>
+        <v>1.1690823529411745</v>
       </c>
       <c r="C103" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="D103" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E103" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>1.8151466666666627</v>
+        <v>0.17246715686274544</v>
       </c>
       <c r="B104" s="3">
-        <v>0.79643666666666468</v>
+        <v>1.1975294117647037</v>
       </c>
       <c r="C104" s="1">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="D104" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E104" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>2-1</v>
+        <f t="shared" si="20"/>
+        <v>0-1</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>1.3274361445783105</v>
+        <v>0.83046274509804097</v>
       </c>
       <c r="B105" s="3">
-        <v>1.2152337349397537</v>
+        <v>1.6366235294117621</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="D105" s="1">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>2</v>
       </c>
       <c r="E105" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>1-1</v>
+        <f t="shared" si="20"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>1.4004530120481897</v>
+        <v>1.5097490196078465</v>
       </c>
       <c r="B106" s="3">
-        <v>0.56661204819276867</v>
+        <v>0.7195499999999988</v>
       </c>
       <c r="C106" s="1">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="D106" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E106" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>1-1</v>
+        <f t="shared" si="20"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>0.99136172839506242</v>
+        <v>0.79367647058823687</v>
       </c>
       <c r="B107" s="3">
-        <v>0.79408395061728276</v>
+        <v>1.3678676470588214</v>
       </c>
       <c r="C107" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="D107" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E107" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>0.63300740740740802</v>
+        <v>1.0358522727272721</v>
       </c>
       <c r="B108" s="3">
-        <v>2.2423580246913546</v>
+        <v>1.6095857142857148</v>
       </c>
       <c r="C108" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="D108" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="E108" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1-2</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>0.33238271604938302</v>
+        <v>1.1357499999999991</v>
       </c>
       <c r="B109" s="3">
-        <v>1.7462518518518491</v>
+        <v>0.82963636363636395</v>
       </c>
       <c r="C109" s="1">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="D109" s="1">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="E109" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>0-2</v>
+        <f t="shared" si="20"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>3.123724691358027</v>
+        <v>1.486799999999999</v>
       </c>
       <c r="B110" s="3">
-        <v>0.89432592592592475</v>
+        <v>1.0028571428571433</v>
       </c>
       <c r="C110" s="1">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="D110" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E110" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>3-1</v>
+        <f t="shared" si="20"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>0.57637399463806993</v>
+        <v>0.64618409090909046</v>
       </c>
       <c r="B111" s="3">
-        <v>0.21342627345844514</v>
+        <v>1.5795000000000008</v>
       </c>
       <c r="C111" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="D111" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>2</v>
       </c>
       <c r="E111" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>1-0</v>
+        <f t="shared" si="20"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>0.6857372654155498</v>
+        <v>0.85482954545454481</v>
       </c>
       <c r="B112" s="3">
-        <v>0.84423860589812383</v>
+        <v>0.74587500000000018</v>
       </c>
       <c r="C112" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="D112" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E112" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>1.5612345844504023</v>
+        <v>0.56653409090909057</v>
       </c>
       <c r="B113" s="3">
-        <v>0.84682037533512111</v>
+        <v>1.7374500000000004</v>
       </c>
       <c r="C113" s="1">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="D113" s="1">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>2</v>
       </c>
       <c r="E113" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>2-1</v>
+        <f t="shared" si="20"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>0.94584450402144804</v>
+        <v>1.0005208333333304</v>
       </c>
       <c r="B114" s="3">
-        <v>0.34681769436997334</v>
+        <v>0.39445312500000002</v>
       </c>
       <c r="C114" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="D114" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E114" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1-0</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>0.99684264705882641</v>
+        <v>2.356345714285712</v>
       </c>
       <c r="B115" s="3">
-        <v>0.76242000000000232</v>
+        <v>0.84848457142857359</v>
       </c>
       <c r="C115" s="1">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="D115" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E115" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>1-1</v>
+        <f t="shared" si="20"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>1.2852123529411801</v>
+        <v>1.0358857142857134</v>
       </c>
       <c r="B116" s="3">
-        <v>1.3967682352941218</v>
+        <v>1.2077485714285743</v>
       </c>
       <c r="C116" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="D116" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E116" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>1.1147250000000031</v>
+        <v>0.92405714285714202</v>
       </c>
       <c r="B117" s="3">
-        <v>0.76195764705882585</v>
+        <v>0.59233828571428715</v>
       </c>
       <c r="C117" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="D117" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E117" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>1.4428800000000042</v>
+        <v>1.5348188976377934</v>
       </c>
       <c r="B118" s="3">
-        <v>1.3232541176470629</v>
+        <v>1.6270866141732341</v>
       </c>
       <c r="C118" s="1">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="D118" s="1">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>2</v>
       </c>
       <c r="E118" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>1-1</v>
+        <f t="shared" si="20"/>
+        <v>2-2</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>2.1306868686868659</v>
+        <v>2.1513607594936719</v>
       </c>
       <c r="B119" s="3">
-        <v>0.42721212121211993</v>
+        <v>1.1024999999999978</v>
       </c>
       <c r="C119" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="D119" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="E119" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>2-0</v>
+        <f t="shared" si="20"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>1.3536632996632978</v>
+        <v>1.3990291262135939</v>
       </c>
       <c r="B120" s="3">
-        <v>1.6661414141414093</v>
+        <v>1.3152427184466047</v>
       </c>
       <c r="C120" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="D120" s="1">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="E120" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>1-2</v>
+        <f t="shared" si="20"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>1.9667643097643075</v>
+        <v>2.2101941747572837</v>
       </c>
       <c r="B121" s="3">
-        <v>0.70933333333333115</v>
+        <v>0.95390453074433834</v>
       </c>
       <c r="C121" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="D121" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E121" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <v>1.6992794612794588</v>
+        <v>2.2190400000000001</v>
       </c>
       <c r="B122" s="3">
-        <v>1.1310303030302997</v>
+        <v>0.97254999999999903</v>
       </c>
       <c r="C122" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="D122" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E122" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>1.1808552188552173</v>
+        <v>1.2269629629629595</v>
       </c>
       <c r="B123" s="3">
-        <v>1.2116363636363601</v>
+        <v>0.45079999999999898</v>
       </c>
       <c r="C123" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="D123" s="1">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="E123" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>1-1</v>
+        <f t="shared" si="20"/>
+        <v>1-0</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>1.886488215488213</v>
+        <v>0.89029629629629392</v>
       </c>
       <c r="B124" s="3">
-        <v>1.3191111111111073</v>
+        <v>0.92795061728394856</v>
       </c>
       <c r="C124" s="1">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="D124" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E124" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>2-1</v>
+        <f t="shared" si="20"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <v>1.0276565656565644</v>
+        <v>0.77508148148147937</v>
       </c>
       <c r="B125" s="3">
-        <v>1.5111515151515107</v>
+        <v>1.1894123456790098</v>
       </c>
       <c r="C125" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="D125" s="1">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="E125" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>1-2</v>
+        <f t="shared" si="20"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <v>1.9119460317460282</v>
+        <v>1.6658765432098719</v>
       </c>
       <c r="B126" s="3">
-        <v>0.98336507936508177</v>
+        <v>0.79119999999999824</v>
       </c>
       <c r="C126" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="D126" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E126" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>1.9068951612903238</v>
+        <v>2.7539590909090887</v>
       </c>
       <c r="B127" s="3">
-        <v>0.62377419354838581</v>
+        <v>0.41880681818181831</v>
       </c>
       <c r="C127" s="1">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>3</v>
       </c>
       <c r="D127" s="1">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="E127" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>2-1</v>
+        <f t="shared" si="20"/>
+        <v>3-0</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
-        <v>0.84090322580645216</v>
+        <v>1.4204249999999989</v>
       </c>
       <c r="B128" s="3">
-        <v>1.4642076612903192</v>
+        <v>0.82222889610389649</v>
       </c>
       <c r="C128" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="D128" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E128" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
-        <v>1.5955403225806459</v>
+        <v>1.6711749999999987</v>
       </c>
       <c r="B129" s="3">
-        <v>0.91073588709677211</v>
+        <v>0.99556363636363665</v>
       </c>
       <c r="C129" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="D129" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E129" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
-        <v>1.0817419354838693</v>
+        <v>3.0347454545454524</v>
       </c>
       <c r="B130" s="3">
-        <v>0.89927419354838778</v>
+        <v>0.44855064935064948</v>
       </c>
       <c r="C130" s="1">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>3</v>
       </c>
       <c r="D130" s="1">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="E130" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>1-1</v>
+        <f t="shared" si="20"/>
+        <v>3-0</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
-        <v>2.483999999999996</v>
+        <v>2.2212685714285696</v>
       </c>
       <c r="B131" s="3">
-        <v>0.79935483870967794</v>
+        <v>0.71570285714285886</v>
       </c>
       <c r="C131" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="D131" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E131" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <v>0.87284163265306125</v>
+        <v>1.2948571428571416</v>
       </c>
       <c r="B132" s="3">
-        <v>0.88529142857142973</v>
+        <v>0.6903942857142874</v>
       </c>
       <c r="C132" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="D132" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E132" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
-        <v>1.0641493877551023</v>
-      </c>
-      <c r="B133" s="3">
-        <v>1.097485714285716</v>
-      </c>
-      <c r="C133" s="1">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="D133" s="1">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="E133" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>1-1</v>
-      </c>
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="2"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
-        <v>2.0732562500000005</v>
-      </c>
-      <c r="B134" s="3">
-        <v>0.55809000000000009</v>
-      </c>
-      <c r="C134" s="1">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="D134" s="1">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="E134" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>2-1</v>
-      </c>
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="2"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="3">
-        <v>1.8785000000000003</v>
-      </c>
-      <c r="B135" s="3">
-        <v>1.8416174999999997</v>
-      </c>
-      <c r="C135" s="1">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="D135" s="1">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="E135" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>2-2</v>
-      </c>
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="2"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
-        <v>0.24461937500000003</v>
-      </c>
-      <c r="B136" s="3">
-        <v>1.3779999999999999</v>
-      </c>
-      <c r="C136" s="1">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="D136" s="1">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="E136" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>0-1</v>
-      </c>
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="2"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="3">
-        <v>1.2975462500000001</v>
-      </c>
-      <c r="B137" s="3">
-        <v>2.1086049999999998</v>
-      </c>
-      <c r="C137" s="1">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="D137" s="1">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="E137" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>1-2</v>
-      </c>
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="2"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="3">
-        <v>0.80775500000000011</v>
-      </c>
-      <c r="B138" s="3">
-        <v>0.85462499999999997</v>
-      </c>
-      <c r="C138" s="1">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="D138" s="1">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="E138" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>1-1</v>
-      </c>
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="2"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="3">
-        <v>0.94864250000000017</v>
-      </c>
-      <c r="B139" s="3">
-        <v>1.5204375000000001</v>
-      </c>
-      <c r="C139" s="1">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="D139" s="1">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="E139" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>1-2</v>
-      </c>
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="2"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="3">
-        <v>0.67626000000000008</v>
-      </c>
-      <c r="B140" s="3">
-        <v>2.0481849999999997</v>
-      </c>
-      <c r="C140" s="1">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="D140" s="1">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="E140" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>1-2</v>
-      </c>
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="2"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="3">
-        <v>0.75787389162561436</v>
-      </c>
-      <c r="B141" s="3">
-        <v>0.53501280788177163</v>
-      </c>
-      <c r="C141" s="1">
-        <f t="shared" ref="C141:C168" si="18">ROUND(A141,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D141" s="1">
-        <f t="shared" ref="D141:D168" si="19">ROUND(B141,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E141" s="2" t="str">
-        <f t="shared" ref="E141:E168" si="20">CONCATENATE(C141,"-",D141)</f>
-        <v>1-1</v>
-      </c>
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="2"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="3">
-        <v>1.5753694581280762</v>
-      </c>
-      <c r="B142" s="3">
-        <v>1.1854689655172375</v>
-      </c>
-      <c r="C142" s="1">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="D142" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="E142" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>2-1</v>
-      </c>
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="2"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="3">
-        <v>1.5359852216748739</v>
-      </c>
-      <c r="B143" s="3">
-        <v>1.7182266009852161</v>
-      </c>
-      <c r="C143" s="1">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="D143" s="1">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="E143" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>2-2</v>
-      </c>
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="2"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="3">
-        <v>1.6183244147157156</v>
-      </c>
-      <c r="B144" s="3">
-        <v>0.64426153846154066</v>
-      </c>
-      <c r="C144" s="1">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="D144" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="E144" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>2-1</v>
-      </c>
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="2"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="3">
-        <v>1.8609939799331063</v>
-      </c>
-      <c r="B145" s="3">
-        <v>1.7949913043478323</v>
-      </c>
-      <c r="C145" s="1">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="D145" s="1">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="E145" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>2-2</v>
-      </c>
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="2"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="3">
-        <v>2.1527036789297607</v>
-      </c>
-      <c r="B146" s="3">
-        <v>1.3190809364548541</v>
-      </c>
-      <c r="C146" s="1">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="D146" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="E146" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>2-1</v>
-      </c>
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="2"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="3">
-        <v>1.7768347826086917</v>
-      </c>
-      <c r="B147" s="3">
-        <v>0.82732575250836404</v>
-      </c>
-      <c r="C147" s="1">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="D147" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="E147" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>2-1</v>
-      </c>
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="2"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="3">
-        <v>1.5376454849498293</v>
-      </c>
-      <c r="B148" s="3">
-        <v>1.6042876254180656</v>
-      </c>
-      <c r="C148" s="1">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="D148" s="1">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="E148" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>2-2</v>
-      </c>
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="2"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="3">
-        <v>1.3473381270902978</v>
-      </c>
-      <c r="B149" s="3">
-        <v>1.2656046822742517</v>
-      </c>
-      <c r="C149" s="1">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="D149" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="E149" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>1-1</v>
-      </c>
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="2"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="3">
-        <v>1.2748034188034181</v>
-      </c>
-      <c r="B150" s="3">
-        <v>1.1788564102564147</v>
-      </c>
-      <c r="C150" s="1">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="D150" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="E150" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>1-1</v>
-      </c>
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="2"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="3">
-        <v>0.90189316239316197</v>
-      </c>
-      <c r="B151" s="3">
-        <v>3.1531230769230896</v>
-      </c>
-      <c r="C151" s="1">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="D151" s="1">
-        <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="E151" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>1-3</v>
-      </c>
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="2"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="3">
-        <v>1.0947300000000029</v>
-      </c>
-      <c r="B152" s="3">
-        <v>0.77189399999999997</v>
-      </c>
-      <c r="C152" s="1">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="D152" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="E152" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>1-1</v>
-      </c>
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="2"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="3">
-        <v>1.2531250000000029</v>
-      </c>
-      <c r="B153" s="3">
-        <v>1.1850299999999998</v>
-      </c>
-      <c r="C153" s="1">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="D153" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="E153" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>1-1</v>
-      </c>
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="2"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
-        <v>1.0426000000000026</v>
-      </c>
-      <c r="B154" s="3">
-        <v>1.0670399999999998</v>
-      </c>
-      <c r="C154" s="1">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="D154" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="E154" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>1-1</v>
-      </c>
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="2"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="3">
-        <v>1.8045000000000047</v>
-      </c>
-      <c r="B155" s="3">
-        <v>0.42293999999999998</v>
-      </c>
-      <c r="C155" s="1">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="D155" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E155" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>2-0</v>
-      </c>
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="2"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="3">
-        <v>1.7644000000000044</v>
-      </c>
-      <c r="B156" s="3">
-        <v>0.77805000000000002</v>
-      </c>
-      <c r="C156" s="1">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="D156" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="E156" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>2-1</v>
-      </c>
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="2"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="3">
-        <v>1.0292333333333359</v>
-      </c>
-      <c r="B157" s="3">
-        <v>1.3851000000000002</v>
-      </c>
-      <c r="C157" s="1">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="D157" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="E157" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>1-1</v>
-      </c>
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="2"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="3">
-        <v>0.57075666666666802</v>
-      </c>
-      <c r="B158" s="3">
-        <v>0.88919999999999999</v>
-      </c>
-      <c r="C158" s="1">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="D158" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="E158" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>1-1</v>
-      </c>
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="2"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="3">
-        <v>1.1228000000000029</v>
-      </c>
-      <c r="B159" s="3">
-        <v>1.3919400000000002</v>
-      </c>
-      <c r="C159" s="1">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="D159" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="E159" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>1-1</v>
-      </c>
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="2"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="3">
-        <v>0.65322386058981252</v>
-      </c>
-      <c r="B160" s="3">
-        <v>0.89501340482573777</v>
-      </c>
-      <c r="C160" s="1">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="D160" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="E160" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>1-1</v>
-      </c>
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="2"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="3">
-        <v>0.69342225201072394</v>
-      </c>
-      <c r="B161" s="3">
-        <v>0.95826675603217193</v>
-      </c>
-      <c r="C161" s="1">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="D161" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="E161" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>1-1</v>
-      </c>
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="2"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="3">
-        <v>1.3660359249329765</v>
-      </c>
-      <c r="B162" s="3">
-        <v>0.56592386058981259</v>
-      </c>
-      <c r="C162" s="1">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="D162" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="E162" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>1-1</v>
-      </c>
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="2"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="3">
-        <v>1.9211876470588289</v>
-      </c>
-      <c r="B163" s="3">
-        <v>0.51783529411764861</v>
-      </c>
-      <c r="C163" s="1">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="D163" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="E163" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>2-1</v>
-      </c>
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="2"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="3">
-        <v>0.79423235294117878</v>
-      </c>
-      <c r="B164" s="3">
-        <v>2.1222000000000065</v>
-      </c>
-      <c r="C164" s="1">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="D164" s="1">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="E164" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>1-2</v>
-      </c>
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="2"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>1.2620322580645142</v>
-      </c>
-      <c r="B165">
-        <v>1.7385967741935495</v>
-      </c>
-      <c r="C165" s="1">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="D165" s="1">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="E165" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>1-2</v>
-      </c>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="2"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>0.9437674876847274</v>
-      </c>
-      <c r="B166">
-        <v>1.0418896551724104</v>
-      </c>
-      <c r="C166" s="1">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="D166" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="E166" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>1-1</v>
-      </c>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="2"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>1.4017415549597858</v>
-      </c>
-      <c r="B167">
-        <v>0.48408176943699754</v>
-      </c>
-      <c r="C167" s="1">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="D167" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E167" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>1-0</v>
-      </c>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="2"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>1.0682131367292227</v>
-      </c>
-      <c r="B168">
-        <v>0.94974691689008073</v>
-      </c>
-      <c r="C168" s="1">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="D168" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="E168" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>1-1</v>
-      </c>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="2"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C169" s="1"/>

--- a/CS generator.xlsx
+++ b/CS generator.xlsx
@@ -348,62 +348,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E49"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
-        <v>0.69217352941176524</v>
+        <v>0.41967987804877993</v>
       </c>
       <c r="B1" s="3">
-        <v>1.3836705882352904</v>
+        <v>2.3366158536585324</v>
       </c>
       <c r="C1" s="1">
         <f>ROUND(A1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1">
         <f>ROUND(B1,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="str">
         <f>CONCATENATE(C1,"-",D1)</f>
-        <v>1-1</v>
+        <v>0-2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1.6162281368821323</v>
+        <v>1.4488948170731688</v>
       </c>
       <c r="B2" s="3">
-        <v>0.6553557034220564</v>
+        <v>1.5564237804878023</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C5" si="0">ROUND(A2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D5" si="1">ROUND(B2,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="str">
         <f t="shared" ref="E2:E5" si="2">CONCATENATE(C2,"-",D2)</f>
-        <v>2-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1.0501065637065605</v>
+        <v>1.5059179878048761</v>
       </c>
       <c r="B3" s="3">
-        <v>1.1243675675675666</v>
+        <v>0.7524695121951207</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="1"/>
@@ -411,35 +411,35 @@
       </c>
       <c r="E3" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1.5740926640926594</v>
+        <v>0.90570914634146227</v>
       </c>
       <c r="B4" s="3">
-        <v>1.576216216216215</v>
+        <v>1.4642792682926802</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>0.93044884169883901</v>
+        <v>0.77566337760910542</v>
       </c>
       <c r="B5" s="3">
-        <v>1.3145142857142846</v>
+        <v>0.45482618595825219</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
@@ -447,23 +447,23 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>1.5538162162162119</v>
+        <v>0.69917741935483624</v>
       </c>
       <c r="B6" s="3">
-        <v>1.2759845559845551</v>
+        <v>1.395105882352935</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ref="C6:C7" si="3">ROUND(A6,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ref="D6:D7" si="4">ROUND(B6,0)</f>
@@ -471,15 +471,15 @@
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" ref="E6:E7" si="5">CONCATENATE(C6,"-",D6)</f>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>0.67285791505791315</v>
+        <v>0.99235313092978783</v>
       </c>
       <c r="B7" s="3">
-        <v>1.4726362934362924</v>
+        <v>0.6344231499051205</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="3"/>
@@ -496,14 +496,14 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>1.0068857142857115</v>
+        <v>1.7310626185958191</v>
       </c>
       <c r="B8" s="3">
-        <v>1.0237899613899608</v>
+        <v>0.67005085388994012</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ref="C8" si="6">ROUND(A8,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ref="D8" si="7">ROUND(B8,0)</f>
@@ -511,35 +511,35 @@
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" ref="E8" si="8">CONCATENATE(C8,"-",D8)</f>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>2.5100108108108037</v>
+        <v>1.141764705882349</v>
       </c>
       <c r="B9" s="3">
-        <v>0.76433976833976769</v>
+        <v>0.93642523719164672</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" ref="C9:C72" si="9">ROUND(A9,0)</f>
-        <v>3</v>
+        <f t="shared" ref="C9:C10" si="9">ROUND(A9,0)</f>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" ref="D9:D72" si="10">ROUND(B9,0)</f>
+        <f t="shared" ref="D9:D10" si="10">ROUND(B9,0)</f>
         <v>1</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f t="shared" ref="E9:E72" si="11">CONCATENATE(C9,"-",D9)</f>
-        <v>3-1</v>
+        <f t="shared" ref="E9:E10" si="11">CONCATENATE(C9,"-",D9)</f>
+        <v>1-1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>1.277570936902483</v>
+        <v>1.1447111954459162</v>
       </c>
       <c r="B10" s="3">
-        <v>0.58771281070745607</v>
+        <v>1.04174573055028</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="9"/>
@@ -556,10 +556,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>0.7225606118546829</v>
+        <v>1.3566129032258016</v>
       </c>
       <c r="B11" s="3">
-        <v>0.55866443594646187</v>
+        <v>0.56556375711574702</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:C49" si="12">ROUND(A11,0)</f>
@@ -576,10 +576,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>1.3384076481835536</v>
+        <v>0.82501707779885847</v>
       </c>
       <c r="B12" s="3">
-        <v>0.62307131931166249</v>
+        <v>1.1375863377609059</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="12"/>
@@ -596,30 +596,30 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>2.0420191204588867</v>
+        <v>1.0618411764705846</v>
       </c>
       <c r="B13" s="3">
-        <v>0.5555093690248557</v>
+        <v>1.5417836812144143</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>2-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>1.3699479923518139</v>
+        <v>1.3661889943073957</v>
       </c>
       <c r="B14" s="3">
-        <v>0.78822275334607905</v>
+        <v>1.0005967741935438</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="12"/>
@@ -636,30 +636,30 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>1.844213740458021</v>
+        <v>1.2673588235294075</v>
       </c>
       <c r="B15" s="3">
-        <v>0.96583969465648867</v>
+        <v>0.37919544592030197</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>2-1</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>0.87603664122137681</v>
+        <v>0.56498937381403969</v>
       </c>
       <c r="B16" s="3">
-        <v>2.118347073791349</v>
+        <v>1.5505343453510367</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="12"/>
@@ -676,1419 +676,2823 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>3.6440427480916138</v>
+        <v>0.82850780952380654</v>
       </c>
       <c r="B17" s="3">
-        <v>0.60709923664122145</v>
+        <v>1.2710399999999991</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="12"/>
-        <v>4</v>
+        <f t="shared" ref="C17:C80" si="15">ROUND(A17,0)</f>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="D17:D80" si="16">ROUND(B17,0)</f>
         <v>1</v>
       </c>
       <c r="E17" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>4-1</v>
+        <f t="shared" ref="E17:E80" si="17">CONCATENATE(C17,"-",D17)</f>
+        <v>1-1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>1.4537404580152715</v>
+        <v>1.2425599999999957</v>
       </c>
       <c r="B18" s="3">
-        <v>0.92720610687022909</v>
+        <v>1.8359466666666655</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="E18" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <f t="shared" si="17"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>1.6269251908396996</v>
+        <v>1.1013599999999961</v>
       </c>
       <c r="B19" s="3">
-        <v>0.82994758269720126</v>
+        <v>1.1015679999999992</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E19" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>1.2219847328244313</v>
+        <v>1.3837599999999952</v>
       </c>
       <c r="B20" s="3">
-        <v>1.1381577608142495</v>
+        <v>1.9595199999999984</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="E20" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <f t="shared" si="17"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>0.80061068702290328</v>
+        <v>1.2802133333333288</v>
       </c>
       <c r="B21" s="3">
-        <v>0.56294656488549621</v>
+        <v>0.66553066666666605</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E21" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>1.7529160305343565</v>
+        <v>1.423295999999995</v>
       </c>
       <c r="B22" s="3">
-        <v>0.90660152671755745</v>
+        <v>0.53930933333333286</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E22" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>1.1859349112426074</v>
+        <v>0.58524038095237896</v>
       </c>
       <c r="B23" s="3">
-        <v>0.76515384615384818</v>
+        <v>0.95239733333333254</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E23" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>1.5708994082840286</v>
+        <v>1.1161523809523768</v>
       </c>
       <c r="B24" s="3">
-        <v>0.55784615384615543</v>
+        <v>0.90889447619047559</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E24" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>1.2996796153846104</v>
+        <v>0.73343314285714023</v>
       </c>
       <c r="B25" s="3">
-        <v>0.91119230769231085</v>
+        <v>1.9343009523809509</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="E25" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <f t="shared" si="17"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>2.971629230769222</v>
+        <v>1.3372312380952331</v>
       </c>
       <c r="B26" s="3">
-        <v>1.1866399999999966</v>
+        <v>1.7431405714285699</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="E26" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>3-1</v>
+        <f t="shared" si="17"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>2.1485799999999942</v>
+        <v>1.3856426666666619</v>
       </c>
       <c r="B27" s="3">
-        <v>1.3819892307692268</v>
+        <v>1.5771992380952369</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="E27" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <f t="shared" si="17"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>1.0537692307692279</v>
+        <v>1.0456868571428533</v>
       </c>
       <c r="B28" s="3">
-        <v>0.91631076923076649</v>
+        <v>1.0982895238095229</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E28" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>0.60659076923076749</v>
+        <v>1.44075</v>
       </c>
       <c r="B29" s="3">
-        <v>0.58930769230769053</v>
+        <v>0.54450757575757502</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E29" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>2.6245531914893547</v>
+        <v>1.246875</v>
       </c>
       <c r="B30" s="3">
-        <v>0.95489361702127451</v>
+        <v>1.082916666666665</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E30" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>3-1</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>1.2100021276595709</v>
+        <v>1.31</v>
       </c>
       <c r="B31" s="3">
-        <v>0.5063829787234031</v>
+        <v>0.59362215909090832</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E31" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>0.23242978723404192</v>
+        <v>0.91812499999999997</v>
       </c>
       <c r="B32" s="3">
-        <v>0.66734042553191331</v>
+        <v>0.77156723484848388</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E32" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>0-1</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>1.6406808510638251</v>
+        <v>1.246875</v>
       </c>
       <c r="B33" s="3">
-        <v>0.71617021276595583</v>
+        <v>1.0327130681818169</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E33" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>2.2366386486486509</v>
+        <v>0.81924999999999992</v>
       </c>
       <c r="B34" s="3">
-        <v>0.69129729729729994</v>
+        <v>1.483783143939392</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E34" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>2.6745882352941197</v>
+        <v>1.1853750000000001</v>
       </c>
       <c r="B35" s="3">
-        <v>0.48658823529411632</v>
+        <v>0.69130681818181727</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="E35" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>3-0</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>1.1724855491329467</v>
+        <v>1.6668750000000001</v>
       </c>
       <c r="B36" s="3">
-        <v>0.6194236994219634</v>
+        <v>1.9738399621212093</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="E36" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <f t="shared" si="17"/>
+        <v>2-2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>1.2974317073170767</v>
+        <v>0.73624999999999996</v>
       </c>
       <c r="B37" s="3">
-        <v>0.48904390243902252</v>
+        <v>0.67268465909090813</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="E37" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-0</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>0.79403702702702783</v>
+        <v>1.218</v>
       </c>
       <c r="B38" s="3">
-        <v>0.91937837837838177</v>
+        <v>0.64948863636363541</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E38" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>1.5129724324324338</v>
+        <v>1.0311249999999998</v>
       </c>
       <c r="B39" s="3">
-        <v>0.49848648648648841</v>
+        <v>1.1892045454545439</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="E39" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-0</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>1.160822702702704</v>
+        <v>0.89695760598503682</v>
       </c>
       <c r="B40" s="3">
-        <v>0.79945945945946251</v>
+        <v>1.0850872817955137</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E40" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>2.4779100000000027</v>
+        <v>0.58666633416458813</v>
       </c>
       <c r="B41" s="3">
-        <v>0.74067567567567849</v>
+        <v>1.3794538653366615</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E41" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>1.3904148648648662</v>
+        <v>1.0679401496259344</v>
       </c>
       <c r="B42" s="3">
-        <v>1.6665202702702768</v>
+        <v>1.9465586034912761</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E42" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>2.0077985294117662</v>
+        <v>1.2383620947630913</v>
       </c>
       <c r="B43" s="3">
-        <v>1.1553882352941145</v>
+        <v>1.9089226932668373</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="E43" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <f t="shared" si="17"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>0.59705999999999781</v>
+        <v>1.7465446384039891</v>
       </c>
       <c r="B44" s="3">
-        <v>2.0774038461538531</v>
+        <v>0.7929201995012487</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="E44" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-2</v>
+        <f t="shared" si="17"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>4.0204481707317186</v>
+        <v>1.544448877805485</v>
       </c>
       <c r="B45" s="3">
-        <v>0.7884585365853628</v>
+        <v>0.74037655860349283</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="12"/>
-        <v>4</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E45" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>4-1</v>
+        <f t="shared" si="17"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>0.97454702702702811</v>
+        <v>2.6053815461346614</v>
       </c>
       <c r="B46" s="3">
-        <v>0.78252972972973267</v>
+        <v>2.1134763092269373</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="E46" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <f t="shared" si="17"/>
+        <v>3-2</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>1.0123935135135147</v>
+        <v>1.1949157107231911</v>
       </c>
       <c r="B47" s="3">
-        <v>0.59254054054054273</v>
+        <v>0.89238653366583742</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E47" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>1.2418378378378392</v>
+        <v>1.4568553615960091</v>
       </c>
       <c r="B48" s="3">
-        <v>1.349087837837843</v>
+        <v>0.46140648379052468</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="E48" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <f t="shared" si="17"/>
+        <v>1-0</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>1.5660462162162179</v>
+        <v>1.1247007481296751</v>
       </c>
       <c r="B49" s="3">
-        <v>0.98756756756757136</v>
+        <v>0.6490972568578568</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E49" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>2.1636705882352882</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0.84276176470588027</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="str">
+        <f t="shared" si="17"/>
         <v>2-1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="2"/>
-    </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="2"/>
+      <c r="A51" s="3">
+        <v>1.2268235294117618</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0.60001411764705737</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E51" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="2"/>
+      <c r="A52" s="3">
+        <v>1.2302247838616736</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1.0343930835734898</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="2"/>
+      <c r="A53" s="3">
+        <v>0.7732841498559091</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0.3956195965417878</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="2"/>
+      <c r="A54" s="3">
+        <v>0.89630662824207652</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1.076085302593663</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E54" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="2"/>
+      <c r="A55" s="3">
+        <v>0.8787319884726239</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1.8064599423631171</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E55" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="2"/>
+      <c r="A56" s="3">
+        <v>0.52191354466858875</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.77663170028818651</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E56" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="2"/>
+      <c r="A57" s="3">
+        <v>0.97619135446686034</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0.71302824207492976</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E57" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="2"/>
+      <c r="A58" s="3">
+        <v>2.1382478386167185</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1.0793314121037494</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E58" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="2"/>
+      <c r="A59" s="3">
+        <v>0.96860230547550585</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0.73585244956772533</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="2"/>
+      <c r="A60" s="3">
+        <v>1.485190201729109</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0.53773832853026082</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E60" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="2"/>
+      <c r="A61" s="3">
+        <v>1.291939209726443</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0.90035744680851115</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="2"/>
+      <c r="A62" s="3">
+        <v>0.6730139817629176</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2.3231027355623106</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E62" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="2"/>
+      <c r="A63" s="3">
+        <v>2.0356595744680841</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1.0859574468085111</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E63" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="2"/>
+      <c r="A64" s="3">
+        <v>0.6125676470588256</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1.5603976470588203</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E64" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="2"/>
+      <c r="A65" s="3">
+        <v>1.5017458823529461</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0.99845588235293903</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="2"/>
+      <c r="A66" s="3">
+        <v>0.80550735294117903</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0.511964999999999</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E66" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="2"/>
+      <c r="A67" s="3">
+        <v>1.2419458823529452</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1.0828658823529389</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E67" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="68" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="2"/>
+      <c r="A68" s="4">
+        <v>1.0646705882352976</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1.2460729411764682</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E68" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="69" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="2"/>
+      <c r="A69" s="4">
+        <v>1.6066847058823581</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1.2413235294117622</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E69" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="2"/>
+      <c r="A70" s="3">
+        <v>0.88535764705882647</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0.73831764705882186</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E70" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="2"/>
+      <c r="A71" s="3">
+        <v>0.99895647058823855</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0.48379235294117545</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="2"/>
+      <c r="A72" s="3">
+        <v>1.2888117647058865</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0.83568058823529234</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E72" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="2"/>
+      <c r="A73" s="3">
+        <v>1.0984191176470623</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1.8650076470588195</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E73" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="2"/>
+      <c r="A74" s="3">
+        <v>2.5556740740740715</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0.9324799999999982</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E74" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="2"/>
+      <c r="A75" s="3">
+        <v>1.1823155555555542</v>
+      </c>
+      <c r="B75" s="3">
+        <v>2.0253866666666629</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E75" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="2"/>
+      <c r="A76" s="3">
+        <v>1.8715251851851833</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0.49214222222222131</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="2"/>
+      <c r="A77" s="3">
+        <v>1.1177911111111101</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1.955060740740737</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E77" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="2"/>
+      <c r="A78" s="3">
+        <v>2.0095885185185165</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0.74573333333333192</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E78" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="2"/>
+      <c r="A79" s="3">
+        <v>0.86790839694656774</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0.77420458015267068</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E79" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="2"/>
+      <c r="A80" s="3">
+        <v>1.5730839694656538</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0.68655877862595327</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E80" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="2"/>
+      <c r="A81" s="3">
+        <v>1.6283145038167992</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0.90590152671755608</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" ref="C81:C144" si="18">ROUND(A81,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" ref="D81:D144" si="19">ROUND(B81,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E81" s="2" t="str">
+        <f t="shared" ref="E81:E144" si="20">CONCATENATE(C81,"-",D81)</f>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="2"/>
+      <c r="A82" s="3">
+        <v>2.3641874045801603</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0.33232366412213699</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="2"/>
+      <c r="A83" s="3">
+        <v>1.5723333333333311</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0.66194666666666813</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E83" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="2"/>
+      <c r="A84" s="3">
+        <v>1.5581999999999976</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1.4302776190476221</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E84" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="2"/>
+      <c r="A85" s="3">
+        <v>0.78616666666666557</v>
+      </c>
+      <c r="B85" s="3">
+        <v>0.60284428571428705</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E85" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="2"/>
+      <c r="A86" s="3">
+        <v>1.1663785714285697</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0.87207571428571606</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E86" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="2"/>
+      <c r="A87" s="3">
+        <v>1.3369880952380933</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1.0411200000000023</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E87" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="2"/>
+      <c r="A88" s="3">
+        <v>0.64862121212121282</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0.7109818181818186</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E88" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="2"/>
+      <c r="A89" s="3">
+        <v>0.59872727272727333</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1.3410666666666677</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="2"/>
+      <c r="A90" s="3">
+        <v>0.61356060606060669</v>
+      </c>
+      <c r="B90" s="3">
+        <v>1.4020242424242433</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E90" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="2"/>
+      <c r="A91" s="3">
+        <v>1.4833333333333349</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0.37600000000000028</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="2"/>
+      <c r="A92" s="3">
+        <v>1.0018181818181802</v>
+      </c>
+      <c r="B92" s="3">
+        <v>0.28712272727272725</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="2"/>
+      <c r="A93" s="3">
+        <v>1.2199919191919175</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0.51415</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="2"/>
+      <c r="A94" s="3">
+        <v>1.2748282828282809</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0.42289393939393938</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="2"/>
+      <c r="A95" s="3">
+        <v>1.8620905263157901</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0.65183999999999853</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E95" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="2"/>
+      <c r="A96" s="3">
+        <v>1.0978292682926816</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1.9770146341463379</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="E96" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="2"/>
+      <c r="A97" s="3">
+        <v>1.8853618902439</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1.8427582317073137</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="E97" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="2"/>
+      <c r="A98" s="3">
+        <v>2.5307362804878015</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0.37029420731707252</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>3-0</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="2"/>
+      <c r="A99" s="3">
+        <v>0.59723999999999855</v>
+      </c>
+      <c r="B99" s="3">
+        <v>1.2984176470588205</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E99" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="2"/>
+      <c r="A100" s="3">
+        <v>1.9176088235294069</v>
+      </c>
+      <c r="B100" s="3">
+        <v>1.2054047058823498</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E100" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="2"/>
+      <c r="A101" s="3">
+        <v>0.3345882352941168</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1.0322823529411738</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E101" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="2"/>
+      <c r="A102" s="3">
+        <v>1.7482235294117601</v>
+      </c>
+      <c r="B102" s="3">
+        <v>1.2564811764705852</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E102" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="2"/>
+      <c r="A103" s="3">
+        <v>1.0277435294117621</v>
+      </c>
+      <c r="B103" s="3">
+        <v>1.9005823529411714</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="E103" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="2"/>
+      <c r="A104" s="3">
+        <v>1.9572017647058773</v>
+      </c>
+      <c r="B104" s="3">
+        <v>1.6258447058823486</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="E104" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="2"/>
+      <c r="A105" s="3">
+        <v>1.5641999999999958</v>
+      </c>
+      <c r="B105" s="3">
+        <v>1.3029876470588202</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E105" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="2"/>
+      <c r="A106" s="3">
+        <v>1.7836255319148928</v>
+      </c>
+      <c r="B106" s="3">
+        <v>0.57739088145896678</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E106" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="2"/>
+      <c r="A107" s="3">
+        <v>2.1519829787234031</v>
+      </c>
+      <c r="B107" s="3">
+        <v>1.0913167173252285</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E107" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="2"/>
+      <c r="A108" s="3">
+        <v>2.5806200607902721</v>
+      </c>
+      <c r="B108" s="3">
+        <v>0.68753799392097303</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E108" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="2"/>
+      <c r="A109" s="3">
+        <v>1.1013252279635253</v>
+      </c>
+      <c r="B109" s="3">
+        <v>1.7118638297872348</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="E109" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="2"/>
+      <c r="A110" s="3">
+        <v>0.48712462006079005</v>
+      </c>
+      <c r="B110" s="3">
+        <v>0.99597811550152038</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D110" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E110" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="2"/>
+      <c r="A111" s="3">
+        <v>1.7986139817629168</v>
+      </c>
+      <c r="B111" s="3">
+        <v>1.3155598784194535</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D111" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E111" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="2"/>
+      <c r="A112" s="3">
+        <v>0.69585185185185128</v>
+      </c>
+      <c r="B112" s="3">
+        <v>2.3437333333333292</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D112" s="1">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="E112" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="2"/>
+      <c r="A113" s="3">
+        <v>2.9760318518518489</v>
+      </c>
+      <c r="B113" s="3">
+        <v>0.3626311111111104</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="D113" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E113" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>3-0</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="2"/>
+      <c r="A114" s="3">
+        <v>0.84767407407407325</v>
+      </c>
+      <c r="B114" s="3">
+        <v>0.46498666666666577</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D114" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E114" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="2"/>
+      <c r="A115" s="3">
+        <v>2.4180851851851828</v>
+      </c>
+      <c r="B115" s="3">
+        <v>0.45509925925925843</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D115" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E115" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="2"/>
+      <c r="A116" s="3">
+        <v>1.8701428571428544</v>
+      </c>
+      <c r="B116" s="3">
+        <v>0.28920000000000057</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D116" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E116" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="2"/>
+      <c r="A117" s="3">
+        <v>1.2357515151515164</v>
+      </c>
+      <c r="B117" s="3">
+        <v>1.2956048484848492</v>
+      </c>
+      <c r="C117" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D117" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E117" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="2"/>
+      <c r="A118" s="3">
+        <v>1.7880909090909112</v>
+      </c>
+      <c r="B118" s="3">
+        <v>0.7109818181818186</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D118" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E118" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="2"/>
+      <c r="A119" s="3">
+        <v>1.6015954545454565</v>
+      </c>
+      <c r="B119" s="3">
+        <v>0.81466666666666721</v>
+      </c>
+      <c r="C119" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D119" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E119" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="2"/>
+      <c r="A120" s="3">
+        <v>0.93854545454545546</v>
+      </c>
+      <c r="B120" s="3">
+        <v>1.8722521212121224</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D120" s="1">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="E120" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="2"/>
+      <c r="A121" s="3">
+        <v>1.1851919191919174</v>
+      </c>
+      <c r="B121" s="3">
+        <v>0.58383333333333332</v>
+      </c>
+      <c r="C121" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D121" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E121" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="2"/>
+      <c r="A122" s="3">
+        <v>1.947979797979795</v>
+      </c>
+      <c r="B122" s="3">
+        <v>0.40217727272727266</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D122" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E122" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="2"/>
+      <c r="A123" s="3">
+        <v>1.3357575757575737</v>
+      </c>
+      <c r="B123" s="3">
+        <v>0.50747272727272719</v>
+      </c>
+      <c r="C123" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D123" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E123" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="2"/>
+      <c r="A124" s="3">
+        <v>0.94838787878787723</v>
+      </c>
+      <c r="B124" s="3">
+        <v>0.47408636363636353</v>
+      </c>
+      <c r="C124" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D124" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E124" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="2"/>
+      <c r="A125" s="3">
+        <v>1.669462626262624</v>
+      </c>
+      <c r="B125" s="3">
+        <v>0.80024545454545448</v>
+      </c>
+      <c r="C125" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D125" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E125" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="2"/>
+      <c r="A126" s="3">
+        <v>1.1440294736842109</v>
+      </c>
+      <c r="B126" s="3">
+        <v>0.9320757894736823</v>
+      </c>
+      <c r="C126" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D126" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E126" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="2"/>
+      <c r="A127" s="3">
+        <v>1.1665894736842111</v>
+      </c>
+      <c r="B127" s="3">
+        <v>0.91957894736841905</v>
+      </c>
+      <c r="C127" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D127" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E127" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="2"/>
+      <c r="A128" s="3">
+        <v>1.1373505263157901</v>
+      </c>
+      <c r="B128" s="3">
+        <v>0.66964210526315648</v>
+      </c>
+      <c r="C128" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D128" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E128" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="2"/>
+      <c r="A129" s="3">
+        <v>0.8154252631578951</v>
+      </c>
+      <c r="B129" s="3">
+        <v>1.811924210526312</v>
+      </c>
+      <c r="C129" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D129" s="1">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="E129" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="2"/>
+      <c r="A130" s="3">
+        <v>0.90010434782608462</v>
+      </c>
+      <c r="B130" s="3">
+        <v>1.0164250000000008</v>
+      </c>
+      <c r="C130" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D130" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E130" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="2"/>
+      <c r="A131" s="3">
+        <v>1.5819316363636375</v>
+      </c>
+      <c r="B131" s="3">
+        <v>1.3670399999999951</v>
+      </c>
+      <c r="C131" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D131" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E131" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="2"/>
+      <c r="A132" s="3">
+        <v>0.80578536585365768</v>
+      </c>
+      <c r="B132" s="3">
+        <v>1.3591975609756075</v>
+      </c>
+      <c r="C132" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D132" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E132" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="2"/>
+      <c r="A133" s="3">
+        <v>0.83709481707316968</v>
+      </c>
+      <c r="B133" s="3">
+        <v>1.2679771341463391</v>
+      </c>
+      <c r="C133" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D133" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E133" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="2"/>
+      <c r="A134" s="3">
+        <v>1.108001152737754</v>
+      </c>
+      <c r="B134" s="3">
+        <v>0.66038040345821503</v>
+      </c>
+      <c r="C134" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D134" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E134" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="2"/>
+      <c r="A135" s="3">
+        <v>2.1505167173252269</v>
+      </c>
+      <c r="B135" s="3">
+        <v>1.5389568389057757</v>
+      </c>
+      <c r="C135" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D135" s="1">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="E135" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="2"/>
+      <c r="A136" s="3">
+        <v>1.4547454545454561</v>
+      </c>
+      <c r="B136" s="3">
+        <v>0.46373333333333366</v>
+      </c>
+      <c r="C136" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D136" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E136" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="2"/>
+      <c r="A137" s="3">
+        <v>0.7213090909090899</v>
+      </c>
+      <c r="B137" s="3">
+        <v>0.85289318181818174</v>
+      </c>
+      <c r="C137" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D137" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E137" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="2"/>
+      <c r="A138" s="3">
+        <v>0.58773333333333244</v>
+      </c>
+      <c r="B138" s="3">
+        <v>0.5475363636363636</v>
+      </c>
+      <c r="C138" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D138" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E138" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="2"/>
+      <c r="A139" s="3">
+        <v>1.7498842105263166</v>
+      </c>
+      <c r="B139" s="3">
+        <v>1.0031663157894717</v>
+      </c>
+      <c r="C139" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D139" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E139" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="2"/>
+      <c r="A140" s="3">
+        <v>0.87939473684210567</v>
+      </c>
+      <c r="B140" s="3">
+        <v>0.74603789473684057</v>
+      </c>
+      <c r="C140" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D140" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E140" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="2"/>
+      <c r="A141" s="3">
+        <v>1.2957157894736848</v>
+      </c>
+      <c r="B141" s="3">
+        <v>0.57626947368420922</v>
+      </c>
+      <c r="C141" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D141" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E141" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="2"/>
+      <c r="A142" s="3">
+        <v>2.0612715789473697</v>
+      </c>
+      <c r="B142" s="3">
+        <v>1.0054063157894715</v>
+      </c>
+      <c r="C142" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D142" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E142" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="2"/>
+      <c r="A143" s="3">
+        <v>1.8588252631578954</v>
+      </c>
+      <c r="B143" s="3">
+        <v>1.202526315789471</v>
+      </c>
+      <c r="C143" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="D143" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E143" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="2"/>
+      <c r="A144" s="3">
+        <v>1.04919969512195</v>
+      </c>
+      <c r="B144" s="3">
+        <v>1.879985670731704</v>
+      </c>
+      <c r="C144" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D144" s="1">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="E144" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="2"/>
+      <c r="A145" s="3">
+        <v>0.7503749999999999</v>
+      </c>
+      <c r="B145" s="3">
+        <v>1.6082575757575734</v>
+      </c>
+      <c r="C145" s="1">
+        <f t="shared" ref="C145:C157" si="21">ROUND(A145,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D145" s="1">
+        <f t="shared" ref="D145:D157" si="22">ROUND(B145,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E145" s="2" t="str">
+        <f t="shared" ref="E145:E157" si="23">CONCATENATE(C145,"-",D145)</f>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="2"/>
+      <c r="A146" s="3">
+        <v>1.9411694117647007</v>
+      </c>
+      <c r="B146" s="3">
+        <v>1.24196470588235</v>
+      </c>
+      <c r="C146" s="1">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="D146" s="1">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="E146" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="2"/>
+      <c r="A147" s="3">
+        <v>0.96258931297710226</v>
+      </c>
+      <c r="B147" s="3">
+        <v>0.46790076335877795</v>
+      </c>
+      <c r="C147" s="1">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="D147" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E147" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="2"/>
+      <c r="A148" s="3">
+        <v>1.0511061068702323</v>
+      </c>
+      <c r="B148" s="3">
+        <v>0.91343358778625805</v>
+      </c>
+      <c r="C148" s="1">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="D148" s="1">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="E148" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="2"/>
+      <c r="A149" s="3">
+        <v>0.62208320610687218</v>
+      </c>
+      <c r="B149" s="3">
+        <v>1.6084374045801504</v>
+      </c>
+      <c r="C149" s="1">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="D149" s="1">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="E149" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="2"/>
+      <c r="A150" s="3">
+        <v>1.9572320610687086</v>
+      </c>
+      <c r="B150" s="3">
+        <v>0.83879770992366298</v>
+      </c>
+      <c r="C150" s="1">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="D150" s="1">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="E150" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="2"/>
+      <c r="A151" s="3">
+        <v>1.3809923076923039</v>
+      </c>
+      <c r="B151" s="3">
+        <v>1.6515661538461488</v>
+      </c>
+      <c r="C151" s="1">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="D151" s="1">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="E151" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="2"/>
+      <c r="A152" s="3">
+        <v>0.9764399999999972</v>
+      </c>
+      <c r="B152" s="3">
+        <v>0.35283230769230667</v>
+      </c>
+      <c r="C152" s="1">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="D152" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E152" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="2"/>
+      <c r="A153" s="3">
+        <v>1.3133292307692273</v>
+      </c>
+      <c r="B153" s="3">
+        <v>0.79631769230768978</v>
+      </c>
+      <c r="C153" s="1">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="D153" s="1">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="E153" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="2"/>
+      <c r="A154" s="3">
+        <v>1.5795446153846111</v>
+      </c>
+      <c r="B154" s="3">
+        <v>1.9587584615384557</v>
+      </c>
+      <c r="C154" s="1">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="D154" s="1">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="E154" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="2"/>
+      <c r="A155" s="3">
+        <v>0.83857846153845916</v>
+      </c>
+      <c r="B155" s="3">
+        <v>0.92120076923076655</v>
+      </c>
+      <c r="C155" s="1">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="D155" s="1">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="E155" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="2"/>
+      <c r="A156" s="3">
+        <v>1.5173151515151531</v>
+      </c>
+      <c r="B156" s="3">
+        <v>1.2478642424242432</v>
+      </c>
+      <c r="C156" s="1">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="D156" s="1">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="E156" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="2"/>
+      <c r="A157" s="3">
+        <v>0.80426666666666558</v>
+      </c>
+      <c r="B157" s="3">
+        <v>0.28712272727272725</v>
+      </c>
+      <c r="C157" s="1">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="D157" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E157" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>

--- a/CS generator.xlsx
+++ b/CS generator.xlsx
@@ -348,18 +348,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E38"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
-        <v>1.3473941176470632</v>
+        <v>1.4765324909747299</v>
       </c>
       <c r="B1" s="3">
-        <v>0.63609735294117509</v>
+        <v>0.75421083032490832</v>
       </c>
       <c r="C1" s="1">
         <f>ROUND(A1,0)</f>
@@ -376,10 +376,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1.5524323529411814</v>
+        <v>2.3128695652173965</v>
       </c>
       <c r="B2" s="3">
-        <v>0.39085499999999918</v>
+        <v>1.4958173913043453</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C5" si="0">ROUND(A2,0)</f>
@@ -387,19 +387,19 @@
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D5" si="1">ROUND(B2,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="str">
         <f t="shared" ref="E2:E5" si="2">CONCATENATE(C2,"-",D2)</f>
-        <v>2-0</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1.8282788235294176</v>
+        <v>1.6329978260869604</v>
       </c>
       <c r="B3" s="3">
-        <v>0.53322941176470484</v>
+        <v>1.1557173913043459</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
@@ -416,14 +416,14 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1.1308941176470624</v>
+        <v>2.0928462908011847</v>
       </c>
       <c r="B4" s="3">
-        <v>1.1731047058823505</v>
+        <v>0.79871454005934661</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
@@ -431,15 +431,15 @@
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>1.4387061764705928</v>
+        <v>0.75836914285714441</v>
       </c>
       <c r="B5" s="3">
-        <v>0.78170999999999835</v>
+        <v>1.7778571428571468</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
@@ -447,19 +447,19 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>0.97590558823529727</v>
+        <v>0.73069028571428485</v>
       </c>
       <c r="B6" s="3">
-        <v>0.90281999999999807</v>
+        <v>1.0398677142857116</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ref="C6:C7" si="3">ROUND(A6,0)</f>
@@ -476,14 +476,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>1.3005282352941221</v>
+        <v>2.762365714285711</v>
       </c>
       <c r="B7" s="3">
-        <v>0.6926585294117632</v>
+        <v>1.438467428571425</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="4"/>
@@ -491,15 +491,15 @@
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>1-1</v>
+        <v>3-1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>1.1733026470588273</v>
+        <v>0.61278285714285652</v>
       </c>
       <c r="B8" s="3">
-        <v>0.74187970588235141</v>
+        <v>0.84787714285714066</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ref="C8:C38" si="6">ROUND(A8,0)</f>
@@ -516,1500 +516,3183 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>1.3712091176470633</v>
+        <v>1.5962057142857127</v>
       </c>
       <c r="B9" s="3">
-        <v>0.83568058823529234</v>
+        <v>0.57510542857142699</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" ref="C9:C72" si="9">ROUND(A9,0)</f>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D9:D72" si="10">ROUND(B9,0)</f>
         <v>1</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-1</v>
+        <f t="shared" ref="E9:E72" si="11">CONCATENATE(C9,"-",D9)</f>
+        <v>2-1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>1.4059764705882398</v>
+        <v>1.0073142857142845</v>
       </c>
       <c r="B10" s="3">
-        <v>1.0824341176470567</v>
+        <v>1.2045702857142828</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E10" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>0.81861396508728124</v>
+        <v>1.6969371428571409</v>
       </c>
       <c r="B11" s="3">
-        <v>0.84741895261845568</v>
+        <v>1.2385719999999969</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E11" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-1</v>
+        <f t="shared" si="11"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>1.0618411764705846</v>
+        <v>0.94467999999999896</v>
       </c>
       <c r="B12" s="3">
-        <v>0.69442770398481668</v>
+        <v>0.85372457142856928</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>1.4587977142857089</v>
+        <v>1.0242319999999989</v>
       </c>
       <c r="B13" s="3">
-        <v>0.82314971428571371</v>
+        <v>0.93591342857142623</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E13" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>0.75979047619047335</v>
+        <v>1.3327542857142842</v>
       </c>
       <c r="B14" s="3">
-        <v>1.8177889523809512</v>
+        <v>0.58820799999999851</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="E14" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-2</v>
+        <f t="shared" si="11"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>1.18769371428571</v>
+        <v>0.8465314285714276</v>
       </c>
       <c r="B15" s="3">
-        <v>0.8955283809523803</v>
+        <v>1.3674319999999964</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E15" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>0.58156080691642742</v>
+        <v>1.499354838709676</v>
       </c>
       <c r="B16" s="3">
-        <v>1.0343930835734898</v>
+        <v>1.7042795698924738</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-1</v>
+        <f t="shared" si="11"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>2.3385076363636377</v>
+        <v>1.0220400000000025</v>
       </c>
       <c r="B17" s="3">
-        <v>0.53594181818181641</v>
+        <v>1.3742799999999959</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E17" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>2-1</v>
+        <f t="shared" si="11"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>2.0701366336633718</v>
+        <v>1.8336600000000045</v>
       </c>
       <c r="B18" s="3">
-        <v>1.1998633663366345</v>
+        <v>1.2929066666666627</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E18" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>0.43103762376237736</v>
+        <v>2.0996461764705829</v>
       </c>
       <c r="B19" s="3">
-        <v>0.77929603960396088</v>
+        <v>0.66777176470587984</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E19" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>0-1</v>
+        <f t="shared" si="11"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>1.1574158415841613</v>
+        <v>1.1038820638820646</v>
       </c>
       <c r="B20" s="3">
-        <v>1.1714801980198029</v>
+        <v>0.57468304668304671</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E20" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>0.92593267326732909</v>
+        <v>1.2920685920577619</v>
       </c>
       <c r="B21" s="3">
-        <v>1.3895881188118822</v>
+        <v>1.2929328519855572</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E21" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>1.0322029411764737</v>
+        <v>3.3256064981949471</v>
       </c>
       <c r="B22" s="3">
-        <v>1.8191764705882341</v>
+        <v>0.51954945848375367</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="E22" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-2</v>
+        <f t="shared" si="11"/>
+        <v>3-1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>1.1019411764705915</v>
+        <v>0.53368050541516254</v>
       </c>
       <c r="B23" s="3">
-        <v>2.4998470588235282</v>
+        <v>1.1729018050541495</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="E23" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-2</v>
+        <f t="shared" si="11"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>0.78137647058823767</v>
+        <v>1.535830324909748</v>
       </c>
       <c r="B24" s="3">
-        <v>2.0270823529411754</v>
+        <v>0.59623971119133468</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="E24" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-2</v>
+        <f t="shared" si="11"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>1.5463137254902006</v>
+        <v>4.1672743682310482</v>
       </c>
       <c r="B25" s="3">
-        <v>1.9723411764705872</v>
+        <v>1.4468534296028854</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="E25" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>2-2</v>
+        <f t="shared" si="11"/>
+        <v>4-1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>1.6190909090909069</v>
+        <v>2.3259260869565268</v>
       </c>
       <c r="B26" s="3">
-        <v>1.5299836363636419</v>
+        <v>0.56696304347825988</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="E26" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>2-2</v>
+        <f t="shared" si="11"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>0.86272727272727145</v>
+        <v>1.9081173913043523</v>
       </c>
       <c r="B27" s="3">
-        <v>1.3132800000000044</v>
+        <v>1.5253913043478233</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="E27" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-1</v>
+        <f t="shared" si="11"/>
+        <v>2-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>1.4036454545454529</v>
+        <v>1.2030652173913072</v>
       </c>
       <c r="B28" s="3">
-        <v>0.47486181818181983</v>
+        <v>1.2369159420289835</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="E28" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-0</v>
+        <f t="shared" si="11"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>1.650751908396952</v>
+        <v>1.1372890207715121</v>
       </c>
       <c r="B29" s="3">
-        <v>0.60712977099236554</v>
+        <v>1.3855252225519279</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E29" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>2-1</v>
+        <f t="shared" si="11"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>0.79221297709923921</v>
+        <v>0.88787418397626006</v>
       </c>
       <c r="B30" s="3">
-        <v>1.228410687022899</v>
+        <v>1.2367192878338271</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E30" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>0.25642748091603135</v>
+        <v>1.4333359050445087</v>
       </c>
       <c r="B31" s="3">
-        <v>1.2229328244274793</v>
+        <v>0.93358635014836733</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E31" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>0-1</v>
+        <f t="shared" si="11"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>1.2317217391304316</v>
+        <v>2.4621721068249229</v>
       </c>
       <c r="B32" s="3">
-        <v>1.1294061594202909</v>
+        <v>0.98275014836795183</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E32" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-1</v>
+        <f t="shared" si="11"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>1.1149664122137439</v>
+        <v>0.88954545454545186</v>
       </c>
       <c r="B33" s="3">
-        <v>0.80661526717557142</v>
+        <v>1.1318877551020385</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E33" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>1.2167977099236678</v>
+        <v>1.0190909090909059</v>
       </c>
       <c r="B34" s="3">
-        <v>1.1832183206106854</v>
+        <v>0.74751428571428413</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E34" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>1.6126576335877916</v>
+        <v>1.5959999999999952</v>
       </c>
       <c r="B35" s="3">
-        <v>0.72992519083969376</v>
+        <v>0.69942857142856985</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E35" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>0.86877137404580429</v>
+        <v>0.59849999999999814</v>
       </c>
       <c r="B36" s="3">
-        <v>0.9106946564885483</v>
+        <v>1.6703020408163232</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="E36" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-1</v>
+        <f t="shared" si="11"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>1.8374015267175634</v>
+        <v>1.52604545454545</v>
       </c>
       <c r="B37" s="3">
-        <v>1.2914061068702272</v>
+        <v>0.74876326530612092</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E37" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>1.0285454198473316</v>
+        <v>0.87942857142856889</v>
       </c>
       <c r="B38" s="3">
-        <v>1.3900076335877842</v>
+        <v>0.77561632653061074</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E38" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
+      <c r="A39" s="3">
+        <v>1.1736818181818145</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.5724489795918356</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="2"/>
+      <c r="A40" s="3">
+        <v>2.0679155844155783</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.69942857142856985</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="2"/>
+      <c r="A41" s="3">
+        <v>1.0408051948051915</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.95921632653061017</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E41" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="2"/>
+      <c r="A42" s="3">
+        <v>1.2673246753246716</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.65259183673469257</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
+      <c r="A43" s="3">
+        <v>2.6897337662337581</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.83952244897959005</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E43" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
+      <c r="A44" s="3">
+        <v>1.4724999999999957</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.5791102040816315</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E44" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="2"/>
+      <c r="A45" s="3">
+        <v>1.5902611111111096</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.65625333333333447</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="2"/>
+      <c r="A46" s="3">
+        <v>1.6240588888888874</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1.0179833333333352</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="2"/>
+      <c r="A47" s="3">
+        <v>1.5157294444444429</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0.88411907407407564</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E47" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="2"/>
+      <c r="A48" s="3">
+        <v>1.2447166666666656</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1.0536731481481501</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E48" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="2"/>
+      <c r="A49" s="3">
+        <v>1.5766411111111096</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0.62462666666666777</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="2"/>
+      <c r="A50" s="3">
+        <v>1.8853611111111093</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1.1561303703703725</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="2"/>
+      <c r="A51" s="3">
+        <v>1.2288266666666656</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1.5912166666666696</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E51" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="2"/>
+      <c r="A52" s="3">
+        <v>1.0642516666666657</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0.75947925925926063</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="2"/>
+      <c r="A53" s="3">
+        <v>1.455700555555554</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0.51744740740740836</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E53" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="2"/>
+      <c r="A54" s="3">
+        <v>0.75717111111111046</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0.61496296296296415</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E54" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="2"/>
+      <c r="A55" s="3">
+        <v>0.5924699999999995</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1.3375444444444469</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="2"/>
+      <c r="A56" s="3">
+        <v>1.7161199999999985</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.4297053703703711</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="2"/>
+      <c r="A57" s="3">
+        <v>1.1050000000000026</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1.0959690476190511</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E57" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="2"/>
+      <c r="A58" s="3">
+        <v>0.47515000000000113</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1.5207214285714337</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E58" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>0-2</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="2"/>
+      <c r="A59" s="3">
+        <v>1.1969416666666695</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1.2090238095238131</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="2"/>
+      <c r="A60" s="3">
+        <v>1.3680750000000035</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0.78476190476190721</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E60" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="2"/>
+      <c r="A61" s="3">
+        <v>1.3214666666666699</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1.0908190476190509</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="2"/>
+      <c r="A62" s="3">
+        <v>1.9408333333333381</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0.61027500000000201</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E62" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="2"/>
+      <c r="A63" s="3">
+        <v>1.4690833333333368</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1.6877285714285768</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E63" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="2"/>
+      <c r="A64" s="3">
+        <v>1.0338833333333357</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1.2065714285714322</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="2"/>
+      <c r="A65" s="3">
+        <v>1.8841666666666712</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0.69157142857143072</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="2"/>
+      <c r="A66" s="3">
+        <v>1.4790000000000034</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1.0025333333333366</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E66" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="2"/>
+      <c r="A67" s="3">
+        <v>1.3177851428571454</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1.3973142857142886</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E67" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="68" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="2"/>
+      <c r="A68" s="4">
+        <v>3.0368297142857203</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0.80125714285714444</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E68" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="69" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="2"/>
+      <c r="A69" s="4">
+        <v>0.84404705882353182</v>
+      </c>
+      <c r="B69" s="4">
+        <v>0.78011876750700138</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E69" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="2"/>
+      <c r="A70" s="3">
+        <v>1.1577882352941209</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0.47571988795518116</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="2"/>
+      <c r="A71" s="3">
+        <v>1.7214117647058873</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0.59745882352941071</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E71" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="2"/>
+      <c r="A72" s="3">
+        <v>1.332705882352945</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0.93309131652660893</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E72" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="2"/>
+      <c r="A73" s="3">
+        <v>0.94532212885154321</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0.37232941176470519</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" ref="C73:C136" si="12">ROUND(A73,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" ref="D73:D136" si="13">ROUND(B73,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E73" s="2" t="str">
+        <f t="shared" ref="E73:E136" si="14">CONCATENATE(C73,"-",D73)</f>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="2"/>
+      <c r="A74" s="3">
+        <v>0.98564705882353221</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0.58797535014005498</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E74" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="2"/>
+      <c r="A75" s="3">
+        <v>1.2285221288515442</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1.0619428571428551</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E75" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="2"/>
+      <c r="A76" s="3">
+        <v>2.5995697478991668</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0.66600784313725359</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E76" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="2"/>
+      <c r="A77" s="3">
+        <v>1.8824470588235347</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0.41747899159663793</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="2"/>
+      <c r="A78" s="3">
+        <v>1.070395518207286</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0.70992044817927036</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E78" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="2"/>
+      <c r="A79" s="3">
+        <v>0.66181818181818097</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0.73333090909091159</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E79" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="2"/>
+      <c r="A80" s="3">
+        <v>0.90810909090908953</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0.61311272727272936</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E80" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="2"/>
+      <c r="A81" s="3">
+        <v>1.1106727272727257</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0.69021818181818417</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E81" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="2"/>
+      <c r="A82" s="3">
+        <v>0.94963539823009069</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1.7475929203539833</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E82" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="2"/>
+      <c r="A83" s="3">
+        <v>0.80357522123893987</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0.5394743362831862</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E83" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="2"/>
+      <c r="A84" s="3">
+        <v>2.0813168141592966</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0.61278318584070834</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E84" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="2"/>
+      <c r="A85" s="3">
+        <v>1.351504424778764</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1.2967646017699122</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E85" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="2"/>
+      <c r="A86" s="3">
+        <v>1.6309677419354822</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0.73010752688172087</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E86" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="2"/>
+      <c r="A87" s="3">
+        <v>0.92612903225806364</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1.1029491039426529</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E87" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="2"/>
+      <c r="A88" s="3">
+        <v>1.9961290322580627</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1.0883469534050185</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E88" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="2"/>
+      <c r="A89" s="3">
+        <v>1.1177419354838698</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0.96221218637992889</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="2"/>
+      <c r="A90" s="3">
+        <v>0.89598882352940956</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0.86738235294117327</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E90" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="2"/>
+      <c r="A91" s="3">
+        <v>1.4403564705882315</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1.111826470588231</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E91" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="2"/>
+      <c r="A92" s="3">
+        <v>1.0412879411764679</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1.072399999999996</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E92" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="2"/>
+      <c r="A93" s="3">
+        <v>1.459174117647055</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0.53935411764705676</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="2"/>
+      <c r="A94" s="3">
+        <v>1.6258673218673227</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0.44350909090909085</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="2"/>
+      <c r="A95" s="3">
+        <v>0.62270270270270311</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0.80897690417690415</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E95" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="2"/>
+      <c r="A96" s="3">
+        <v>1.2925798525798535</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0.57910368550368552</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E96" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="2"/>
+      <c r="A97" s="3">
+        <v>0.53955773955773978</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0.89092874692874702</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E97" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="2"/>
+      <c r="A98" s="3">
+        <v>0.72005333333333577</v>
+      </c>
+      <c r="B98" s="3">
+        <v>1.530000000000004</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E98" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="2"/>
+      <c r="A99" s="3">
+        <v>1.0525361538461573</v>
+      </c>
+      <c r="B99" s="3">
+        <v>1.0710000000000028</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E99" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="2"/>
+      <c r="A100" s="3">
+        <v>2.0806892307692371</v>
+      </c>
+      <c r="B100" s="3">
+        <v>1.1447930769230799</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E100" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="2"/>
+      <c r="A101" s="3">
+        <v>2.013108974358981</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1.0373400000000028</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E101" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="2"/>
+      <c r="A102" s="3">
+        <v>3.0478846153846257</v>
+      </c>
+      <c r="B102" s="3">
+        <v>0.90576000000000245</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E102" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="2"/>
+      <c r="A103" s="3">
+        <v>2.2200641025641095</v>
+      </c>
+      <c r="B103" s="3">
+        <v>0.55021153846154003</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E103" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="2"/>
+      <c r="A104" s="3">
+        <v>1.053589743589747</v>
+      </c>
+      <c r="B104" s="3">
+        <v>1.0006200000000027</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E104" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="2"/>
+      <c r="A105" s="3">
+        <v>1.5502820512820563</v>
+      </c>
+      <c r="B105" s="3">
+        <v>0.87774923076923306</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E105" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="2"/>
+      <c r="A106" s="3">
+        <v>0.94823076923077232</v>
+      </c>
+      <c r="B106" s="3">
+        <v>0.42722307692307815</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E106" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="2"/>
+      <c r="A107" s="3">
+        <v>1.257083076923081</v>
+      </c>
+      <c r="B107" s="3">
+        <v>0.68544000000000194</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E107" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="2"/>
+      <c r="A108" s="3">
+        <v>1.1511335740072206</v>
+      </c>
+      <c r="B108" s="3">
+        <v>1.0954014440433195</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E108" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="2"/>
+      <c r="A109" s="3">
+        <v>2.4211913357400734</v>
+      </c>
+      <c r="B109" s="3">
+        <v>0.92527870036100934</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E109" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="2"/>
+      <c r="A110" s="3">
+        <v>1.5118483754512642</v>
+      </c>
+      <c r="B110" s="3">
+        <v>0.83846209386281445</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D110" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E110" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="2"/>
+      <c r="A111" s="3">
+        <v>1.852627173913048</v>
+      </c>
+      <c r="B111" s="3">
+        <v>0.47629565217391223</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D111" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E111" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="2"/>
+      <c r="A112" s="3">
+        <v>1.024626086956524</v>
+      </c>
+      <c r="B112" s="3">
+        <v>0.648291304347825</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D112" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E112" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="2"/>
+      <c r="A113" s="3">
+        <v>2.4448336956521799</v>
+      </c>
+      <c r="B113" s="3">
+        <v>0.39976666666666605</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D113" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E113" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="2"/>
+      <c r="A114" s="3">
+        <v>0.92624569732937578</v>
+      </c>
+      <c r="B114" s="3">
+        <v>0.96618694362017732</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D114" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E114" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="2"/>
+      <c r="A115" s="3">
+        <v>1.0077851632047465</v>
+      </c>
+      <c r="B115" s="3">
+        <v>1.8913602373887228</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D115" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E115" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="2"/>
+      <c r="A116" s="3">
+        <v>1.1937804154302656</v>
+      </c>
+      <c r="B116" s="3">
+        <v>1.2727376854599397</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D116" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E116" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="2"/>
+      <c r="A117" s="3">
+        <v>1.5332617210682475</v>
+      </c>
+      <c r="B117" s="3">
+        <v>0.92425311572700242</v>
+      </c>
+      <c r="C117" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D117" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E117" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="2"/>
+      <c r="A118" s="3">
+        <v>1.6111731843575396</v>
+      </c>
+      <c r="B118" s="3">
+        <v>0.49642383612662788</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D118" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E118" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="2"/>
+      <c r="A119" s="3">
+        <v>1.1834067039106129</v>
+      </c>
+      <c r="B119" s="3">
+        <v>2.7902443202979432</v>
+      </c>
+      <c r="C119" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D119" s="1">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="E119" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-3</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="2"/>
+      <c r="A120" s="3">
+        <v>1.026317318435753</v>
+      </c>
+      <c r="B120" s="3">
+        <v>0.86867783985102165</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D120" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E120" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="2"/>
+      <c r="A121" s="3">
+        <v>1.1729340782122892</v>
+      </c>
+      <c r="B121" s="3">
+        <v>1.1624953445065143</v>
+      </c>
+      <c r="C121" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D121" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E121" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="2"/>
+      <c r="A122" s="3">
+        <v>1.848821229050277</v>
+      </c>
+      <c r="B122" s="3">
+        <v>1.011498696461822</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D122" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E122" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="2"/>
+      <c r="A123" s="3">
+        <v>0.87432998137802498</v>
+      </c>
+      <c r="B123" s="3">
+        <v>0.56719553072625528</v>
+      </c>
+      <c r="C123" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D123" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E123" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="2"/>
+      <c r="A124" s="3">
+        <v>1.6635363128491598</v>
+      </c>
+      <c r="B124" s="3">
+        <v>1.011498696461822</v>
+      </c>
+      <c r="C124" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D124" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E124" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="2"/>
+      <c r="A125" s="3">
+        <v>1.9983918063314685</v>
+      </c>
+      <c r="B125" s="3">
+        <v>1.193793296089382</v>
+      </c>
+      <c r="C125" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D125" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E125" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="2"/>
+      <c r="A126" s="3">
+        <v>1.4417314711359386</v>
+      </c>
+      <c r="B126" s="3">
+        <v>0.93893854748603067</v>
+      </c>
+      <c r="C126" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D126" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E126" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="2"/>
+      <c r="A127" s="3">
+        <v>1.868423836126627</v>
+      </c>
+      <c r="B127" s="3">
+        <v>1.0998994413407788</v>
+      </c>
+      <c r="C127" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D127" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E127" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="2"/>
+      <c r="A128" s="3">
+        <v>1.903198324022344</v>
+      </c>
+      <c r="B128" s="3">
+        <v>0.73837616387336835</v>
+      </c>
+      <c r="C128" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D128" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E128" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="2"/>
+      <c r="A129" s="3">
+        <v>1.7070379888268135</v>
+      </c>
+      <c r="B129" s="3">
+        <v>1.5176312849161966</v>
+      </c>
+      <c r="C129" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D129" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E129" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="2"/>
+      <c r="A130" s="3">
+        <v>1.0394742857142878</v>
+      </c>
+      <c r="B130" s="3">
+        <v>1.4450857142857174</v>
+      </c>
+      <c r="C130" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D130" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E130" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="2"/>
+      <c r="A131" s="3">
+        <v>1.5351805714285744</v>
+      </c>
+      <c r="B131" s="3">
+        <v>0.98202857142857369</v>
+      </c>
+      <c r="C131" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D131" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E131" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="2"/>
+      <c r="A132" s="3">
+        <v>1.3379040000000026</v>
+      </c>
+      <c r="B132" s="3">
+        <v>0.81225000000000169</v>
+      </c>
+      <c r="C132" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D132" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E132" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="2"/>
+      <c r="A133" s="3">
+        <v>1.6371720000000034</v>
+      </c>
+      <c r="B133" s="3">
+        <v>1.0274928571428594</v>
+      </c>
+      <c r="C133" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D133" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E133" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="2"/>
+      <c r="A134" s="3">
+        <v>1.0724468571428594</v>
+      </c>
+      <c r="B134" s="3">
+        <v>1.2898285714285742</v>
+      </c>
+      <c r="C134" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D134" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E134" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="2"/>
+      <c r="A135" s="3">
+        <v>0.7745760000000016</v>
+      </c>
+      <c r="B135" s="3">
+        <v>1.4290714285714319</v>
+      </c>
+      <c r="C135" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D135" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E135" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="2"/>
+      <c r="A136" s="3">
+        <v>0.74537571428571581</v>
+      </c>
+      <c r="B136" s="3">
+        <v>1.9363714285714326</v>
+      </c>
+      <c r="C136" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D136" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E136" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="2"/>
+      <c r="A137" s="3">
+        <v>1.377409090909089</v>
+      </c>
+      <c r="B137" s="3">
+        <v>0.8282618181818211</v>
+      </c>
+      <c r="C137" s="1">
+        <f t="shared" ref="C137:C167" si="15">ROUND(A137,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D137" s="1">
+        <f t="shared" ref="D137:D167" si="16">ROUND(B137,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E137" s="2" t="str">
+        <f t="shared" ref="E137:E167" si="17">CONCATENATE(C137,"-",D137)</f>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="2"/>
+      <c r="A138" s="3">
+        <v>0.7764545454545444</v>
+      </c>
+      <c r="B138" s="3">
+        <v>1.6714472727272784</v>
+      </c>
+      <c r="C138" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D138" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E138" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="2"/>
+      <c r="A139" s="3">
+        <v>1.3404181818181802</v>
+      </c>
+      <c r="B139" s="3">
+        <v>0.76338545454545714</v>
+      </c>
+      <c r="C139" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D139" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E139" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="2"/>
+      <c r="A140" s="3">
+        <v>1.4361769911504456</v>
+      </c>
+      <c r="B140" s="3">
+        <v>1.4211504424778769</v>
+      </c>
+      <c r="C140" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D140" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E140" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="2"/>
+      <c r="A141" s="3">
+        <v>0.93367787610619668</v>
+      </c>
+      <c r="B141" s="3">
+        <v>1.3353185840707973</v>
+      </c>
+      <c r="C141" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D141" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E141" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="2"/>
+      <c r="A142" s="3">
+        <v>0.49745132743362941</v>
+      </c>
+      <c r="B142" s="3">
+        <v>2.1218761061946916</v>
+      </c>
+      <c r="C142" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D142" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E142" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>0-2</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="2"/>
+      <c r="A143" s="3">
+        <v>1.0628035398230113</v>
+      </c>
+      <c r="B143" s="3">
+        <v>1.0401132743362838</v>
+      </c>
+      <c r="C143" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D143" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E143" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="2"/>
+      <c r="A144" s="3">
+        <v>3.7750938053097434</v>
+      </c>
+      <c r="B144" s="3">
+        <v>0.80203539823008907</v>
+      </c>
+      <c r="C144" s="1">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="D144" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E144" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>4-1</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="2"/>
+      <c r="A145" s="3">
+        <v>1.418265486725667</v>
+      </c>
+      <c r="B145" s="3">
+        <v>0.90418938053097397</v>
+      </c>
+      <c r="C145" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D145" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E145" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="2"/>
+      <c r="A146" s="3">
+        <v>1.455645161290321</v>
+      </c>
+      <c r="B146" s="3">
+        <v>1.9006437275985673</v>
+      </c>
+      <c r="C146" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D146" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E146" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="2"/>
+      <c r="A147" s="3">
+        <v>0.70258064516128971</v>
+      </c>
+      <c r="B147" s="3">
+        <v>1.1881978494623662</v>
+      </c>
+      <c r="C147" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D147" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E147" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="2"/>
+      <c r="A148" s="3">
+        <v>1.7306451612903206</v>
+      </c>
+      <c r="B148" s="3">
+        <v>0.41678709677419379</v>
+      </c>
+      <c r="C148" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D148" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E148" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="2"/>
+      <c r="A149" s="3">
+        <v>1.1646774193548375</v>
+      </c>
+      <c r="B149" s="3">
+        <v>2.6434064516129046</v>
+      </c>
+      <c r="C149" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D149" s="1">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="E149" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-3</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="2"/>
+      <c r="A150" s="3">
+        <v>1.5898400000000039</v>
+      </c>
+      <c r="B150" s="3">
+        <v>0.86291999999999747</v>
+      </c>
+      <c r="C150" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D150" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E150" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="2"/>
+      <c r="A151" s="3">
+        <v>0.67146370370370534</v>
+      </c>
+      <c r="B151" s="3">
+        <v>1.5299999999999956</v>
+      </c>
+      <c r="C151" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D151" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E151" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="2"/>
+      <c r="A152" s="3">
+        <v>0.90405352941176231</v>
+      </c>
+      <c r="B152" s="3">
+        <v>0.42377823529411601</v>
+      </c>
+      <c r="C152" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D152" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E152" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="2"/>
+      <c r="A153" s="3">
+        <v>1.3957317647058787</v>
+      </c>
+      <c r="B153" s="3">
+        <v>0.79021911764705577</v>
+      </c>
+      <c r="C153" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D153" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E153" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="2"/>
+      <c r="A154" s="3">
+        <v>1.4254367647058788</v>
+      </c>
+      <c r="B154" s="3">
+        <v>0.9256208823529376</v>
+      </c>
+      <c r="C154" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D154" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E154" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="2"/>
+      <c r="A155" s="3">
+        <v>1.1949205882352911</v>
+      </c>
+      <c r="B155" s="3">
+        <v>0.61505294117646836</v>
+      </c>
+      <c r="C155" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D155" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E155" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="2"/>
+      <c r="A156" s="3">
+        <v>0.98122850122850191</v>
+      </c>
+      <c r="B156" s="3">
+        <v>0.82478918918918909</v>
+      </c>
+      <c r="C156" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D156" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E156" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="2"/>
+      <c r="A157" s="3">
+        <v>1.3246584766584777</v>
+      </c>
+      <c r="B157" s="3">
+        <v>0.89092874692874702</v>
+      </c>
+      <c r="C157" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D157" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E157" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="2"/>
+      <c r="A158" s="3">
+        <v>1.5577002457002467</v>
+      </c>
+      <c r="B158" s="3">
+        <v>0.73501621621621616</v>
+      </c>
+      <c r="C158" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D158" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E158" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="2"/>
+      <c r="A159" s="3">
+        <v>0.74818673218673259</v>
+      </c>
+      <c r="B159" s="3">
+        <v>0.94873710073710071</v>
+      </c>
+      <c r="C159" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D159" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E159" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="2"/>
+      <c r="A160" s="3">
+        <v>1.8391043478260911</v>
+      </c>
+      <c r="B160" s="3">
+        <v>1.0506521739130417</v>
+      </c>
+      <c r="C160" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D160" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E160" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="2"/>
+      <c r="A161" s="3">
+        <v>1.9432456521739174</v>
+      </c>
+      <c r="B161" s="3">
+        <v>0.80316521739130287</v>
+      </c>
+      <c r="C161" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D161" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E161" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="2"/>
+      <c r="A162" s="3">
+        <v>0.63419584569732856</v>
+      </c>
+      <c r="B162" s="3">
+        <v>1.0549183976261121</v>
+      </c>
+      <c r="C162" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D162" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E162" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="2"/>
+      <c r="A163" s="3">
+        <v>1.1608355555555583</v>
+      </c>
+      <c r="B163" s="3">
+        <v>0.53855999999999848</v>
+      </c>
+      <c r="C163" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D163" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E163" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="2"/>
+      <c r="A164" s="3">
+        <v>2.1071688888888942</v>
+      </c>
+      <c r="B164" s="3">
+        <v>0.54830666666666494</v>
+      </c>
+      <c r="C164" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D164" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E164" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="2"/>
+      <c r="A165">
+        <v>2.1028720588235243</v>
+      </c>
+      <c r="B165">
+        <v>0.97236941176470226</v>
+      </c>
+      <c r="C165" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D165" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E165" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="2"/>
+      <c r="A166">
+        <v>1.2949385749385756</v>
+      </c>
+      <c r="B166">
+        <v>0.75490909090909097</v>
+      </c>
+      <c r="C166" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D166" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E166" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="2"/>
+      <c r="A167">
+        <v>1.8291891891891898</v>
+      </c>
+      <c r="B167">
+        <v>0.41443488943488938</v>
+      </c>
+      <c r="C167" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D167" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E167" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C168" s="1"/>

--- a/CS generator.xlsx
+++ b/CS generator.xlsx
@@ -348,38 +348,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E68"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
-        <v>1.5880585336799999</v>
+        <v>0.51197492583199999</v>
       </c>
       <c r="B1" s="3">
-        <v>1.8080291224800003</v>
+        <v>2.577372073871</v>
       </c>
       <c r="C1" s="1">
         <f>ROUND(A1,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>ROUND(B1,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="str">
         <f>CONCATENATE(C1,"-",D1)</f>
-        <v>2-2</v>
+        <v>1-3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1.7528506373999999</v>
+        <v>1.609865477976</v>
       </c>
       <c r="B2" s="3">
-        <v>1.1665042712400002</v>
+        <v>1.0562840665329998</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C5" si="0">ROUND(A2,0)</f>
@@ -396,14 +396,14 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1.9430427508860002</v>
+        <v>1.4423421622680002</v>
       </c>
       <c r="B3" s="3">
-        <v>1.4299283518799999</v>
+        <v>0.51548043220399986</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="1"/>
@@ -411,35 +411,35 @@
       </c>
       <c r="E3" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1.8015447425519999</v>
+        <v>2.5553764953780003</v>
       </c>
       <c r="B4" s="3">
-        <v>0.69708220857600012</v>
+        <v>0.40901186835600001</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>3-0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>1.2833192804479998</v>
+        <v>1.266859489644</v>
       </c>
       <c r="B5" s="3">
-        <v>0.63298396231199994</v>
+        <v>1.5028118652120002</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
@@ -447,23 +447,23 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>2.6656275400139999</v>
+        <v>0.85932569758200006</v>
       </c>
       <c r="B6" s="3">
-        <v>0.71521595295899998</v>
+        <v>1.2562942180309999</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ref="C6:C7" si="3">ROUND(A6,0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ref="D6:D7" si="4">ROUND(B6,0)</f>
@@ -471,1661 +471,2428 @@
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" ref="E6:E7" si="5">CONCATENATE(C6,"-",D6)</f>
-        <v>3-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>1.2586277473560001</v>
+        <v>1.6075529762640004</v>
       </c>
       <c r="B7" s="3">
-        <v>1.406812018983</v>
+        <v>2.0827063705140003</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>1-1</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>1.345352373274</v>
+        <v>1.2890791734240001</v>
       </c>
       <c r="B8" s="3">
-        <v>2.9119730626440004</v>
+        <v>1.0939600374120002</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" ref="C8" si="6">ROUND(A8,0)</f>
+        <f t="shared" ref="C8:C71" si="6">ROUND(A8,0)</f>
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" ref="D8" si="7">ROUND(B8,0)</f>
-        <v>3</v>
+        <f t="shared" ref="D8:D71" si="7">ROUND(B8,0)</f>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="str">
-        <f t="shared" ref="E8" si="8">CONCATENATE(C8,"-",D8)</f>
-        <v>1-3</v>
+        <f t="shared" ref="E8:E71" si="8">CONCATENATE(C8,"-",D8)</f>
+        <v>1-1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>2.0281409351050002</v>
+        <v>1.711240668234</v>
       </c>
       <c r="B9" s="3">
-        <v>0.49755204500400002</v>
+        <v>1.07291729655</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" ref="C9:C72" si="9">ROUND(A9,0)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" ref="D9:D72" si="10">ROUND(B9,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f t="shared" ref="E9:E72" si="11">CONCATENATE(C9,"-",D9)</f>
-        <v>2-0</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>2.6988310455400004</v>
+        <v>2.1434685520560004</v>
       </c>
       <c r="B10" s="3">
-        <v>1.1370650260650002</v>
+        <v>1.3795561674000001</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" ref="C10:C68" si="12">ROUND(A10,0)</f>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" ref="D10:D68" si="13">ROUND(B10,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E10" s="2" t="str">
-        <f t="shared" ref="E10:E68" si="14">CONCATENATE(C10,"-",D10)</f>
-        <v>3-1</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>1.5204655292400002</v>
+        <v>0.68749680888600007</v>
       </c>
       <c r="B11" s="3">
-        <v>0.69117445799999988</v>
+        <v>2.6961854097500004</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="E11" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <f t="shared" si="8"/>
+        <v>1-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>0.65162808396000005</v>
+        <v>1.194610122968</v>
       </c>
       <c r="B12" s="3">
-        <v>0.41238767748799998</v>
+        <v>1.4639246240079999</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-0</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>0.61542652374000006</v>
+        <v>1.2692629615500002</v>
       </c>
       <c r="B13" s="3">
-        <v>3.1418105676089993</v>
+        <v>0.93315091905000003</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="13"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E13" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-3</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>2.5337558791159998</v>
+        <v>1.0704304622399998</v>
       </c>
       <c r="B14" s="3">
-        <v>0.70695221198799985</v>
+        <v>1.2912749360140003</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E14" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>3-1</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>1.059217477584</v>
+        <v>1.0503696916800001</v>
       </c>
       <c r="B15" s="3">
-        <v>0.9172041555599999</v>
+        <v>1.6086517493999999</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="E15" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>1.2690266497439999</v>
+        <v>1.0357794692640001</v>
       </c>
       <c r="B16" s="3">
-        <v>0.83465607356399985</v>
+        <v>1.306138599441</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>0.84427838174399994</v>
+        <v>2.4716350296509999</v>
       </c>
       <c r="B17" s="3">
-        <v>2.8278633040199996</v>
+        <v>0.51811365613799998</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="13"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E17" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-3</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>0.57719765789999999</v>
+        <v>0.90067779936000003</v>
       </c>
       <c r="B18" s="3">
-        <v>0.80633426774999994</v>
+        <v>1.306138599441</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E18" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>2.6638806918250002</v>
+        <v>1.8913128466680003</v>
       </c>
       <c r="B19" s="3">
-        <v>0.97601405550000009</v>
+        <v>0.533075688504</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E19" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>3-1</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>2.7523847837500002</v>
+        <v>1.0788237834480001</v>
       </c>
       <c r="B20" s="3">
-        <v>0.56581684374999996</v>
+        <v>1.5240347797709999</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="E20" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>3-1</v>
+        <f t="shared" si="8"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>1.2986263094999999</v>
+        <v>1.2151456914100001</v>
       </c>
       <c r="B21" s="3">
-        <v>0.99016895150000006</v>
+        <v>1.1395590252360002</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E21" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>0.53267719255000012</v>
+        <v>1.8378968061200003</v>
       </c>
       <c r="B22" s="3">
-        <v>1.6808794710000001</v>
+        <v>0.55616684245199999</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E22" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-2</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>1.6482236744999998</v>
+        <v>1.1691863153520001</v>
       </c>
       <c r="B23" s="3">
-        <v>1.789338927</v>
+        <v>1.3505668362450001</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E23" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-2</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>2.13643829505</v>
+        <v>3.0108092040260002</v>
       </c>
       <c r="B24" s="3">
-        <v>0.9406399755</v>
+        <v>0.95661196190699993</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E24" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <f t="shared" si="8"/>
+        <v>3-1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>1.0988157829999998</v>
+        <v>0.48772491794400002</v>
       </c>
       <c r="B25" s="3">
-        <v>1.584200847</v>
+        <v>1.24387412688</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E25" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-2</v>
+        <f t="shared" si="8"/>
+        <v>0-1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>1.5742369316</v>
+        <v>1.2681881167999998</v>
       </c>
       <c r="B26" s="3">
-        <v>1.0750456874999998</v>
+        <v>1.210881294912</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E26" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>1.3411176324000003</v>
+        <v>0.92681567615999993</v>
       </c>
       <c r="B27" s="3">
-        <v>1.2871217430000002</v>
+        <v>1.0817108332799998</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E27" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>0.55633360202400006</v>
+        <v>1.8163558547200001</v>
       </c>
       <c r="B28" s="3">
-        <v>1.5866623876250001</v>
+        <v>0.63102576499199992</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E28" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-2</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>1.2748469891280001</v>
+        <v>0.54352982727999999</v>
       </c>
       <c r="B29" s="3">
-        <v>1.12919260986</v>
+        <v>1.6406047653119997</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="E29" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>2.7314461996800001</v>
+        <v>1.5700688871999997</v>
       </c>
       <c r="B30" s="3">
-        <v>0.67310451993599985</v>
+        <v>1.3280260796159997</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E30" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>3-1</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>1.3097066281199998</v>
+        <v>0.83624589065600008</v>
       </c>
       <c r="B31" s="3">
-        <v>0.21050916096000002</v>
+        <v>1.272568301472</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E31" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-0</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>0.99792774162000009</v>
+        <v>2.2111336975200002</v>
       </c>
       <c r="B32" s="3">
-        <v>1.1555610188800003</v>
+        <v>1.0816775006400001</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E32" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>2.2188409204499999</v>
+        <v>1.731411357984</v>
       </c>
       <c r="B33" s="3">
-        <v>0.25092185400000006</v>
+        <v>1.018101699264</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E33" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-0</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>1.5819751942400002</v>
+        <v>1.1752965987840001</v>
       </c>
       <c r="B34" s="3">
-        <v>1.6570690174349998</v>
+        <v>1.3129995406079999</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E34" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-2</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>3.2802949319700003</v>
+        <v>1.0436704185600001</v>
       </c>
       <c r="B35" s="3">
-        <v>1.0690392153869999</v>
+        <v>0.85734981024000012</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E35" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>3-1</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>1.8949446814349999</v>
+        <v>1.20159798732</v>
       </c>
       <c r="B36" s="3">
-        <v>0.9841098931079999</v>
+        <v>1.2841503883200001</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E36" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>3.0454266415950002</v>
+        <v>0.99792774162000009</v>
       </c>
       <c r="B37" s="3">
-        <v>0.8941283055</v>
+        <v>2.2376737751999998</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="E37" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>3-1</v>
+        <f t="shared" si="8"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>2.9608584159440001</v>
+        <v>0.9809685677790001</v>
       </c>
       <c r="B38" s="3">
-        <v>1.2852502499999998</v>
+        <v>2.0849402469419998</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="E38" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>3-1</v>
+        <f t="shared" si="8"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>1.9953670760280002</v>
+        <v>1.3494155227700002</v>
       </c>
       <c r="B39" s="3">
-        <v>1.211529805206</v>
+        <v>1.7493914409359999</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="E39" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <f t="shared" si="8"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>1.065978442264</v>
+        <v>0.97723035741600006</v>
       </c>
       <c r="B40" s="3">
-        <v>1.7493914409359999</v>
+        <v>1.1790677590079999</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E40" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-2</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>0.86288646972799998</v>
+        <v>2.2370394318339999</v>
       </c>
       <c r="B41" s="3">
-        <v>2.3132069858640003</v>
+        <v>1.0326031184519999</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E41" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-2</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>1.3756592883600003</v>
+        <v>1.1708504614800002</v>
       </c>
       <c r="B42" s="3">
-        <v>1.6416585057599999</v>
+        <v>1.0631619846</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E42" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-2</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>1.02077417376</v>
+        <v>2.0043590422239999</v>
       </c>
       <c r="B43" s="3">
-        <v>1.0013472802080001</v>
+        <v>1.242587870365</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E43" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>0.43954898024399996</v>
+        <v>0.51535893292800006</v>
       </c>
       <c r="B44" s="3">
-        <v>1.884752399376</v>
+        <v>1.1596903474169997</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E44" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>0-2</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>2.439594340128</v>
+        <v>0.53448240904800004</v>
       </c>
       <c r="B45" s="3">
-        <v>0.79516238313599996</v>
+        <v>1.6050004793599999</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="E45" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <f t="shared" si="8"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>0.78635990465999994</v>
+        <v>0.92309785840800018</v>
       </c>
       <c r="B46" s="3">
-        <v>1.1834447671200001</v>
+        <v>2.08022437216</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="E46" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>1.252797093504</v>
+        <v>2.0707834667520002</v>
       </c>
       <c r="B47" s="3">
-        <v>1.220795556288</v>
+        <v>0.13924578976000002</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="E47" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>2-0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>1.4943965329920001</v>
+        <v>0.63734852134800002</v>
       </c>
       <c r="B48" s="3">
-        <v>1.8204859666400002</v>
+        <v>0.88352733902400005</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E48" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-2</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>1.8550145372640001</v>
+        <v>1.1925732417300001</v>
       </c>
       <c r="B49" s="3">
-        <v>0.53808682989599999</v>
+        <v>0.831018936416</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E49" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>2.0034293475840004</v>
+        <v>0.75711818294100008</v>
       </c>
       <c r="B50" s="3">
-        <v>1.0731838629579997</v>
+        <v>0.772487917104</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E50" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>0.81869347568399997</v>
+        <v>1.9071826052510001</v>
       </c>
       <c r="B51" s="3">
-        <v>1.0913403004199997</v>
+        <v>0.57130446540799995</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E51" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>1.419894659568</v>
+        <v>1.76050135261</v>
       </c>
       <c r="B52" s="3">
-        <v>0.63291175021599999</v>
+        <v>0.67840957900799992</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E52" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>1.8055141923000004</v>
+        <v>1.1542584742499999</v>
       </c>
       <c r="B53" s="3">
-        <v>0.60482225664</v>
+        <v>0.84869368750000007</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E53" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>1.047243096144</v>
+        <v>1.2873935620000003</v>
       </c>
       <c r="B54" s="3">
-        <v>1.563202785858</v>
+        <v>1.4521691990000001</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E54" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-2</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>1.88577966384</v>
+        <v>1.74812893775</v>
       </c>
       <c r="B55" s="3">
-        <v>1.8590833710750003</v>
+        <v>1.089069007</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E55" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-2</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>0.97708710050000014</v>
+        <v>3.0799271783999997</v>
       </c>
       <c r="B56" s="3">
-        <v>1.7348052390959998</v>
+        <v>0.89593807574999995</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E56" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-2</v>
+        <f t="shared" si="8"/>
+        <v>3-1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>1.9207503135540001</v>
+        <v>1.3486499974999999</v>
       </c>
       <c r="B57" s="3">
-        <v>1.1586527425199999</v>
+        <v>0.99016895150000006</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E57" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-1</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>1.3361741311680002</v>
+        <v>0.94343099000000008</v>
       </c>
       <c r="B58" s="3">
-        <v>1.3321411352479999</v>
+        <v>0.66013719574999996</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E58" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>1.5817943758680002</v>
+        <v>2.175313439975</v>
       </c>
       <c r="B59" s="3">
-        <v>2.2387655637899995</v>
+        <v>0.8298275115</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E59" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-2</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>2.4758520665760004</v>
+        <v>1.8238711400000003</v>
       </c>
       <c r="B60" s="3">
-        <v>1.8470409657139997</v>
+        <v>2.2395636065</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E60" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>2-2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>0.334043532792</v>
+        <v>0.52721607960000005</v>
       </c>
       <c r="B61" s="3">
-        <v>1.6735775717639998</v>
+        <v>1.9519070625000001</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E61" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>0-2</v>
+        <f t="shared" si="8"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>1.5130207073520001</v>
+        <v>2.0199865403250001</v>
       </c>
       <c r="B62" s="3">
-        <v>1.1755112986679999</v>
+        <v>0.86755459950000002</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E62" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>2.6649796549949998</v>
+        <v>0.86418701865300007</v>
       </c>
       <c r="B63" s="3">
-        <v>0.70798570184999998</v>
+        <v>2.1157771070440003</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="E63" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>3-1</v>
+        <f t="shared" si="8"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>1.1789771745600002</v>
+        <v>1.266859489644</v>
       </c>
       <c r="B64" s="3">
-        <v>1.8890123506799998</v>
+        <v>0.89270362392000013</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E64" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-2</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>1.0733604693390002</v>
+        <v>1.382274773025</v>
       </c>
       <c r="B65" s="3">
-        <v>1.6121212096219999</v>
+        <v>0.8061265426719999</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E65" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-2</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>0.87498732854400008</v>
+        <v>1.6587572251499998</v>
       </c>
       <c r="B66" s="3">
-        <v>2.2257377701019996</v>
+        <v>1.2994228170000002</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E66" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-2</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>0.73183185305999998</v>
+        <v>1.574826726525</v>
       </c>
       <c r="B67" s="3">
-        <v>1.10368184375</v>
+        <v>0.88590760019999992</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E67" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>0.85962697220400008</v>
+        <v>0.51339063045</v>
       </c>
       <c r="B68" s="4">
-        <v>1.8617635549439999</v>
+        <v>1.1340417312</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E68" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>1.1404534069500001</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1.6242097687200003</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E69" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>1-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="2"/>
-    </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="2"/>
+      <c r="A70" s="3">
+        <v>0.80221856070000008</v>
+      </c>
+      <c r="B70" s="3">
+        <v>2.7403195966640004</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E70" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-3</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="2"/>
+      <c r="A71" s="3">
+        <v>1.4069594784000001</v>
+      </c>
+      <c r="B71" s="3">
+        <v>2.0140366138200001</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E71" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="2"/>
+      <c r="A72" s="3">
+        <v>1.7063101158000002</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0.79378921036799999</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" ref="C72:C127" si="9">ROUND(A72,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" ref="D72:D127" si="10">ROUND(B72,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E72" s="2" t="str">
+        <f t="shared" ref="E72:E127" si="11">CONCATENATE(C72,"-",D72)</f>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="2"/>
+      <c r="A73" s="3">
+        <v>1.9194512172</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1.5214359867839999</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E73" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="2"/>
+      <c r="A74" s="3">
+        <v>0.62059830596400001</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1.5527589517020002</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E74" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="2"/>
+      <c r="A75" s="3">
+        <v>1.9858392866000001</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0.70581449815800001</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E75" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="2"/>
+      <c r="A76" s="3">
+        <v>0.67854817375200005</v>
+      </c>
+      <c r="B76" s="3">
+        <v>2.8329693044450002</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="E76" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-3</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="2"/>
+      <c r="A77" s="3">
+        <v>2.0814677277000002</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0.49408132338599997</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="2"/>
+      <c r="A78" s="3">
+        <v>0.8783235128639999</v>
+      </c>
+      <c r="B78" s="3">
+        <v>1.288324825641</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E78" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="2"/>
+      <c r="A79" s="3">
+        <v>0.45671755987200002</v>
+      </c>
+      <c r="B79" s="3">
+        <v>1.3496736268620002</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E79" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="2"/>
+      <c r="A80" s="3">
+        <v>1.537066147512</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0.54986703316600005</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E80" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="2"/>
+      <c r="A81" s="3">
+        <v>1.2735735381600002</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1.526903497056</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E81" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="2"/>
+      <c r="A82" s="3">
+        <v>1.7830029534240002</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0.85888321709399995</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E82" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="2"/>
+      <c r="A83" s="3">
+        <v>1.5304368881200001</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1.1360889114999999</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E83" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="2"/>
+      <c r="A84" s="3">
+        <v>2.4636208987040003</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1.43147202849</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E84" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="2"/>
+      <c r="A85" s="3">
+        <v>1.591926645232</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1.6541454551439998</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E85" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="2"/>
+      <c r="A86" s="3">
+        <v>0.79045560551999994</v>
+      </c>
+      <c r="B86" s="3">
+        <v>2.6266375633880004</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="E86" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-3</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="2"/>
+      <c r="A87" s="3">
+        <v>2.1958087821599999</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0.8270727275719999</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E87" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="2"/>
+      <c r="A88" s="3">
+        <v>1.10937928365</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1.6640424549600001</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E88" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="2"/>
+      <c r="A89" s="3">
+        <v>0.56749555665000007</v>
+      </c>
+      <c r="B89" s="3">
+        <v>2.5784361104000002</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="E89" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-3</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="2"/>
+      <c r="A90" s="3">
+        <v>1.4174359492500002</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0.67360107776</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E90" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="2"/>
+      <c r="A91" s="3">
+        <v>0.99041410029900001</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1.694933515152</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E91" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="2"/>
+      <c r="A92" s="3">
+        <v>1.9014701844799999</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1.7294015201279997</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E92" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="2"/>
+      <c r="A93" s="3">
+        <v>0.73953408455199998</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0.74120223842400002</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="2"/>
+      <c r="A94" s="3">
+        <v>0.792269056084</v>
+      </c>
+      <c r="B94" s="3">
+        <v>2.340607068612</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E94" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="2"/>
+      <c r="A95" s="3">
+        <v>1.5788752428480002</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1.0923088527359999</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E95" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="2"/>
+      <c r="A96" s="3">
+        <v>3.9299239152000007</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0.4729534442779999</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>4-0</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="2"/>
+      <c r="A97" s="3">
+        <v>2.1221589142080002</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0.43655366021399994</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E97" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="2"/>
+      <c r="A98" s="3">
+        <v>1.0316050277400002</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0.76116279254399999</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E98" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="2"/>
+      <c r="A99" s="3">
+        <v>1.7193417129000002</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0.64372791327599987</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E99" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="2"/>
+      <c r="A100" s="3">
+        <v>1.3410865360620001</v>
+      </c>
+      <c r="B100" s="3">
+        <v>2.2837008742239995</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E100" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="2"/>
+      <c r="A101" s="3">
+        <v>1.1298531256200002</v>
+      </c>
+      <c r="B101" s="3">
+        <v>4.2314056657599997</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="E101" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-4</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="2"/>
+      <c r="A102" s="3">
+        <v>1.657936651725</v>
+      </c>
+      <c r="B102" s="3">
+        <v>0.25189081372</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E102" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="2"/>
+      <c r="A103" s="3">
+        <v>1.1298531256200002</v>
+      </c>
+      <c r="B103" s="3">
+        <v>1.9702411968819999</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E103" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="2"/>
+      <c r="A104" s="3">
+        <v>1.016867813058</v>
+      </c>
+      <c r="B104" s="3">
+        <v>1.1586527425199999</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E104" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="2"/>
+      <c r="A105" s="3">
+        <v>1.3235570428500001</v>
+      </c>
+      <c r="B105" s="3">
+        <v>0.91122277184999989</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E105" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="2"/>
+      <c r="A106" s="3">
+        <v>0.95451770024799987</v>
+      </c>
+      <c r="B106" s="3">
+        <v>0.88357359803199997</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E106" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="2"/>
+      <c r="A107" s="3">
+        <v>0.54083190307999995</v>
+      </c>
+      <c r="B107" s="3">
+        <v>1.1597653451759999</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E107" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="2"/>
+      <c r="A108" s="3">
+        <v>0.85709801152800014</v>
+      </c>
+      <c r="B108" s="3">
+        <v>0.79516238313599996</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E108" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="2"/>
+      <c r="A109" s="3">
+        <v>1.3920319575360001</v>
+      </c>
+      <c r="B109" s="3">
+        <v>1.0870451180159999</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E109" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="2"/>
+      <c r="A110" s="3">
+        <v>0.95228297775600002</v>
+      </c>
+      <c r="B110" s="3">
+        <v>0.67734244195200011</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D110" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E110" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="2"/>
+      <c r="A111" s="3">
+        <v>1.3966449425880001</v>
+      </c>
+      <c r="B111" s="3">
+        <v>1.2618296725</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D111" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E111" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="2"/>
+      <c r="A112" s="3">
+        <v>0.981007387668</v>
+      </c>
+      <c r="B112" s="3">
+        <v>1.5071175561599999</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D112" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E112" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="2"/>
+      <c r="A113" s="3">
+        <v>2.0562790839359999</v>
+      </c>
+      <c r="B113" s="3">
+        <v>0.38983848225199996</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D113" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E113" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="2"/>
+      <c r="A114" s="3">
+        <v>2.5515620444160003</v>
+      </c>
+      <c r="B114" s="3">
+        <v>1.1289382437</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="D114" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E114" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="2"/>
+      <c r="A115" s="3">
+        <v>1.7978895534600003</v>
+      </c>
+      <c r="B115" s="3">
+        <v>0.98179434045000002</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D115" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E115" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="2"/>
+      <c r="A116" s="3">
+        <v>1.1320555642200001</v>
+      </c>
+      <c r="B116" s="3">
+        <v>0.9571337539739998</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D116" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E116" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="2"/>
+      <c r="A117" s="3">
+        <v>0.74168050320000001</v>
+      </c>
+      <c r="B117" s="3">
+        <v>0.58896778169999997</v>
+      </c>
+      <c r="C117" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D117" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E117" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="2"/>
+      <c r="A118" s="3">
+        <v>1.574696043648</v>
+      </c>
+      <c r="B118" s="3">
+        <v>0.763539714832</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D118" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E118" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="2"/>
+      <c r="A119" s="3">
+        <v>1.8485344856159998</v>
+      </c>
+      <c r="B119" s="3">
+        <v>0.95994008602800007</v>
+      </c>
+      <c r="C119" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D119" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E119" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="2"/>
+      <c r="A120" s="3">
+        <v>1.02696360312</v>
+      </c>
+      <c r="B120" s="3">
+        <v>1.6307311676399998</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D120" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E120" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="2"/>
+      <c r="A121" s="3">
+        <v>0.89437466840400015</v>
+      </c>
+      <c r="B121" s="3">
+        <v>0.55510783801200003</v>
+      </c>
+      <c r="C121" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D121" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E121" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="2"/>
+      <c r="A122" s="3">
+        <v>0.89911073525400009</v>
+      </c>
+      <c r="B122" s="3">
+        <v>0.99321153205600021</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D122" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E122" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="2"/>
+      <c r="A123" s="3">
+        <v>1.0979097841380001</v>
+      </c>
+      <c r="B123" s="3">
+        <v>0.42847834905600002</v>
+      </c>
+      <c r="C123" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D123" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E123" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="2"/>
+      <c r="A124" s="3">
+        <v>1.3629769386999999</v>
+      </c>
+      <c r="B124" s="3">
+        <v>0.46744815173400001</v>
+      </c>
+      <c r="C124" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D124" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E124" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="2"/>
+      <c r="A125" s="3">
+        <v>1.0186840267840001</v>
+      </c>
+      <c r="B125" s="3">
+        <v>0.72820590182399991</v>
+      </c>
+      <c r="C125" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D125" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E125" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="2"/>
+      <c r="A126" s="3">
+        <v>1.3061336001999999</v>
+      </c>
+      <c r="B126" s="3">
+        <v>1.1587318756560001</v>
+      </c>
+      <c r="C126" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D126" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E126" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="2"/>
+      <c r="A127" s="3">
+        <v>0.70985750392800007</v>
+      </c>
+      <c r="B127" s="3">
+        <v>0.58429439963400009</v>
+      </c>
+      <c r="C127" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D127" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E127" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>

--- a/CS generator.xlsx
+++ b/CS generator.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\FDAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -348,18 +348,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E36"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
-        <v>1.96164436296</v>
+        <v>1.9455556014079998</v>
       </c>
       <c r="B1" s="3">
-        <v>0.93315091905000003</v>
+        <v>1.0402324522200002</v>
       </c>
       <c r="C1" s="1">
         <f>ROUND(A1,0)</f>
@@ -376,10 +376,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1.9945757253</v>
+        <v>1.8923238525699999</v>
       </c>
       <c r="B2" s="3">
-        <v>1.633079730765</v>
+        <v>1.7543492601720001</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C5" si="0">ROUND(A2,0)</f>
@@ -396,14 +396,14 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>0.41885488710400004</v>
+        <v>0.67590175398200003</v>
       </c>
       <c r="B3" s="3">
-        <v>1.6885817040190001</v>
+        <v>1.816171620362</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="1"/>
@@ -411,15 +411,15 @@
       </c>
       <c r="E3" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0-2</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1.2748469891280001</v>
+        <v>1.2697433219159999</v>
       </c>
       <c r="B4" s="3">
-        <v>1.2965292043200001</v>
+        <v>1.2631529403869999</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
@@ -436,10 +436,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>1.427330811</v>
+        <v>1.3271107128840001</v>
       </c>
       <c r="B5" s="3">
-        <v>1.058677628316</v>
+        <v>0.8667866955600001</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
@@ -456,30 +456,30 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>1.99108549897</v>
+        <v>1.9168903283360001</v>
       </c>
       <c r="B6" s="3">
-        <v>0.53069061630899994</v>
+        <v>0.54483780205699994</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C6:C7" si="3">ROUND(A6,0)</f>
+        <f t="shared" ref="C6:C69" si="3">ROUND(A6,0)</f>
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:D7" si="4">ROUND(B6,0)</f>
+        <f t="shared" ref="D6:D69" si="4">ROUND(B6,0)</f>
         <v>1</v>
       </c>
       <c r="E6" s="2" t="str">
-        <f t="shared" ref="E6:E7" si="5">CONCATENATE(C6,"-",D6)</f>
+        <f t="shared" ref="E6:E69" si="5">CONCATENATE(C6,"-",D6)</f>
         <v>2-1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>1.241196611928</v>
+        <v>1.3618689214420001</v>
       </c>
       <c r="B7" s="3">
-        <v>1.0352157738510002</v>
+        <v>1.0732401669880003</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="3"/>
@@ -496,1143 +496,2183 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>0.70332592363800006</v>
+        <v>0.73723636132799997</v>
       </c>
       <c r="B8" s="3">
-        <v>1.9054926769480001</v>
+        <v>2.0474835082530003</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" ref="C8:C71" si="6">ROUND(A8,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" ref="D8:D71" si="7">ROUND(B8,0)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E8" s="2" t="str">
-        <f t="shared" ref="E8:E71" si="8">CONCATENATE(C8,"-",D8)</f>
+        <f t="shared" si="5"/>
         <v>1-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>0.73079899567200002</v>
+        <v>0.63085707652799994</v>
       </c>
       <c r="B9" s="3">
-        <v>1.6665187092400002</v>
+        <v>2.1733010751120001</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>0.77305860228000001</v>
+        <v>0.76803787673599999</v>
       </c>
       <c r="B10" s="3">
-        <v>2.3107749624820002</v>
+        <v>2.4148930061100007</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E10" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>1.1717496047880001</v>
+        <v>1.1043712494360003</v>
       </c>
       <c r="B11" s="3">
-        <v>0.709027194267</v>
+        <v>0.89130678411599995</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E11" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>1.4178579050460001</v>
+        <v>1.3883552868360003</v>
       </c>
       <c r="B12" s="3">
-        <v>1.3107794202</v>
+        <v>1.5494379666000002</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-1</v>
+        <f t="shared" si="5"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>3.0195153384080005</v>
+        <v>2.8712920718160007</v>
       </c>
       <c r="B13" s="3">
-        <v>0.69518796344400002</v>
+        <v>0.63102564383999993</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E13" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3-1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>0.77745042302400003</v>
+        <v>0.78883314518400005</v>
       </c>
       <c r="B14" s="3">
-        <v>1.6205454668100003</v>
+        <v>1.6594609468800001</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E14" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>1.4734267866890003</v>
+        <v>1.3605216127020001</v>
       </c>
       <c r="B15" s="3">
-        <v>1.5755738810070001</v>
+        <v>1.3837955860800002</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E15" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-2</v>
+        <f t="shared" si="5"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>2.1467819138480002</v>
+        <v>2.0236486748400004</v>
       </c>
       <c r="B16" s="3">
-        <v>1.3411248134999998</v>
+        <v>1.116686997225</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>1.01814388011</v>
+        <v>1.080590868</v>
       </c>
       <c r="B17" s="3">
-        <v>0.77317689678400003</v>
+        <v>1.0769449928820001</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E17" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>1.3466180367360001</v>
+        <v>1.8554975708799999</v>
       </c>
       <c r="B18" s="3">
-        <v>0.38489827707599994</v>
+        <v>0.45246873129600007</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E18" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-0</v>
+        <f t="shared" si="5"/>
+        <v>2-0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>1.017968881776</v>
+        <v>0.95790180007999992</v>
       </c>
       <c r="B19" s="3">
-        <v>1.3255020632539998</v>
+        <v>1.3272886704320002</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E19" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>0.68782964418000014</v>
+        <v>0.68768349351999991</v>
       </c>
       <c r="B20" s="3">
-        <v>2.7648445003199997</v>
+        <v>3.0949120024760002</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E20" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1-3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>1.4253947652000001</v>
+        <v>1.5718883220799997</v>
       </c>
       <c r="B21" s="3">
-        <v>1.6089773410619999</v>
+        <v>1.4569269610060001</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E21" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-2</v>
+        <f t="shared" si="5"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>1.2308530474800001</v>
+        <v>1.1406380731199999</v>
       </c>
       <c r="B22" s="3">
-        <v>1.0799921743199998</v>
+        <v>1.1763481134239999</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E22" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>1.1606966905380001</v>
+        <v>0.98233608399999994</v>
       </c>
       <c r="B23" s="3">
-        <v>1.4358570953079999</v>
+        <v>1.3333557052739999</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E23" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>1.4444422527780001</v>
+        <v>1.9866176722399997</v>
       </c>
       <c r="B24" s="3">
-        <v>0.69117445799999988</v>
+        <v>0.57921174146999999</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E24" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-1</v>
+        <f t="shared" si="5"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>1.99542141946</v>
+        <v>2.4124197816799997</v>
       </c>
       <c r="B25" s="3">
-        <v>0.53018415762399995</v>
+        <v>0.51282142478400006</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E25" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>1.0340123459600001</v>
+        <v>1.2177995489759998</v>
       </c>
       <c r="B26" s="3">
-        <v>1.4932108346500002</v>
+        <v>1.5993798621000002</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E26" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-1</v>
+        <f t="shared" si="5"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>1.223815197522</v>
+        <v>1.1815644062699999</v>
       </c>
       <c r="B27" s="3">
-        <v>1.0964599262400003</v>
+        <v>1.0381721553460002</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E27" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>0.79504882781999997</v>
+        <v>0.79840905548399999</v>
       </c>
       <c r="B28" s="3">
-        <v>1.5190907016900002</v>
+        <v>1.9192558345200001</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E28" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>1.005627518639</v>
+        <v>1.092266989434</v>
       </c>
       <c r="B29" s="3">
-        <v>1.1685677458900001</v>
+        <v>1.046903182576</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E29" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>0.79504882781999997</v>
+        <v>0.79840905548399999</v>
       </c>
       <c r="B30" s="3">
-        <v>1.6424713907200001</v>
+        <v>1.4714514728550001</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E30" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-2</v>
+        <f t="shared" si="5"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>0.90161076510399996</v>
+        <v>0.80905850935200008</v>
       </c>
       <c r="B31" s="3">
-        <v>0.93199093730400007</v>
+        <v>0.83755854685800002</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E31" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>0.72880703947799996</v>
+        <v>0.65581437187199987</v>
       </c>
       <c r="B32" s="3">
-        <v>0.64268857625600007</v>
+        <v>0.66298301614999999</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E32" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>0.92518805434000007</v>
+        <v>0.83249331037200003</v>
       </c>
       <c r="B33" s="3">
-        <v>1.56778058529</v>
+        <v>1.5353606681700001</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E33" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1-2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>1.4486670042060004</v>
+        <v>1.4052379403999999</v>
       </c>
       <c r="B34" s="3">
-        <v>0.37689421056</v>
+        <v>0.31990097249600002</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" ref="C34:C36" si="9">ROUND(A34,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" ref="D34:D36" si="10">ROUND(B34,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E34" s="2" t="str">
-        <f t="shared" ref="E34:E36" si="11">CONCATENATE(C34,"-",D34)</f>
+        <f t="shared" si="5"/>
         <v>1-0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>1.1688162968720002</v>
+        <v>1.4519875391999999</v>
       </c>
       <c r="B35" s="3">
-        <v>0.93199093730400007</v>
+        <v>0.93923385595000008</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E35" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>1.126331453388</v>
+        <v>1.3199323104</v>
       </c>
       <c r="B36" s="3">
-        <v>0.545324596956</v>
+        <v>0.488507485746</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="E36" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>1-1</v>
+        <f t="shared" si="5"/>
+        <v>1-0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="2"/>
+      <c r="A37" s="3">
+        <v>1.3131790752299999</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1.0453974008320002</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="2"/>
+      <c r="A38" s="3">
+        <v>2.5079403820240005</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.60504805220500002</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
+      <c r="A39" s="3">
+        <v>1.1102153207600001</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.86855283502000014</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="2"/>
+      <c r="A40" s="3">
+        <v>1.6930489720619999</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.71534108904000004</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="2"/>
+      <c r="A41" s="3">
+        <v>1.9729088874879999</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.68977050393000006</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E41" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="2"/>
+      <c r="A42" s="3">
+        <v>1.3339409007119998</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.95380184466000006</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
+      <c r="A43" s="3">
+        <v>1.6907987629679999</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.71815546748000014</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E43" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
+      <c r="A44" s="3">
+        <v>0.97959206417800004</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1.3511266298400002</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E44" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="2"/>
+      <c r="A45" s="3">
+        <v>0.94689506993900008</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1.9075213336800001</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="2"/>
+      <c r="A46" s="3">
+        <v>1.700276059925</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.70113390003000009</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="2"/>
+      <c r="A47" s="3">
+        <v>1.2159528036559999</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1.8728231447500001</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E47" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="2"/>
+      <c r="A48" s="3">
+        <v>1.7953960389120003</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1.4411142059819999</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E48" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="2"/>
+      <c r="A49" s="3">
+        <v>1.2501802242720002</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0.87575161344000008</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="2"/>
+      <c r="A50" s="3">
+        <v>0.78883314518400005</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0.55311274127999999</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="2"/>
+      <c r="A51" s="3">
+        <v>1.1333425077660002</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1.824410195784</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E51" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="2"/>
+      <c r="A52" s="3">
+        <v>1.6906762318320001</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0.75123052876799989</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="2"/>
+      <c r="A53" s="3">
+        <v>1.6579863095039999</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0.521482348368</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E53" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="2"/>
+      <c r="A54" s="3">
+        <v>2.6848046298780002</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0.71712914294399988</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E54" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="2"/>
+      <c r="A55" s="3">
+        <v>1.5615061869960001</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2.0067502629839997</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E55" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="2"/>
+      <c r="A56" s="3">
+        <v>3.1024846019160002</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.67611015855599998</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E56" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="2"/>
+      <c r="A57" s="3">
+        <v>0.92949586464</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0.9943195150080002</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E57" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="2"/>
+      <c r="A58" s="3">
+        <v>1.331863735527</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1.49538954411</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E58" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="2"/>
+      <c r="A59" s="3">
+        <v>2.3982955027199999</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1.1613544771139999</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="2"/>
+      <c r="A60" s="3">
+        <v>2.0931457755779999</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2.0994036037439998</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E60" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="2"/>
+      <c r="A61" s="3">
+        <v>0.43719894218000011</v>
+      </c>
+      <c r="B61" s="3">
+        <v>2.0931350155000001</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E61" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>0-2</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="2"/>
+      <c r="A62" s="3">
+        <v>0.83801990087200018</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0.95047741541999997</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E62" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="2"/>
+      <c r="A63" s="3">
+        <v>1.0325059813640001</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0.81682778499999997</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E63" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="2"/>
+      <c r="A64" s="3">
+        <v>0.72272734305200015</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1.3977537844950001</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="2"/>
+      <c r="A65" s="3">
+        <v>1.4029023039240001</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0.97957427444</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="2"/>
+      <c r="A66" s="3">
+        <v>0.53851438872000001</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1.89609044208</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E66" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="2"/>
+      <c r="A67" s="3">
+        <v>2.7554985291680003</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0.42790882313999989</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E67" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>3-0</v>
+      </c>
     </row>
     <row r="68" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="2"/>
+      <c r="A68" s="4">
+        <v>1.4710000448009999</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1.3840268960490001</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E68" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="69" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="2"/>
+      <c r="A69" s="4">
+        <v>1.8681644574950003</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1.3762489367840003</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E69" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="2"/>
+      <c r="A70" s="3">
+        <v>3.0433234177220005</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0.54108366912399997</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" ref="C70:C116" si="6">ROUND(A70,0)</f>
+        <v>3</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" ref="D70:D116" si="7">ROUND(B70,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E70" s="2" t="str">
+        <f t="shared" ref="E70:E116" si="8">CONCATENATE(C70,"-",D70)</f>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="2"/>
+      <c r="A71" s="3">
+        <v>1.7752700316400003</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1.373509223406</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E71" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="2"/>
+      <c r="A72" s="3">
+        <v>1.5385783415800001</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1.331956181152</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E72" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="2"/>
+      <c r="A73" s="3">
+        <v>2.0964331231969999</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1.6805482039080002</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E73" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="2"/>
+      <c r="A74" s="3">
+        <v>1.5067258325629997</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1.2565104085640002</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E74" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="2"/>
+      <c r="A75" s="3">
+        <v>0.88336762259199997</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1.802744091878</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E75" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="2"/>
+      <c r="A76" s="3">
+        <v>1.4280026475329999</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0.773198635365</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E76" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="2"/>
+      <c r="A77" s="3">
+        <v>1.0690021975360002</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1.504571190224</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E77" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="2"/>
+      <c r="A78" s="3">
+        <v>0.53450109876800012</v>
+      </c>
+      <c r="B78" s="3">
+        <v>1.1557647149400001</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E78" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="2"/>
+      <c r="A79" s="3">
+        <v>2.12162499069</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0.86682353620499997</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E79" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="2"/>
+      <c r="A80" s="3">
+        <v>1.7408156774399999</v>
+      </c>
+      <c r="B80" s="3">
+        <v>2.0433588591650005</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E80" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="2"/>
+      <c r="A81" s="3">
+        <v>2.0192602903200001</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0.86682353620500008</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E81" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="2"/>
+      <c r="A82" s="3">
+        <v>1.7611991430239999</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0.80708981914000011</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E82" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="2"/>
+      <c r="A83" s="3">
+        <v>0.68805078012999998</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1.058798634148</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E83" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="2"/>
+      <c r="A84" s="3">
+        <v>2.8180996824640001</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0.86269888711700005</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E84" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="2"/>
+      <c r="A85" s="3">
+        <v>0.68810340979600004</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1.8060599973840001</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E85" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="2"/>
+      <c r="A86" s="3">
+        <v>1.5251871882120001</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0.90887924628000005</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E86" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="2"/>
+      <c r="A87" s="3">
+        <v>0.49051219895999998</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1.8368289053279998</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E87" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0-2</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="2"/>
+      <c r="A88" s="3">
+        <v>0.88805043890400004</v>
+      </c>
+      <c r="B88" s="3">
+        <v>2.816481019392</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E88" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-3</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="2"/>
+      <c r="A89" s="3">
+        <v>1.1655477798360001</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1.7434531618559999</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E89" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="2"/>
+      <c r="A90" s="3">
+        <v>1.914996918078</v>
+      </c>
+      <c r="B90" s="3">
+        <v>1.1683954483199999</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E90" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="2"/>
+      <c r="A91" s="3">
+        <v>0.90388141581600012</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1.1623021079039999</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E91" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="2"/>
+      <c r="A92" s="3">
+        <v>1.1238816018540001</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1.532175265152</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E92" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="2"/>
+      <c r="A93" s="3">
+        <v>1.1100209449680001</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0.98149091328000004</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="2"/>
+      <c r="A94" s="3">
+        <v>1.649284647864</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0.76817137919999989</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E94" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="2"/>
+      <c r="A95" s="3">
+        <v>1.665205100298</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1.0019125762559997</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E95" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="2"/>
+      <c r="A96" s="3">
+        <v>1.6234336561740004</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1.1197487293439998</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E96" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="2"/>
+      <c r="A97" s="3">
+        <v>3.0250271278080003</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0.93549796300799992</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E97" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="2"/>
+      <c r="A98" s="3">
+        <v>1.4189583943080002</v>
+      </c>
+      <c r="B98" s="3">
+        <v>2.0042104019760001</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E98" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="2"/>
+      <c r="A99" s="3">
+        <v>1.12428786132</v>
+      </c>
+      <c r="B99" s="3">
+        <v>2.3712605628029997</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E99" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="2"/>
+      <c r="A100" s="3">
+        <v>2.1291596198730005</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0.89334959777999989</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E100" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="2"/>
+      <c r="A101" s="3">
+        <v>1.6895857080960004</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1.3108934315249998</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E101" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="2"/>
+      <c r="A102" s="3">
+        <v>1.7646719140440001</v>
+      </c>
+      <c r="B102" s="3">
+        <v>1.6662912062940001</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E102" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="2"/>
+      <c r="A103" s="3">
+        <v>1.5330844033830002</v>
+      </c>
+      <c r="B103" s="3">
+        <v>1.4682006433079999</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E103" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="2"/>
+      <c r="A104" s="3">
+        <v>1.8045266073120001</v>
+      </c>
+      <c r="B104" s="3">
+        <v>0.9888279454440001</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E104" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="2"/>
+      <c r="A105" s="3">
+        <v>1.74906944872</v>
+      </c>
+      <c r="B105" s="3">
+        <v>0.40111730936000001</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E105" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="2"/>
+      <c r="A106" s="3">
+        <v>2.0299679502960002</v>
+      </c>
+      <c r="B106" s="3">
+        <v>0.50346082955499993</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E106" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="2"/>
+      <c r="A107" s="3">
+        <v>1.6569177531839998</v>
+      </c>
+      <c r="B107" s="3">
+        <v>0.44315372854499996</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E107" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="2"/>
+      <c r="A108" s="3">
+        <v>1.8394796685239998</v>
+      </c>
+      <c r="B108" s="3">
+        <v>0.59320480368100004</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E108" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="2"/>
+      <c r="A109" s="3">
+        <v>0.89415414542399985</v>
+      </c>
+      <c r="B109" s="3">
+        <v>0.99452202264999989</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E109" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="2"/>
+      <c r="A110" s="3">
+        <v>0.71534431573199986</v>
+      </c>
+      <c r="B110" s="3">
+        <v>0.87240265209599999</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D110" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E110" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="2"/>
+      <c r="A111" s="3">
+        <v>0.8048017290599998</v>
+      </c>
+      <c r="B111" s="3">
+        <v>0.41872927327699999</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D111" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E111" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-0</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="2"/>
+      <c r="A112" s="3">
+        <v>1.7819706167999998</v>
+      </c>
+      <c r="B112" s="3">
+        <v>0.73282122708200004</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D112" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E112" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="2"/>
+      <c r="A113" s="3">
+        <v>1.3796772502799999</v>
+      </c>
+      <c r="B113" s="3">
+        <v>0.59320480368100004</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D113" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E113" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="2"/>
+      <c r="A114" s="3">
+        <v>1.0347579377099998</v>
+      </c>
+      <c r="B114" s="3">
+        <v>0.69795212176799992</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D114" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E114" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="2"/>
+      <c r="A115" s="3">
+        <v>1.1710499501759999</v>
+      </c>
+      <c r="B115" s="3">
+        <v>1.099284342502</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D115" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E115" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="2"/>
+      <c r="A116" s="3">
+        <v>0.91982483459999986</v>
+      </c>
+      <c r="B116" s="3">
+        <v>1.099284342502</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D116" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E116" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>

--- a/CS generator.xlsx
+++ b/CS generator.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\FDAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magut\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,12 +37,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -57,7 +63,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -66,6 +72,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,58 +360,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
+    <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6">
         <v>0.83290006195200006</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="6">
         <v>1.9055221761179999</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="7">
         <f>ROUND(A1,0)</f>
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="7">
         <f>ROUND(B1,0)</f>
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="8" t="str">
         <f>CONCATENATE(C1,"-",D1)</f>
         <v>1-2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>0.39453493228800007</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2.3475222503399999</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="A2" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B2" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C2" s="1" t="e">
         <f t="shared" ref="C2:C5" si="0">ROUND(A2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="D2" s="1" t="e">
         <f t="shared" ref="D2:D5" si="1">ROUND(B2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E2" s="2" t="e">
         <f t="shared" ref="E2:E5" si="2">CONCATENATE(C2,"-",D2)</f>
-        <v>0-2</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1.0503822433860002</v>
+        <v>1.0834237413999999</v>
       </c>
       <c r="B3" s="3">
-        <v>1.3948482664800002</v>
+        <v>2.367015757616</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
@@ -407,39 +419,39 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1.0908703784160001</v>
+        <v>2.2767989960250001</v>
       </c>
       <c r="B4" s="3">
-        <v>1.504339138422</v>
+        <v>1.3080071568319998</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-2</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>1.1280077786880001</v>
+        <v>1.4806455957499998</v>
       </c>
       <c r="B5" s="3">
-        <v>1.2837201702960002</v>
+        <v>1.1977577947799998</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
@@ -456,154 +468,154 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>1.2772244063880001</v>
+        <v>1.8998640263189999</v>
       </c>
       <c r="B6" s="3">
-        <v>1.4355923411160003</v>
+        <v>1.6753923106760003</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C6:C69" si="3">ROUND(A6,0)</f>
-        <v>1</v>
+        <f t="shared" ref="C6" si="3">ROUND(A6,0)</f>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:D69" si="4">ROUND(B6,0)</f>
-        <v>1</v>
+        <f t="shared" ref="D6" si="4">ROUND(B6,0)</f>
+        <v>2</v>
       </c>
       <c r="E6" s="2" t="str">
-        <f t="shared" ref="E6:E69" si="5">CONCATENATE(C6,"-",D6)</f>
-        <v>1-1</v>
+        <f t="shared" ref="E6" si="5">CONCATENATE(C6,"-",D6)</f>
+        <v>2-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1.7213650743240003</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.74933045155199995</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="A7" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B7" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C7" s="1" t="e">
         <f t="shared" ref="C7:C22" si="6">ROUND(A7,0)</f>
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="D7" s="1" t="e">
         <f t="shared" ref="D7:D22" si="7">ROUND(B7,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="2" t="e">
         <f t="shared" ref="E7:E22" si="8">CONCATENATE(C7,"-",D7)</f>
-        <v>2-1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>1.1982582631320002</v>
+        <v>3.3978372460339998</v>
       </c>
       <c r="B8" s="3">
-        <v>1.9155521349360001</v>
+        <v>0.48540973992900005</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>1-2</v>
+        <v>3-0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>1.7006897271840002</v>
+        <v>1.3069521542999998</v>
       </c>
       <c r="B9" s="3">
-        <v>0.78878205480000008</v>
+        <v>0.47548477714499998</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>2-1</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>1.9957637626920004</v>
+        <v>0.61191053137500007</v>
       </c>
       <c r="B10" s="3">
-        <v>0.82030133772000013</v>
+        <v>2.009999761425</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>2-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>0.89908086580200008</v>
+        <v>1.6437772415890002</v>
       </c>
       <c r="B11" s="3">
-        <v>1.7371253606400001</v>
+        <v>0.75982683000000006</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>1-2</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>1.0304711566079998</v>
+        <v>2.2244880340950002</v>
       </c>
       <c r="B12" s="3">
-        <v>0.59320480368100004</v>
+        <v>1.7598729498939998</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>1-1</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>0.79840905548399999</v>
+        <v>1.7048150692249999</v>
       </c>
       <c r="B13" s="3">
-        <v>1.3435230836100003</v>
+        <v>0.76658381207999993</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="7"/>
@@ -611,15 +623,15 @@
       </c>
       <c r="E13" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>0.60679388201400009</v>
+        <v>1.2849288407059998</v>
       </c>
       <c r="B14" s="3">
-        <v>1.744805304192</v>
+        <v>1.5919509345600003</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="6"/>
@@ -636,14 +648,14 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>1.2731777095079999</v>
+        <v>1.8936982328599998</v>
       </c>
       <c r="B15" s="3">
-        <v>1.5353606681700001</v>
+        <v>1.6232510073719999</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="7"/>
@@ -651,15 +663,15 @@
       </c>
       <c r="E15" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>1-2</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>0.95807586735000005</v>
+        <v>1.2920194716</v>
       </c>
       <c r="B16" s="3">
-        <v>0.73578323746200003</v>
+        <v>0.80488947340799988</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="6"/>
@@ -676,50 +688,50 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>1.1220044616</v>
+        <v>2.0190135115499999</v>
       </c>
       <c r="B17" s="3">
-        <v>0.89560872333000019</v>
+        <v>1.8687127504879999</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>1-1</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>1.092266989434</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.83755854685800002</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="A18" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B18" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C18" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="1" t="e">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>1-1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>0.74528178938399992</v>
+        <v>1.2381985616</v>
       </c>
       <c r="B19" s="3">
-        <v>1.2154846957500001</v>
+        <v>1.8687127504879999</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="6"/>
@@ -727,261 +739,612 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>1.0304711566079998</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.72700221007999999</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="A20" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B20" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C20" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="D20" s="1" t="e">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E20" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>1-1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>2.441936772</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0.93923385595000008</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="A21" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B21" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C21" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="D21" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="D21" s="1" t="e">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E21" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>1.895684867188</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.65555453580899992</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="str">
         <f t="shared" si="8"/>
         <v>2-1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>0.85155632995199992</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0.628123909147</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="str">
-        <f t="shared" si="8"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>2.0151132786049999</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1.135414526595</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" ref="C23:C49" si="9">ROUND(A23,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" ref="D23:D49" si="10">ROUND(B23,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f t="shared" ref="E23:E49" si="11">CONCATENATE(C23,"-",D23)</f>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>1.7625821185980002</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.0377585540000001</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>1.2111984663869999</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.85211704200000005</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f t="shared" si="11"/>
         <v>1-1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-    </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
+      <c r="A26" s="3">
+        <v>1.4090752265100002</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1.5777032985000001</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
+      <c r="A27" s="3">
+        <v>1.3843531321620002</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1.994471745</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E27" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
+      <c r="A28" s="3">
+        <v>1.0506311607959999</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1.1211548355000001</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2"/>
+      <c r="A29" s="3">
+        <v>1.8519434713009999</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.56987012250000013</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="2"/>
+      <c r="A30" s="3">
+        <v>1.4213678553479998</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.84420525000000002</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="2"/>
+      <c r="A31" s="3">
+        <v>1.2360521396300002</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1.276976232</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="2"/>
+      <c r="A32" s="3">
+        <v>3.6126550921499998</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.21131370224999999</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>4-0</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="2"/>
+      <c r="A33" s="3">
+        <v>1.4382952447499999</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1.1953987189199999</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
+      <c r="A34" s="3">
+        <v>1.2872740139999999</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2.2693316500499998</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E34" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
+      <c r="A35" s="3">
+        <v>1.9231736179499999</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1.7568889751399999</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E35" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="2"/>
+      <c r="A36" s="3">
+        <v>0.94910156230999998</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.88615081647799987</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="2"/>
+      <c r="A37" s="3">
+        <v>1.0435757581</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1.0931025650999999</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="2"/>
+      <c r="A38" s="3">
+        <v>2.7372945955140002</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.85366487627400001</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
+      <c r="A39" s="3">
+        <v>2.912975785575</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1.326752245614</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>3-1</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="2"/>
+      <c r="A40" s="3">
+        <v>2.3401118719439999</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1.1382071251320003</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="2"/>
+      <c r="A41" s="3">
+        <v>1.1436396369090001</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.75387744651600008</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E41" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="2"/>
+      <c r="A42" s="3">
+        <v>1.794790171944</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1.1086433037000001</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
+      <c r="A43" s="3">
+        <v>0.90917707834799999</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1.4766092435160001</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E43" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
+      <c r="A44" s="3">
+        <v>1.4003657781959999</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.79495043090400008</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E44" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="2"/>
+      <c r="A45" s="3">
+        <v>0.6566389046879999</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2.14785874233</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="2"/>
+      <c r="A46" s="3">
+        <v>1.4077366398810001</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1.0642959910800001</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="2"/>
+      <c r="A47" s="3">
+        <v>1.742342403516</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1.4643433535850001</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E47" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="2"/>
+      <c r="A48" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B48" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C48" s="1" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D48" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E48" s="2" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="2"/>
+      <c r="A49" s="3">
+        <v>1.2311388535159999</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1.8243465896250002</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E49" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>

--- a/CS generator.xlsx
+++ b/CS generator.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magut\FDAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,18 +37,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -63,7 +57,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -72,12 +66,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,118 +352,118 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E49"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6">
-        <v>0.83290006195200006</v>
-      </c>
-      <c r="B1" s="6">
-        <v>1.9055221761179999</v>
-      </c>
-      <c r="C1" s="7">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>1.9068052437</v>
+      </c>
+      <c r="B1" s="4">
+        <v>0.53904836116400001</v>
+      </c>
+      <c r="C1" s="6">
         <f>ROUND(A1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D1" s="7">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6">
         <f>ROUND(B1,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E1" s="8" t="str">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="str">
         <f>CONCATENATE(C1,"-",D1)</f>
-        <v>1-2</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B2" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C2" s="1" t="e">
+      <c r="A2" s="3">
+        <v>2.5038193278779999</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.81843712808000002</v>
+      </c>
+      <c r="C2" s="1">
         <f t="shared" ref="C2:C5" si="0">ROUND(A2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D2" s="1" t="e">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
         <f t="shared" ref="D2:D5" si="1">ROUND(B2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E2" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="str">
         <f t="shared" ref="E2:E5" si="2">CONCATENATE(C2,"-",D2)</f>
-        <v>#N/A</v>
+        <v>3-1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1.0834237413999999</v>
+        <v>2.2162433514899997</v>
       </c>
       <c r="B3" s="3">
-        <v>2.367015757616</v>
+        <v>1.1094826337279999</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1-2</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2.2767989960250001</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1.3080071568319998</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="A4" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B4" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C4" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1.4806455957499998</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1.1977577947799998</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="A5" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B5" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C5" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E5" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>1-1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>1.8998640263189999</v>
+        <v>1.6263581050500002</v>
       </c>
       <c r="B6" s="3">
-        <v>1.6753923106760003</v>
+        <v>1.4374034708399999</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ref="C6" si="3">ROUND(A6,0)</f>
@@ -479,59 +471,59 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" ref="D6" si="4">ROUND(B6,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" ref="E6" si="5">CONCATENATE(C6,"-",D6)</f>
-        <v>2-2</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B7" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C7" s="1" t="e">
+      <c r="A7" s="3">
+        <v>1.39081662745</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.4374034708399999</v>
+      </c>
+      <c r="C7" s="1">
         <f t="shared" ref="C7:C22" si="6">ROUND(A7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D7" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
         <f t="shared" ref="D7:D22" si="7">ROUND(B7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E7" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="str">
         <f t="shared" ref="E7:E22" si="8">CONCATENATE(C7,"-",D7)</f>
-        <v>#N/A</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>3.3978372460339998</v>
+        <v>1.5074089888000002</v>
       </c>
       <c r="B8" s="3">
-        <v>0.48540973992900005</v>
+        <v>2.4314992045599997</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>3-0</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>1.3069521542999998</v>
+        <v>1.2850201181839997</v>
       </c>
       <c r="B9" s="3">
-        <v>0.47548477714499998</v>
+        <v>1.4533036120559999</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="6"/>
@@ -539,39 +531,39 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>1-0</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>0.61191053137500007</v>
+        <v>0.47967108314399998</v>
       </c>
       <c r="B10" s="3">
-        <v>2.009999761425</v>
+        <v>1.3357350432580002</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>1-2</v>
+        <v>0-1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>1.6437772415890002</v>
+        <v>1.56444925505</v>
       </c>
       <c r="B11" s="3">
-        <v>0.75982683000000006</v>
+        <v>1.3029576612360003</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="6"/>
@@ -588,34 +580,34 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>2.2244880340950002</v>
+        <v>1.4498395669119999</v>
       </c>
       <c r="B12" s="3">
-        <v>1.7598729498939998</v>
+        <v>1.0237362988160001</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>2-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>1.7048150692249999</v>
+        <v>0.84150735314799996</v>
       </c>
       <c r="B13" s="3">
-        <v>0.76658381207999993</v>
+        <v>1.058310752328</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="7"/>
@@ -623,15 +615,15 @@
       </c>
       <c r="E13" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>1.2849288407059998</v>
+        <v>0.70689331266400013</v>
       </c>
       <c r="B14" s="3">
-        <v>1.5919509345600003</v>
+        <v>1.7099210481600002</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="6"/>
@@ -648,30 +640,30 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>1.8936982328599998</v>
+        <v>1.3529911307</v>
       </c>
       <c r="B15" s="3">
-        <v>1.6232510073719999</v>
+        <v>1.111411291824</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>2-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>1.2920194716</v>
+        <v>1.182390393888</v>
       </c>
       <c r="B16" s="3">
-        <v>0.80488947340799988</v>
+        <v>1.252801765092</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="6"/>
@@ -688,114 +680,114 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>2.0190135115499999</v>
+        <v>0.48721037411200002</v>
       </c>
       <c r="B17" s="3">
-        <v>1.8687127504879999</v>
+        <v>0.87462599637600003</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>2-2</v>
+        <v>0-1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B18" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C18" s="1" t="e">
+      <c r="A18" s="3">
+        <v>1.3762666142400002</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1.1071346978559999</v>
+      </c>
+      <c r="C18" s="1">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D18" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E18" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>1.2381985616</v>
+        <v>1.5743031138100001</v>
       </c>
       <c r="B19" s="3">
-        <v>1.8687127504879999</v>
+        <v>1.3064916879359998</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>1-2</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B20" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C20" s="1" t="e">
+      <c r="A20" s="3">
+        <v>0.86360097655800017</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1.2377747782399999</v>
+      </c>
+      <c r="C20" s="1">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D20" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E20" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B21" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C21" s="1" t="e">
+      <c r="A21" s="3">
+        <v>2.0029040124960003</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1.5198349711360002</v>
+      </c>
+      <c r="C21" s="1">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D21" s="1" t="e">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E21" s="2" t="e">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>1.895684867188</v>
+        <v>0.98457827805999998</v>
       </c>
       <c r="B22" s="3">
-        <v>0.65555453580899992</v>
+        <v>0.90831712832000011</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="7"/>
@@ -803,39 +795,39 @@
       </c>
       <c r="E22" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>2.0151132786049999</v>
+        <v>0.86960056000000008</v>
       </c>
       <c r="B23" s="3">
-        <v>1.135414526595</v>
+        <v>1.5138937672320001</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" ref="C23:C49" si="9">ROUND(A23,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" ref="D23:D49" si="10">ROUND(B23,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="2" t="str">
         <f t="shared" ref="E23:E49" si="11">CONCATENATE(C23,"-",D23)</f>
-        <v>2-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>1.7625821185980002</v>
+        <v>1.1618950482300001</v>
       </c>
       <c r="B24" s="3">
-        <v>1.0377585540000001</v>
+        <v>0.95926615904000012</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="10"/>
@@ -843,19 +835,19 @@
       </c>
       <c r="E24" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>1.2111984663869999</v>
+        <v>1.6096880528400004</v>
       </c>
       <c r="B25" s="3">
-        <v>0.85211704200000005</v>
+        <v>1.3780871628800002</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="10"/>
@@ -863,15 +855,15 @@
       </c>
       <c r="E25" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>1.4090752265100002</v>
+        <v>1.21733296</v>
       </c>
       <c r="B26" s="3">
-        <v>1.5777032985000001</v>
+        <v>1.3343723712</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="9"/>
@@ -879,39 +871,39 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>1.3843531321620002</v>
+        <v>1.5709551516540001</v>
       </c>
       <c r="B27" s="3">
-        <v>1.994471745</v>
+        <v>1.03908012384</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-2</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>1.0506311607959999</v>
+        <v>0.79587590000000008</v>
       </c>
       <c r="B28" s="3">
-        <v>1.1211548355000001</v>
+        <v>1.1024314713600001</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="9"/>
@@ -928,10 +920,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>1.8519434713009999</v>
+        <v>2.3919388539480004</v>
       </c>
       <c r="B29" s="3">
-        <v>0.56987012250000013</v>
+        <v>1.19203496256</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="9"/>
@@ -948,14 +940,14 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>1.4213678553479998</v>
+        <v>1.9939886091630001</v>
       </c>
       <c r="B30" s="3">
-        <v>0.84420525000000002</v>
+        <v>0.51575995769999994</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="10"/>
@@ -963,19 +955,19 @@
       </c>
       <c r="E30" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>1.2360521396300002</v>
+        <v>1.9369891833480002</v>
       </c>
       <c r="B31" s="3">
-        <v>1.276976232</v>
+        <v>0.89391146303999991</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="10"/>
@@ -983,35 +975,35 @@
       </c>
       <c r="E31" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>3.6126550921499998</v>
+        <v>0.84195567344699995</v>
       </c>
       <c r="B32" s="3">
-        <v>0.21131370224999999</v>
+        <v>1.342627126352</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>4-0</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>1.4382952447499999</v>
+        <v>1.211840751492</v>
       </c>
       <c r="B33" s="3">
-        <v>1.1953987189199999</v>
+        <v>1.463539769124</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="9"/>
@@ -1028,30 +1020,30 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>1.2872740139999999</v>
+        <v>1.690089101226</v>
       </c>
       <c r="B34" s="3">
-        <v>2.2693316500499998</v>
+        <v>0.8470003278399999</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-2</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>1.9231736179499999</v>
+        <v>1.7587510072379999</v>
       </c>
       <c r="B35" s="3">
-        <v>1.7568889751399999</v>
+        <v>0.782116571516</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="9"/>
@@ -1059,19 +1051,19 @@
       </c>
       <c r="D35" s="1">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>2-2</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>0.94910156230999998</v>
+        <v>0.8976519591119998</v>
       </c>
       <c r="B36" s="3">
-        <v>0.88615081647799987</v>
+        <v>1.1577370835519998</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="9"/>
@@ -1088,10 +1080,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>1.0435757581</v>
+        <v>1.1617829206199999</v>
       </c>
       <c r="B37" s="3">
-        <v>1.0931025650999999</v>
+        <v>2.1661266050639996</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="9"/>
@@ -1099,23 +1091,23 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>2.7372945955140002</v>
+        <v>1.6191530233649998</v>
       </c>
       <c r="B38" s="3">
-        <v>0.85366487627400001</v>
+        <v>0.54149904262799997</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="10"/>
@@ -1123,19 +1115,19 @@
       </c>
       <c r="E38" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>3-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>2.912975785575</v>
+        <v>1.573664631048</v>
       </c>
       <c r="B39" s="3">
-        <v>1.326752245614</v>
+        <v>1.2467057085559998</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="10"/>
@@ -1143,19 +1135,19 @@
       </c>
       <c r="E39" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>3-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>2.3401118719439999</v>
+        <v>1.0523994673499999</v>
       </c>
       <c r="B40" s="3">
-        <v>1.1382071251320003</v>
+        <v>0.72199872350399985</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="10"/>
@@ -1163,15 +1155,15 @@
       </c>
       <c r="E40" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>1.1436396369090001</v>
+        <v>1.1693955413249999</v>
       </c>
       <c r="B41" s="3">
-        <v>0.75387744651600008</v>
+        <v>0.94554180653999986</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="9"/>
@@ -1188,14 +1180,14 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>1.794790171944</v>
+        <v>2.7474889408739998</v>
       </c>
       <c r="B42" s="3">
-        <v>1.1086433037000001</v>
+        <v>0.8413125119999999</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="10"/>
@@ -1203,15 +1195,15 @@
       </c>
       <c r="E42" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>2-1</v>
+        <v>3-1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>0.90917707834799999</v>
+        <v>0.92290339754999995</v>
       </c>
       <c r="B43" s="3">
-        <v>1.4766092435160001</v>
+        <v>1.6621239137280002</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="9"/>
@@ -1219,19 +1211,19 @@
       </c>
       <c r="D43" s="1">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>1.4003657781959999</v>
+        <v>0.52531558039799997</v>
       </c>
       <c r="B44" s="3">
-        <v>0.79495043090400008</v>
+        <v>1.0526210519999999</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="9"/>
@@ -1247,35 +1239,35 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>0.6566389046879999</v>
-      </c>
-      <c r="B45" s="3">
-        <v>2.14785874233</v>
-      </c>
-      <c r="C45" s="1">
+      <c r="A45" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B45" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C45" s="1" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="D45" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="D45" s="1" t="e">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="E45" s="2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E45" s="2" t="e">
         <f t="shared" si="11"/>
-        <v>1-2</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>1.4077366398810001</v>
+        <v>2.0351718226560003</v>
       </c>
       <c r="B46" s="3">
-        <v>1.0642959910800001</v>
+        <v>0.61733561400000003</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="10"/>
@@ -1283,19 +1275,19 @@
       </c>
       <c r="E46" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>1.742342403516</v>
+        <v>0.38060552853400004</v>
       </c>
       <c r="B47" s="3">
-        <v>1.4643433535850001</v>
+        <v>0.94494656550000011</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="10"/>
@@ -1303,35 +1295,35 @@
       </c>
       <c r="E47" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>2-1</v>
+        <v>0-1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B48" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C48" s="1" t="e">
+      <c r="A48" s="3">
+        <v>1.4955709831720001</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0.80729232149999997</v>
+      </c>
+      <c r="C48" s="1">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D48" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E48" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>1.2311388535159999</v>
+        <v>1.4419994260839999</v>
       </c>
       <c r="B49" s="3">
-        <v>1.8243465896250002</v>
+        <v>0.81264229199999993</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" si="9"/>
@@ -1339,327 +1331,912 @@
       </c>
       <c r="D49" s="1">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>0.62623343281799992</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1.3349890259999999</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" ref="C50:C94" si="12">ROUND(A50,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" ref="D50:D94" si="13">ROUND(B50,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="str">
+        <f t="shared" ref="E50:E94" si="14">CONCATENATE(C50,"-",D50)</f>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>1.2854436967680001</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1.353427068</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E51" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>1.5224221141360001</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0.84132877500000003</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B53" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C53" s="1" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D53" s="1" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E53" s="2" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>0.78594416103999987</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2.6362409473640001</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="E54" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>0.49116804199999997</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1.6470414762669998</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E55" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>0-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>0.41303566200000003</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2.0173269664499998</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E56" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>0-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>0.31383648562500005</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1.3966551700200001</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E57" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>0-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>0.96702760048800007</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0.67262237412299997</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E58" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>1.2165756389610001</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1.358939244618</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>0.62282066241399991</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0.81424813635199988</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E60" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>1.02212915475</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1.1842706375299998</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>1.466040126477</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1.0951748862999999</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E62" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>1.6609465407150001</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1.7839748039759999</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E63" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>0.60993326093699995</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1.1382071251320003</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>1.231590938424</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0.93126037510800019</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>2.3401118719440004</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1.2416805001440001</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E66" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>1.0605290025329999</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0.30509281896000001</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E67" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>1.1112238796879998</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0.97632587556000017</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E68" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>0.73865967499999996</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1.8549027957599999</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E69" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>1-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="2"/>
-    </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="2"/>
+      <c r="A70" s="3">
+        <v>0.762533155696</v>
+      </c>
+      <c r="B70" s="3">
+        <v>3.4146933893099995</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="E70" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-3</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="2"/>
+      <c r="A71" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B71" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C71" s="1" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D71" s="1" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E71" s="2" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="2"/>
+      <c r="A72" s="3">
+        <v>1.1363806187500001</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0.7932249990000001</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E72" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="2"/>
+      <c r="A73" s="3">
+        <v>1.341426872625</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1.2936395944799999</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E73" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="2"/>
+      <c r="A74" s="3">
+        <v>1.776619416</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1.5427910980440001</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E74" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="2"/>
+      <c r="A75" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B75" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C75" s="1" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D75" s="1" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E75" s="2" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="2"/>
+      <c r="A76" s="3">
+        <v>1.5545419889999998</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1.3080071568319998</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E76" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="2"/>
+      <c r="A77" s="3">
+        <v>0.42632490010000001</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1.1934550911599999</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E77" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="2"/>
+      <c r="A78" s="3">
+        <v>0.95141156264000004</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0.62994742259199998</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E78" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="2"/>
+      <c r="A79" s="3">
+        <v>1.4431924905719999</v>
+      </c>
+      <c r="B79" s="3">
+        <v>1.1521465405439999</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E79" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="2"/>
+      <c r="A80" s="3">
+        <v>0.62618712532800003</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1.32965491968</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E80" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="2"/>
+      <c r="A81" s="3">
+        <v>1.4372394268319999</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1.5849947393280002</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E81" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="2"/>
+      <c r="A82" s="3">
+        <v>1.5462543598380001</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1.1197487293439998</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E82" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="2"/>
+      <c r="A83" s="3">
+        <v>1.2904357934160002</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1.1786668058879999</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E83" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="2"/>
+      <c r="A84" s="3">
+        <v>0.45199070688000004</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1.901911584384</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E84" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>0-2</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="2"/>
+      <c r="A85" s="3">
+        <v>1.6175384867160001</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1.5646730807039999</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E85" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="2"/>
+      <c r="A86" s="3">
+        <v>1.3753669870399998</v>
+      </c>
+      <c r="B86" s="3">
+        <v>1.140222378414</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E86" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="2"/>
+      <c r="A87" s="3">
+        <v>0.98233608400000005</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1.1401929667700001</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E87" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="2"/>
+      <c r="A88" s="3">
+        <v>1.8554975708799999</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0.45246873129600007</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-0</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="2"/>
+      <c r="A89" s="3">
+        <v>1.5063812104000001</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1.203564471857</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="2"/>
+      <c r="A90" s="3">
+        <v>2.2899833774999996</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0.78348173494499995</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E90" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="2"/>
+      <c r="A91" s="3">
+        <v>1.4226906720000001</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0.80685710100000008</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E91" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="2"/>
+      <c r="A92" s="3">
+        <v>0.87423309187499998</v>
+      </c>
+      <c r="B92" s="3">
+        <v>0.78053104733999989</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E92" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="2"/>
+      <c r="A93" s="3">
+        <v>0.47205428985000003</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0.68437888625999999</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>0-1</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="2"/>
+      <c r="A94" s="3">
+        <v>0.95790180007999992</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1.3272886704320002</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E94" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>

--- a/CS generator.xlsx
+++ b/CS generator.xlsx
@@ -352,42 +352,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E94"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4">
-        <v>1.9068052437</v>
-      </c>
-      <c r="B1" s="4">
-        <v>0.53904836116400001</v>
-      </c>
-      <c r="C1" s="6">
+      <c r="A1" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B1" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C1" s="6" t="e">
         <f>ROUND(A1,0)</f>
-        <v>2</v>
-      </c>
-      <c r="D1" s="6">
+        <v>#N/A</v>
+      </c>
+      <c r="D1" s="6" t="e">
         <f>ROUND(B1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E1" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E1" s="7" t="e">
         <f>CONCATENATE(C1,"-",D1)</f>
-        <v>2-1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>2.5038193278779999</v>
+        <v>0.92864892119999998</v>
       </c>
       <c r="B2" s="3">
-        <v>0.81843712808000002</v>
+        <v>1.0349116755839998</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C5" si="0">ROUND(A2,0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D5" si="1">ROUND(B2,0)</f>
@@ -395,15 +395,15 @@
       </c>
       <c r="E2" s="2" t="str">
         <f t="shared" ref="E2:E5" si="2">CONCATENATE(C2,"-",D2)</f>
-        <v>3-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>2.2162433514899997</v>
+        <v>1.5182188739800002</v>
       </c>
       <c r="B3" s="3">
-        <v>1.1094826337279999</v>
+        <v>1.5923135326800002</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
@@ -411,63 +411,63 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2-1</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B4" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C4" s="1" t="e">
+      <c r="A4" s="3">
+        <v>0.52471823644800009</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.2348142429960001</v>
+      </c>
+      <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D4" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E4" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B5" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C5" s="1" t="e">
+      <c r="A5" s="3">
+        <v>1.6570065427999998</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2.01613578576</v>
+      </c>
+      <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D5" s="1" t="e">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E5" s="2" t="e">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>1.6263581050500002</v>
+        <v>1.2832952647840001</v>
       </c>
       <c r="B6" s="3">
-        <v>1.4374034708399999</v>
+        <v>1.3432888456010001</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ref="C6" si="3">ROUND(A6,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ref="D6" si="4">ROUND(B6,0)</f>
@@ -475,15 +475,15 @@
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" ref="E6" si="5">CONCATENATE(C6,"-",D6)</f>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>1.39081662745</v>
+        <v>1.290435793416</v>
       </c>
       <c r="B7" s="3">
-        <v>1.4374034708399999</v>
+        <v>1.9447544384639999</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ref="C7:C22" si="6">ROUND(A7,0)</f>
@@ -491,63 +491,63 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" ref="D7:D22" si="7">ROUND(B7,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" ref="E7:E22" si="8">CONCATENATE(C7,"-",D7)</f>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1.5074089888000002</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2.4314992045599997</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="A8" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B8" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C8" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="D8" s="1" t="e">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="E8" s="2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E8" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>2-2</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>1.2850201181839997</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1.4533036120559999</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="A9" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B9" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C9" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="D9" s="1" t="e">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E9" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>1-1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>0.47967108314399998</v>
+        <v>2.5000537249999999</v>
       </c>
       <c r="B10" s="3">
-        <v>1.3357350432580002</v>
+        <v>0.85422831984000003</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="7"/>
@@ -555,15 +555,15 @@
       </c>
       <c r="E10" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0-1</v>
+        <v>3-1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>1.56444925505</v>
+        <v>2.064854063052</v>
       </c>
       <c r="B11" s="3">
-        <v>1.3029576612360003</v>
+        <v>0.72677870633999997</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="6"/>
@@ -580,10 +580,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>1.4498395669119999</v>
+        <v>0.91545912377399996</v>
       </c>
       <c r="B12" s="3">
-        <v>1.0237362988160001</v>
+        <v>0.6547853468</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="6"/>
@@ -599,115 +599,115 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>0.84150735314799996</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1.058310752328</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="A13" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B13" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C13" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="1" t="e">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>1-1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>0.70689331266400013</v>
+        <v>3.1749094879920001</v>
       </c>
       <c r="B14" s="3">
-        <v>1.7099210481600002</v>
+        <v>0.75826666799999998</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>1-2</v>
+        <v>3-1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>1.3529911307</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1.111411291824</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="A15" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B15" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C15" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="D15" s="1" t="e">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E15" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>1-1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>1.182390393888</v>
+        <v>1.7226926288</v>
       </c>
       <c r="B16" s="3">
-        <v>1.252801765092</v>
+        <v>1.509229525184</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>1-1</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>0.48721037411200002</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.87462599637600003</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="A17" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B17" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C17" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="D17" s="1" t="e">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E17" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>0-1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>1.3762666142400002</v>
+        <v>3.0687565340749998</v>
       </c>
       <c r="B18" s="3">
-        <v>1.1071346978559999</v>
+        <v>1.4374034708399999</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="7"/>
@@ -715,19 +715,19 @@
       </c>
       <c r="E18" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>1-1</v>
+        <v>3-1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>1.5743031138100001</v>
+        <v>1.2849865901369999</v>
       </c>
       <c r="B19" s="3">
-        <v>1.3064916879359998</v>
+        <v>1.3483946070400001</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="7"/>
@@ -735,15 +735,15 @@
       </c>
       <c r="E19" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>0.86360097655800017</v>
+        <v>0.615724758012</v>
       </c>
       <c r="B20" s="3">
-        <v>1.2377747782399999</v>
+        <v>0.8742874742400002</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="6"/>
@@ -760,14 +760,14 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>2.0029040124960003</v>
+        <v>1.10960047548</v>
       </c>
       <c r="B21" s="3">
-        <v>1.5198349711360002</v>
+        <v>2.0942593219900005</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="7"/>
@@ -775,15 +775,15 @@
       </c>
       <c r="E21" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>2-2</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>0.98457827805999998</v>
+        <v>0.97959206417800004</v>
       </c>
       <c r="B22" s="3">
-        <v>0.90831712832000011</v>
+        <v>0.86855283502000014</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="6"/>
@@ -800,10 +800,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>0.86960056000000008</v>
+        <v>1.3124129923550001</v>
       </c>
       <c r="B23" s="3">
-        <v>1.5138937672320001</v>
+        <v>0.87922756926000001</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" ref="C23:C49" si="9">ROUND(A23,0)</f>
@@ -811,23 +811,23 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" ref="D23:D49" si="10">ROUND(B23,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2" t="str">
         <f t="shared" ref="E23:E49" si="11">CONCATENATE(C23,"-",D23)</f>
-        <v>1-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>1.1618950482300001</v>
+        <v>2.2994317317199999</v>
       </c>
       <c r="B24" s="3">
-        <v>0.95926615904000012</v>
+        <v>1.3993240125800002</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="10"/>
@@ -835,15 +835,15 @@
       </c>
       <c r="E24" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>1.6096880528400004</v>
+        <v>1.8998640263190001</v>
       </c>
       <c r="B25" s="3">
-        <v>1.3780871628800002</v>
+        <v>0.691957563873</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="9"/>
@@ -860,10 +860,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>1.21733296</v>
+        <v>1.208839285472</v>
       </c>
       <c r="B26" s="3">
-        <v>1.3343723712</v>
+        <v>1.3762489367840003</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="9"/>
@@ -879,75 +879,75 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>1.5709551516540001</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1.03908012384</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="A27" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B27" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C27" s="1" t="e">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="D27" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="D27" s="1" t="e">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E27" s="2" t="e">
         <f t="shared" si="11"/>
-        <v>2-1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>0.79587590000000008</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1.1024314713600001</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="A28" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B28" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C28" s="1" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="D28" s="1" t="e">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E28" s="2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E28" s="2" t="e">
         <f t="shared" si="11"/>
-        <v>1-1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>2.3919388539480004</v>
+        <v>2.568141393676</v>
       </c>
       <c r="B29" s="3">
-        <v>1.19203496256</v>
+        <v>1.9647852791400002</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>2-1</v>
+        <v>3-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>1.9939886091630001</v>
+        <v>0.68818762267199995</v>
       </c>
       <c r="B30" s="3">
-        <v>0.51575995769999994</v>
+        <v>1.0030948273319999</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="10"/>
@@ -955,15 +955,15 @@
       </c>
       <c r="E30" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>1.9369891833480002</v>
+        <v>2.1586615457399998</v>
       </c>
       <c r="B31" s="3">
-        <v>0.89391146303999991</v>
+        <v>0.78017433916500001</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="9"/>
@@ -980,14 +980,14 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>0.84195567344699995</v>
+        <v>2.1135747618480001</v>
       </c>
       <c r="B32" s="3">
-        <v>1.342627126352</v>
+        <v>1.0979985835800001</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="10"/>
@@ -995,19 +995,19 @@
       </c>
       <c r="E32" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>1.211840751492</v>
+        <v>1.8800379838799999</v>
       </c>
       <c r="B33" s="3">
-        <v>1.463539769124</v>
+        <v>0.92875641833000011</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="10"/>
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E33" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>1.690089101226</v>
+        <v>1.5281651264760001</v>
       </c>
       <c r="B34" s="3">
-        <v>0.8470003278399999</v>
+        <v>0.67599214904000016</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="9"/>
@@ -1040,10 +1040,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>1.7587510072379999</v>
+        <v>1.5685737809560001</v>
       </c>
       <c r="B35" s="3">
-        <v>0.782116571516</v>
+        <v>1.26748527945</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="9"/>
@@ -1060,14 +1060,14 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>0.8976519591119998</v>
+        <v>2.3338227472999997</v>
       </c>
       <c r="B36" s="3">
-        <v>1.1577370835519998</v>
+        <v>0.52240560331999997</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="10"/>
@@ -1075,39 +1075,39 @@
       </c>
       <c r="E36" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>1.1617829206199999</v>
+        <v>1.76690718776</v>
       </c>
       <c r="B37" s="3">
-        <v>2.1661266050639996</v>
+        <v>0.74807452051199996</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-2</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>1.6191530233649998</v>
+        <v>0.65239650009599992</v>
       </c>
       <c r="B38" s="3">
-        <v>0.54149904262799997</v>
+        <v>1.39071961119</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="10"/>
@@ -1115,19 +1115,19 @@
       </c>
       <c r="E38" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>1.573664631048</v>
+        <v>0.96773984155199999</v>
       </c>
       <c r="B39" s="3">
-        <v>1.2467057085559998</v>
+        <v>0.77481786362000005</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="10"/>
@@ -1135,15 +1135,15 @@
       </c>
       <c r="E39" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>1.0523994673499999</v>
+        <v>1.1842628864000002</v>
       </c>
       <c r="B40" s="3">
-        <v>0.72199872350399985</v>
+        <v>0.70590717194399999</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="9"/>
@@ -1160,10 +1160,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>1.1693955413249999</v>
+        <v>1.2566967286500001</v>
       </c>
       <c r="B41" s="3">
-        <v>0.94554180653999986</v>
+        <v>0.51944643721799988</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="9"/>
@@ -1180,14 +1180,14 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>2.7474889408739998</v>
+        <v>1.7215149168800001</v>
       </c>
       <c r="B42" s="3">
-        <v>0.8413125119999999</v>
+        <v>1.252801765092</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="10"/>
@@ -1195,15 +1195,15 @@
       </c>
       <c r="E42" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>3-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>0.92290339754999995</v>
+        <v>0.94228093344000008</v>
       </c>
       <c r="B43" s="3">
-        <v>1.6621239137280002</v>
+        <v>1.2027676065600001</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="9"/>
@@ -1211,19 +1211,19 @@
       </c>
       <c r="D43" s="1">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>0.52531558039799997</v>
+        <v>0.69767137717200012</v>
       </c>
       <c r="B44" s="3">
-        <v>1.0526210519999999</v>
+        <v>1.4175251750400002</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="9"/>
@@ -1239,35 +1239,35 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B45" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C45" s="1" t="e">
+      <c r="A45" s="3">
+        <v>1.7878960432519999</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1.3529918197680002</v>
+      </c>
+      <c r="C45" s="1">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D45" s="1" t="e">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E45" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>2.0351718226560003</v>
+        <v>0.73593652475200011</v>
       </c>
       <c r="B46" s="3">
-        <v>0.61733561400000003</v>
+        <v>1.0638710116080001</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="10"/>
@@ -1275,35 +1275,35 @@
       </c>
       <c r="E46" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>0.38060552853400004</v>
+        <v>1.6444524064319999</v>
       </c>
       <c r="B47" s="3">
-        <v>0.94494656550000011</v>
+        <v>0.21821389848399997</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>0-1</v>
+        <v>2-0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>1.4955709831720001</v>
+        <v>1.3913339400000002</v>
       </c>
       <c r="B48" s="3">
-        <v>0.80729232149999997</v>
+        <v>2.8829799022079996</v>
       </c>
       <c r="C48" s="1">
         <f t="shared" si="9"/>
@@ -1311,19 +1311,19 @@
       </c>
       <c r="D48" s="1">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>1-1</v>
+        <v>1-3</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>1.4419994260839999</v>
+        <v>1.2548018000000001</v>
       </c>
       <c r="B49" s="3">
-        <v>0.81264229199999993</v>
+        <v>1.430355044608</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" si="9"/>
@@ -1340,10 +1340,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>0.62623343281799992</v>
+        <v>1.2566528146080003</v>
       </c>
       <c r="B50" s="3">
-        <v>1.3349890259999999</v>
+        <v>1.3091222577920001</v>
       </c>
       <c r="C50" s="1">
         <f t="shared" ref="C50:C94" si="12">ROUND(A50,0)</f>
@@ -1360,14 +1360,14 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>1.2854436967680001</v>
+        <v>2.4486010937600002</v>
       </c>
       <c r="B51" s="3">
-        <v>1.353427068</v>
+        <v>0.95764490444799999</v>
       </c>
       <c r="C51" s="1">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="13"/>
@@ -1375,19 +1375,19 @@
       </c>
       <c r="E51" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>1.5224221141360001</v>
+        <v>1.42364481679</v>
       </c>
       <c r="B52" s="3">
-        <v>0.84132877500000003</v>
+        <v>1.024131460352</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="13"/>
@@ -1395,35 +1395,35 @@
       </c>
       <c r="E52" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B53" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C53" s="1" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D53" s="1" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E53" s="2" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
+      <c r="A53" s="3">
+        <v>0.85835575677600007</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1.5792556961279998</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E53" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>0.78594416103999987</v>
+        <v>1.4811629365580001</v>
       </c>
       <c r="B54" s="3">
-        <v>2.6362409473640001</v>
+        <v>1.0211312153600001</v>
       </c>
       <c r="C54" s="1">
         <f t="shared" si="12"/>
@@ -1431,43 +1431,43 @@
       </c>
       <c r="D54" s="1">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E54" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>0.49116804199999997</v>
+        <v>1.0392744146220001</v>
       </c>
       <c r="B55" s="3">
-        <v>1.6470414762669998</v>
+        <v>1.059769985088</v>
       </c>
       <c r="C55" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="1">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>0-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>0.41303566200000003</v>
+        <v>1.30440084</v>
       </c>
       <c r="B56" s="3">
-        <v>2.0173269664499998</v>
+        <v>1.852351044096</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="13"/>
@@ -1475,19 +1475,19 @@
       </c>
       <c r="E56" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>0-2</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>0.31383648562500005</v>
+        <v>1.2608669000000001</v>
       </c>
       <c r="B57" s="3">
-        <v>1.3966551700200001</v>
+        <v>0.85490717126400007</v>
       </c>
       <c r="C57" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="13"/>
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E57" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>0-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>0.96702760048800007</v>
+        <v>1.1628081288180001</v>
       </c>
       <c r="B58" s="3">
-        <v>0.67262237412299997</v>
+        <v>0.88235262719999996</v>
       </c>
       <c r="C58" s="1">
         <f t="shared" si="12"/>
@@ -1520,10 +1520,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>1.2165756389610001</v>
+        <v>0.98152619843799993</v>
       </c>
       <c r="B59" s="3">
-        <v>1.358939244618</v>
+        <v>1.3531309708800001</v>
       </c>
       <c r="C59" s="1">
         <f t="shared" si="12"/>
@@ -1540,10 +1540,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>0.62282066241399991</v>
+        <v>1.1037000916979998</v>
       </c>
       <c r="B60" s="3">
-        <v>0.81424813635199988</v>
+        <v>1.5677437479840002</v>
       </c>
       <c r="C60" s="1">
         <f t="shared" si="12"/>
@@ -1551,19 +1551,19 @@
       </c>
       <c r="D60" s="1">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>1.02212915475</v>
+        <v>1.286326401552</v>
       </c>
       <c r="B61" s="3">
-        <v>1.1842706375299998</v>
+        <v>1.3392385000279998</v>
       </c>
       <c r="C61" s="1">
         <f t="shared" si="12"/>
@@ -1580,10 +1580,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>1.466040126477</v>
+        <v>0.67736782421099984</v>
       </c>
       <c r="B62" s="3">
-        <v>1.0951748862999999</v>
+        <v>0.71243352302399987</v>
       </c>
       <c r="C62" s="1">
         <f t="shared" si="12"/>
@@ -1600,10 +1600,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>1.6609465407150001</v>
+        <v>1.8401030395559996</v>
       </c>
       <c r="B63" s="3">
-        <v>1.7839748039759999</v>
+        <v>0.81037573072000002</v>
       </c>
       <c r="C63" s="1">
         <f t="shared" si="12"/>
@@ -1611,19 +1611,19 @@
       </c>
       <c r="D63" s="1">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>2-2</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>0.60993326093699995</v>
+        <v>1.4392761185699996</v>
       </c>
       <c r="B64" s="3">
-        <v>1.1382071251320003</v>
+        <v>1.41825836208</v>
       </c>
       <c r="C64" s="1">
         <f t="shared" si="12"/>
@@ -1640,10 +1640,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>1.231590938424</v>
+        <v>1.2367787308199998</v>
       </c>
       <c r="B65" s="3">
-        <v>0.93126037510800019</v>
+        <v>1.5987363038639999</v>
       </c>
       <c r="C65" s="1">
         <f t="shared" si="12"/>
@@ -1651,23 +1651,23 @@
       </c>
       <c r="D65" s="1">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>2.3401118719440004</v>
+        <v>1.13339842245</v>
       </c>
       <c r="B66" s="3">
-        <v>1.2416805001440001</v>
+        <v>1.0744546221</v>
       </c>
       <c r="C66" s="1">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" s="1">
         <f t="shared" si="13"/>
@@ -1675,15 +1675,15 @@
       </c>
       <c r="E66" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>2-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>1.0605290025329999</v>
+        <v>1.3632501530700001</v>
       </c>
       <c r="B67" s="3">
-        <v>0.30509281896000001</v>
+        <v>1.1845044484239997</v>
       </c>
       <c r="C67" s="1">
         <f t="shared" si="12"/>
@@ -1691,19 +1691,19 @@
       </c>
       <c r="D67" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>1-0</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>1.1112238796879998</v>
+        <v>0.97775243469899997</v>
       </c>
       <c r="B68" s="4">
-        <v>0.97632587556000017</v>
+        <v>0.74588998561199993</v>
       </c>
       <c r="C68" s="1">
         <f t="shared" si="12"/>
@@ -1720,10 +1720,10 @@
     </row>
     <row r="69" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>0.73865967499999996</v>
+        <v>0.91166505952499988</v>
       </c>
       <c r="B69" s="4">
-        <v>1.8549027957599999</v>
+        <v>1.2408263342879999</v>
       </c>
       <c r="C69" s="1">
         <f t="shared" si="12"/>
@@ -1731,19 +1731,19 @@
       </c>
       <c r="D69" s="1">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>1-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>0.762533155696</v>
+        <v>0.71961197126400001</v>
       </c>
       <c r="B70" s="3">
-        <v>3.4146933893099995</v>
+        <v>1.2996611800159998</v>
       </c>
       <c r="C70" s="1">
         <f t="shared" si="12"/>
@@ -1751,43 +1751,43 @@
       </c>
       <c r="D70" s="1">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E70" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B71" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C71" s="1" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D71" s="1" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E71" s="2" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
+      <c r="A71" s="3">
+        <v>1.2766646120519998</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0.55880354380800001</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E71" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>1.1363806187500001</v>
+        <v>2.5295169691439998</v>
       </c>
       <c r="B72" s="3">
-        <v>0.7932249990000001</v>
+        <v>0.79649117759999988</v>
       </c>
       <c r="C72" s="1">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D72" s="1">
         <f t="shared" si="13"/>
@@ -1795,75 +1795,75 @@
       </c>
       <c r="E72" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>1-1</v>
+        <v>3-1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>1.341426872625</v>
-      </c>
-      <c r="B73" s="3">
-        <v>1.2936395944799999</v>
-      </c>
-      <c r="C73" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="D73" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E73" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+      <c r="A73" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B73" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C73" s="1" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D73" s="1" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E73" s="2" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>1.776619416</v>
+        <v>1.2977363256059997</v>
       </c>
       <c r="B74" s="3">
-        <v>1.5427910980440001</v>
+        <v>0.76237813049999992</v>
       </c>
       <c r="C74" s="1">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>2-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B75" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C75" s="1" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D75" s="1" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E75" s="2" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
+      <c r="A75" s="3">
+        <v>1.0959585101010003</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1.1529230580000003</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E75" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>1.5545419889999998</v>
+        <v>2.0763823325700002</v>
       </c>
       <c r="B76" s="3">
-        <v>1.3080071568319998</v>
+        <v>1.9206406275000001</v>
       </c>
       <c r="C76" s="1">
         <f t="shared" si="12"/>
@@ -1871,23 +1871,23 @@
       </c>
       <c r="D76" s="1">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>2-1</v>
+        <v>2-2</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>0.42632490010000001</v>
+        <v>1.3083152687640001</v>
       </c>
       <c r="B77" s="3">
-        <v>1.1934550911599999</v>
+        <v>1.2679499700000001</v>
       </c>
       <c r="C77" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" s="1">
         <f t="shared" si="13"/>
@@ -1895,15 +1895,15 @@
       </c>
       <c r="E77" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>0-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>0.95141156264000004</v>
+        <v>0.73540602202200001</v>
       </c>
       <c r="B78" s="3">
-        <v>0.62994742259199998</v>
+        <v>1.0552355100000002</v>
       </c>
       <c r="C78" s="1">
         <f t="shared" si="12"/>
@@ -1919,31 +1919,31 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
-        <v>1.4431924905719999</v>
-      </c>
-      <c r="B79" s="3">
-        <v>1.1521465405439999</v>
-      </c>
-      <c r="C79" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="D79" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E79" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+      <c r="A79" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B79" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C79" s="1" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D79" s="1" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E79" s="2" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>0.62618712532800003</v>
+        <v>1.18447321279</v>
       </c>
       <c r="B80" s="3">
-        <v>1.32965491968</v>
+        <v>1.1608348499999999</v>
       </c>
       <c r="C80" s="1">
         <f t="shared" si="12"/>
@@ -1960,10 +1960,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>1.4372394268319999</v>
+        <v>1.4338710104180001</v>
       </c>
       <c r="B81" s="3">
-        <v>1.5849947393280002</v>
+        <v>0.69650091000000014</v>
       </c>
       <c r="C81" s="1">
         <f t="shared" si="12"/>
@@ -1971,39 +1971,39 @@
       </c>
       <c r="D81" s="1">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E81" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>1-2</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>1.5462543598380001</v>
+        <v>0.40677531328199995</v>
       </c>
       <c r="B82" s="3">
-        <v>1.1197487293439998</v>
+        <v>3.030451366026</v>
       </c>
       <c r="C82" s="1">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D82" s="1">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E82" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>2-1</v>
+        <v>0-3</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>1.2904357934160002</v>
+        <v>1.3730594314199998</v>
       </c>
       <c r="B83" s="3">
-        <v>1.1786668058879999</v>
+        <v>1.3854246585600001</v>
       </c>
       <c r="C83" s="1">
         <f t="shared" si="12"/>
@@ -2020,14 +2020,14 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>0.45199070688000004</v>
+        <v>1.4527126731479998</v>
       </c>
       <c r="B84" s="3">
-        <v>1.901911584384</v>
+        <v>2.0408892152039995</v>
       </c>
       <c r="C84" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" s="1">
         <f t="shared" si="13"/>
@@ -2035,95 +2035,95 @@
       </c>
       <c r="E84" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>0-2</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
-        <v>1.6175384867160001</v>
-      </c>
-      <c r="B85" s="3">
-        <v>1.5646730807039999</v>
-      </c>
-      <c r="C85" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="D85" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="E85" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>2-2</v>
+      <c r="A85" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B85" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C85" s="1" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D85" s="1" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E85" s="2" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
-        <v>1.3753669870399998</v>
-      </c>
-      <c r="B86" s="3">
-        <v>1.140222378414</v>
-      </c>
-      <c r="C86" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="D86" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E86" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+      <c r="A86" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B86" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C86" s="1" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D86" s="1" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E86" s="2" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <v>0.98233608400000005</v>
-      </c>
-      <c r="B87" s="3">
-        <v>1.1401929667700001</v>
-      </c>
-      <c r="C87" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="D87" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E87" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>1-1</v>
+      <c r="A87" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B87" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C87" s="1" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D87" s="1" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E87" s="2" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>1.8554975708799999</v>
+        <v>0.73681088551999996</v>
       </c>
       <c r="B88" s="3">
-        <v>0.45246873129600007</v>
+        <v>1.4026707140039998</v>
       </c>
       <c r="C88" s="1">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>2-0</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>1.5063812104000001</v>
+        <v>2.0938445922239999</v>
       </c>
       <c r="B89" s="3">
-        <v>1.203564471857</v>
+        <v>1.2195076340700002</v>
       </c>
       <c r="C89" s="1">
         <f t="shared" si="12"/>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>2.2899833774999996</v>
+        <v>2.1003316236209999</v>
       </c>
       <c r="B90" s="3">
-        <v>0.78348173494499995</v>
+        <v>1.1261797771140001</v>
       </c>
       <c r="C90" s="1">
         <f t="shared" si="12"/>
@@ -2160,14 +2160,14 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>1.4226906720000001</v>
+        <v>2.3225252471190001</v>
       </c>
       <c r="B91" s="3">
-        <v>0.80685710100000008</v>
+        <v>0.88691464296</v>
       </c>
       <c r="C91" s="1">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" s="1">
         <f t="shared" si="13"/>
@@ -2175,19 +2175,19 @@
       </c>
       <c r="E91" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>0.87423309187499998</v>
+        <v>1.6714838046060001</v>
       </c>
       <c r="B92" s="3">
-        <v>0.78053104733999989</v>
+        <v>1.4486272501680004</v>
       </c>
       <c r="C92" s="1">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92" s="1">
         <f t="shared" si="13"/>
@@ -2195,35 +2195,35 @@
       </c>
       <c r="E92" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>1-1</v>
+        <v>2-1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>0.47205428985000003</v>
+        <v>1.7234366875109999</v>
       </c>
       <c r="B93" s="3">
-        <v>0.68437888625999999</v>
+        <v>0.183055691376</v>
       </c>
       <c r="C93" s="1">
         <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D93" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
       <c r="E93" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>0-1</v>
+        <v>2-0</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>0.95790180007999992</v>
+        <v>1.2311388535159999</v>
       </c>
       <c r="B94" s="3">
-        <v>1.3272886704320002</v>
+        <v>2.5260666073649998</v>
       </c>
       <c r="C94" s="1">
         <f t="shared" si="12"/>
@@ -2231,418 +2231,1172 @@
       </c>
       <c r="D94" s="1">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E94" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>1-1</v>
+        <v>1-3</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="2"/>
+      <c r="A95" s="3">
+        <v>0.68179564375000001</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1.8549027957599999</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" ref="C95:C152" si="15">ROUND(A95,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" ref="D95:D152" si="16">ROUND(B95,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E95" s="2" t="str">
+        <f t="shared" ref="E95:E152" si="17">CONCATENATE(C95,"-",D95)</f>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="2"/>
+      <c r="A96" s="3">
+        <v>3.194468647656</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1.5558392461500001</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E96" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>3-2</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="2"/>
+      <c r="A97" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B97" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C97" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D97" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E97" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="2"/>
+      <c r="A98" s="3">
+        <v>0.92924643526000006</v>
+      </c>
+      <c r="B98" s="3">
+        <v>1.38563491712</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E98" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="2"/>
+      <c r="A99" s="3">
+        <v>2.042665169688</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0.80461326799499999</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E99" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="2"/>
+      <c r="A100" s="3">
+        <v>0.63762257869200001</v>
+      </c>
+      <c r="B100" s="3">
+        <v>2.0663019327600001</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E100" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="2"/>
+      <c r="A101" s="3">
+        <v>0.70592744151600006</v>
+      </c>
+      <c r="B101" s="3">
+        <v>2.1120644350799997</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E101" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="2"/>
+      <c r="A102" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B102" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C102" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D102" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E102" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="2"/>
+      <c r="A103" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B103" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C103" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D103" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E103" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="2"/>
+      <c r="A104" s="3">
+        <v>0.95816586977999985</v>
+      </c>
+      <c r="B104" s="3">
+        <v>0.76768033408500003</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E104" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="2"/>
+      <c r="A105" s="3">
+        <v>1.8838637096399997</v>
+      </c>
+      <c r="B105" s="3">
+        <v>0.91666333199999994</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E105" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="2"/>
+      <c r="A106" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B106" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C106" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D106" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E106" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="2"/>
+      <c r="A107" s="3">
+        <v>1.8607026105359996</v>
+      </c>
+      <c r="B107" s="3">
+        <v>1.0062150000000001</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E107" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="2"/>
+      <c r="A108" s="3">
+        <v>1.5073560501999999</v>
+      </c>
+      <c r="B108" s="3">
+        <v>1.8063101639599999</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E108" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-2</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="2"/>
+      <c r="A109" s="3">
+        <v>1.5611946064000002</v>
+      </c>
+      <c r="B109" s="3">
+        <v>1.2576089209279997</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E109" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="2"/>
+      <c r="A110" s="3">
+        <v>1.28988036345</v>
+      </c>
+      <c r="B110" s="3">
+        <v>1.6195612469239997</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D110" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E110" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="2"/>
+      <c r="A111" s="3">
+        <v>0.56755277162499995</v>
+      </c>
+      <c r="B111" s="3">
+        <v>3.5504118687520001</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D111" s="1">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="E111" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-4</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="2"/>
+      <c r="A112" s="3">
+        <v>0.45718139803700009</v>
+      </c>
+      <c r="B112" s="3">
+        <v>1.7485749484800004</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D112" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E112" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>0-2</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="2"/>
+      <c r="A113" s="3">
+        <v>0.923457728704</v>
+      </c>
+      <c r="B113" s="3">
+        <v>1.22627632071</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D113" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E113" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="2"/>
+      <c r="A114" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B114" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C114" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D114" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E114" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="2"/>
+      <c r="A115" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B115" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C115" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D115" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E115" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="2"/>
+      <c r="A116" s="3">
+        <v>0.62039140599800002</v>
+      </c>
+      <c r="B116" s="3">
+        <v>1.430559087847</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D116" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E116" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="2"/>
+      <c r="A117" s="3">
+        <v>1.3312042485760001</v>
+      </c>
+      <c r="B117" s="3">
+        <v>2.0433588591650005</v>
+      </c>
+      <c r="C117" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D117" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E117" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="2"/>
+      <c r="A118" s="3">
+        <v>1.0752372371780001</v>
+      </c>
+      <c r="B118" s="3">
+        <v>1.6511225244579999</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E118" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="2"/>
+      <c r="A119" s="3">
+        <v>0.79296984768599998</v>
+      </c>
+      <c r="B119" s="3">
+        <v>2.139599218176</v>
+      </c>
+      <c r="C119" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D119" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E119" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="2"/>
+      <c r="A120" s="3">
+        <v>1.205175221088</v>
+      </c>
+      <c r="B120" s="3">
+        <v>1.7434531618560001</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D120" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E120" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="2"/>
+      <c r="A121" s="3">
+        <v>1.6632910954919997</v>
+      </c>
+      <c r="B121" s="3">
+        <v>0.86306761631999995</v>
+      </c>
+      <c r="C121" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D121" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E121" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="2"/>
+      <c r="A122" s="3">
+        <v>0.91577175267600008</v>
+      </c>
+      <c r="B122" s="3">
+        <v>1.4732571886079997</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D122" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E122" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="2"/>
+      <c r="A123" s="3">
+        <v>0.85630427775599993</v>
+      </c>
+      <c r="B123" s="3">
+        <v>1.1094826337279999</v>
+      </c>
+      <c r="C123" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D123" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E123" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="2"/>
+      <c r="A124" s="3">
+        <v>1.3876340744639999</v>
+      </c>
+      <c r="B124" s="3">
+        <v>1.1623021079039999</v>
+      </c>
+      <c r="C124" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D124" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E124" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="2"/>
+      <c r="A125" s="3">
+        <v>2.2200418899360002</v>
+      </c>
+      <c r="B125" s="3">
+        <v>1.0749431808000001</v>
+      </c>
+      <c r="C125" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D125" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E125" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="2"/>
+      <c r="A126" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B126" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C126" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D126" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E126" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="2"/>
+      <c r="A127" s="3">
+        <v>1.2202024125719999</v>
+      </c>
+      <c r="B127" s="3">
+        <v>1.1751510101380001</v>
+      </c>
+      <c r="C127" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D127" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E127" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="2"/>
+      <c r="A128" s="3">
+        <v>1.8399866425920002</v>
+      </c>
+      <c r="B128" s="3">
+        <v>1.0241926200700002</v>
+      </c>
+      <c r="C128" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D128" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E128" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="2"/>
+      <c r="A129" s="3">
+        <v>1.0890004821299999</v>
+      </c>
+      <c r="B129" s="3">
+        <v>2.3673849028560001</v>
+      </c>
+      <c r="C129" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D129" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E129" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="2"/>
+      <c r="A130" s="3">
+        <v>1.2006852782399999</v>
+      </c>
+      <c r="B130" s="3">
+        <v>1.0256428495680001</v>
+      </c>
+      <c r="C130" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D130" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E130" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="2"/>
+      <c r="A131" s="3">
+        <v>0.72589107239999995</v>
+      </c>
+      <c r="B131" s="3">
+        <v>2.461361663695</v>
+      </c>
+      <c r="C131" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D131" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E131" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="2"/>
+      <c r="A132" s="3">
+        <v>1.4190344724799999</v>
+      </c>
+      <c r="B132" s="3">
+        <v>0.62740095363000004</v>
+      </c>
+      <c r="C132" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D132" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E132" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="2"/>
+      <c r="A133" s="3">
+        <v>0.85028975525999995</v>
+      </c>
+      <c r="B133" s="3">
+        <v>1.89609044208</v>
+      </c>
+      <c r="C133" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D133" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E133" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="2"/>
+      <c r="A134" s="3">
+        <v>1.5142645569480002</v>
+      </c>
+      <c r="B134" s="3">
+        <v>1.2155181644699999</v>
+      </c>
+      <c r="C134" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D134" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E134" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="2"/>
+      <c r="A135" s="3">
+        <v>1.2101946234400001</v>
+      </c>
+      <c r="B135" s="3">
+        <v>0.63977284474999996</v>
+      </c>
+      <c r="C135" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D135" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E135" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="2"/>
+      <c r="A136" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B136" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C136" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D136" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E136" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="2"/>
+      <c r="A137" s="3">
+        <v>1.9694590056599997</v>
+      </c>
+      <c r="B137" s="3">
+        <v>1.0381721553460002</v>
+      </c>
+      <c r="C137" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D137" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E137" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="2"/>
+      <c r="A138" s="3">
+        <v>0.93678291280799986</v>
+      </c>
+      <c r="B138" s="3">
+        <v>0.66470202068799999</v>
+      </c>
+      <c r="C138" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D138" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E138" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="2"/>
+      <c r="A139" s="3">
+        <v>1.609616844</v>
+      </c>
+      <c r="B139" s="3">
+        <v>0.7274660354239999</v>
+      </c>
+      <c r="C139" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D139" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E139" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="2"/>
+      <c r="A140" s="3">
+        <v>1.036617384528</v>
+      </c>
+      <c r="B140" s="3">
+        <v>0.93340666800000005</v>
+      </c>
+      <c r="C140" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D140" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E140" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="2"/>
+      <c r="A141" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B141" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C141" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D141" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E141" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="2"/>
+      <c r="A142" s="3">
+        <v>1.2758829320159999</v>
+      </c>
+      <c r="B142" s="3">
+        <v>1.40004</v>
+      </c>
+      <c r="C142" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D142" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E142" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="2"/>
+      <c r="A143" s="3">
+        <v>1.5964467330350001</v>
+      </c>
+      <c r="B143" s="3">
+        <v>1.2347659694999999</v>
+      </c>
+      <c r="C143" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D143" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E143" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="2"/>
+      <c r="A144" s="3">
+        <v>1.02054366288</v>
+      </c>
+      <c r="B144" s="3">
+        <v>1.1282471361960003</v>
+      </c>
+      <c r="C144" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D144" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E144" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="2"/>
+      <c r="A145" s="3">
+        <v>1.06435232744</v>
+      </c>
+      <c r="B145" s="3">
+        <v>0.92303856294000008</v>
+      </c>
+      <c r="C145" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D145" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E145" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="2"/>
+      <c r="A146" s="3">
+        <v>2.3482331043600002</v>
+      </c>
+      <c r="B146" s="3">
+        <v>1.229979752685</v>
+      </c>
+      <c r="C146" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D146" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E146" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2-1</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="2"/>
+      <c r="A147" s="3">
+        <v>0.83801990087200018</v>
+      </c>
+      <c r="B147" s="3">
+        <v>0.95047741541999997</v>
+      </c>
+      <c r="C147" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D147" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E147" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="2"/>
+      <c r="A148" s="3">
+        <v>0.79628316638399999</v>
+      </c>
+      <c r="B148" s="3">
+        <v>1.1515755004350001</v>
+      </c>
+      <c r="C148" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D148" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E148" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="2"/>
+      <c r="A149" s="3">
+        <v>1.2177995489759998</v>
+      </c>
+      <c r="B149" s="3">
+        <v>1.5993798621000002</v>
+      </c>
+      <c r="C149" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D149" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E149" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-2</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="2"/>
+      <c r="A150" s="3">
+        <v>0.91540095926399989</v>
+      </c>
+      <c r="B150" s="3">
+        <v>0.68752499999999994</v>
+      </c>
+      <c r="C150" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D150" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E150" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="2"/>
+      <c r="A151" s="3">
+        <v>0.56159858303999999</v>
+      </c>
+      <c r="B151" s="3">
+        <v>0.91666333199999994</v>
+      </c>
+      <c r="C151" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D151" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E151" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>1-1</v>
+      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="2"/>
+      <c r="A152" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B152" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C152" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D152" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E152" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>

--- a/CS generator.xlsx
+++ b/CS generator.xlsx
@@ -352,18 +352,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E188"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
-        <v>1.1664647996250002</v>
+        <v>1.2919841792</v>
       </c>
       <c r="B1" s="4">
-        <v>0.76658381207999993</v>
+        <v>2.0961129044559996</v>
       </c>
       <c r="C1" s="6">
         <f>ROUND(A1,0)</f>
@@ -371,79 +371,79 @@
       </c>
       <c r="D1" s="6">
         <f>ROUND(B1,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="7" t="str">
         <f>CONCATENATE(C1,"-",D1)</f>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1.763172773585</v>
+        <v>2.2994317317199999</v>
       </c>
       <c r="B2" s="3">
-        <v>0.84303519108000013</v>
+        <v>0.91685021233000008</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:C5" si="0">ROUND(A2,0)</f>
+        <f t="shared" ref="C2" si="0">ROUND(A2,0)</f>
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D5" si="1">ROUND(B2,0)</f>
+        <f t="shared" ref="D2" si="1">ROUND(B2,0)</f>
         <v>1</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f t="shared" ref="E2:E5" si="2">CONCATENATE(C2,"-",D2)</f>
+        <f t="shared" ref="E2" si="2">CONCATENATE(C2,"-",D2)</f>
         <v>2-1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1.0820057099879998</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1.3527091728099998</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="A3" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B3" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C3" s="1" t="e">
         <f t="shared" ref="C3:C66" si="3">ROUND(A3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="D3" s="1" t="e">
         <f t="shared" ref="D3:D66" si="4">ROUND(B3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="2" t="e">
         <f t="shared" ref="E3:E66" si="5">CONCATENATE(C3,"-",D3)</f>
-        <v>1-1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2.0922069080640004</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1.201788219123</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="A4" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B4" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C4" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="1" t="e">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="2" t="e">
         <f t="shared" si="5"/>
-        <v>2-1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>0.62516113756799996</v>
+        <v>0.86360097655800017</v>
       </c>
       <c r="B5" s="3">
-        <v>1.557074987444</v>
+        <v>1.7329572083199998</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="3"/>
@@ -460,10 +460,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>0.88805043890400004</v>
+        <v>1.3254705629100001</v>
       </c>
       <c r="B6" s="3">
-        <v>2.816481019392</v>
+        <v>0.74809977475999978</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="3"/>
@@ -471,19 +471,19 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>1.1991944015999998</v>
+        <v>0.83254991707800008</v>
       </c>
       <c r="B7" s="3">
-        <v>0.93805113600000001</v>
+        <v>2.2982628977279997</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="3"/>
@@ -491,79 +491,79 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>1-1</v>
+        <v>1-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B8" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C8" s="1" t="e">
+      <c r="A8" s="3">
+        <v>0.59546992389300013</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.1961747960659999</v>
+      </c>
+      <c r="C8" s="1">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D8" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E8" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B9" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C9" s="1" t="e">
+      <c r="A9" s="3">
+        <v>0.579197735298</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.608029276004</v>
+      </c>
+      <c r="C9" s="1">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D9" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E9" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>1.1788456519999999</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1.8038078903419998</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="E10" s="2" t="str">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="str">
         <f t="shared" si="5"/>
         <v>1-2</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B10" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C10" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D10" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>1.926415002375</v>
+        <v>2.0669958221639999</v>
       </c>
       <c r="B11" s="3">
-        <v>1.1772122304539998</v>
+        <v>0.95198819100000021</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="3"/>
@@ -580,262 +580,262 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>1.53036471346</v>
+        <v>1.7431916803839997</v>
       </c>
       <c r="B12" s="3">
-        <v>0.97002444399999999</v>
+        <v>0.9796811745420001</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C12:C75" si="6">ROUND(A12,0)</f>
         <v>2</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D12:D75" si="7">ROUND(B12,0)</f>
         <v>1</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E12:E75" si="8">CONCATENATE(C12,"-",D12)</f>
         <v>2-1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>0.90478629158399992</v>
+        <v>0.81869183335999995</v>
       </c>
       <c r="B13" s="3">
-        <v>0.92377584815999991</v>
+        <v>0.70577828178000002</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E13" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1-1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>1.4988471370559999</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.84038055509300014</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>1-1</v>
+      <c r="A14" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B14" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C14" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D14" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B15" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C15" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D15" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E15" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="A15" s="3">
+        <v>1.4773193499999999</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.3667398579800001</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B16" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C16" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D16" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E16" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="A16" s="3">
+        <v>1.1696702921640001</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.3215562741199998</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>1.3459109664000002</v>
+        <v>2.202463281744</v>
       </c>
       <c r="B17" s="3">
-        <v>1.1019936414599998</v>
+        <v>0.83862806087999997</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E17" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>0.98705392525000002</v>
+        <v>1.9076710751999999</v>
       </c>
       <c r="B18" s="3">
-        <v>0.95822976509999991</v>
+        <v>0.82448950781600017</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E18" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>2.2825471515350002</v>
+        <v>0.65152759077</v>
       </c>
       <c r="B19" s="3">
-        <v>0.7908852983600001</v>
+        <v>0.76768033408500003</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E19" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>2-1</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>1.6930489720619999</v>
+        <v>1.5549860731679999</v>
       </c>
       <c r="B20" s="3">
-        <v>0.61316463094000007</v>
+        <v>1.5166633319999998</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="E20" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>2-1</v>
+        <f t="shared" si="8"/>
+        <v>2-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>1.8074207877600001</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1.9076036893200001</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="E21" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>2-2</v>
+      <c r="A21" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B21" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C21" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D21" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E21" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>2.0836467806350001</v>
+        <v>1.4131429884</v>
       </c>
       <c r="B22" s="3">
-        <v>0.65817437744000018</v>
+        <v>0.99660601425599982</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E22" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>2-1</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>0.79757017545599995</v>
+        <v>1.7945969758499998</v>
       </c>
       <c r="B23" s="3">
-        <v>1.99259975646</v>
+        <v>1.308007156832</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E23" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>1-2</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>2.2317110790869998</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1.6691841115200003</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="E24" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>2-2</v>
+      <c r="A24" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B24" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C24" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D24" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E24" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -846,864 +846,864 @@
         <v>#N/A</v>
       </c>
       <c r="C25" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D25" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E25" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>2.0964331231969995</v>
+        <v>0.62041928867100005</v>
       </c>
       <c r="B26" s="3">
-        <v>1.5556537824560002</v>
+        <v>1.2773645497599999</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E26" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>2-2</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>2.5209957047659999</v>
+        <v>0.81162434566199992</v>
       </c>
       <c r="B27" s="3">
-        <v>0.53647509874100008</v>
+        <v>1.8109501057600002</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="E27" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>3-1</v>
+        <f t="shared" si="8"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B28" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C28" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D28" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E28" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="A28" s="3">
+        <v>0.87486026281600004</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1.8261527179799999</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>1.6628753486800001</v>
+        <v>0.62140761091499996</v>
       </c>
       <c r="B29" s="3">
-        <v>0.78429898825300004</v>
+        <v>2.0031225301600006</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="E29" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>2-1</v>
+        <f t="shared" si="8"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>1.7222474010560003</v>
+        <v>1.2826952083679999</v>
       </c>
       <c r="B30" s="3">
-        <v>1.1145024409639999</v>
+        <v>0.91406524836000014</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E30" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>2-1</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>0.80428655581199993</v>
+        <v>2.7192569020820003</v>
       </c>
       <c r="B31" s="3">
-        <v>2.773205844114</v>
+        <v>0.86297701931000004</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E31" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>1-3</v>
+        <f t="shared" si="8"/>
+        <v>3-1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>1.1468004221399999</v>
+        <v>1.7773802002530001</v>
       </c>
       <c r="B32" s="3">
-        <v>0.99690785370000012</v>
+        <v>1.3762489367840003</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E32" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>1.6507564314080001</v>
+        <v>1.6570065427999998</v>
       </c>
       <c r="B33" s="3">
-        <v>1.325971621933</v>
+        <v>1.29035607996</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E33" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>0.72395712967199999</v>
+        <v>1.6378326791819999</v>
       </c>
       <c r="B34" s="3">
-        <v>0.90553858490700012</v>
+        <v>0.74147092210200005</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E34" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>1.3529911307</v>
+        <v>0.5456906086240001</v>
       </c>
       <c r="B35" s="3">
-        <v>1.3529918197680002</v>
+        <v>1.8933570213680002</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="E35" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>2.316028372746</v>
+        <v>1.5851244921280001</v>
       </c>
       <c r="B36" s="3">
-        <v>0.95478809091600003</v>
+        <v>1.087781699699</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E36" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2-1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>1.065910166046</v>
+        <v>1.1662258411440001</v>
       </c>
       <c r="B37" s="3">
-        <v>1.06867456696</v>
+        <v>2.3398440893679999</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="E37" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>1-2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>1.56444925505</v>
+        <v>0.90112514125199994</v>
       </c>
       <c r="B38" s="3">
-        <v>1.0703108742480001</v>
+        <v>1.0443623623400002</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E38" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>2-1</v>
+        <f t="shared" si="8"/>
+        <v>1-1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>1.2232434376799999</v>
+        <v>2.2896494127440001</v>
       </c>
       <c r="B39" s="3">
-        <v>0.98432871635199981</v>
+        <v>1.2940983306110001</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E39" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>1-1</v>
+        <f t="shared" si="8"/>
+        <v>2-1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>0.84571075984999999</v>
+        <v>1.4258429112720001</v>
       </c>
       <c r="B40" s="3">
-        <v>1.1633469800259999</v>
+        <v>1.1049680417750001</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D40" s